--- a/data2/cov_file.xlsx
+++ b/data2/cov_file.xlsx
@@ -521,12 +521,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -687,377 +687,377 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0007844291157530916</v>
+        <v>0.0007844285690987771</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000147727737956043</v>
+        <v>0.0001477278538773136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001356531862529525</v>
+        <v>0.0001356535504676549</v>
       </c>
       <c r="D2" t="n">
-        <v>9.688071886074787e-05</v>
+        <v>9.68811796102571e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001997187409517186</v>
+        <v>0.0001997188524105317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001701547377922476</v>
+        <v>0.0001701556926864743</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001561338928869045</v>
+        <v>0.0001561339744809518</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001721440163566871</v>
+        <v>0.0001721448426012818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001743573043288933</v>
+        <v>0.0001743574688678369</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001320173473678936</v>
+        <v>0.000132017988386019</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001895379865493069</v>
+        <v>0.0001895383457586863</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001662639756207295</v>
+        <v>0.0001662641676490648</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001450144478401801</v>
+        <v>0.0001450144365330962</v>
       </c>
       <c r="N2" t="n">
-        <v>8.109725386185494e-05</v>
+        <v>8.109706426412496e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002574443712383496</v>
+        <v>0.0002574448737639254</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001800332391406381</v>
+        <v>0.0001800336439476682</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001920153228578892</v>
+        <v>0.0001920158576733106</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002033905958409257</v>
+        <v>0.0001340596350429148</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001340596784754341</v>
+        <v>0.0002033918702837595</v>
       </c>
       <c r="T2" t="n">
-        <v>0.000183858408624453</v>
+        <v>0.0001838595854233744</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001731856187624231</v>
+        <v>0.0001731863276954954</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001256919007257435</v>
+        <v>0.0001256912193874376</v>
       </c>
       <c r="W2" t="n">
-        <v>7.191109877116284e-05</v>
+        <v>7.333339094473166e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000123856743522714</v>
+        <v>0.0001238574249769325</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001533571347939407</v>
+        <v>0.0001533575294467373</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.611544484949549e-05</v>
+        <v>9.611502257471148e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.342015735631762e-05</v>
+        <v>8.342026875586314e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.152409744579246e-05</v>
+        <v>9.152471232016183e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002246166641051679</v>
+        <v>0.0002246164545929796</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0002457455435151555</v>
+        <v>0.0002457459221339637</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002464718044443857</v>
+        <v>0.0002464723505817102</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.752078947461947e-05</v>
+        <v>3.752204374593924e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.218657903796745e-05</v>
+        <v>7.218707149587322e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001144548007354571</v>
+        <v>0.0001144554218407058</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0001328213940846745</v>
+        <v>0.0001328224006963626</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.980430247306242e-05</v>
+        <v>9.980412300973123e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.959800567887028e-05</v>
+        <v>7.959795701112049e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001165894497993601</v>
+        <v>0.0001165896735555572</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.317188364886624e-05</v>
+        <v>9.317270279390004e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0001904772904112002</v>
+        <v>0.0001904786166218318</v>
       </c>
       <c r="AO2" t="n">
-        <v>4.796559145579641e-05</v>
+        <v>4.796646739199496e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001040495496529295</v>
+        <v>0.0001040497643269943</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001304141535957453</v>
+        <v>0.0001304142860344993</v>
       </c>
       <c r="AR2" t="n">
-        <v>8.611473167927917e-05</v>
+        <v>8.611479036557757e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.877127685043595e-05</v>
+        <v>7.877173096551913e-05</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0002691185044438815</v>
+        <v>0.00026911961358976</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001632476034635777</v>
+        <v>0.000163248199810673</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001360834113575445</v>
+        <v>0.0001360838047795791</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001760572140591719</v>
+        <v>0.0001760573566101757</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0001169494550059388</v>
+        <v>0.000116950198419348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000147727737956043</v>
+        <v>0.0001477278538773136</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0002049000395005116</v>
+        <v>0.0002049000937212914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001311077295045029</v>
+        <v>0.000131107472701149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000131975313954802</v>
+        <v>0.0001319753280501337</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001502928473410113</v>
+        <v>0.0001502927056686137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001222207694936454</v>
+        <v>0.0001222204018248705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000130457420302113</v>
+        <v>0.0001304564851611712</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001231534258037026</v>
+        <v>0.0001231528748191681</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001440395130804784</v>
+        <v>0.0001440393187689663</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001000134083322573</v>
+        <v>0.0001000132879754544</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000110260737556389</v>
+        <v>0.0001102601455881925</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001076155385492</v>
+        <v>0.0001076148281230335</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001045779184422917</v>
+        <v>0.0001045770930989364</v>
       </c>
       <c r="N3" t="n">
-        <v>8.106349207933685e-05</v>
+        <v>8.106332878726244e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001352219451342909</v>
+        <v>0.0001352215013788276</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0001417346573788301</v>
+        <v>0.000141734060438293</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001152661383844919</v>
+        <v>0.0001152661493098972</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001416881839036255</v>
+        <v>8.772758768920785e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>8.772804521320641e-05</v>
+        <v>0.0001416883882361008</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0001616507161050715</v>
+        <v>0.000161650353847118</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001238270647818872</v>
+        <v>0.0001238270015691667</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001223271103176595</v>
+        <v>0.0001223265952252895</v>
       </c>
       <c r="W3" t="n">
-        <v>8.247670608044112e-05</v>
+        <v>8.355316911883048e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001275307156497746</v>
+        <v>0.0001275306263463107</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0001006514382810451</v>
+        <v>0.0001006512528250342</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.403153817789611e-05</v>
+        <v>9.403103074665102e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.860027951182601e-05</v>
+        <v>7.860018880811773e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.884515466115595e-05</v>
+        <v>8.884477834291528e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.992696463195316e-05</v>
+        <v>9.992556754884339e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0001473465057285079</v>
+        <v>0.0001473458906915617</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001555267284531263</v>
+        <v>0.0001555265440993049</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.283662934701629e-05</v>
+        <v>9.283658424538072e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.555528978899464e-05</v>
+        <v>9.555513673125439e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.71859261515436e-05</v>
+        <v>7.718527417631089e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0001100606043704793</v>
+        <v>0.0001100605572128403</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.537349166725163e-05</v>
+        <v>6.537333514072291e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.410633339174506e-05</v>
+        <v>7.410621889557846e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.153668987745409e-05</v>
+        <v>7.153616925514521e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.425600057774043e-05</v>
+        <v>8.425602431225856e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0001100559616671473</v>
+        <v>0.0001100559236903677</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.01805901105844e-05</v>
+        <v>5.017983444100401e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>9.305219237069956e-05</v>
+        <v>9.305179559569501e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0001035908126603699</v>
+        <v>0.0001035903958563536</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0001028277310815877</v>
+        <v>0.000102828171044764</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.466846474618565e-05</v>
+        <v>6.466860499986641e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0001592914627806029</v>
+        <v>0.0001592912407629018</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.641183634832561e-05</v>
+        <v>8.641196085141907e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>9.418561870796768e-05</v>
+        <v>9.418517980339939e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0001270927376138467</v>
+        <v>0.0001270923089548484</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0001065184169503978</v>
+        <v>0.0001065184964215496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001356531862529525</v>
+        <v>0.0001356535504676549</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001311077295045029</v>
+        <v>0.000131107472701149</v>
       </c>
       <c r="C4" t="n">
         <v>0.0003360987105198549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001874657593487154</v>
+        <v>0.0001874657584315771</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001408508080045118</v>
+        <v>0.0001408509494569435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001038012520790374</v>
+        <v>0.0001038010814923125</v>
       </c>
       <c r="G4" t="n">
         <v>0.0001930939916860725</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001223306013622696</v>
+        <v>0.0001223304634808414</v>
       </c>
       <c r="I4" t="n">
         <v>0.000126256513934015</v>
       </c>
       <c r="J4" t="n">
-        <v>8.253064935179195e-05</v>
+        <v>8.253053883579473e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.968963786913241e-05</v>
+        <v>6.968942116657154e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>8.665002503412638e-05</v>
+        <v>8.66495725443906e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.040554679781258e-05</v>
+        <v>9.04052507139829e-05</v>
       </c>
       <c r="N4" t="n">
         <v>7.817817043262592e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>9.580290222916302e-05</v>
+        <v>9.580240624013818e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0001648065903704324</v>
+        <v>0.0001648063158350068</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.607511851710506e-05</v>
+        <v>8.607568072192656e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0001135569670247244</v>
+        <v>6.654496243242628e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>6.654512970138338e-05</v>
+        <v>0.0001135568097601106</v>
       </c>
       <c r="T4" t="n">
-        <v>0.000176608677052907</v>
+        <v>0.0001766087918716948</v>
       </c>
       <c r="U4" t="n">
-        <v>9.389195204142921e-05</v>
+        <v>9.389247530147694e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001121564570015347</v>
+        <v>0.0001121569220270941</v>
       </c>
       <c r="W4" t="n">
-        <v>5.498948160970117e-05</v>
+        <v>5.913616011353504e-05</v>
       </c>
       <c r="X4" t="n">
         <v>0.000115322779231667</v>
@@ -1066,28 +1066,28 @@
         <v>9.177365911549823e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.832461968782051e-05</v>
+        <v>6.832384912164175e-05</v>
       </c>
       <c r="AA4" t="n">
         <v>9.127921995164405e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.427407393776584e-05</v>
+        <v>7.427390112928846e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.192601471786599e-05</v>
+        <v>4.192576072987191e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0001322978146158085</v>
+        <v>0.0001322979077260465</v>
       </c>
       <c r="AE4" t="n">
         <v>0.0001275050869628383</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.189857783531129e-05</v>
+        <v>9.189860661065406e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.018971106894438e-05</v>
+        <v>6.018940551875016e-05</v>
       </c>
       <c r="AH4" t="n">
         <v>7.838785940234994e-05</v>
@@ -1096,31 +1096,31 @@
         <v>8.655554673622299e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.602483379230827e-05</v>
+        <v>4.602503886707356e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.207463359446044e-05</v>
+        <v>5.207392548818198e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>4.176401985608266e-05</v>
+        <v>4.176396785036809e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>8.849357965370602e-05</v>
+        <v>8.849352123595434e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.841495945772377e-05</v>
+        <v>8.841567885477681e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.492003918890331e-05</v>
+        <v>4.491974421790468e-05</v>
       </c>
       <c r="AP4" t="n">
         <v>6.124018999417766e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0001680635914988274</v>
+        <v>0.0001680635478964973</v>
       </c>
       <c r="AR4" t="n">
-        <v>7.985387515095975e-05</v>
+        <v>7.985385474979008e-05</v>
       </c>
       <c r="AS4" t="n">
         <v>4.371156954308458e-05</v>
@@ -1129,7 +1129,7 @@
         <v>0.0001347751930245655</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.871207109368197e-05</v>
+        <v>6.871208388160144e-05</v>
       </c>
       <c r="AV4" t="n">
         <v>8.871396549480696e-05</v>
@@ -1143,529 +1143,529 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.688071886074787e-05</v>
+        <v>9.68811796102571e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000131975313954802</v>
+        <v>0.0001319753280501337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001874657593487154</v>
+        <v>0.0001874657584315771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003061594086725091</v>
+        <v>0.0003061591882811822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000143463966120025</v>
+        <v>0.000143464292572921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001047114714089096</v>
+        <v>0.0001047114526026918</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001588030301199891</v>
+        <v>0.0001588030531864533</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001113906364251369</v>
+        <v>0.0001113905009375421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001260701063285614</v>
+        <v>0.0001260700749192928</v>
       </c>
       <c r="J5" t="n">
-        <v>6.025077869930601e-05</v>
+        <v>6.025057899531465e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.641555146141432e-05</v>
+        <v>3.64151998710571e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>8.760499905524176e-05</v>
+        <v>8.760477288218437e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.578835175235604e-05</v>
+        <v>9.578808994331022e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.065134048770606e-05</v>
+        <v>7.065126470248481e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>9.729717311048519e-05</v>
+        <v>9.729653189460776e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0001443746944162985</v>
+        <v>0.000144374554908153</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.15133878585805e-05</v>
+        <v>8.151364011856174e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0001273292712239752</v>
+        <v>8.014656304160879e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>8.014638147446721e-05</v>
+        <v>0.000127329545753289</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0001595986301847759</v>
+        <v>0.0001595987923766339</v>
       </c>
       <c r="U5" t="n">
-        <v>9.619164020189198e-05</v>
+        <v>9.619210783891516e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0001168864748979206</v>
+        <v>0.0001168865965852536</v>
       </c>
       <c r="W5" t="n">
-        <v>6.225334540006458e-05</v>
+        <v>6.519623976520287e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0001704125427745052</v>
+        <v>0.0001704125665023902</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.85803320389244e-05</v>
+        <v>8.858029886979763e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.9566074362892e-05</v>
+        <v>5.956568218972502e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.74727026106786e-05</v>
+        <v>9.747272037395025e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.376846048252057e-05</v>
+        <v>6.376791623149714e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.290811448407425e-05</v>
+        <v>8.290764639956954e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0001192189959740482</v>
+        <v>0.0001192188658963245</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001402162271405499</v>
+        <v>0.0001402161635430942</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0001069824245960734</v>
+        <v>0.0001069826004134975</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.591558153278068e-05</v>
+        <v>6.591578644336458e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.612590348514796e-05</v>
+        <v>7.612591903411454e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0001151456099315649</v>
+        <v>0.0001151456250319295</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.120527925972043e-05</v>
+        <v>6.120544133571485e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.157151764761649e-05</v>
+        <v>6.157127351897908e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.488413230973687e-05</v>
+        <v>1.488378968562795e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>8.216242868953579e-05</v>
+        <v>8.216247709275555e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.657725232818739e-05</v>
+        <v>8.657770879827064e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.29398358795614e-05</v>
+        <v>6.293972374187028e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.664540864765773e-05</v>
+        <v>7.664535592195834e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.558964664619759e-05</v>
+        <v>7.558948356251726e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.000125314382982817</v>
+        <v>0.0001253144691749635</v>
       </c>
       <c r="AS5" t="n">
-        <v>8.825990375253187e-05</v>
+        <v>8.825983674973398e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0001363367685308432</v>
+        <v>0.000136336813117006</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.97933604191297e-05</v>
+        <v>5.979359895232318e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.938962271132729e-05</v>
+        <v>9.938954206858312e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.369743025364117e-05</v>
+        <v>8.369741166628799e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.090771098057521e-05</v>
+        <v>7.090775939994502e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0001997187409517186</v>
+        <v>0.0001997188524105317</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001502928473410113</v>
+        <v>0.0001502927056686137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001408508080045118</v>
+        <v>0.0001408509494569435</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000143463966120025</v>
+        <v>0.000143464292572921</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003507119998782403</v>
+        <v>0.0003507122798048235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001887505230805732</v>
+        <v>0.0001887506728702398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002205263947085693</v>
+        <v>0.0002205268798452513</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001396133711034493</v>
+        <v>0.0001396130910248394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001686562606571247</v>
+        <v>0.0001686561055493136</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001136595454486703</v>
+        <v>0.0001136597121033195</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001763106783725609</v>
+        <v>0.000176310271831486</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001700027713961679</v>
+        <v>0.0001700022824867695</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001338048434758875</v>
+        <v>0.000133804456755709</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0001029218812141625</v>
+        <v>0.0001029221100642188</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002328379442836079</v>
+        <v>0.0002328380682797607</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0001899240297541211</v>
+        <v>0.0001899234304108661</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0001974177059145756</v>
+        <v>0.0001974176469591431</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0002138931107059145</v>
+        <v>0.000122316033600829</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001223165113743705</v>
+        <v>0.0002138931467999331</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0002204305230371062</v>
+        <v>0.0002204306820607607</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001631375896479551</v>
+        <v>0.0001631379878612086</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001384873679610232</v>
+        <v>0.0001384870100896091</v>
       </c>
       <c r="W6" t="n">
-        <v>8.127356546018327e-05</v>
+        <v>7.793924866796914e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.000173298105434929</v>
+        <v>0.0001732984390372024</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.000127883467452361</v>
+        <v>0.0001278837277958272</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001282247630496352</v>
+        <v>0.0001282242882945518</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.792068208141545e-05</v>
+        <v>7.792066207953161e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0001434554207161931</v>
+        <v>0.0001434549413647669</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0001864066652885806</v>
+        <v>0.0001864067180954426</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0002875158424641795</v>
+        <v>0.0002875163082997466</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0002251241871267383</v>
+        <v>0.0002251245715644659</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0001164976783521678</v>
+        <v>0.0001164973846943226</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001366339419595958</v>
+        <v>0.0001366341113883825</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.840088095477485e-05</v>
+        <v>8.840086781113123e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0001255670813774726</v>
+        <v>0.0001255674069995015</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.173526688852852e-05</v>
+        <v>7.173496424913979e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0001094466853854481</v>
+        <v>0.0001094468411500656</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0001262246973882205</v>
+        <v>0.0001262245676211845</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0001036196691105022</v>
+        <v>0.0001036190340900818</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0002014117259611297</v>
+        <v>0.0002014123969748797</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.558149542604675e-05</v>
+        <v>6.558080935822571e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0001307924050483339</v>
+        <v>0.0001307922269180051</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0001173044266728624</v>
+        <v>0.0001173044434052195</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0001354345962721934</v>
+        <v>0.0001354343825491795</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.000116665947612608</v>
+        <v>0.0001166658956974503</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0002963833840839375</v>
+        <v>0.0002963838625029673</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0001076127431722084</v>
+        <v>0.0001076132541448226</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0001212602083807195</v>
+        <v>0.000121260311130311</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0001450322359768302</v>
+        <v>0.0001450325105779337</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0001462778535578642</v>
+        <v>0.0001462779490057343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001701547377922476</v>
+        <v>0.0001701556926864743</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001222207694936454</v>
+        <v>0.0001222204018248705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001038012520790374</v>
+        <v>0.0001038010814923125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001047114714089096</v>
+        <v>0.0001047114526026918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001887505230805732</v>
+        <v>0.0001887506728702398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002804230016264979</v>
+        <v>0.0002804233798271736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001022473946377367</v>
+        <v>0.00010224721953277</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001073391413923734</v>
+        <v>0.0001073392527424445</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001282467664245014</v>
+        <v>0.0001282466830756306</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001086021228400789</v>
+        <v>0.000108602705342935</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001447944726889553</v>
+        <v>0.000144794679389028</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001403504930458665</v>
+        <v>0.000140349720145023</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001184835431650172</v>
+        <v>0.0001184834350015849</v>
       </c>
       <c r="N7" t="n">
-        <v>8.022291240486014e-05</v>
+        <v>8.02227374029376e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001950378484380529</v>
+        <v>0.0001950379545434821</v>
       </c>
       <c r="P7" t="n">
-        <v>0.000141491148724938</v>
+        <v>0.0001414906979668816</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001516987492942654</v>
+        <v>0.0001516987911297793</v>
       </c>
       <c r="R7" t="n">
-        <v>0.000191434761185099</v>
+        <v>0.0001083558904002907</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001083568226078901</v>
+        <v>0.0001914347326663595</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0001741700404191782</v>
+        <v>0.000174170216072788</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0001412046752055342</v>
+        <v>0.0001412054532850732</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001221997317457491</v>
+        <v>0.0001221992847202461</v>
       </c>
       <c r="W7" t="n">
-        <v>6.849448448532093e-05</v>
+        <v>6.844679816125438e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0001158272219184184</v>
+        <v>0.000115827316856035</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001118055659219307</v>
+        <v>0.0001118055800537367</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.00011423949689269</v>
+        <v>0.0001142392207273418</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.29700356875482e-05</v>
+        <v>7.297017433254219e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.324620908022596e-05</v>
+        <v>9.32453930803756e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0001519669449628657</v>
+        <v>0.0001519668933228578</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000189474958568794</v>
+        <v>0.0001894744523373215</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000207373432158583</v>
+        <v>0.0002073737740958491</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.000108918821679395</v>
+        <v>0.0001089188661106874</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0001348664591663022</v>
+        <v>0.0001348666257223041</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.458806347297283e-05</v>
+        <v>9.458809099028037e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0001146538958568434</v>
+        <v>0.0001146541569706668</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.330762211869111e-05</v>
+        <v>7.330731215011544e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>9.890467162433953e-05</v>
+        <v>9.89054164789055e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.711815075545623e-05</v>
+        <v>9.711842983163791e-05</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.797183927328911e-05</v>
+        <v>8.797156611262577e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0001611525800329266</v>
+        <v>0.0001611526578847427</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.824426995775764e-05</v>
+        <v>6.824361377700596e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.813448189235526e-05</v>
+        <v>9.813424797634307e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.999300851365088e-05</v>
+        <v>7.999286911858192e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0001424868541029765</v>
+        <v>0.0001424865589953257</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.192937167380409e-05</v>
+        <v>8.19290801378091e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0002126371663315181</v>
+        <v>0.0002126373063934014</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0001016573388197854</v>
+        <v>0.0001016580919792854</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0001117236025411349</v>
+        <v>0.000111723594451001</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0001149587816621075</v>
+        <v>0.0001149587500850592</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0001290801582964719</v>
+        <v>0.000129080142847122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0001561338928869045</v>
+        <v>0.0001561339744809518</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000130457420302113</v>
+        <v>0.0001304564851611712</v>
       </c>
       <c r="C8" t="n">
         <v>0.0001930939916860725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001588030301199891</v>
+        <v>0.0001588030531864533</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002205263947085693</v>
+        <v>0.0002205268798452513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001022473946377367</v>
+        <v>0.00010224721953277</v>
       </c>
       <c r="G8" t="n">
         <v>0.0007825659833719144</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001270237734272303</v>
+        <v>0.0001270239644135092</v>
       </c>
       <c r="I8" t="n">
         <v>0.0001409163183567931</v>
       </c>
       <c r="J8" t="n">
-        <v>8.582384377684017e-05</v>
+        <v>8.582366252508302e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001062587314088152</v>
+        <v>0.0001062580241675778</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001504250476569351</v>
+        <v>0.000150424525330617</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0001158442714858182</v>
+        <v>0.0001158440321170641</v>
       </c>
       <c r="N8" t="n">
         <v>8.975150119732465e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001553738469244482</v>
+        <v>0.0001553732582095011</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001999646699193794</v>
+        <v>0.0001999641148835919</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0001236429027815106</v>
+        <v>0.0001236422347791442</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000126786225514722</v>
+        <v>7.886264339173254e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>7.886260987387101e-05</v>
+        <v>0.0001267858745753729</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0001948294521408402</v>
+        <v>0.0001948298282809966</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0001228201623019197</v>
+        <v>0.0001228203132877489</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0001378370019473854</v>
+        <v>0.0001378372860018585</v>
       </c>
       <c r="W8" t="n">
-        <v>8.78206714725868e-05</v>
+        <v>8.913054257472863e-05</v>
       </c>
       <c r="X8" t="n">
         <v>0.0001426235013874603</v>
@@ -1674,28 +1674,28 @@
         <v>9.35130748973038e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.532589885423808e-05</v>
+        <v>9.532596427344747e-05</v>
       </c>
       <c r="AA8" t="n">
         <v>7.533354028530406e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.717830294720343e-05</v>
+        <v>9.717753483697199e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0001036423781812849</v>
+        <v>0.000103642032843223</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0001961896829954761</v>
+        <v>0.0001961901886433743</v>
       </c>
       <c r="AE8" t="n">
         <v>0.0001848840382963448</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.067135980109402e-05</v>
+        <v>3.067122604344898e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.790925127574098e-05</v>
+        <v>9.790954804222494e-05</v>
       </c>
       <c r="AH8" t="n">
         <v>0.0001068360661511422</v>
@@ -1704,31 +1704,31 @@
         <v>9.810240399006753e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.670503704224286e-05</v>
+        <v>5.670559772188272e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>6.589742399466888e-05</v>
+        <v>6.589670967229617e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.270122664476514e-05</v>
+        <v>7.270128424262561e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.991852211644284e-05</v>
+        <v>8.991802036805653e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0001357859376213664</v>
+        <v>0.0001357866514522798</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.794277021815077e-05</v>
+        <v>1.794307439768594e-05</v>
       </c>
       <c r="AP8" t="n">
         <v>8.523212734404946e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0001589784678615858</v>
+        <v>0.0001589783377037601</v>
       </c>
       <c r="AR8" t="n">
-        <v>7.934596805573373e-05</v>
+        <v>7.934634793222426e-05</v>
       </c>
       <c r="AS8" t="n">
         <v>5.187385102085073e-05</v>
@@ -1737,7 +1737,7 @@
         <v>0.0001892320233268829</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.453412975828214e-05</v>
+        <v>8.45346490859531e-05</v>
       </c>
       <c r="AV8" t="n">
         <v>0.0001037915645346688</v>
@@ -1751,225 +1751,225 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001721440163566871</v>
+        <v>0.0001721448426012818</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001231534258037026</v>
+        <v>0.0001231528748191681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001223306013622696</v>
+        <v>0.0001223304634808414</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001113906364251369</v>
+        <v>0.0001113905009375421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001396133711034493</v>
+        <v>0.0001396130910248394</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001073391413923734</v>
+        <v>0.0001073392527424445</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001270237734272303</v>
+        <v>0.0001270239644135092</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003092847291247704</v>
+        <v>0.0003092845849270244</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001501123321041941</v>
+        <v>0.0001501122785123288</v>
       </c>
       <c r="J9" t="n">
-        <v>9.202682651501355e-05</v>
+        <v>9.202698550884399e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001150657164244066</v>
+        <v>0.0001150657205677688</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001032182582048483</v>
+        <v>0.0001032176914437799</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001148493404725809</v>
+        <v>0.0001148497147430873</v>
       </c>
       <c r="N9" t="n">
-        <v>6.551909107795078e-05</v>
+        <v>6.551906343338437e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000128701401554412</v>
+        <v>0.0001287013149476963</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001382885282150789</v>
+        <v>0.0001382881588270191</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001185800537189599</v>
+        <v>0.0001185801994234945</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0001488427660192455</v>
+        <v>9.32962027903416e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>9.329626738186351e-05</v>
+        <v>0.0001488427805813311</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0001566642451843785</v>
+        <v>0.0001566640905351161</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0001115843275467865</v>
+        <v>0.0001115844039055519</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001187874940882295</v>
+        <v>0.0001187874642825082</v>
       </c>
       <c r="W9" t="n">
-        <v>7.947527624418853e-05</v>
+        <v>8.007371103618054e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0001081699889872453</v>
+        <v>0.0001081698553705165</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0001022709364532633</v>
+        <v>0.0001022709843667235</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.514101719859363e-05</v>
+        <v>9.514043908294305e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.312759016855421e-05</v>
+        <v>8.312756892947359e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.745294697755655e-05</v>
+        <v>9.745239253184217e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0001057702351900536</v>
+        <v>0.0001057699187717093</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0001590642978260062</v>
+        <v>0.0001590641271213838</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001551179987642213</v>
+        <v>0.000155117839111064</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.509313233160192e-05</v>
+        <v>6.509304298826615e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.664091234609115e-05</v>
+        <v>9.664068592931802e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.810253834229499e-05</v>
+        <v>9.810263146394956e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.000117944920581221</v>
+        <v>0.0001179449610609956</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.926347659677522e-05</v>
+        <v>6.926322242758613e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0001007203666172983</v>
+        <v>0.0001007203822939941</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001052065875332637</v>
+        <v>0.0001052067967606971</v>
       </c>
       <c r="AM9" t="n">
-        <v>8.612400670103344e-05</v>
+        <v>8.612425104778989e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0001045525576753258</v>
+        <v>0.0001045529165209857</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.983765947223822e-05</v>
+        <v>5.98374501699564e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0001028317732608473</v>
+        <v>0.0001028317181925638</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.488746034710625e-05</v>
+        <v>8.48871833852982e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.888344689138015e-05</v>
+        <v>4.888300818232842e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.967387403743715e-05</v>
+        <v>6.967412681554457e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0001643645886060234</v>
+        <v>0.0001643643727981229</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0001030748797138724</v>
+        <v>0.0001030751976340964</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0001014447786166194</v>
+        <v>0.0001014447906545045</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0001221649143856556</v>
+        <v>0.0001221650445209003</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0001284063819515709</v>
+        <v>0.0001284062233367183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0001743573043288933</v>
+        <v>0.0001743574688678369</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0001440395130804784</v>
+        <v>0.0001440393187689663</v>
       </c>
       <c r="C10" t="n">
         <v>0.000126256513934015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001260701063285614</v>
+        <v>0.0001260700749192928</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001686562606571247</v>
+        <v>0.0001686561055493136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001282467664245014</v>
+        <v>0.0001282466830756306</v>
       </c>
       <c r="G10" t="n">
         <v>0.0001409163183567931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001501123321041941</v>
+        <v>0.0001501122785123288</v>
       </c>
       <c r="I10" t="n">
         <v>0.0002424174187070064</v>
       </c>
       <c r="J10" t="n">
-        <v>9.805719215467035e-05</v>
+        <v>9.805753474345214e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001238886651643336</v>
+        <v>0.0001238882237657239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001077197542415797</v>
+        <v>0.0001077193016268301</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0001295528865811115</v>
+        <v>0.0001295527080977871</v>
       </c>
       <c r="N10" t="n">
         <v>0.0001060274791327795</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001598236161777109</v>
+        <v>0.0001598235341835421</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001583754063935826</v>
+        <v>0.0001583751723091282</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001390914559544804</v>
+        <v>0.0001390915000332133</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0001512485316504495</v>
+        <v>8.369828503192471e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>8.369858983688398e-05</v>
+        <v>0.0001512486411203973</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0001744789067165258</v>
+        <v>0.0001744788431456349</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0001183827571684647</v>
+        <v>0.0001183826282758931</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001262353536401303</v>
+        <v>0.0001262350376995916</v>
       </c>
       <c r="W10" t="n">
-        <v>7.436387775292653e-05</v>
+        <v>7.589035283394566e-05</v>
       </c>
       <c r="X10" t="n">
         <v>0.0001274931757213046</v>
@@ -1978,28 +1978,28 @@
         <v>0.0001165807502305587</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0001030463403169852</v>
+        <v>0.000103045705830696</v>
       </c>
       <c r="AA10" t="n">
         <v>8.297225109195958e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.829901811604407e-05</v>
+        <v>8.829871547439193e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.000105782277815765</v>
+        <v>0.0001057819469391462</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0001786893599834796</v>
+        <v>0.0001786894032944933</v>
       </c>
       <c r="AE10" t="n">
         <v>0.0002006157963864076</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.879392535305587e-05</v>
+        <v>9.879417855331551e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.527377756834773e-05</v>
+        <v>9.527382351217425e-05</v>
       </c>
       <c r="AH10" t="n">
         <v>0.0001039916747313132</v>
@@ -2008,31 +2008,31 @@
         <v>0.0001199451810340809</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.478579478191743e-05</v>
+        <v>7.478562234626684e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.100001246880922e-05</v>
+        <v>7.099998333505383e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.18414344877624e-05</v>
+        <v>7.184148448401471e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.617340597621243e-05</v>
+        <v>9.617351977922161e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0001246117315335292</v>
+        <v>0.0001246116715328221</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.110277778786649e-05</v>
+        <v>6.110246145470565e-05</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0001084288111070338</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0001110793071249912</v>
+        <v>0.0001110792103822095</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0001163997034602658</v>
+        <v>0.0001163996501166019</v>
       </c>
       <c r="AS10" t="n">
         <v>9.77571516054535e-05</v>
@@ -2041,7 +2041,7 @@
         <v>0.0002049525071511149</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.631077438583001e-05</v>
+        <v>9.631113213857967e-05</v>
       </c>
       <c r="AV10" t="n">
         <v>0.0001111770713627965</v>
@@ -2055,681 +2055,681 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0001320173473678936</v>
+        <v>0.000132017988386019</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001000134083322573</v>
+        <v>0.0001000132879754544</v>
       </c>
       <c r="C11" t="n">
-        <v>8.253064935179195e-05</v>
+        <v>8.253053883579473e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>6.025077869930601e-05</v>
+        <v>6.025057899531465e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001136595454486703</v>
+        <v>0.0001136597121033195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001086021228400789</v>
+        <v>0.000108602705342935</v>
       </c>
       <c r="G11" t="n">
-        <v>8.582384377684017e-05</v>
+        <v>8.582366252508302e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>9.202682651501355e-05</v>
+        <v>9.202698550884399e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>9.805719215467035e-05</v>
+        <v>9.805753474345214e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001818785664832874</v>
+        <v>0.0001818784657946369</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001210129112447651</v>
+        <v>0.0001210130482758268</v>
       </c>
       <c r="L11" t="n">
-        <v>9.61015470169411e-05</v>
+        <v>9.610121271330775e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>8.562795158385632e-05</v>
+        <v>8.562809586648719e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.316801534017584e-05</v>
+        <v>5.316816102767285e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001247570155240685</v>
+        <v>0.0001247568160593409</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0001286945398931939</v>
+        <v>0.000128694210253573</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0001059040090184374</v>
+        <v>0.0001059041097604463</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0001086704559776533</v>
+        <v>6.18343736621897e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>6.183477935583463e-05</v>
+        <v>0.0001086706108716431</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0001344886087410779</v>
+        <v>0.0001344885655036585</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001120990321806879</v>
+        <v>0.0001120997546069275</v>
       </c>
       <c r="V11" t="n">
-        <v>9.231404307918533e-05</v>
+        <v>9.231331669912093e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>6.609163517339095e-05</v>
+        <v>6.666034526450675e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>8.618199938312569e-05</v>
+        <v>8.618201867743878e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.443318063896337e-05</v>
+        <v>7.443327730285215e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.082370604904119e-05</v>
+        <v>9.082311978027981e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.261190960308299e-05</v>
+        <v>7.261176601875547e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.334384113373247e-05</v>
+        <v>9.334365388308142e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.787407667290813e-05</v>
+        <v>9.787358585204896e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0001344352937573053</v>
+        <v>0.0001344354428445939</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0001372943514113786</v>
+        <v>0.0001372942994654344</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.077698194516079e-05</v>
+        <v>8.077681575452097e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0001033179346227814</v>
+        <v>0.0001033173137656568</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.656494418123718e-05</v>
+        <v>7.656523501264876e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.590706189421068e-05</v>
+        <v>6.590771357693259e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.58825614431575e-05</v>
+        <v>4.588241860407912e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>8.79174341937351e-05</v>
+        <v>8.791726748841975e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.096433630993581e-05</v>
+        <v>9.096456296791823e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.113425423536834e-05</v>
+        <v>6.113415778466207e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.863378996313446e-05</v>
+        <v>9.86340390278303e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.707143314745032e-05</v>
+        <v>4.707158338513381e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.869397220215586e-05</v>
+        <v>5.869403170166264e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.137240624878171e-05</v>
+        <v>5.137246056390372e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.18314714565576e-05</v>
+        <v>9.183119668522317e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>6.545974514215878e-05</v>
+        <v>6.546005333398539e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0001413531952110223</v>
+        <v>0.0001413530112308176</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.048603219777905e-05</v>
+        <v>7.048624664695192e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.600475904640407e-05</v>
+        <v>8.600453866812025e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.796718769320563e-05</v>
+        <v>9.796722523820239e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0001018220782921881</v>
+        <v>0.0001018221156761368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0001895379865493069</v>
+        <v>0.0001895383457586863</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000110260737556389</v>
+        <v>0.0001102601455881925</v>
       </c>
       <c r="C12" t="n">
-        <v>6.968963786913241e-05</v>
+        <v>6.968942116657154e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>3.641555146141432e-05</v>
+        <v>3.64151998710571e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001763106783725609</v>
+        <v>0.000176310271831486</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0001447944726889553</v>
+        <v>0.000144794679389028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001062587314088152</v>
+        <v>0.0001062580241675778</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001150657164244066</v>
+        <v>0.0001150657205677688</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001238886651643336</v>
+        <v>0.0001238882237657239</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001210129112447651</v>
+        <v>0.0001210130482758268</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003144592361035572</v>
+        <v>0.0003144590321412431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000137363075096953</v>
+        <v>0.0001373626779315525</v>
       </c>
       <c r="M12" t="n">
-        <v>9.980072463776836e-05</v>
+        <v>9.979942260417195e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>8.126951097533679e-05</v>
+        <v>8.12693531797059e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002103152778464243</v>
+        <v>0.0002103153230083195</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0001505587870487942</v>
+        <v>0.0001505583698141097</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.000158216379382329</v>
+        <v>0.000158215548020674</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0001626208150462851</v>
+        <v>9.434582386826584e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>9.434714982607393e-05</v>
+        <v>0.0001626205809693403</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0001829839930127862</v>
+        <v>0.000182983916809066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0001318436954793887</v>
+        <v>0.000131844121110633</v>
       </c>
       <c r="V12" t="n">
-        <v>9.786633496044962e-05</v>
+        <v>9.786556569306344e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>5.526098922945079e-05</v>
+        <v>5.83652758751577e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>9.228605541284099e-05</v>
+        <v>9.228558649726302e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0001045992819230463</v>
+        <v>0.0001045989959759476</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0001170558854404131</v>
+        <v>0.0001170551695383531</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.250508665627782e-05</v>
+        <v>2.250473921181505e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0001175556879453265</v>
+        <v>0.000117555336340444</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.000174737873679627</v>
+        <v>0.0001747370897006064</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0002453976516843949</v>
+        <v>0.0002453977304268835</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0002200112611414452</v>
+        <v>0.0002200104422963081</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0001199576479074122</v>
+        <v>0.0001199570400291008</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0001232778241952671</v>
+        <v>0.0001232770394341421</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.924986332912035e-05</v>
+        <v>7.924949601557096e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.083301807120027e-05</v>
+        <v>9.083259709282305e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.100311050257892e-05</v>
+        <v>5.100289796991116e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.392679608896007e-05</v>
+        <v>9.392643377708925e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0001270054609885141</v>
+        <v>0.0001270056157492276</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.720006542962959e-05</v>
+        <v>6.720018821706495e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0001666797015698457</v>
+        <v>0.0001666792436534331</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.985737282839087e-05</v>
+        <v>6.985720069685438e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>8.371509378319628e-05</v>
+        <v>8.371482036925365e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9.085146044963074e-05</v>
+        <v>9.085092523829634e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0001112270061384155</v>
+        <v>0.0001112264477867602</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.082222025024778e-05</v>
+        <v>5.082243034137763e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0002387649619650569</v>
+        <v>0.0002387640887582363</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.000107141690795133</v>
+        <v>0.000107141646691689</v>
       </c>
       <c r="AV12" t="n">
-        <v>8.872135572755862e-05</v>
+        <v>8.87208554055349e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0001167810917949055</v>
+        <v>0.0001167804440569588</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0001475122428298335</v>
+        <v>0.0001475117024962374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001662639756207295</v>
+        <v>0.0001662641676490648</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0001076155385492</v>
+        <v>0.0001076148281230335</v>
       </c>
       <c r="C13" t="n">
-        <v>8.665002503412638e-05</v>
+        <v>8.66495725443906e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>8.760499905524176e-05</v>
+        <v>8.760477288218437e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001700027713961679</v>
+        <v>0.0001700022824867695</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0001403504930458665</v>
+        <v>0.000140349720145023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001504250476569351</v>
+        <v>0.000150424525330617</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001032182582048483</v>
+        <v>0.0001032176914437799</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001077197542415797</v>
+        <v>0.0001077193016268301</v>
       </c>
       <c r="J13" t="n">
-        <v>9.61015470169411e-05</v>
+        <v>9.610121271330775e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000137363075096953</v>
+        <v>0.0001373626779315525</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001760762597576619</v>
+        <v>0.0001760753190573588</v>
       </c>
       <c r="M13" t="n">
-        <v>9.415078037987919e-05</v>
+        <v>9.415005162572796e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.760364096787293e-05</v>
+        <v>5.760364744465908e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.000164510917468636</v>
+        <v>0.0001645103355386883</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001258488827118486</v>
+        <v>0.0001258482896734036</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0001567020126300412</v>
+        <v>0.0001567012716318008</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0001567507110953353</v>
+        <v>9.79127366660338e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>9.791383184467591e-05</v>
+        <v>0.000156749865100627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001386827468985247</v>
+        <v>0.0001386823483635296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001377732261563151</v>
+        <v>0.0001377734938490501</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001068616478239277</v>
+        <v>0.0001068608304326659</v>
       </c>
       <c r="W13" t="n">
-        <v>6.194314552071465e-05</v>
+        <v>6.351599427657205e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0001033588262918981</v>
+        <v>0.000103358676327725</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.999937834029696e-05</v>
+        <v>7.999913285487416e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.618634549397023e-05</v>
+        <v>9.618553918023907e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.234000664394274e-05</v>
+        <v>6.234004458404083e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001061965918483785</v>
+        <v>0.0001061962630185452</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0001353364786516092</v>
+        <v>0.0001353360810454037</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0001814431464111622</v>
+        <v>0.000181442793838587</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001633299667435907</v>
+        <v>0.0001633299372651492</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.202363885095677e-05</v>
+        <v>8.202377567088077e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001199883830528078</v>
+        <v>0.0001199878274211977</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.240524507988927e-05</v>
+        <v>8.24050864334457e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.232890704953087e-05</v>
+        <v>7.23284754404165e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.716945118572445e-05</v>
+        <v>6.716915418710305e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.761751599723296e-05</v>
+        <v>9.761725542243801e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.000101090677226322</v>
+        <v>0.0001010910481316684</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.365061965673401e-05</v>
+        <v>7.365025733070105e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0001629806038071931</v>
+        <v>0.0001629806133984476</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.091287465588306e-05</v>
+        <v>5.09123647491431e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.992367349183432e-05</v>
+        <v>7.992317984064162e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.3241793624546e-05</v>
+        <v>8.324137504001408e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001083137345580218</v>
+        <v>0.000108313735341694</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.346953920891174e-05</v>
+        <v>6.346936033190675e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0002088013579026691</v>
+        <v>0.0002088010589709833</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.171079994523497e-05</v>
+        <v>8.171113779413101e-05</v>
       </c>
       <c r="AV13" t="n">
-        <v>9.028066459194198e-05</v>
+        <v>9.028062859990535e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0001015497391261585</v>
+        <v>0.0001015496033519742</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001105198664479607</v>
+        <v>0.0001105194886804665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001450144478401801</v>
+        <v>0.0001450144365330962</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0001045779184422917</v>
+        <v>0.0001045770930989364</v>
       </c>
       <c r="C14" t="n">
-        <v>9.040554679781258e-05</v>
+        <v>9.04052507139829e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>9.578835175235604e-05</v>
+        <v>9.578808994331022e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001338048434758875</v>
+        <v>0.000133804456755709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001184835431650172</v>
+        <v>0.0001184834350015849</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001158442714858182</v>
+        <v>0.0001158440321170641</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001148493404725809</v>
+        <v>0.0001148497147430873</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001295528865811115</v>
+        <v>0.0001295527080977871</v>
       </c>
       <c r="J14" t="n">
-        <v>8.562795158385632e-05</v>
+        <v>8.562809586648719e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>9.980072463776836e-05</v>
+        <v>9.979942260417195e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>9.415078037987919e-05</v>
+        <v>9.415005162572796e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001547190414438861</v>
+        <v>0.000154718432123622</v>
       </c>
       <c r="N14" t="n">
-        <v>5.750799644112397e-05</v>
+        <v>5.750796096532408e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.000130495198653013</v>
+        <v>0.0001304953034745182</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001276002908893537</v>
+        <v>0.0001275997982689133</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0001010616286395951</v>
+        <v>0.0001010615678330687</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0001248874797360792</v>
+        <v>7.335456057004527e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>7.335493265579042e-05</v>
+        <v>0.0001248875300773043</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0001454348852915122</v>
+        <v>0.0001454342492728964</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0001012181913124493</v>
+        <v>0.0001012179690662089</v>
       </c>
       <c r="V14" t="n">
-        <v>9.662595702088335e-05</v>
+        <v>9.662539726729524e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>6.697370496321738e-05</v>
+        <v>6.88634847532056e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0001011794172837512</v>
+        <v>0.0001011790319453411</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.888867110286179e-05</v>
+        <v>9.888871668260307e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.387868942428041e-05</v>
+        <v>9.387828602120925e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.381659480622763e-05</v>
+        <v>6.381666640625532e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.045236759049641e-05</v>
+        <v>8.045187382308769e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.000100557404908796</v>
+        <v>0.000100556205652491</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0001392738797412722</v>
+        <v>0.0001392732611839631</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0001636945565470035</v>
+        <v>0.0001636944756399387</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.499364050656023e-05</v>
+        <v>9.499364589442997e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.417574758431359e-05</v>
+        <v>9.417571059203728e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.483924785506987e-05</v>
+        <v>8.483931457826362e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.774788145945611e-05</v>
+        <v>9.774743030719962e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.469022993131207e-05</v>
+        <v>6.469002285728116e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>8.10382063131946e-05</v>
+        <v>8.103814207795658e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.627507443491637e-05</v>
+        <v>8.627540217115334e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.148116538860734e-05</v>
+        <v>6.148117627628762e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.373221153460529e-05</v>
+        <v>9.37320549649918e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.481386194154046e-05</v>
+        <v>4.481319115248427e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.41950969881765e-05</v>
+        <v>8.419484806080417e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7.184870548392029e-05</v>
+        <v>7.184826179878649e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>7.294104217238514e-05</v>
+        <v>7.294104106131772e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.71565662600895e-05</v>
+        <v>7.71568837583361e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0001427879514081733</v>
+        <v>0.0001427875145100849</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.251353966005109e-05</v>
+        <v>8.251397145029778e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>9.683587659156294e-05</v>
+        <v>9.683605011278944e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>9.671266953277612e-05</v>
+        <v>9.671214696897045e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0001092690568676926</v>
+        <v>0.0001092692577786108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.109725386185494e-05</v>
+        <v>8.109706426412496e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>8.106349207933685e-05</v>
+        <v>8.106332878726244e-05</v>
       </c>
       <c r="C15" t="n">
         <v>7.817817043262592e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>7.065134048770606e-05</v>
+        <v>7.065126470248481e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001029218812141625</v>
+        <v>0.0001029221100642188</v>
       </c>
       <c r="F15" t="n">
-        <v>8.022291240486014e-05</v>
+        <v>8.02227374029376e-05</v>
       </c>
       <c r="G15" t="n">
         <v>8.975150119732465e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>6.551909107795078e-05</v>
+        <v>6.551906343338437e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0.0001060274791327795</v>
       </c>
       <c r="J15" t="n">
-        <v>5.316801534017584e-05</v>
+        <v>5.316816102767285e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>8.126951097533679e-05</v>
+        <v>8.12693531797059e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>5.760364096787293e-05</v>
+        <v>5.760364744465908e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>5.750799644112397e-05</v>
+        <v>5.750796096532408e-05</v>
       </c>
       <c r="N15" t="n">
         <v>0.0001764853385189926</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0001010927891344143</v>
+        <v>0.0001010922680857813</v>
       </c>
       <c r="P15" t="n">
-        <v>9.157365461004512e-05</v>
+        <v>9.157352389272003e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.36927503034357e-05</v>
+        <v>7.36929070335884e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>9.720884543322337e-05</v>
+        <v>5.088302934348879e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>5.088371568081387e-05</v>
+        <v>9.720890736432767e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0001015066560448227</v>
+        <v>0.0001015066367620443</v>
       </c>
       <c r="U15" t="n">
-        <v>8.334348829530209e-05</v>
+        <v>8.334358480306355e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>9.425466956728529e-05</v>
+        <v>9.425457979213446e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.992586230610707e-05</v>
+        <v>5.07633223467587e-05</v>
       </c>
       <c r="X15" t="n">
         <v>7.857589700838937e-05</v>
@@ -2738,28 +2738,28 @@
         <v>8.264295291913931e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.222471959250442e-05</v>
+        <v>6.222433844337297e-05</v>
       </c>
       <c r="AA15" t="n">
         <v>3.810233467604994e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.705253454684551e-05</v>
+        <v>3.705218100011378e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.166977437305032e-05</v>
+        <v>8.166981630149704e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0001351546688678312</v>
+        <v>0.0001351548655778651</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0001202180909205606</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.561282899089742e-05</v>
+        <v>3.561276894956968e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.130892301000415e-05</v>
+        <v>5.130870244872054e-05</v>
       </c>
       <c r="AH15" t="n">
         <v>5.716310743965902e-05</v>
@@ -2768,31 +2768,31 @@
         <v>5.105573893620346e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.511386213164779e-05</v>
+        <v>3.511360912503337e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.370322847201364e-05</v>
+        <v>1.370335706158631e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.264176883163309e-05</v>
+        <v>3.264178114911326e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.727307589697378e-05</v>
+        <v>6.727279912955368e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.358245116669857e-05</v>
+        <v>7.358233837352859e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.07239021621828e-05</v>
+        <v>5.072407075280866e-05</v>
       </c>
       <c r="AP15" t="n">
         <v>8.893331110222379e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>7.349885966771326e-05</v>
+        <v>7.349888972146479e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.355750559276027e-05</v>
+        <v>6.355764911971503e-05</v>
       </c>
       <c r="AS15" t="n">
         <v>2.644953579280328e-05</v>
@@ -2801,7 +2801,7 @@
         <v>0.0001348810180824377</v>
       </c>
       <c r="AU15" t="n">
-        <v>5.957456566893343e-05</v>
+        <v>5.957483315017904e-05</v>
       </c>
       <c r="AV15" t="n">
         <v>5.885747356943535e-05</v>
@@ -2815,1441 +2815,1441 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0002574443712383496</v>
+        <v>0.0002574448737639254</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001352219451342909</v>
+        <v>0.0001352215013788276</v>
       </c>
       <c r="C16" t="n">
-        <v>9.580290222916302e-05</v>
+        <v>9.580240624013818e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>9.729717311048519e-05</v>
+        <v>9.729653189460776e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002328379442836079</v>
+        <v>0.0002328380682797607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001950378484380529</v>
+        <v>0.0001950379545434821</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001553738469244482</v>
+        <v>0.0001553732582095011</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000128701401554412</v>
+        <v>0.0001287013149476963</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001598236161777109</v>
+        <v>0.0001598235341835421</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001247570155240685</v>
+        <v>0.0001247568160593409</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002103152778464243</v>
+        <v>0.0002103153230083195</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000164510917468636</v>
+        <v>0.0001645103355386883</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000130495198653013</v>
+        <v>0.0001304953034745182</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001010927891344143</v>
+        <v>0.0001010922680857813</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0003773910407597028</v>
+        <v>0.0003773916862278357</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0001673561515954302</v>
+        <v>0.0001673558459937722</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0001923728159873267</v>
+        <v>0.0001923727591343017</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0002555857743648264</v>
+        <v>0.0001507352060257438</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0001507365042754134</v>
+        <v>0.0002555857810999995</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0002233447013415229</v>
+        <v>0.0002233444492792212</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0001599065567925341</v>
+        <v>0.0001599065835047812</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001367041155562775</v>
+        <v>0.0001367035373869877</v>
       </c>
       <c r="W16" t="n">
-        <v>8.62205647483714e-05</v>
+        <v>8.828532840196925e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0001278067816042296</v>
+        <v>0.0001278064819211368</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0001533377258913331</v>
+        <v>0.0001533376245012184</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0001310623944251239</v>
+        <v>0.0001310618075835038</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.79015908659326e-05</v>
+        <v>6.790160623816085e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0001338803754426306</v>
+        <v>0.0001338794085313468</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001860891162035717</v>
+        <v>0.0001860887268021218</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0002353371282399398</v>
+        <v>0.000235336254531724</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0002376686240776016</v>
+        <v>0.0002376688804838791</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0001134293392402321</v>
+        <v>0.0001134293348691288</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0001338715087456554</v>
+        <v>0.0001338707696141759</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0001071421335459498</v>
+        <v>0.0001071420815279144</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0001145073330512916</v>
+        <v>0.0001145068701268505</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.377022479851031e-05</v>
+        <v>6.376985266117003e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0001107956262009718</v>
+        <v>0.0001107963445593702</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0001386126943249757</v>
+        <v>0.0001386128361156579</v>
       </c>
       <c r="AM16" t="n">
-        <v>9.536579385122008e-05</v>
+        <v>9.536563268012843e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0002071933954905583</v>
+        <v>0.0002071936778161575</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.036118086777366e-05</v>
+        <v>8.036060429644671e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0001294801471034127</v>
+        <v>0.0001294803495685551</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0001074900497107359</v>
+        <v>0.0001074900281025741</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0001483670179509797</v>
+        <v>0.0001483666284743243</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0001223513493440063</v>
+        <v>0.0001223509512557141</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0002876932804199377</v>
+        <v>0.0002876933419072809</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0001297099038164883</v>
+        <v>0.0001297108169044812</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0001367397501111445</v>
+        <v>0.0001367397158280618</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0001301196139442416</v>
+        <v>0.0001301194515682451</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0001494590297586235</v>
+        <v>0.0001494588515913202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0001800332391406381</v>
+        <v>0.0001800336439476682</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0001417346573788301</v>
+        <v>0.000141734060438293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001648065903704324</v>
+        <v>0.0001648063158350068</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0001443746944162985</v>
+        <v>0.000144374554908153</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001899240297541211</v>
+        <v>0.0001899234304108661</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000141491148724938</v>
+        <v>0.0001414906979668816</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001999646699193794</v>
+        <v>0.0001999641148835919</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001382885282150789</v>
+        <v>0.0001382881588270191</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001583754063935826</v>
+        <v>0.0001583751723091282</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001286945398931939</v>
+        <v>0.000128694210253573</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001505587870487942</v>
+        <v>0.0001505583698141097</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001258488827118486</v>
+        <v>0.0001258482896734036</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001276002908893537</v>
+        <v>0.0001275997982689133</v>
       </c>
       <c r="N17" t="n">
-        <v>9.157365461004512e-05</v>
+        <v>9.157352389272003e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001673561515954302</v>
+        <v>0.0001673558459937722</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0003521305605618566</v>
+        <v>0.0003521300077624838</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0001287770307791013</v>
+        <v>0.0001287767870164713</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0001531628094363056</v>
+        <v>8.831386669397479e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>8.831445255556807e-05</v>
+        <v>0.0001531629008741924</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0002323188374485346</v>
+        <v>0.0002323185170541634</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001303177148788684</v>
+        <v>0.0001303178016452113</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0001541602535084098</v>
+        <v>0.000154159961298315</v>
       </c>
       <c r="W17" t="n">
-        <v>7.700613619049992e-05</v>
+        <v>7.945989280336757e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0001500897420255791</v>
+        <v>0.0001500894890945998</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0001276349053334578</v>
+        <v>0.0001276347474484324</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0001441894783164919</v>
+        <v>0.0001441886017593481</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.152261291606821e-05</v>
+        <v>7.152255753430218e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001332684643865417</v>
+        <v>0.0001332678726691404</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0001226292328557411</v>
+        <v>0.0001226287191884719</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0002113688957218157</v>
+        <v>0.000211368752914573</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0002291849359721449</v>
+        <v>0.0002291846489398176</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0001151865696678145</v>
+        <v>0.0001151865874039215</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0001465631746882936</v>
+        <v>0.0001465626406890161</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0001051096502460044</v>
+        <v>0.0001051095264887105</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0001057336151598599</v>
+        <v>0.0001057333649268082</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5.781114251448628e-05</v>
+        <v>5.781141545689703e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.627145324054641e-05</v>
+        <v>9.627092965610909e-05</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0001176503270972953</v>
+        <v>0.0001176499412570155</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.637359668928428e-05</v>
+        <v>9.637342197525591e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0001427180548223049</v>
+        <v>0.0001427184442773758</v>
       </c>
       <c r="AO17" t="n">
-        <v>4.430775983470085e-05</v>
+        <v>4.430812678189738e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0001090200038318224</v>
+        <v>0.0001090199059649637</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.000108822182787398</v>
+        <v>0.0001088218498058853</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0001520974184177395</v>
+        <v>0.0001520970758558401</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0001102622090884066</v>
+        <v>0.0001102620914406623</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0002110877892340212</v>
+        <v>0.0002110873741743954</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.085326240141198e-05</v>
+        <v>9.085332386588755e-05</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.000137412662597402</v>
+        <v>0.0001374125462369641</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0001330000291560411</v>
+        <v>0.0001329998241062771</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0001476543219629451</v>
+        <v>0.0001476539158194621</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0001920153228578892</v>
+        <v>0.0001920158576733106</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001152661383844919</v>
+        <v>0.0001152661493098972</v>
       </c>
       <c r="C18" t="n">
-        <v>8.607511851710506e-05</v>
+        <v>8.607568072192656e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>8.15133878585805e-05</v>
+        <v>8.151364011856174e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001974177059145756</v>
+        <v>0.0001974176469591431</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001516987492942654</v>
+        <v>0.0001516987911297793</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001236429027815106</v>
+        <v>0.0001236422347791442</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001185800537189599</v>
+        <v>0.0001185801994234945</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001390914559544804</v>
+        <v>0.0001390915000332133</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001059040090184374</v>
+        <v>0.0001059041097604463</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000158216379382329</v>
+        <v>0.000158215548020674</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001567020126300412</v>
+        <v>0.0001567012716318008</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001010616286395951</v>
+        <v>0.0001010615678330687</v>
       </c>
       <c r="N18" t="n">
-        <v>7.36927503034357e-05</v>
+        <v>7.36929070335884e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0001923728159873267</v>
+        <v>0.0001923727591343017</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0001287770307791013</v>
+        <v>0.0001287767870164713</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0002213746033031552</v>
+        <v>0.0002213744931446387</v>
       </c>
       <c r="R18" t="n">
-        <v>0.000188484068418973</v>
+        <v>0.0001158625997830765</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0001158631223707106</v>
+        <v>0.0001884847192719574</v>
       </c>
       <c r="T18" t="n">
-        <v>0.000157390814293199</v>
+        <v>0.0001573906060117649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0001420709636614374</v>
+        <v>0.0001420709614726512</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001070530713342229</v>
+        <v>0.0001070527759909857</v>
       </c>
       <c r="W18" t="n">
-        <v>7.119234329220004e-05</v>
+        <v>7.124234219166992e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0001072967021219829</v>
+        <v>0.0001072965992278132</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.944887406533399e-05</v>
+        <v>9.944928185801604e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0001192697612336261</v>
+        <v>0.0001192696703983023</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.166629403855285e-05</v>
+        <v>7.166665834259425e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.000122456074747558</v>
+        <v>0.0001224554072211038</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0001729882637540947</v>
+        <v>0.00017298757211809</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0002115833394706123</v>
+        <v>0.0002115827457221444</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0001953656510877319</v>
+        <v>0.000195365492060985</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.374440046600229e-05</v>
+        <v>9.374452582151678e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0001317599558772784</v>
+        <v>0.0001317598135316051</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.32925828158767e-05</v>
+        <v>8.329278512172728e-05</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.020277415906699e-05</v>
+        <v>9.020305627344092e-05</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.030001496080157e-05</v>
+        <v>7.030013523062939e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0001040898511814032</v>
+        <v>0.0001040899896173562</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0001138917217132025</v>
+        <v>0.0001138922865085899</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.276221610398375e-05</v>
+        <v>7.276234387054168e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0001813117384195867</v>
+        <v>0.0001813118381027168</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.146341755223783e-05</v>
+        <v>5.14633382296393e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>9.588351713987562e-05</v>
+        <v>9.588361540985103e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.697459091588641e-05</v>
+        <v>9.697500462350552e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0001239949498666608</v>
+        <v>0.0001239951396628793</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.095634405071232e-05</v>
+        <v>8.095669638486416e-05</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0002574957510844514</v>
+        <v>0.0002574960786163576</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.529245596635621e-05</v>
+        <v>9.529275065813534e-05</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.000101605282067553</v>
+        <v>0.0001016055359929345</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0001232157993410042</v>
+        <v>0.0001232161361110771</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0001250638473613043</v>
+        <v>0.000125063574159317</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0002033905958409257</v>
+        <v>0.0001340596350429148</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001416881839036255</v>
+        <v>8.772758768920785e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001135569670247244</v>
+        <v>6.654496243242628e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001273292712239752</v>
+        <v>8.014656304160879e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0002138931107059145</v>
+        <v>0.000122316033600829</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000191434761185099</v>
+        <v>0.0001083558904002907</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000126786225514722</v>
+        <v>7.886264339173254e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0001488427660192455</v>
+        <v>9.32962027903416e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001512485316504495</v>
+        <v>8.369828503192471e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001086704559776533</v>
+        <v>6.18343736621897e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001626208150462851</v>
+        <v>9.434582386826584e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001567507110953353</v>
+        <v>9.79127366660338e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001248874797360792</v>
+        <v>7.335456057004527e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>9.720884543322337e-05</v>
+        <v>5.088302934348879e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0002555857743648264</v>
+        <v>0.0001507352060257438</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0001531628094363056</v>
+        <v>8.831386669397479e-05</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.000188484068418973</v>
+        <v>0.0001158625997830765</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0003187888976702241</v>
+        <v>0.000177081592568109</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0001910352160865105</v>
+        <v>0.0001910344054216987</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0001961624075045215</v>
+        <v>0.0001205959890869998</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0001666959752409989</v>
+        <v>0.0001057855408823622</v>
       </c>
       <c r="V19" t="n">
-        <v>0.000131965625745379</v>
+        <v>8.256948837248933e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>8.847744393312432e-05</v>
+        <v>5.353710981725106e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>0.000143881394113352</v>
+        <v>8.990018277267453e-05</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0001450487938130209</v>
+        <v>8.066256141982241e-05</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0001271133404151347</v>
+        <v>6.569936587585645e-05</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.631026041991792e-05</v>
+        <v>5.223713499694535e-05</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0001340087337016979</v>
+        <v>7.694391983583498e-05</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0001899184570293618</v>
+        <v>0.0001218739125103723</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0002202973184963076</v>
+        <v>0.0001161803058163117</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0002347956057730404</v>
+        <v>0.0001352704606269679</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0001174541926390194</v>
+        <v>6.150059443650022e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0001349269624679813</v>
+        <v>7.357289082271302e-05</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.000109621339661117</v>
+        <v>5.449633145894088e-05</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.0001347696344768037</v>
+        <v>8.433158698279295e-05</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6.855402606367606e-05</v>
+        <v>4.223822490955441e-05</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0001042650853149442</v>
+        <v>5.84853632259482e-05</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.0001324632779008494</v>
+        <v>7.660711161017333e-05</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.798573455317822e-05</v>
+        <v>6.119627635555343e-05</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.000191993056145748</v>
+        <v>0.0001102336244868421</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.71778055616872e-05</v>
+        <v>5.215435233935582e-05</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.000128932693393476</v>
+        <v>8.050707559662426e-05</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0001065436449354667</v>
+        <v>6.307612938748012e-05</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.0001354206995466348</v>
+        <v>7.446781504298333e-05</v>
       </c>
       <c r="AS19" t="n">
-        <v>9.775042605024121e-05</v>
+        <v>5.096764285523169e-05</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.0002658347473750437</v>
+        <v>0.0001512366984037211</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.0001103405252627848</v>
+        <v>6.087503075554948e-05</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0001247986332293161</v>
+        <v>6.396671969592229e-05</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0001255337062800426</v>
+        <v>7.248827910199438e-05</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.0001516798447982761</v>
+        <v>8.317306101748327e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0001340596784754341</v>
+        <v>0.0002033918702837595</v>
       </c>
       <c r="B20" t="n">
-        <v>8.772804521320641e-05</v>
+        <v>0.0001416883882361008</v>
       </c>
       <c r="C20" t="n">
-        <v>6.654512970138338e-05</v>
+        <v>0.0001135568097601106</v>
       </c>
       <c r="D20" t="n">
-        <v>8.014638147446721e-05</v>
+        <v>0.000127329545753289</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0001223165113743705</v>
+        <v>0.0002138931467999331</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001083568226078901</v>
+        <v>0.0001914347326663595</v>
       </c>
       <c r="G20" t="n">
-        <v>7.886260987387101e-05</v>
+        <v>0.0001267858745753729</v>
       </c>
       <c r="H20" t="n">
-        <v>9.329626738186351e-05</v>
+        <v>0.0001488427805813311</v>
       </c>
       <c r="I20" t="n">
-        <v>8.369858983688398e-05</v>
+        <v>0.0001512486411203973</v>
       </c>
       <c r="J20" t="n">
-        <v>6.183477935583463e-05</v>
+        <v>0.0001086706108716431</v>
       </c>
       <c r="K20" t="n">
-        <v>9.434714982607393e-05</v>
+        <v>0.0001626205809693403</v>
       </c>
       <c r="L20" t="n">
-        <v>9.791383184467591e-05</v>
+        <v>0.000156749865100627</v>
       </c>
       <c r="M20" t="n">
-        <v>7.335493265579042e-05</v>
+        <v>0.0001248875300773043</v>
       </c>
       <c r="N20" t="n">
-        <v>5.088371568081387e-05</v>
+        <v>9.720890736432767e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0001507365042754134</v>
+        <v>0.0002555857810999995</v>
       </c>
       <c r="P20" t="n">
-        <v>8.831445255556807e-05</v>
+        <v>0.0001531629008741924</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0001158631223707106</v>
+        <v>0.0001884847192719574</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0001910352160865105</v>
+        <v>0.0001910344054216987</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0001770832530705336</v>
+        <v>0.0003187893983632568</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0001205962260626228</v>
+        <v>0.0001961625769895023</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0001057858965461175</v>
+        <v>0.0001666965639956718</v>
       </c>
       <c r="V20" t="n">
-        <v>8.256957135978291e-05</v>
+        <v>0.0001319661194898648</v>
       </c>
       <c r="W20" t="n">
-        <v>5.519750237658978e-05</v>
+        <v>8.905221457315247e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>8.990009412449362e-05</v>
+        <v>0.0001438816464253745</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.06628675105976e-05</v>
+        <v>0.0001450491426304065</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.570029508405934e-05</v>
+        <v>0.000127112754458898</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.223687989198921e-05</v>
+        <v>8.631039769096327e-05</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.694518033383165e-05</v>
+        <v>0.0001340084302983551</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.00012187510193329</v>
+        <v>0.0001899182735164727</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.00011618144439669</v>
+        <v>0.0002202970694207783</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.000135271413680034</v>
+        <v>0.0002347960118987193</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.150193581033347e-05</v>
+        <v>0.0001174538947230826</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.357379304685402e-05</v>
+        <v>0.0001349268943667221</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.449649211836735e-05</v>
+        <v>0.0001096217754621853</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.433168881969736e-05</v>
+        <v>0.0001347694806009651</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.223860719625529e-05</v>
+        <v>6.855410203216244e-05</v>
       </c>
       <c r="AK20" t="n">
-        <v>5.848507055322217e-05</v>
+        <v>0.0001042657267465841</v>
       </c>
       <c r="AL20" t="n">
-        <v>7.6608039479434e-05</v>
+        <v>0.0001324627470805455</v>
       </c>
       <c r="AM20" t="n">
-        <v>6.119670446278798e-05</v>
+        <v>9.798577614145198e-05</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0001102342735803891</v>
+        <v>0.0001919929900099543</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.21555938903728e-05</v>
+        <v>7.717755556500517e-05</v>
       </c>
       <c r="AP20" t="n">
-        <v>8.050753556400742e-05</v>
+        <v>0.0001289325276645848</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6.307611105095331e-05</v>
+        <v>0.0001065440897494877</v>
       </c>
       <c r="AR20" t="n">
-        <v>7.446960245625583e-05</v>
+        <v>0.0001354214535150186</v>
       </c>
       <c r="AS20" t="n">
-        <v>5.096774712799679e-05</v>
+        <v>9.775052996528043e-05</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.0001512376206420279</v>
+        <v>0.000265834659475129</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.087442407375449e-05</v>
+        <v>0.0001103413706448101</v>
       </c>
       <c r="AV20" t="n">
-        <v>6.396694298355457e-05</v>
+        <v>0.0001247987132409048</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.248800371196766e-05</v>
+        <v>0.0001255337778567184</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.317335932214825e-05</v>
+        <v>0.0001516799039419034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.000183858408624453</v>
+        <v>0.0001838595854233744</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0001616507161050715</v>
+        <v>0.000161650353847118</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000176608677052907</v>
+        <v>0.0001766087918716948</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001595986301847759</v>
+        <v>0.0001595987923766339</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0002204305230371062</v>
+        <v>0.0002204306820607607</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0001741700404191782</v>
+        <v>0.000174170216072788</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001948294521408402</v>
+        <v>0.0001948298282809966</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001566642451843785</v>
+        <v>0.0001566640905351161</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001744789067165258</v>
+        <v>0.0001744788431456349</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001344886087410779</v>
+        <v>0.0001344885655036585</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001829839930127862</v>
+        <v>0.000182983916809066</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001386827468985247</v>
+        <v>0.0001386823483635296</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001454348852915122</v>
+        <v>0.0001454342492728964</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0001015066560448227</v>
+        <v>0.0001015066367620443</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0002233447013415229</v>
+        <v>0.0002233444492792212</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0002323188374485346</v>
+        <v>0.0002323185170541634</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.000157390814293199</v>
+        <v>0.0001573906060117649</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0001961624075045215</v>
+        <v>0.0001205959890869998</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0001205962260626228</v>
+        <v>0.0001961625769895023</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0005035736345572445</v>
+        <v>0.0005035736637321371</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0001599667108195893</v>
+        <v>0.0001599673424057223</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0001752797929306124</v>
+        <v>0.000175279473626847</v>
       </c>
       <c r="W21" t="n">
-        <v>9.696535949959343e-05</v>
+        <v>0.0001001756697326288</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0001756613913684277</v>
+        <v>0.0001756615161039322</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0001341020947906965</v>
+        <v>0.0001341021005444642</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0001199668360933479</v>
+        <v>0.0001199660409974417</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5889512737775e-05</v>
+        <v>9.588950520175017e-05</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0001119866994030565</v>
+        <v>0.0001119862880897423</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0001555183787955805</v>
+        <v>0.000155518426708954</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0002266566944786725</v>
+        <v>0.0002266567142573777</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0002448592604884628</v>
+        <v>0.0002448593449652806</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0001331772233420422</v>
+        <v>0.000133177765892285</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0001261701882743429</v>
+        <v>0.0001261698029214942</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0001097518982658379</v>
+        <v>0.0001097519474541994</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.0001243073844033612</v>
+        <v>0.0001243071827925229</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.517130891240073e-05</v>
+        <v>7.517140275527821e-05</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.0001066003280620616</v>
+        <v>0.0001066011450233075</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.0001131764233736877</v>
+        <v>0.0001131766182310963</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.0001056164386923118</v>
+        <v>0.0001056168039486812</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0001723619890615532</v>
+        <v>0.0001723623761047827</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.447476583459044e-05</v>
+        <v>7.447453167659032e-05</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.0001214068395044045</v>
+        <v>0.0001214067024141806</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.0001379301438313999</v>
+        <v>0.0001379299955547011</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.0001292076643117088</v>
+        <v>0.0001292079163624134</v>
       </c>
       <c r="AS21" t="n">
-        <v>6.296115074905942e-05</v>
+        <v>6.296118303744379e-05</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.0002735120151153785</v>
+        <v>0.0002735121667750866</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0001075604316104401</v>
+        <v>0.0001075615664195151</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0001259396263063294</v>
+        <v>0.0001259396453973794</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0001595531017591858</v>
+        <v>0.00015955317478243</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.0001605517405784293</v>
+        <v>0.0001605517420172161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0001731856187624231</v>
+        <v>0.0001731863276954954</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001238270647818872</v>
+        <v>0.0001238270015691667</v>
       </c>
       <c r="C22" t="n">
-        <v>9.389195204142921e-05</v>
+        <v>9.389247530147694e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>9.619164020189198e-05</v>
+        <v>9.619210783891516e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001631375896479551</v>
+        <v>0.0001631379878612086</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001412046752055342</v>
+        <v>0.0001412054532850732</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001228201623019197</v>
+        <v>0.0001228203132877489</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001115843275467865</v>
+        <v>0.0001115844039055519</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001183827571684647</v>
+        <v>0.0001183826282758931</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001120990321806879</v>
+        <v>0.0001120997546069275</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001318436954793887</v>
+        <v>0.000131844121110633</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001377732261563151</v>
+        <v>0.0001377734938490501</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001012181913124493</v>
+        <v>0.0001012179690662089</v>
       </c>
       <c r="N22" t="n">
-        <v>8.334348829530209e-05</v>
+        <v>8.334358480306355e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0001599065567925341</v>
+        <v>0.0001599065835047812</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0001303177148788684</v>
+        <v>0.0001303178016452113</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0001420709636614374</v>
+        <v>0.0001420709614726512</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0001666959752409989</v>
+        <v>0.0001057855408823622</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0001057858965461175</v>
+        <v>0.0001666965639956718</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0001599667108195893</v>
+        <v>0.0001599673424057223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002051169209446214</v>
+        <v>0.0002051173601633621</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0001177712667717037</v>
+        <v>0.0001177702683676428</v>
       </c>
       <c r="W22" t="n">
-        <v>7.896989606198921e-05</v>
+        <v>7.866580844010089e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0001033345828785396</v>
+        <v>0.0001033349788418627</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.796749020712155e-05</v>
+        <v>9.796785995150504e-05</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0001024703472029021</v>
+        <v>0.0001024695157735718</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.132414276865898e-05</v>
+        <v>6.132402559579925e-05</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0001191782627160368</v>
+        <v>0.0001191781816843675</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0001372508780871612</v>
+        <v>0.0001372514014978719</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0001891158074433839</v>
+        <v>0.0001891157523102877</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0001752961694839164</v>
+        <v>0.0001752968033858226</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.962213292172786e-05</v>
+        <v>7.96230970438955e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0001141550548694718</v>
+        <v>0.0001141549317153492</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.75871590385558e-05</v>
+        <v>8.758733795952441e-05</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.534082716783293e-05</v>
+        <v>8.534115628389019e-05</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.495530743101292e-05</v>
+        <v>6.495472669835709e-05</v>
       </c>
       <c r="AK22" t="n">
-        <v>9.767457196299995e-05</v>
+        <v>9.767521075345958e-05</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0001034277733577356</v>
+        <v>0.0001034277241195522</v>
       </c>
       <c r="AM22" t="n">
-        <v>8.485645633283787e-05</v>
+        <v>8.485669782094667e-05</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.0001416093186700432</v>
+        <v>0.0001416101183320668</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.302668293599197e-05</v>
+        <v>6.302662077108321e-05</v>
       </c>
       <c r="AP22" t="n">
-        <v>8.847361784336119e-05</v>
+        <v>8.847384312481754e-05</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8.116669385846458e-05</v>
+        <v>8.116652927143789e-05</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.0001024669849433977</v>
+        <v>0.0001024679313023177</v>
       </c>
       <c r="AS22" t="n">
-        <v>6.527484012825181e-05</v>
+        <v>6.527418884096427e-05</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.0002003736860430745</v>
+        <v>0.0002003742514086933</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.738047179517448e-05</v>
+        <v>8.738056411214086e-05</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.463046175370748e-05</v>
+        <v>8.463077898855791e-05</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.0001102948040051858</v>
+        <v>0.0001102946743221016</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.0001090576784410218</v>
+        <v>0.0001090580860966352</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0001256919007257435</v>
+        <v>0.0001256912193874376</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0001223271103176595</v>
+        <v>0.0001223265952252895</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001121564570015347</v>
+        <v>0.0001121569220270941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001168864748979206</v>
+        <v>0.0001168865965852536</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001384873679610232</v>
+        <v>0.0001384870100896091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0001221997317457491</v>
+        <v>0.0001221992847202461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001378370019473854</v>
+        <v>0.0001378372860018585</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001187874940882295</v>
+        <v>0.0001187874642825082</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001262353536401303</v>
+        <v>0.0001262350376995916</v>
       </c>
       <c r="J23" t="n">
-        <v>9.231404307918533e-05</v>
+        <v>9.231331669912093e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>9.786633496044962e-05</v>
+        <v>9.786556569306344e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001068616478239277</v>
+        <v>0.0001068608304326659</v>
       </c>
       <c r="M23" t="n">
-        <v>9.662595702088335e-05</v>
+        <v>9.662539726729524e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>9.425466956728529e-05</v>
+        <v>9.425457979213446e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0001367041155562775</v>
+        <v>0.0001367035373869877</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0001541602535084098</v>
+        <v>0.000154159961298315</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001070530713342229</v>
+        <v>0.0001070527759909857</v>
       </c>
       <c r="R23" t="n">
-        <v>0.000131965625745379</v>
+        <v>8.256948837248933e-05</v>
       </c>
       <c r="S23" t="n">
-        <v>8.256957135978291e-05</v>
+        <v>0.0001319661194898648</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0001752797929306124</v>
+        <v>0.000175279473626847</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0001177712667717037</v>
+        <v>0.0001177702683676428</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0002857624880943863</v>
+        <v>0.0002857607557340078</v>
       </c>
       <c r="W23" t="n">
-        <v>7.614786866638474e-05</v>
+        <v>7.763126408278953e-05</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0001129834983798972</v>
+        <v>0.0001129834300366126</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0001036324228410754</v>
+        <v>0.0001036323266076945</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0001032312401293491</v>
+        <v>0.0001032310338961451</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.075547717187198e-05</v>
+        <v>8.075486819782154e-05</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.944333339652407e-05</v>
+        <v>7.9442170079032e-05</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.225567289284055e-05</v>
+        <v>6.225474257361407e-05</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0001440824586270218</v>
+        <v>0.0001440823276040962</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0001349779905853652</v>
+        <v>0.0001349774788138102</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.567878918058073e-05</v>
+        <v>4.567843016351149e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.72844111251048e-05</v>
+        <v>8.728350144681738e-05</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.353445885714181e-05</v>
+        <v>8.353426101381072e-05</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.177609786279142e-05</v>
+        <v>8.177661450886511e-05</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.818776957150684e-05</v>
+        <v>8.818676124959172e-05</v>
       </c>
       <c r="AK23" t="n">
-        <v>5.425410343032625e-05</v>
+        <v>5.425408720267404e-05</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.931788619740813e-05</v>
+        <v>7.931723931006837e-05</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.0001467691923379658</v>
+        <v>0.0001467692127716883</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.0001208689719898114</v>
+        <v>0.0001208685720035124</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.480899722599093e-05</v>
+        <v>9.480849762990898e-05</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.0001035323408495406</v>
+        <v>0.0001035320472678826</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9.45109618365795e-05</v>
+        <v>9.451165278106646e-05</v>
       </c>
       <c r="AR23" t="n">
-        <v>9.039281771584874e-05</v>
+        <v>9.039290234840494e-05</v>
       </c>
       <c r="AS23" t="n">
-        <v>7.687457098588634e-05</v>
+        <v>7.687357788457641e-05</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.0001381525169585604</v>
+        <v>0.0001381522144138106</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.625880279668666e-05</v>
+        <v>9.625882061157355e-05</v>
       </c>
       <c r="AV23" t="n">
-        <v>9.442918448218814e-05</v>
+        <v>9.442895689740876e-05</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.0001036202934843083</v>
+        <v>0.0001036201013784411</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.0001074347757332875</v>
+        <v>0.0001074343236822968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.191109877116284e-05</v>
+        <v>7.333339094473166e-05</v>
       </c>
       <c r="B24" t="n">
-        <v>8.247670608044112e-05</v>
+        <v>8.355316911883048e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>5.498948160970117e-05</v>
+        <v>5.913616011353504e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>6.225334540006458e-05</v>
+        <v>6.519623976520287e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>8.127356546018327e-05</v>
+        <v>7.793924866796914e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>6.849448448532093e-05</v>
+        <v>6.844679816125438e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>8.78206714725868e-05</v>
+        <v>8.913054257472863e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>7.947527624418853e-05</v>
+        <v>8.007371103618054e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>7.436387775292653e-05</v>
+        <v>7.589035283394566e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>6.609163517339095e-05</v>
+        <v>6.666034526450675e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.526098922945079e-05</v>
+        <v>5.83652758751577e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>6.194314552071465e-05</v>
+        <v>6.351599427657205e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>6.697370496321738e-05</v>
+        <v>6.88634847532056e-05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.992586230610707e-05</v>
+        <v>5.07633223467587e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>8.62205647483714e-05</v>
+        <v>8.828532840196925e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>7.700613619049992e-05</v>
+        <v>7.945989280336757e-05</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.119234329220004e-05</v>
+        <v>7.124234219166992e-05</v>
       </c>
       <c r="R24" t="n">
-        <v>8.847744393312432e-05</v>
+        <v>5.353710981725106e-05</v>
       </c>
       <c r="S24" t="n">
-        <v>5.519750237658978e-05</v>
+        <v>8.905221457315247e-05</v>
       </c>
       <c r="T24" t="n">
-        <v>9.696535949959343e-05</v>
+        <v>0.0001001756697326288</v>
       </c>
       <c r="U24" t="n">
-        <v>7.896989606198921e-05</v>
+        <v>7.866580844010089e-05</v>
       </c>
       <c r="V24" t="n">
-        <v>7.614786866638474e-05</v>
+        <v>7.763126408278953e-05</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0001532432728095004</v>
+        <v>0.0001487971107995958</v>
       </c>
       <c r="X24" t="n">
-        <v>6.425948145529212e-05</v>
+        <v>6.506392927047112e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.229259400872852e-05</v>
+        <v>6.495380872517569e-05</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.110898819140372e-05</v>
+        <v>7.108233647253691e-05</v>
       </c>
       <c r="AA24" t="n">
-        <v>4.767589944422309e-05</v>
+        <v>4.867682668384994e-05</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.49996165173108e-05</v>
+        <v>8.351955249647069e-05</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0001117657141946999</v>
+        <v>0.0001121864542051658</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.318207267493153e-05</v>
+        <v>8.410324800508251e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.585575489669721e-05</v>
+        <v>9.921797342812611e-05</v>
       </c>
       <c r="AF24" t="n">
-        <v>4.922050680261524e-05</v>
+        <v>5.040270518162297e-05</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.74860416134212e-05</v>
+        <v>8.78963655289688e-05</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.461123061265891e-05</v>
+        <v>6.521934594281339e-05</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.001294285417164e-05</v>
+        <v>6.821699744293768e-05</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.389067545309932e-05</v>
+        <v>5.401463914026189e-05</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.757914036070088e-05</v>
+        <v>6.831421604865627e-05</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.411520578538246e-05</v>
+        <v>7.527898536110947e-05</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.586452919724337e-05</v>
+        <v>4.639174651605056e-05</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.326922868845055e-05</v>
+        <v>6.433824700998113e-05</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.211166299669595e-05</v>
+        <v>4.496789580482354e-05</v>
       </c>
       <c r="AP24" t="n">
-        <v>7.478317378382421e-05</v>
+        <v>7.289446228852996e-05</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.663333523203898e-05</v>
+        <v>3.416695770304211e-05</v>
       </c>
       <c r="AR24" t="n">
-        <v>6.439581082326185e-05</v>
+        <v>6.713807863344362e-05</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.300918451604224e-05</v>
+        <v>5.285626363863438e-05</v>
       </c>
       <c r="AT24" t="n">
-        <v>8.902978412288865e-05</v>
+        <v>9.206618865014887e-05</v>
       </c>
       <c r="AU24" t="n">
-        <v>5.810408266709945e-05</v>
+        <v>6.284260963276977e-05</v>
       </c>
       <c r="AV24" t="n">
-        <v>6.61855658876253e-05</v>
+        <v>6.697664203607046e-05</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.363545676209802e-05</v>
+        <v>6.076772956603577e-05</v>
       </c>
       <c r="AX24" t="n">
-        <v>7.992982058488868e-05</v>
+        <v>8.360950447722266e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.000123856743522714</v>
+        <v>0.0001238574249769325</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001275307156497746</v>
+        <v>0.0001275306263463107</v>
       </c>
       <c r="C25" t="n">
         <v>0.000115322779231667</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001704125427745052</v>
+        <v>0.0001704125665023902</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000173298105434929</v>
+        <v>0.0001732984390372024</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0001158272219184184</v>
+        <v>0.000115827316856035</v>
       </c>
       <c r="G25" t="n">
         <v>0.0001426235013874603</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001081699889872453</v>
+        <v>0.0001081698553705165</v>
       </c>
       <c r="I25" t="n">
         <v>0.0001274931757213046</v>
       </c>
       <c r="J25" t="n">
-        <v>8.618199938312569e-05</v>
+        <v>8.618201867743878e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.228605541284099e-05</v>
+        <v>9.228558649726302e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001033588262918981</v>
+        <v>0.000103358676327725</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001011794172837512</v>
+        <v>0.0001011790319453411</v>
       </c>
       <c r="N25" t="n">
         <v>7.857589700838937e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0001278067816042296</v>
+        <v>0.0001278064819211368</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0001500897420255791</v>
+        <v>0.0001500894890945998</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0001072967021219829</v>
+        <v>0.0001072965992278132</v>
       </c>
       <c r="R25" t="n">
-        <v>0.000143881394113352</v>
+        <v>8.990018277267453e-05</v>
       </c>
       <c r="S25" t="n">
-        <v>8.990009412449362e-05</v>
+        <v>0.0001438816464253745</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0001756613913684277</v>
+        <v>0.0001756615161039322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0001033345828785396</v>
+        <v>0.0001033349788418627</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0001129834983798972</v>
+        <v>0.0001129834300366126</v>
       </c>
       <c r="W25" t="n">
-        <v>6.425948145529212e-05</v>
+        <v>6.506392927047112e-05</v>
       </c>
       <c r="X25" t="n">
         <v>0.0003097987825877816</v>
@@ -4258,28 +4258,28 @@
         <v>9.406001297801469e-05</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.86338412819655e-05</v>
+        <v>6.863353589579698e-05</v>
       </c>
       <c r="AA25" t="n">
         <v>7.877683380662759e-05</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.871276890650468e-05</v>
+        <v>9.871232695586547e-05</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0001112276401002208</v>
+        <v>0.0001112270866196124</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.000145244019367966</v>
+        <v>0.0001452440607678947</v>
       </c>
       <c r="AE25" t="n">
         <v>0.0001656429251838957</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0001053329611437675</v>
+        <v>0.0001053332363037292</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.663691810482653e-05</v>
+        <v>9.663658702142851e-05</v>
       </c>
       <c r="AH25" t="n">
         <v>6.018146240978815e-05</v>
@@ -4288,31 +4288,31 @@
         <v>8.627301937370877e-05</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.609290614431892e-05</v>
+        <v>5.609273873270759e-05</v>
       </c>
       <c r="AK25" t="n">
-        <v>7.889087144725474e-05</v>
+        <v>7.889093618534127e-05</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.368817592197121e-05</v>
+        <v>6.368821398126439e-05</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.055732522392024e-05</v>
+        <v>8.055772320769786e-05</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.0001028643499781723</v>
+        <v>0.0001028647136488038</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.092762345398997e-05</v>
+        <v>4.092731418731735e-05</v>
       </c>
       <c r="AP25" t="n">
         <v>7.508897438134552e-05</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.374073232842922e-05</v>
+        <v>6.374086329464075e-05</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.0001218723294053922</v>
+        <v>0.000121872373100549</v>
       </c>
       <c r="AS25" t="n">
         <v>7.070177553396803e-05</v>
@@ -4321,7 +4321,7 @@
         <v>0.0001786523978340813</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.045286309083816e-05</v>
+        <v>8.045298029334949e-05</v>
       </c>
       <c r="AV25" t="n">
         <v>8.873504260510838e-05</v>
@@ -4335,73 +4335,73 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0001533571347939407</v>
+        <v>0.0001533575294467373</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001006514382810451</v>
+        <v>0.0001006512528250342</v>
       </c>
       <c r="C26" t="n">
         <v>9.177365911549823e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>8.85803320389244e-05</v>
+        <v>8.858029886979763e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000127883467452361</v>
+        <v>0.0001278837277958272</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001118055659219307</v>
+        <v>0.0001118055800537367</v>
       </c>
       <c r="G26" t="n">
         <v>9.35130748973038e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001022709364532633</v>
+        <v>0.0001022709843667235</v>
       </c>
       <c r="I26" t="n">
         <v>0.0001165807502305587</v>
       </c>
       <c r="J26" t="n">
-        <v>7.443318063896337e-05</v>
+        <v>7.443327730285215e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001045992819230463</v>
+        <v>0.0001045989959759476</v>
       </c>
       <c r="L26" t="n">
-        <v>7.999937834029696e-05</v>
+        <v>7.999913285487416e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>9.888867110286179e-05</v>
+        <v>9.888871668260307e-05</v>
       </c>
       <c r="N26" t="n">
         <v>8.264295291913931e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0001533377258913331</v>
+        <v>0.0001533376245012184</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0001276349053334578</v>
+        <v>0.0001276347474484324</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.944887406533399e-05</v>
+        <v>9.944928185801604e-05</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0001450487938130209</v>
+        <v>8.066256141982241e-05</v>
       </c>
       <c r="S26" t="n">
-        <v>8.06628675105976e-05</v>
+        <v>0.0001450491426304065</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0001341020947906965</v>
+        <v>0.0001341021005444642</v>
       </c>
       <c r="U26" t="n">
-        <v>9.796749020712155e-05</v>
+        <v>9.796785995150504e-05</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0001036324228410754</v>
+        <v>0.0001036323266076945</v>
       </c>
       <c r="W26" t="n">
-        <v>6.229259400872852e-05</v>
+        <v>6.495380872517569e-05</v>
       </c>
       <c r="X26" t="n">
         <v>9.406001297801469e-05</v>
@@ -4410,28 +4410,28 @@
         <v>0.0001871342784572551</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.383555262917628e-05</v>
+        <v>9.383526559530393e-05</v>
       </c>
       <c r="AA26" t="n">
         <v>4.704666153313593e-05</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.972556551833112e-05</v>
+        <v>8.972494030851514e-05</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.553091413380311e-05</v>
+        <v>9.553101418328189e-05</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0001470332295855875</v>
+        <v>0.0001470328346989419</v>
       </c>
       <c r="AE26" t="n">
         <v>0.0001645991087696904</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.388073127643747e-05</v>
+        <v>8.388091457642602e-05</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.338942763197993e-05</v>
+        <v>8.33892622363451e-05</v>
       </c>
       <c r="AH26" t="n">
         <v>8.963156496439666e-05</v>
@@ -4440,31 +4440,31 @@
         <v>8.33043866530186e-05</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5.522446802436783e-05</v>
+        <v>5.522427740789396e-05</v>
       </c>
       <c r="AK26" t="n">
-        <v>9.398847967075034e-05</v>
+        <v>9.398890900336001e-05</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.0001019768406030259</v>
+        <v>0.0001019769006854178</v>
       </c>
       <c r="AM26" t="n">
-        <v>7.4002774384609e-05</v>
+        <v>7.400243183762339e-05</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.544787037733784e-05</v>
+        <v>9.544794996200557e-05</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.571423802703486e-05</v>
+        <v>6.57137087136734e-05</v>
       </c>
       <c r="AP26" t="n">
         <v>9.056036985846113e-05</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8.511622861596657e-05</v>
+        <v>8.511616532782977e-05</v>
       </c>
       <c r="AR26" t="n">
-        <v>8.613487870535251e-05</v>
+        <v>8.613486266297174e-05</v>
       </c>
       <c r="AS26" t="n">
         <v>6.63505026938242e-05</v>
@@ -4473,7 +4473,7 @@
         <v>0.0001515880068343897</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.33283983684731e-05</v>
+        <v>8.332921735825055e-05</v>
       </c>
       <c r="AV26" t="n">
         <v>0.0001034490228690144</v>
@@ -4487,225 +4487,225 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.611544484949549e-05</v>
+        <v>9.611502257471148e-05</v>
       </c>
       <c r="B27" t="n">
-        <v>9.403153817789611e-05</v>
+        <v>9.403103074665102e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>6.832461968782051e-05</v>
+        <v>6.832384912164175e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>5.9566074362892e-05</v>
+        <v>5.956568218972502e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001282247630496352</v>
+        <v>0.0001282242882945518</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00011423949689269</v>
+        <v>0.0001142392207273418</v>
       </c>
       <c r="G27" t="n">
-        <v>9.532589885423808e-05</v>
+        <v>9.532596427344747e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>9.514101719859363e-05</v>
+        <v>9.514043908294305e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001030463403169852</v>
+        <v>0.000103045705830696</v>
       </c>
       <c r="J27" t="n">
-        <v>9.082370604904119e-05</v>
+        <v>9.082311978027981e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001170558854404131</v>
+        <v>0.0001170551695383531</v>
       </c>
       <c r="L27" t="n">
-        <v>9.618634549397023e-05</v>
+        <v>9.618553918023907e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>9.387868942428041e-05</v>
+        <v>9.387828602120925e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.222471959250442e-05</v>
+        <v>6.222433844337297e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0001310623944251239</v>
+        <v>0.0001310618075835038</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0001441894783164919</v>
+        <v>0.0001441886017593481</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0001192697612336261</v>
+        <v>0.0001192696703983023</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0001271133404151347</v>
+        <v>6.569936587585645e-05</v>
       </c>
       <c r="S27" t="n">
-        <v>6.570029508405934e-05</v>
+        <v>0.000127112754458898</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0001199668360933479</v>
+        <v>0.0001199660409974417</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0001024703472029021</v>
+        <v>0.0001024695157735718</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0001032312401293491</v>
+        <v>0.0001032310338961451</v>
       </c>
       <c r="W27" t="n">
-        <v>7.110898819140372e-05</v>
+        <v>7.108233647253691e-05</v>
       </c>
       <c r="X27" t="n">
-        <v>6.86338412819655e-05</v>
+        <v>6.863353589579698e-05</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.383555262917628e-05</v>
+        <v>9.383526559530393e-05</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0002475494225891961</v>
+        <v>0.0002475486246995191</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.735713572993392e-05</v>
+        <v>4.735672328087521e-05</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0001328205497608164</v>
+        <v>0.0001328194079224144</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0001190961892519664</v>
+        <v>0.0001190957878296895</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0001691537960636416</v>
+        <v>0.0001691529072516135</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0001839339160255227</v>
+        <v>0.0001839331089025757</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.819834368499462e-05</v>
+        <v>9.819749280426066e-05</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0001502670235593573</v>
+        <v>0.0001502663072230919</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.12163996161035e-05</v>
+        <v>9.121629194166929e-05</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.179053506773192e-05</v>
+        <v>8.17906182639531e-05</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.827637416208919e-05</v>
+        <v>6.827631238185288e-05</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.0001113297100110416</v>
+        <v>0.0001113295250364585</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.0001308462129925674</v>
+        <v>0.0001308456060383327</v>
       </c>
       <c r="AM27" t="n">
-        <v>7.729747785287469e-05</v>
+        <v>7.729687642548569e-05</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.0001033134579168922</v>
+        <v>0.0001033130990517681</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.507662754971135e-05</v>
+        <v>5.50759019547847e-05</v>
       </c>
       <c r="AP27" t="n">
-        <v>8.480309425334223e-05</v>
+        <v>8.480222784437995e-05</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6.472125173873867e-05</v>
+        <v>6.472138611933097e-05</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.0001486181102130885</v>
+        <v>0.0001486172812920691</v>
       </c>
       <c r="AS27" t="n">
-        <v>8.024049986396403e-05</v>
+        <v>8.024042075202146e-05</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.0001688094934088367</v>
+        <v>0.0001688086563576149</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.813259866848935e-05</v>
+        <v>9.813281535107024e-05</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0001027705999118616</v>
+        <v>0.0001027703154688018</v>
       </c>
       <c r="AW27" t="n">
-        <v>8.222050613531866e-05</v>
+        <v>8.222000312026385e-05</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.0001565640017103873</v>
+        <v>0.0001565629601971441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.342015735631762e-05</v>
+        <v>8.342026875586314e-05</v>
       </c>
       <c r="B28" t="n">
-        <v>7.860027951182601e-05</v>
+        <v>7.860018880811773e-05</v>
       </c>
       <c r="C28" t="n">
         <v>9.127921995164405e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>9.74727026106786e-05</v>
+        <v>9.747272037395025e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>7.792068208141545e-05</v>
+        <v>7.792066207953161e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>7.29700356875482e-05</v>
+        <v>7.297017433254219e-05</v>
       </c>
       <c r="G28" t="n">
         <v>7.533354028530406e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>8.312759016855421e-05</v>
+        <v>8.312756892947359e-05</v>
       </c>
       <c r="I28" t="n">
         <v>8.297225109195958e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>7.261190960308299e-05</v>
+        <v>7.261176601875547e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.250508665627782e-05</v>
+        <v>2.250473921181505e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>6.234000664394274e-05</v>
+        <v>6.234004458404083e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>6.381659480622763e-05</v>
+        <v>6.381666640625532e-05</v>
       </c>
       <c r="N28" t="n">
         <v>3.810233467604994e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>6.79015908659326e-05</v>
+        <v>6.790160623816085e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>7.152261291606821e-05</v>
+        <v>7.152255753430218e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.166629403855285e-05</v>
+        <v>7.166665834259425e-05</v>
       </c>
       <c r="R28" t="n">
-        <v>8.631026041991792e-05</v>
+        <v>5.223713499694535e-05</v>
       </c>
       <c r="S28" t="n">
-        <v>5.223687989198921e-05</v>
+        <v>8.631039769096327e-05</v>
       </c>
       <c r="T28" t="n">
-        <v>9.5889512737775e-05</v>
+        <v>9.588950520175017e-05</v>
       </c>
       <c r="U28" t="n">
-        <v>6.132414276865898e-05</v>
+        <v>6.132402559579925e-05</v>
       </c>
       <c r="V28" t="n">
-        <v>8.075547717187198e-05</v>
+        <v>8.075486819782154e-05</v>
       </c>
       <c r="W28" t="n">
-        <v>4.767589944422309e-05</v>
+        <v>4.867682668384994e-05</v>
       </c>
       <c r="X28" t="n">
         <v>7.877683380662759e-05</v>
@@ -4714,28 +4714,28 @@
         <v>4.704666153313593e-05</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.735713572993392e-05</v>
+        <v>4.735672328087521e-05</v>
       </c>
       <c r="AA28" t="n">
         <v>0.0001948280664068532</v>
       </c>
       <c r="AB28" t="n">
-        <v>5.262156248832519e-05</v>
+        <v>5.262137643338967e-05</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.47733725929042e-05</v>
+        <v>4.477340189672534e-05</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.640917169633305e-05</v>
+        <v>6.640921377090044e-05</v>
       </c>
       <c r="AE28" t="n">
         <v>6.280063117064911e-05</v>
       </c>
       <c r="AF28" t="n">
-        <v>4.383074742231764e-05</v>
+        <v>4.383114490473937e-05</v>
       </c>
       <c r="AG28" t="n">
-        <v>4.550469276952042e-05</v>
+        <v>4.550466792321437e-05</v>
       </c>
       <c r="AH28" t="n">
         <v>5.855673980825642e-05</v>
@@ -4744,31 +4744,31 @@
         <v>6.821984797505743e-05</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7.716504134913073e-05</v>
+        <v>7.716495179345366e-05</v>
       </c>
       <c r="AK28" t="n">
-        <v>4.956603053478534e-05</v>
+        <v>4.956670070449311e-05</v>
       </c>
       <c r="AL28" t="n">
-        <v>4.34315247240276e-05</v>
+        <v>4.343151211451355e-05</v>
       </c>
       <c r="AM28" t="n">
-        <v>5.672317012945579e-05</v>
+        <v>5.672316841886244e-05</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.720940202213658e-05</v>
+        <v>5.720953970315998e-05</v>
       </c>
       <c r="AO28" t="n">
-        <v>2.36082218467402e-05</v>
+        <v>2.360847720694257e-05</v>
       </c>
       <c r="AP28" t="n">
         <v>4.745972567959988e-05</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3.677513143610038e-05</v>
+        <v>3.677488509219741e-05</v>
       </c>
       <c r="AR28" t="n">
-        <v>5.607129281234537e-05</v>
+        <v>5.607119735176168e-05</v>
       </c>
       <c r="AS28" t="n">
         <v>5.032874792134086e-05</v>
@@ -4777,7 +4777,7 @@
         <v>8.482747430482364e-05</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.183124747487191e-05</v>
+        <v>5.183126521201117e-05</v>
       </c>
       <c r="AV28" t="n">
         <v>6.380914753501746e-05</v>
@@ -4791,529 +4791,529 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.152409744579246e-05</v>
+        <v>9.152471232016183e-05</v>
       </c>
       <c r="B29" t="n">
-        <v>8.884515466115595e-05</v>
+        <v>8.884477834291528e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>7.427407393776584e-05</v>
+        <v>7.427390112928846e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>6.376846048252057e-05</v>
+        <v>6.376791623149714e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001434554207161931</v>
+        <v>0.0001434549413647669</v>
       </c>
       <c r="F29" t="n">
-        <v>9.324620908022596e-05</v>
+        <v>9.32453930803756e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>9.717830294720343e-05</v>
+        <v>9.717753483697199e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>9.745294697755655e-05</v>
+        <v>9.745239253184217e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>8.829901811604407e-05</v>
+        <v>8.829871547439193e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>9.334384113373247e-05</v>
+        <v>9.334365388308142e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001175556879453265</v>
+        <v>0.000117555336340444</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001061965918483785</v>
+        <v>0.0001061962630185452</v>
       </c>
       <c r="M29" t="n">
-        <v>8.045236759049641e-05</v>
+        <v>8.045187382308769e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.705253454684551e-05</v>
+        <v>3.705218100011378e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0001338803754426306</v>
+        <v>0.0001338794085313468</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0001332684643865417</v>
+        <v>0.0001332678726691404</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.000122456074747558</v>
+        <v>0.0001224554072211038</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0001340087337016979</v>
+        <v>7.694391983583498e-05</v>
       </c>
       <c r="S29" t="n">
-        <v>7.694518033383165e-05</v>
+        <v>0.0001340084302983551</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0001119866994030565</v>
+        <v>0.0001119862880897423</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0001191782627160368</v>
+        <v>0.0001191781816843675</v>
       </c>
       <c r="V29" t="n">
-        <v>7.944333339652407e-05</v>
+        <v>7.9442170079032e-05</v>
       </c>
       <c r="W29" t="n">
-        <v>8.49996165173108e-05</v>
+        <v>8.351955249647069e-05</v>
       </c>
       <c r="X29" t="n">
-        <v>9.871276890650468e-05</v>
+        <v>9.871232695586547e-05</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.972556551833112e-05</v>
+        <v>8.972494030851514e-05</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0001328205497608164</v>
+        <v>0.0001328194079224144</v>
       </c>
       <c r="AA29" t="n">
-        <v>5.262156248832519e-05</v>
+        <v>5.262137643338967e-05</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0002649114550521765</v>
+        <v>0.0002649105763254626</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0001318313622784457</v>
+        <v>0.0001318309769039286</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0001675935970903447</v>
+        <v>0.0001675932636525469</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0001491955127030351</v>
+        <v>0.0001491948266562838</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0001529563706324551</v>
+        <v>0.0001529560049898736</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.000164322040363676</v>
+        <v>0.0001643205733274436</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.718752746277336e-05</v>
+        <v>9.718708741444435e-05</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.159110242673724e-05</v>
+        <v>9.159074865437524e-05</v>
       </c>
       <c r="AJ29" t="n">
-        <v>6.215168024878408e-05</v>
+        <v>6.215147784746695e-05</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.0001294560610028385</v>
+        <v>0.0001294562356808698</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.0001609917242713291</v>
+        <v>0.0001609913559946209</v>
       </c>
       <c r="AM29" t="n">
-        <v>4.025528370255964e-05</v>
+        <v>4.025525618247958e-05</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.0001167404642266469</v>
+        <v>0.000116740170950835</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.397460077869931e-05</v>
+        <v>5.397419267452366e-05</v>
       </c>
       <c r="AP29" t="n">
-        <v>6.167283832826034e-05</v>
+        <v>6.167293083193847e-05</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.458822628371789e-05</v>
+        <v>5.45877199857258e-05</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.0001786832581587985</v>
+        <v>0.0001786820420004375</v>
       </c>
       <c r="AS29" t="n">
-        <v>8.303965486451093e-05</v>
+        <v>8.303924144839929e-05</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.0001737667933355443</v>
+        <v>0.0001737662605024429</v>
       </c>
       <c r="AU29" t="n">
-        <v>9.575023636183959e-05</v>
+        <v>9.575044376290568e-05</v>
       </c>
       <c r="AV29" t="n">
-        <v>9.216395548293254e-05</v>
+        <v>9.216358397871085e-05</v>
       </c>
       <c r="AW29" t="n">
-        <v>7.636108975303459e-05</v>
+        <v>7.636118106733881e-05</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.0001432763294918779</v>
+        <v>0.0001432760783199254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0002246166641051679</v>
+        <v>0.0002246164545929796</v>
       </c>
       <c r="B30" t="n">
-        <v>9.992696463195316e-05</v>
+        <v>9.992556754884339e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>4.192601471786599e-05</v>
+        <v>4.192576072987191e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>8.290811448407425e-05</v>
+        <v>8.290764639956954e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001864066652885806</v>
+        <v>0.0001864067180954426</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001519669449628657</v>
+        <v>0.0001519668933228578</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001036423781812849</v>
+        <v>0.000103642032843223</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001057702351900536</v>
+        <v>0.0001057699187717093</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000105782277815765</v>
+        <v>0.0001057819469391462</v>
       </c>
       <c r="J30" t="n">
-        <v>9.787407667290813e-05</v>
+        <v>9.787358585204896e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.000174737873679627</v>
+        <v>0.0001747370897006064</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001353364786516092</v>
+        <v>0.0001353360810454037</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000100557404908796</v>
+        <v>0.000100556205652491</v>
       </c>
       <c r="N30" t="n">
-        <v>8.166977437305032e-05</v>
+        <v>8.166981630149704e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0001860891162035717</v>
+        <v>0.0001860887268021218</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0001226292328557411</v>
+        <v>0.0001226287191884719</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0001729882637540947</v>
+        <v>0.00017298757211809</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0001899184570293618</v>
+        <v>0.0001218739125103723</v>
       </c>
       <c r="S30" t="n">
-        <v>0.00012187510193329</v>
+        <v>0.0001899182735164727</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0001555183787955805</v>
+        <v>0.000155518426708954</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0001372508780871612</v>
+        <v>0.0001372514014978719</v>
       </c>
       <c r="V30" t="n">
-        <v>6.225567289284055e-05</v>
+        <v>6.225474257361407e-05</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0001117657141946999</v>
+        <v>0.0001121864542051658</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0001112276401002208</v>
+        <v>0.0001112270866196124</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.553091413380311e-05</v>
+        <v>9.553101418328189e-05</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0001190961892519664</v>
+        <v>0.0001190957878296895</v>
       </c>
       <c r="AA30" t="n">
-        <v>4.47733725929042e-05</v>
+        <v>4.477340189672534e-05</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0001318313622784457</v>
+        <v>0.0001318309769039286</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.000516605557823958</v>
+        <v>0.0005166039039806944</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.000211954167702465</v>
+        <v>0.0002119535773033311</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0001964702572509112</v>
+        <v>0.0001964699324952615</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0001178957497187786</v>
+        <v>0.0001178947861112994</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0001314025948780647</v>
+        <v>0.0001314017036490022</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.383966884091875e-05</v>
+        <v>9.38395594059816e-05</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.149076952358994e-05</v>
+        <v>9.149053300562869e-05</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6.794345524413909e-05</v>
+        <v>6.794338607926374e-05</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.0001164594145381123</v>
+        <v>0.0001164591058517843</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.000110572329582305</v>
+        <v>0.0001105724273853949</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.112336198411566e-05</v>
+        <v>4.112288564615466e-05</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0001546288806705446</v>
+        <v>0.0001546286210306374</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.885620042310569e-05</v>
+        <v>5.885594529415669e-05</v>
       </c>
       <c r="AP30" t="n">
-        <v>6.897338978747547e-05</v>
+        <v>6.897325170679708e-05</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.940944619650506e-05</v>
+        <v>5.940882459797418e-05</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.0001118316859353492</v>
+        <v>0.0001118299728505339</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.898306761385632e-05</v>
+        <v>3.898307837132308e-05</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.0002468850872036673</v>
+        <v>0.0002468846789961689</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.000103256924836133</v>
+        <v>0.0001032566771332749</v>
       </c>
       <c r="AV30" t="n">
-        <v>9.642436289788314e-05</v>
+        <v>9.642434843334836e-05</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.654760925816742e-05</v>
+        <v>6.654776171501428e-05</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.0001342878961213553</v>
+        <v>0.00013428742924563</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0002457455435151555</v>
+        <v>0.0002457459221339637</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0001473465057285079</v>
+        <v>0.0001473458906915617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001322978146158085</v>
+        <v>0.0001322979077260465</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001192189959740482</v>
+        <v>0.0001192188658963245</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002875158424641795</v>
+        <v>0.0002875163082997466</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000189474958568794</v>
+        <v>0.0001894744523373215</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001961896829954761</v>
+        <v>0.0001961901886433743</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001590642978260062</v>
+        <v>0.0001590641271213838</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0001786893599834796</v>
+        <v>0.0001786894032944933</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0001344352937573053</v>
+        <v>0.0001344354428445939</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0002453976516843949</v>
+        <v>0.0002453977304268835</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0001814431464111622</v>
+        <v>0.000181442793838587</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0001392738797412722</v>
+        <v>0.0001392732611839631</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0001351546688678312</v>
+        <v>0.0001351548655778651</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0002353371282399398</v>
+        <v>0.000235336254531724</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0002113688957218157</v>
+        <v>0.000211368752914573</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0002115833394706123</v>
+        <v>0.0002115827457221444</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0002202973184963076</v>
+        <v>0.0001161803058163117</v>
       </c>
       <c r="S31" t="n">
-        <v>0.00011618144439669</v>
+        <v>0.0002202970694207783</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0002266566944786725</v>
+        <v>0.0002266567142573777</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0001891158074433839</v>
+        <v>0.0001891157523102877</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0001440824586270218</v>
+        <v>0.0001440823276040962</v>
       </c>
       <c r="W31" t="n">
-        <v>8.318207267493153e-05</v>
+        <v>8.410324800508251e-05</v>
       </c>
       <c r="X31" t="n">
-        <v>0.000145244019367966</v>
+        <v>0.0001452440607678947</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0001470332295855875</v>
+        <v>0.0001470328346989419</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0001691537960636416</v>
+        <v>0.0001691529072516135</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.640917169633305e-05</v>
+        <v>6.640921377090044e-05</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0001675935970903447</v>
+        <v>0.0001675932636525469</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.000211954167702465</v>
+        <v>0.0002119535773033311</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0005516555359377182</v>
+        <v>0.0005516560390225792</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0002497681372532919</v>
+        <v>0.0002497679632048626</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.0001257080232377325</v>
+        <v>0.000125707431802111</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0001792245235400805</v>
+        <v>0.0001792243557272732</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0001176502262051327</v>
+        <v>0.0001176500653452078</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.0001129961062619159</v>
+        <v>0.0001129957456777264</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.623595938942701e-05</v>
+        <v>9.623581276737435e-05</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.0001477476051874933</v>
+        <v>0.0001477484743464269</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0001742328952765554</v>
+        <v>0.0001742328456801732</v>
       </c>
       <c r="AM31" t="n">
-        <v>9.489159539667455e-05</v>
+        <v>9.489113028975098e-05</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.0002112535097697288</v>
+        <v>0.0002112537974322966</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.184870354018286e-05</v>
+        <v>4.18481394657181e-05</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.0001114206754572279</v>
+        <v>0.0001114211076262842</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.0001055294082520636</v>
+        <v>0.0001055295998838499</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.0001763940747629325</v>
+        <v>0.0001763940942689477</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.46781933260623e-05</v>
+        <v>5.467788081865357e-05</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.0003476597127041473</v>
+        <v>0.000347659702995452</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.0001329739699789876</v>
+        <v>0.0001329748796009301</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.0001391532772381282</v>
+        <v>0.0001391532003835134</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.0001518877049240995</v>
+        <v>0.0001518879839109704</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.000179500391820433</v>
+        <v>0.0001795004789171401</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0002464718044443857</v>
+        <v>0.0002464723505817102</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0001555267284531263</v>
+        <v>0.0001555265440993049</v>
       </c>
       <c r="C32" t="n">
         <v>0.0001275050869628383</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001402162271405499</v>
+        <v>0.0001402161635430942</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002251241871267383</v>
+        <v>0.0002251245715644659</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000207373432158583</v>
+        <v>0.0002073737740958491</v>
       </c>
       <c r="G32" t="n">
         <v>0.0001848840382963448</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0001551179987642213</v>
+        <v>0.000155117839111064</v>
       </c>
       <c r="I32" t="n">
         <v>0.0002006157963864076</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0001372943514113786</v>
+        <v>0.0001372942994654344</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0002200112611414452</v>
+        <v>0.0002200104422963081</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0001633299667435907</v>
+        <v>0.0001633299372651492</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0001636945565470035</v>
+        <v>0.0001636944756399387</v>
       </c>
       <c r="N32" t="n">
         <v>0.0001202180909205606</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0002376686240776016</v>
+        <v>0.0002376688804838791</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0002291849359721449</v>
+        <v>0.0002291846489398176</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0001953656510877319</v>
+        <v>0.000195365492060985</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0002347956057730404</v>
+        <v>0.0001352704606269679</v>
       </c>
       <c r="S32" t="n">
-        <v>0.000135271413680034</v>
+        <v>0.0002347960118987193</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0002448592604884628</v>
+        <v>0.0002448593449652806</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0001752961694839164</v>
+        <v>0.0001752968033858226</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0001349779905853652</v>
+        <v>0.0001349774788138102</v>
       </c>
       <c r="W32" t="n">
-        <v>9.585575489669721e-05</v>
+        <v>9.921797342812611e-05</v>
       </c>
       <c r="X32" t="n">
         <v>0.0001656429251838957</v>
@@ -5322,28 +5322,28 @@
         <v>0.0001645991087696904</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0001839339160255227</v>
+        <v>0.0001839331089025757</v>
       </c>
       <c r="AA32" t="n">
         <v>6.280063117064911e-05</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0001491955127030351</v>
+        <v>0.0001491948266562838</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0001964702572509112</v>
+        <v>0.0001964699324952615</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0002497681372532919</v>
+        <v>0.0002497679632048626</v>
       </c>
       <c r="AE32" t="n">
         <v>0.0004971763306736365</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.0001459336307891211</v>
+        <v>0.0001459332625143949</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0001826638372776145</v>
+        <v>0.0001826638661900232</v>
       </c>
       <c r="AH32" t="n">
         <v>0.0001286287060442672</v>
@@ -5352,31 +5352,31 @@
         <v>0.0001622496051040522</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.268872235229624e-05</v>
+        <v>8.268871363074965e-05</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.0001355792796904668</v>
+        <v>0.0001355794561963189</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.0001575134514769349</v>
+        <v>0.0001575139917635216</v>
       </c>
       <c r="AM32" t="n">
-        <v>9.81512200842642e-05</v>
+        <v>9.815138316997978e-05</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.0001963770064686497</v>
+        <v>0.0001963769792811163</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.050289086309951e-05</v>
+        <v>8.050254504032376e-05</v>
       </c>
       <c r="AP32" t="n">
         <v>0.0001393009968425076</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.0001105972393628723</v>
+        <v>0.0001105971119679332</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.000210557942730855</v>
+        <v>0.000210558286065044</v>
       </c>
       <c r="AS32" t="n">
         <v>0.0001115674343118107</v>
@@ -5385,7 +5385,7 @@
         <v>0.0003233659246631083</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.0001486355014996674</v>
+        <v>0.000148635593972585</v>
       </c>
       <c r="AV32" t="n">
         <v>0.0001781838910644806</v>
@@ -5399,377 +5399,377 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.752078947461947e-05</v>
+        <v>3.752204374593924e-05</v>
       </c>
       <c r="B33" t="n">
-        <v>9.283662934701629e-05</v>
+        <v>9.283658424538072e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>9.189857783531129e-05</v>
+        <v>9.189860661065406e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001069824245960734</v>
+        <v>0.0001069826004134975</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001164976783521678</v>
+        <v>0.0001164973846943226</v>
       </c>
       <c r="F33" t="n">
-        <v>0.000108918821679395</v>
+        <v>0.0001089188661106874</v>
       </c>
       <c r="G33" t="n">
-        <v>3.067135980109402e-05</v>
+        <v>3.067122604344898e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>6.509313233160192e-05</v>
+        <v>6.509304298826615e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>9.879392535305587e-05</v>
+        <v>9.879417855331551e-05</v>
       </c>
       <c r="J33" t="n">
-        <v>8.077698194516079e-05</v>
+        <v>8.077681575452097e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001199576479074122</v>
+        <v>0.0001199570400291008</v>
       </c>
       <c r="L33" t="n">
-        <v>8.202363885095677e-05</v>
+        <v>8.202377567088077e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>9.499364050656023e-05</v>
+        <v>9.499364589442997e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.561282899089742e-05</v>
+        <v>3.561276894956968e-05</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0001134293392402321</v>
+        <v>0.0001134293348691288</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0001151865696678145</v>
+        <v>0.0001151865874039215</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.374440046600229e-05</v>
+        <v>9.374452582151678e-05</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0001174541926390194</v>
+        <v>6.150059443650022e-05</v>
       </c>
       <c r="S33" t="n">
-        <v>6.150193581033347e-05</v>
+        <v>0.0001174538947230826</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0001331772233420422</v>
+        <v>0.000133177765892285</v>
       </c>
       <c r="U33" t="n">
-        <v>7.962213292172786e-05</v>
+        <v>7.96230970438955e-05</v>
       </c>
       <c r="V33" t="n">
-        <v>4.567878918058073e-05</v>
+        <v>4.567843016351149e-05</v>
       </c>
       <c r="W33" t="n">
-        <v>4.922050680261524e-05</v>
+        <v>5.040270518162297e-05</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0001053329611437675</v>
+        <v>0.0001053332363037292</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.388073127643747e-05</v>
+        <v>8.388091457642602e-05</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.819834368499462e-05</v>
+        <v>9.819749280426066e-05</v>
       </c>
       <c r="AA33" t="n">
-        <v>4.383074742231764e-05</v>
+        <v>4.383114490473937e-05</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0001529563706324551</v>
+        <v>0.0001529560049898736</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0001178957497187786</v>
+        <v>0.0001178947861112994</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0001257080232377325</v>
+        <v>0.000125707431802111</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0001459336307891211</v>
+        <v>0.0001459332625143949</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.0006066814021864464</v>
+        <v>0.0006066838882111046</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0001375346220217524</v>
+        <v>0.0001375346315393046</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.549716562181936e-05</v>
+        <v>9.549745544606466e-05</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.496094879887373e-05</v>
+        <v>3.496037366400845e-05</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3.245648062097472e-05</v>
+        <v>3.245665207271761e-05</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.0001113380135596816</v>
+        <v>0.0001113383390757569</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.0001168330205635235</v>
+        <v>0.0001168329608606591</v>
       </c>
       <c r="AM33" t="n">
-        <v>5.023467070696718e-05</v>
+        <v>5.023445727048173e-05</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.689592505811756e-05</v>
+        <v>9.689632579621077e-05</v>
       </c>
       <c r="AO33" t="n">
-        <v>4.416569948195818e-05</v>
+        <v>4.416589797067465e-05</v>
       </c>
       <c r="AP33" t="n">
-        <v>7.359258243178574e-05</v>
+        <v>7.359283898660855e-05</v>
       </c>
       <c r="AQ33" t="n">
-        <v>4.867903412496275e-05</v>
+        <v>4.867832728174094e-05</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.0002954080286623856</v>
+        <v>0.0002954081556170682</v>
       </c>
       <c r="AS33" t="n">
-        <v>5.033314058870672e-05</v>
+        <v>5.033348740794484e-05</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.0001589816731336449</v>
+        <v>0.0001589814681796163</v>
       </c>
       <c r="AU33" t="n">
-        <v>5.64571574399382e-05</v>
+        <v>5.64569802073639e-05</v>
       </c>
       <c r="AV33" t="n">
-        <v>8.790710064375228e-05</v>
+        <v>8.790711247447237e-05</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.522396436262099e-05</v>
+        <v>4.522395942767463e-05</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.000125690872290777</v>
+        <v>0.0001256909564721628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.218657903796745e-05</v>
+        <v>7.218707149587322e-05</v>
       </c>
       <c r="B34" t="n">
-        <v>9.555528978899464e-05</v>
+        <v>9.555513673125439e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>6.018971106894438e-05</v>
+        <v>6.018940551875016e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>6.591558153278068e-05</v>
+        <v>6.591578644336458e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001366339419595958</v>
+        <v>0.0001366341113883825</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0001348664591663022</v>
+        <v>0.0001348666257223041</v>
       </c>
       <c r="G34" t="n">
-        <v>9.790925127574098e-05</v>
+        <v>9.790954804222494e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>9.664091234609115e-05</v>
+        <v>9.664068592931802e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>9.527377756834773e-05</v>
+        <v>9.527382351217425e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0001033179346227814</v>
+        <v>0.0001033173137656568</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001232778241952671</v>
+        <v>0.0001232770394341421</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0001199883830528078</v>
+        <v>0.0001199878274211977</v>
       </c>
       <c r="M34" t="n">
-        <v>9.417574758431359e-05</v>
+        <v>9.417571059203728e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>5.130892301000415e-05</v>
+        <v>5.130870244872054e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0001338715087456554</v>
+        <v>0.0001338707696141759</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0001465631746882936</v>
+        <v>0.0001465626406890161</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0001317599558772784</v>
+        <v>0.0001317598135316051</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0001349269624679813</v>
+        <v>7.357289082271302e-05</v>
       </c>
       <c r="S34" t="n">
-        <v>7.357379304685402e-05</v>
+        <v>0.0001349268943667221</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0001261701882743429</v>
+        <v>0.0001261698029214942</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0001141550548694718</v>
+        <v>0.0001141549317153492</v>
       </c>
       <c r="V34" t="n">
-        <v>8.72844111251048e-05</v>
+        <v>8.728350144681738e-05</v>
       </c>
       <c r="W34" t="n">
-        <v>8.74860416134212e-05</v>
+        <v>8.78963655289688e-05</v>
       </c>
       <c r="X34" t="n">
-        <v>9.663691810482653e-05</v>
+        <v>9.663658702142851e-05</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.338942763197993e-05</v>
+        <v>8.33892622363451e-05</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0001502670235593573</v>
+        <v>0.0001502663072230919</v>
       </c>
       <c r="AA34" t="n">
-        <v>4.550469276952042e-05</v>
+        <v>4.550466792321437e-05</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.000164322040363676</v>
+        <v>0.0001643205733274436</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0001314025948780647</v>
+        <v>0.0001314017036490022</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0001792245235400805</v>
+        <v>0.0001792243557272732</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0001826638372776145</v>
+        <v>0.0001826638661900232</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.0001375346220217524</v>
+        <v>0.0001375346315393046</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0002620493205324572</v>
+        <v>0.0002620481989856269</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.0001006791123390884</v>
+        <v>0.0001006790242352584</v>
       </c>
       <c r="AI34" t="n">
-        <v>6.562481373911448e-05</v>
+        <v>6.562512207672409e-05</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6.000225383671985e-05</v>
+        <v>6.000152242611234e-05</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.0001569929436085889</v>
+        <v>0.000156993172699429</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.0001651098719566548</v>
+        <v>0.0001651091159706469</v>
       </c>
       <c r="AM34" t="n">
-        <v>4.133410933824291e-05</v>
+        <v>4.133331131123798e-05</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.0001312020230943781</v>
+        <v>0.0001312020041528135</v>
       </c>
       <c r="AO34" t="n">
-        <v>4.349380029724125e-05</v>
+        <v>4.349326387211588e-05</v>
       </c>
       <c r="AP34" t="n">
-        <v>7.318685230915602e-05</v>
+        <v>7.318642683457467e-05</v>
       </c>
       <c r="AQ34" t="n">
-        <v>5.532070609312063e-05</v>
+        <v>5.53206517666239e-05</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.0001777331515107008</v>
+        <v>0.0001777329721995021</v>
       </c>
       <c r="AS34" t="n">
-        <v>9.042305271676024e-05</v>
+        <v>9.042356698639056e-05</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.0002118766463066919</v>
+        <v>0.0002118761988246494</v>
       </c>
       <c r="AU34" t="n">
-        <v>9.61374259631017e-05</v>
+        <v>9.613800220305541e-05</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.0001087902557578303</v>
+        <v>0.0001087899519842105</v>
       </c>
       <c r="AW34" t="n">
-        <v>8.341307683255025e-05</v>
+        <v>8.341297056565708e-05</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.0001761962530776051</v>
+        <v>0.0001761956869811627</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0001144548007354571</v>
+        <v>0.0001144554218407058</v>
       </c>
       <c r="B35" t="n">
-        <v>7.71859261515436e-05</v>
+        <v>7.718527417631089e-05</v>
       </c>
       <c r="C35" t="n">
         <v>7.838785940234994e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>7.612590348514796e-05</v>
+        <v>7.612591903411454e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>8.840088095477485e-05</v>
+        <v>8.840086781113123e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>9.458806347297283e-05</v>
+        <v>9.458809099028037e-05</v>
       </c>
       <c r="G35" t="n">
         <v>0.0001068360661511422</v>
       </c>
       <c r="H35" t="n">
-        <v>9.810253834229499e-05</v>
+        <v>9.810263146394956e-05</v>
       </c>
       <c r="I35" t="n">
         <v>0.0001039916747313132</v>
       </c>
       <c r="J35" t="n">
-        <v>7.656494418123718e-05</v>
+        <v>7.656523501264876e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.924986332912035e-05</v>
+        <v>7.924949601557096e-05</v>
       </c>
       <c r="L35" t="n">
-        <v>8.240524507988927e-05</v>
+        <v>8.24050864334457e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>8.483924785506987e-05</v>
+        <v>8.483931457826362e-05</v>
       </c>
       <c r="N35" t="n">
         <v>5.716310743965902e-05</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0001071421335459498</v>
+        <v>0.0001071420815279144</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0001051096502460044</v>
+        <v>0.0001051095264887105</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.32925828158767e-05</v>
+        <v>8.329278512172728e-05</v>
       </c>
       <c r="R35" t="n">
-        <v>0.000109621339661117</v>
+        <v>5.449633145894088e-05</v>
       </c>
       <c r="S35" t="n">
-        <v>5.449649211836735e-05</v>
+        <v>0.0001096217754621853</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0001097518982658379</v>
+        <v>0.0001097519474541994</v>
       </c>
       <c r="U35" t="n">
-        <v>8.75871590385558e-05</v>
+        <v>8.758733795952441e-05</v>
       </c>
       <c r="V35" t="n">
-        <v>8.353445885714181e-05</v>
+        <v>8.353426101381072e-05</v>
       </c>
       <c r="W35" t="n">
-        <v>6.461123061265891e-05</v>
+        <v>6.521934594281339e-05</v>
       </c>
       <c r="X35" t="n">
         <v>6.018146240978815e-05</v>
@@ -5778,28 +5778,28 @@
         <v>8.963156496439666e-05</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.12163996161035e-05</v>
+        <v>9.121629194166929e-05</v>
       </c>
       <c r="AA35" t="n">
         <v>5.855673980825642e-05</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.718752746277336e-05</v>
+        <v>9.718708741444435e-05</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.383966884091875e-05</v>
+        <v>9.38395594059816e-05</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0001176502262051327</v>
+        <v>0.0001176500653452078</v>
       </c>
       <c r="AE35" t="n">
         <v>0.0001286287060442672</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.549716562181936e-05</v>
+        <v>9.549745544606466e-05</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0001006791123390884</v>
+        <v>0.0001006790242352584</v>
       </c>
       <c r="AH35" t="n">
         <v>0.0001853136855534976</v>
@@ -5808,31 +5808,31 @@
         <v>6.020909399907502e-05</v>
       </c>
       <c r="AJ35" t="n">
-        <v>5.675019561701081e-05</v>
+        <v>5.675024768634193e-05</v>
       </c>
       <c r="AK35" t="n">
-        <v>8.4983993199967e-05</v>
+        <v>8.49841555790959e-05</v>
       </c>
       <c r="AL35" t="n">
-        <v>9.713381366468818e-05</v>
+        <v>9.713358005200403e-05</v>
       </c>
       <c r="AM35" t="n">
-        <v>5.199559010596253e-05</v>
+        <v>5.199553050319474e-05</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.0250084092561e-05</v>
+        <v>9.025039035223551e-05</v>
       </c>
       <c r="AO35" t="n">
-        <v>4.355971257389981e-05</v>
+        <v>4.355940657641675e-05</v>
       </c>
       <c r="AP35" t="n">
         <v>5.632898115086384e-05</v>
       </c>
       <c r="AQ35" t="n">
-        <v>7.318106831092097e-05</v>
+        <v>7.318082239571934e-05</v>
       </c>
       <c r="AR35" t="n">
-        <v>8.164243084876571e-05</v>
+        <v>8.164244427764901e-05</v>
       </c>
       <c r="AS35" t="n">
         <v>4.887281202387002e-05</v>
@@ -5841,7 +5841,7 @@
         <v>0.0001179434253146068</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.248184036758029e-05</v>
+        <v>8.248209152198792e-05</v>
       </c>
       <c r="AV35" t="n">
         <v>8.266835075423557e-05</v>
@@ -5855,73 +5855,73 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0001328213940846745</v>
+        <v>0.0001328224006963626</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001100606043704793</v>
+        <v>0.0001100605572128403</v>
       </c>
       <c r="C36" t="n">
         <v>8.655554673622299e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001151456099315649</v>
+        <v>0.0001151456250319295</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001255670813774726</v>
+        <v>0.0001255674069995015</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001146538958568434</v>
+        <v>0.0001146541569706668</v>
       </c>
       <c r="G36" t="n">
         <v>9.810240399006753e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000117944920581221</v>
+        <v>0.0001179449610609956</v>
       </c>
       <c r="I36" t="n">
         <v>0.0001199451810340809</v>
       </c>
       <c r="J36" t="n">
-        <v>6.590706189421068e-05</v>
+        <v>6.590771357693259e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>9.083301807120027e-05</v>
+        <v>9.083259709282305e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>7.232890704953087e-05</v>
+        <v>7.23284754404165e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>9.774788145945611e-05</v>
+        <v>9.774743030719962e-05</v>
       </c>
       <c r="N36" t="n">
         <v>5.105573893620346e-05</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0001145073330512916</v>
+        <v>0.0001145068701268505</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0001057336151598599</v>
+        <v>0.0001057333649268082</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.020277415906699e-05</v>
+        <v>9.020305627344092e-05</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0001347696344768037</v>
+        <v>8.433158698279295e-05</v>
       </c>
       <c r="S36" t="n">
-        <v>8.433168881969736e-05</v>
+        <v>0.0001347694806009651</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0001243073844033612</v>
+        <v>0.0001243071827925229</v>
       </c>
       <c r="U36" t="n">
-        <v>8.534082716783293e-05</v>
+        <v>8.534115628389019e-05</v>
       </c>
       <c r="V36" t="n">
-        <v>8.177609786279142e-05</v>
+        <v>8.177661450886511e-05</v>
       </c>
       <c r="W36" t="n">
-        <v>7.001294285417164e-05</v>
+        <v>6.821699744293768e-05</v>
       </c>
       <c r="X36" t="n">
         <v>8.627301937370877e-05</v>
@@ -5930,28 +5930,28 @@
         <v>8.33043866530186e-05</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.179053506773192e-05</v>
+        <v>8.17906182639531e-05</v>
       </c>
       <c r="AA36" t="n">
         <v>6.821984797505743e-05</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.159110242673724e-05</v>
+        <v>9.159074865437524e-05</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.149076952358994e-05</v>
+        <v>9.149053300562869e-05</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0001129961062619159</v>
+        <v>0.0001129957456777264</v>
       </c>
       <c r="AE36" t="n">
         <v>0.0001622496051040522</v>
       </c>
       <c r="AF36" t="n">
-        <v>3.496094879887373e-05</v>
+        <v>3.496037366400845e-05</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.562481373911448e-05</v>
+        <v>6.562512207672409e-05</v>
       </c>
       <c r="AH36" t="n">
         <v>6.020909399907502e-05</v>
@@ -5960,31 +5960,31 @@
         <v>0.0003455978442222556</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3.736351855832389e-05</v>
+        <v>3.736337824795965e-05</v>
       </c>
       <c r="AK36" t="n">
-        <v>6.962522739257611e-05</v>
+        <v>6.962548108696537e-05</v>
       </c>
       <c r="AL36" t="n">
-        <v>4.256759337478217e-05</v>
+        <v>4.256764269991937e-05</v>
       </c>
       <c r="AM36" t="n">
-        <v>6.327242641831862e-05</v>
+        <v>6.327302509678106e-05</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.0001066752442285569</v>
+        <v>0.0001066752000234586</v>
       </c>
       <c r="AO36" t="n">
-        <v>3.030772446556274e-05</v>
+        <v>3.030706764711977e-05</v>
       </c>
       <c r="AP36" t="n">
         <v>9.830784052070385e-05</v>
       </c>
       <c r="AQ36" t="n">
-        <v>6.470621259109662e-05</v>
+        <v>6.470606269137968e-05</v>
       </c>
       <c r="AR36" t="n">
-        <v>6.326390620204454e-05</v>
+        <v>6.326367791337803e-05</v>
       </c>
       <c r="AS36" t="n">
         <v>6.464405867322361e-05</v>
@@ -5993,7 +5993,7 @@
         <v>0.0001402464160750962</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.393124733469261e-05</v>
+        <v>7.393148769129923e-05</v>
       </c>
       <c r="AV36" t="n">
         <v>8.056377664129454e-05</v>
@@ -6007,985 +6007,985 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.980430247306242e-05</v>
+        <v>9.980412300973123e-05</v>
       </c>
       <c r="B37" t="n">
-        <v>6.537349166725163e-05</v>
+        <v>6.537333514072291e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>4.602483379230827e-05</v>
+        <v>4.602503886707356e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>6.120527925972043e-05</v>
+        <v>6.120544133571485e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>7.173526688852852e-05</v>
+        <v>7.173496424913979e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>7.330762211869111e-05</v>
+        <v>7.330731215011544e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>5.670503704224286e-05</v>
+        <v>5.670559772188272e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>6.926347659677522e-05</v>
+        <v>6.926322242758613e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>7.478579478191743e-05</v>
+        <v>7.478562234626684e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>4.58825614431575e-05</v>
+        <v>4.588241860407912e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>5.100311050257892e-05</v>
+        <v>5.100289796991116e-05</v>
       </c>
       <c r="L37" t="n">
-        <v>6.716945118572445e-05</v>
+        <v>6.716915418710305e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>6.469022993131207e-05</v>
+        <v>6.469002285728116e-05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.511386213164779e-05</v>
+        <v>3.511360912503337e-05</v>
       </c>
       <c r="O37" t="n">
-        <v>6.377022479851031e-05</v>
+        <v>6.376985266117003e-05</v>
       </c>
       <c r="P37" t="n">
-        <v>5.781114251448628e-05</v>
+        <v>5.781141545689703e-05</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.030001496080157e-05</v>
+        <v>7.030013523062939e-05</v>
       </c>
       <c r="R37" t="n">
-        <v>6.855402606367606e-05</v>
+        <v>4.223822490955441e-05</v>
       </c>
       <c r="S37" t="n">
-        <v>4.223860719625529e-05</v>
+        <v>6.855410203216244e-05</v>
       </c>
       <c r="T37" t="n">
-        <v>7.517130891240073e-05</v>
+        <v>7.517140275527821e-05</v>
       </c>
       <c r="U37" t="n">
-        <v>6.495530743101292e-05</v>
+        <v>6.495472669835709e-05</v>
       </c>
       <c r="V37" t="n">
-        <v>8.818776957150684e-05</v>
+        <v>8.818676124959172e-05</v>
       </c>
       <c r="W37" t="n">
-        <v>5.389067545309932e-05</v>
+        <v>5.401463914026189e-05</v>
       </c>
       <c r="X37" t="n">
-        <v>5.609290614431892e-05</v>
+        <v>5.609273873270759e-05</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.522446802436783e-05</v>
+        <v>5.522427740789396e-05</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.827637416208919e-05</v>
+        <v>6.827631238185288e-05</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.716504134913073e-05</v>
+        <v>7.716495179345366e-05</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.215168024878408e-05</v>
+        <v>6.215147784746695e-05</v>
       </c>
       <c r="AC37" t="n">
-        <v>6.794345524413909e-05</v>
+        <v>6.794338607926374e-05</v>
       </c>
       <c r="AD37" t="n">
-        <v>9.623595938942701e-05</v>
+        <v>9.623581276737435e-05</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.268872235229624e-05</v>
+        <v>8.268871363074965e-05</v>
       </c>
       <c r="AF37" t="n">
-        <v>3.245648062097472e-05</v>
+        <v>3.245665207271761e-05</v>
       </c>
       <c r="AG37" t="n">
-        <v>6.000225383671985e-05</v>
+        <v>6.000152242611234e-05</v>
       </c>
       <c r="AH37" t="n">
-        <v>5.675019561701081e-05</v>
+        <v>5.675024768634193e-05</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.736351855832389e-05</v>
+        <v>3.736337824795965e-05</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.0001769948194005672</v>
+        <v>0.0001769951886770331</v>
       </c>
       <c r="AK37" t="n">
-        <v>4.16016951332701e-05</v>
+        <v>4.160201559847978e-05</v>
       </c>
       <c r="AL37" t="n">
-        <v>6.911313800781497e-05</v>
+        <v>6.911298059948128e-05</v>
       </c>
       <c r="AM37" t="n">
-        <v>6.526666012563621e-05</v>
+        <v>6.526635879876795e-05</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.357409718873946e-05</v>
+        <v>5.357418173979181e-05</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.857781957269148e-05</v>
+        <v>3.857704497861735e-05</v>
       </c>
       <c r="AP37" t="n">
-        <v>5.838239581814646e-05</v>
+        <v>5.838246340338221e-05</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.976195818927519e-05</v>
+        <v>2.976151581193319e-05</v>
       </c>
       <c r="AR37" t="n">
-        <v>4.755939520514903e-05</v>
+        <v>4.755975744532332e-05</v>
       </c>
       <c r="AS37" t="n">
-        <v>5.820476665562118e-05</v>
+        <v>5.820471992613517e-05</v>
       </c>
       <c r="AT37" t="n">
-        <v>6.260006292889894e-05</v>
+        <v>6.260002132644322e-05</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.537532673312938e-05</v>
+        <v>6.53756201120966e-05</v>
       </c>
       <c r="AV37" t="n">
-        <v>7.43177837269801e-05</v>
+        <v>7.431783854489219e-05</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.231682103010988e-05</v>
+        <v>6.231631838689377e-05</v>
       </c>
       <c r="AX37" t="n">
-        <v>4.723633158388468e-05</v>
+        <v>4.723633227832361e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.959800567887028e-05</v>
+        <v>7.959795701112049e-05</v>
       </c>
       <c r="B38" t="n">
-        <v>7.410633339174506e-05</v>
+        <v>7.410621889557846e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>5.207463359446044e-05</v>
+        <v>5.207392548818198e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>6.157151764761649e-05</v>
+        <v>6.157127351897908e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001094466853854481</v>
+        <v>0.0001094468411500656</v>
       </c>
       <c r="F38" t="n">
-        <v>9.890467162433953e-05</v>
+        <v>9.89054164789055e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>6.589742399466888e-05</v>
+        <v>6.589670967229617e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001007203666172983</v>
+        <v>0.0001007203822939941</v>
       </c>
       <c r="I38" t="n">
-        <v>7.100001246880922e-05</v>
+        <v>7.099998333505383e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>8.79174341937351e-05</v>
+        <v>8.791726748841975e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>9.392679608896007e-05</v>
+        <v>9.392643377708925e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>9.761751599723296e-05</v>
+        <v>9.761725542243801e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>8.10382063131946e-05</v>
+        <v>8.103814207795658e-05</v>
       </c>
       <c r="N38" t="n">
-        <v>1.370322847201364e-05</v>
+        <v>1.370335706158631e-05</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0001107956262009718</v>
+        <v>0.0001107963445593702</v>
       </c>
       <c r="P38" t="n">
-        <v>9.627145324054641e-05</v>
+        <v>9.627092965610909e-05</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0001040898511814032</v>
+        <v>0.0001040899896173562</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0001042650853149442</v>
+        <v>5.84853632259482e-05</v>
       </c>
       <c r="S38" t="n">
-        <v>5.848507055322217e-05</v>
+        <v>0.0001042657267465841</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0001066003280620616</v>
+        <v>0.0001066011450233075</v>
       </c>
       <c r="U38" t="n">
-        <v>9.767457196299995e-05</v>
+        <v>9.767521075345958e-05</v>
       </c>
       <c r="V38" t="n">
-        <v>5.425410343032625e-05</v>
+        <v>5.425408720267404e-05</v>
       </c>
       <c r="W38" t="n">
-        <v>6.757914036070088e-05</v>
+        <v>6.831421604865627e-05</v>
       </c>
       <c r="X38" t="n">
-        <v>7.889087144725474e-05</v>
+        <v>7.889093618534127e-05</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.398847967075034e-05</v>
+        <v>9.398890900336001e-05</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0001113297100110416</v>
+        <v>0.0001113295250364585</v>
       </c>
       <c r="AA38" t="n">
-        <v>4.956603053478534e-05</v>
+        <v>4.956670070449311e-05</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0001294560610028385</v>
+        <v>0.0001294562356808698</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0001164594145381123</v>
+        <v>0.0001164591058517843</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0001477476051874933</v>
+        <v>0.0001477484743464269</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0001355792796904668</v>
+        <v>0.0001355794561963189</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0001113380135596816</v>
+        <v>0.0001113383390757569</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0001569929436085889</v>
+        <v>0.000156993172699429</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.4983993199967e-05</v>
+        <v>8.49841555790959e-05</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.962522739257611e-05</v>
+        <v>6.962548108696537e-05</v>
       </c>
       <c r="AJ38" t="n">
-        <v>4.16016951332701e-05</v>
+        <v>4.160201559847978e-05</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.0002380494967980593</v>
+        <v>0.0002380500453859252</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.0001504505790807374</v>
+        <v>0.0001504507785569372</v>
       </c>
       <c r="AM38" t="n">
-        <v>3.692693768954211e-05</v>
+        <v>3.692673255885837e-05</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.571961965046186e-05</v>
+        <v>9.572012370080471e-05</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.985622687635485e-05</v>
+        <v>4.985557831318857e-05</v>
       </c>
       <c r="AP38" t="n">
-        <v>6.058249349573613e-05</v>
+        <v>6.058302458267362e-05</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3.182637307678302e-05</v>
+        <v>3.182657240539104e-05</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.0001324145565917921</v>
+        <v>0.0001324146545833418</v>
       </c>
       <c r="AS38" t="n">
-        <v>5.367422397691322e-05</v>
+        <v>5.367426247623185e-05</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.0001359349279105672</v>
+        <v>0.000135935871150074</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.067854175658186e-05</v>
+        <v>7.067928606678582e-05</v>
       </c>
       <c r="AV38" t="n">
-        <v>8.10771282373315e-05</v>
+        <v>8.1077741078545e-05</v>
       </c>
       <c r="AW38" t="n">
-        <v>9.044736222444691e-05</v>
+        <v>9.044729631797418e-05</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.0001382723449833163</v>
+        <v>0.0001382723253792745</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0001165894497993601</v>
+        <v>0.0001165896735555572</v>
       </c>
       <c r="B39" t="n">
-        <v>7.153668987745409e-05</v>
+        <v>7.153616925514521e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>4.176401985608266e-05</v>
+        <v>4.176396785036809e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>1.488413230973687e-05</v>
+        <v>1.488378968562795e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0001262246973882205</v>
+        <v>0.0001262245676211845</v>
       </c>
       <c r="F39" t="n">
-        <v>9.711815075545623e-05</v>
+        <v>9.711842983163791e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>7.270122664476514e-05</v>
+        <v>7.270128424262561e-05</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001052065875332637</v>
+        <v>0.0001052067967606971</v>
       </c>
       <c r="I39" t="n">
-        <v>7.18414344877624e-05</v>
+        <v>7.184148448401471e-05</v>
       </c>
       <c r="J39" t="n">
-        <v>9.096433630993581e-05</v>
+        <v>9.096456296791823e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0001270054609885141</v>
+        <v>0.0001270056157492276</v>
       </c>
       <c r="L39" t="n">
-        <v>0.000101090677226322</v>
+        <v>0.0001010910481316684</v>
       </c>
       <c r="M39" t="n">
-        <v>8.627507443491637e-05</v>
+        <v>8.627540217115334e-05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.264176883163309e-05</v>
+        <v>3.264178114911326e-05</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0001386126943249757</v>
+        <v>0.0001386128361156579</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0001176503270972953</v>
+        <v>0.0001176499412570155</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0001138917217132025</v>
+        <v>0.0001138922865085899</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0001324632779008494</v>
+        <v>7.660711161017333e-05</v>
       </c>
       <c r="S39" t="n">
-        <v>7.6608039479434e-05</v>
+        <v>0.0001324627470805455</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0001131764233736877</v>
+        <v>0.0001131766182310963</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0001034277733577356</v>
+        <v>0.0001034277241195522</v>
       </c>
       <c r="V39" t="n">
-        <v>7.931788619740813e-05</v>
+        <v>7.931723931006837e-05</v>
       </c>
       <c r="W39" t="n">
-        <v>7.411520578538246e-05</v>
+        <v>7.527898536110947e-05</v>
       </c>
       <c r="X39" t="n">
-        <v>6.368817592197121e-05</v>
+        <v>6.368821398126439e-05</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0001019768406030259</v>
+        <v>0.0001019769006854178</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0001308462129925674</v>
+        <v>0.0001308456060383327</v>
       </c>
       <c r="AA39" t="n">
-        <v>4.34315247240276e-05</v>
+        <v>4.343151211451355e-05</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0001609917242713291</v>
+        <v>0.0001609913559946209</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.000110572329582305</v>
+        <v>0.0001105724273853949</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.0001742328952765554</v>
+        <v>0.0001742328456801732</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0001575134514769349</v>
+        <v>0.0001575139917635216</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0001168330205635235</v>
+        <v>0.0001168329608606591</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0001651098719566548</v>
+        <v>0.0001651091159706469</v>
       </c>
       <c r="AH39" t="n">
-        <v>9.713381366468818e-05</v>
+        <v>9.713358005200403e-05</v>
       </c>
       <c r="AI39" t="n">
-        <v>4.256759337478217e-05</v>
+        <v>4.256764269991937e-05</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6.911313800781497e-05</v>
+        <v>6.911298059948128e-05</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.0001504505790807374</v>
+        <v>0.0001504507785569372</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.000285502808616914</v>
+        <v>0.0002855029183714822</v>
       </c>
       <c r="AM39" t="n">
-        <v>4.077615497683751e-05</v>
+        <v>4.077559823036687e-05</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.000102695479435057</v>
+        <v>0.0001026951327778216</v>
       </c>
       <c r="AO39" t="n">
-        <v>5.736642427958874e-05</v>
+        <v>5.736594411217052e-05</v>
       </c>
       <c r="AP39" t="n">
-        <v>6.834792617391495e-05</v>
+        <v>6.834779405100114e-05</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3.165899175799036e-05</v>
+        <v>3.165934726639313e-05</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.000122570856788129</v>
+        <v>0.0001225706225537506</v>
       </c>
       <c r="AS39" t="n">
-        <v>6.885091633996673e-05</v>
+        <v>6.885060000600683e-05</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.0001625420918449125</v>
+        <v>0.0001625424636623354</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.0001128246756992381</v>
+        <v>0.0001128255995215808</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0001074123659548736</v>
+        <v>0.0001074123870010525</v>
       </c>
       <c r="AW39" t="n">
-        <v>9.672570001468697e-05</v>
+        <v>9.672607078758411e-05</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.0001516639271984135</v>
+        <v>0.0001516639969661368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.317188364886624e-05</v>
+        <v>9.317270279390004e-05</v>
       </c>
       <c r="B40" t="n">
-        <v>8.425600057774043e-05</v>
+        <v>8.425602431225856e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>8.849357965370602e-05</v>
+        <v>8.849352123595434e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>8.216242868953579e-05</v>
+        <v>8.216247709275555e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0001036196691105022</v>
+        <v>0.0001036190340900818</v>
       </c>
       <c r="F40" t="n">
-        <v>8.797183927328911e-05</v>
+        <v>8.797156611262577e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>8.991852211644284e-05</v>
+        <v>8.991802036805653e-05</v>
       </c>
       <c r="H40" t="n">
-        <v>8.612400670103344e-05</v>
+        <v>8.612425104778989e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>9.617340597621243e-05</v>
+        <v>9.617351977922161e-05</v>
       </c>
       <c r="J40" t="n">
-        <v>6.113425423536834e-05</v>
+        <v>6.113415778466207e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>6.720006542962959e-05</v>
+        <v>6.720018821706495e-05</v>
       </c>
       <c r="L40" t="n">
-        <v>7.365061965673401e-05</v>
+        <v>7.365025733070105e-05</v>
       </c>
       <c r="M40" t="n">
-        <v>6.148116538860734e-05</v>
+        <v>6.148117627628762e-05</v>
       </c>
       <c r="N40" t="n">
-        <v>6.727307589697378e-05</v>
+        <v>6.727279912955368e-05</v>
       </c>
       <c r="O40" t="n">
-        <v>9.536579385122008e-05</v>
+        <v>9.536563268012843e-05</v>
       </c>
       <c r="P40" t="n">
-        <v>9.637359668928428e-05</v>
+        <v>9.637342197525591e-05</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.276221610398375e-05</v>
+        <v>7.276234387054168e-05</v>
       </c>
       <c r="R40" t="n">
-        <v>9.798573455317822e-05</v>
+        <v>6.119627635555343e-05</v>
       </c>
       <c r="S40" t="n">
-        <v>6.119670446278798e-05</v>
+        <v>9.798577614145198e-05</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0001056164386923118</v>
+        <v>0.0001056168039486812</v>
       </c>
       <c r="U40" t="n">
-        <v>8.485645633283787e-05</v>
+        <v>8.485669782094667e-05</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0001467691923379658</v>
+        <v>0.0001467692127716883</v>
       </c>
       <c r="W40" t="n">
-        <v>4.586452919724337e-05</v>
+        <v>4.639174651605056e-05</v>
       </c>
       <c r="X40" t="n">
-        <v>8.055732522392024e-05</v>
+        <v>8.055772320769786e-05</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.4002774384609e-05</v>
+        <v>7.400243183762339e-05</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.729747785287469e-05</v>
+        <v>7.729687642548569e-05</v>
       </c>
       <c r="AA40" t="n">
-        <v>5.672317012945579e-05</v>
+        <v>5.672316841886244e-05</v>
       </c>
       <c r="AB40" t="n">
-        <v>4.025528370255964e-05</v>
+        <v>4.025525618247958e-05</v>
       </c>
       <c r="AC40" t="n">
-        <v>4.112336198411566e-05</v>
+        <v>4.112288564615466e-05</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.489159539667455e-05</v>
+        <v>9.489113028975098e-05</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.81512200842642e-05</v>
+        <v>9.815138316997978e-05</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.023467070696718e-05</v>
+        <v>5.023445727048173e-05</v>
       </c>
       <c r="AG40" t="n">
-        <v>4.133410933824291e-05</v>
+        <v>4.133331131123798e-05</v>
       </c>
       <c r="AH40" t="n">
-        <v>5.199559010596253e-05</v>
+        <v>5.199553050319474e-05</v>
       </c>
       <c r="AI40" t="n">
-        <v>6.327242641831862e-05</v>
+        <v>6.327302509678106e-05</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6.526666012563621e-05</v>
+        <v>6.526635879876795e-05</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.692693768954211e-05</v>
+        <v>3.692673255885837e-05</v>
       </c>
       <c r="AL40" t="n">
-        <v>4.077615497683751e-05</v>
+        <v>4.077559823036687e-05</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.0001661078943199228</v>
+        <v>0.0001661077340626783</v>
       </c>
       <c r="AN40" t="n">
-        <v>7.956727111127478e-05</v>
+        <v>7.956762127789678e-05</v>
       </c>
       <c r="AO40" t="n">
-        <v>7.716897184917675e-05</v>
+        <v>7.7168959832674e-05</v>
       </c>
       <c r="AP40" t="n">
-        <v>7.434693840616106e-05</v>
+        <v>7.434686493763749e-05</v>
       </c>
       <c r="AQ40" t="n">
-        <v>7.263565460891758e-05</v>
+        <v>7.263547184526815e-05</v>
       </c>
       <c r="AR40" t="n">
-        <v>4.208384602044801e-05</v>
+        <v>4.208357259118935e-05</v>
       </c>
       <c r="AS40" t="n">
-        <v>5.607378784448598e-05</v>
+        <v>5.60740416099527e-05</v>
       </c>
       <c r="AT40" t="n">
-        <v>8.765066062428291e-05</v>
+        <v>8.765029354416267e-05</v>
       </c>
       <c r="AU40" t="n">
-        <v>5.863095989981241e-05</v>
+        <v>5.863124724688686e-05</v>
       </c>
       <c r="AV40" t="n">
-        <v>6.053926550142135e-05</v>
+        <v>6.053939689303523e-05</v>
       </c>
       <c r="AW40" t="n">
-        <v>8.374725164771627e-05</v>
+        <v>8.374726666091168e-05</v>
       </c>
       <c r="AX40" t="n">
-        <v>6.761634364061013e-05</v>
+        <v>6.761593245344693e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0001904772904112002</v>
+        <v>0.0001904786166218318</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0001100559616671473</v>
+        <v>0.0001100559236903677</v>
       </c>
       <c r="C41" t="n">
-        <v>8.841495945772377e-05</v>
+        <v>8.841567885477681e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>8.657725232818739e-05</v>
+        <v>8.657770879827064e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002014117259611297</v>
+        <v>0.0002014123969748797</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0001611525800329266</v>
+        <v>0.0001611526578847427</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001357859376213664</v>
+        <v>0.0001357866514522798</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001045525576753258</v>
+        <v>0.0001045529165209857</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0001246117315335292</v>
+        <v>0.0001246116715328221</v>
       </c>
       <c r="J41" t="n">
-        <v>9.863378996313446e-05</v>
+        <v>9.86340390278303e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001666797015698457</v>
+        <v>0.0001666792436534331</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0001629806038071931</v>
+        <v>0.0001629806133984476</v>
       </c>
       <c r="M41" t="n">
-        <v>9.373221153460529e-05</v>
+        <v>9.37320549649918e-05</v>
       </c>
       <c r="N41" t="n">
-        <v>7.358245116669857e-05</v>
+        <v>7.358233837352859e-05</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0002071933954905583</v>
+        <v>0.0002071936778161575</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0001427180548223049</v>
+        <v>0.0001427184442773758</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0001813117384195867</v>
+        <v>0.0001813118381027168</v>
       </c>
       <c r="R41" t="n">
-        <v>0.000191993056145748</v>
+        <v>0.0001102336244868421</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0001102342735803891</v>
+        <v>0.0001919929900099543</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0001723619890615532</v>
+        <v>0.0001723623761047827</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0001416093186700432</v>
+        <v>0.0001416101183320668</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0001208689719898114</v>
+        <v>0.0001208685720035124</v>
       </c>
       <c r="W41" t="n">
-        <v>6.326922868845055e-05</v>
+        <v>6.433824700998113e-05</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0001028643499781723</v>
+        <v>0.0001028647136488038</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.544787037733784e-05</v>
+        <v>9.544794996200557e-05</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0001033134579168922</v>
+        <v>0.0001033130990517681</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.720940202213658e-05</v>
+        <v>5.720953970315998e-05</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0001167404642266469</v>
+        <v>0.000116740170950835</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0001546288806705446</v>
+        <v>0.0001546286210306374</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0002112535097697288</v>
+        <v>0.0002112537974322966</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0001963770064686497</v>
+        <v>0.0001963769792811163</v>
       </c>
       <c r="AF41" t="n">
-        <v>9.689592505811756e-05</v>
+        <v>9.689632579621077e-05</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0001312020230943781</v>
+        <v>0.0001312020041528135</v>
       </c>
       <c r="AH41" t="n">
-        <v>9.0250084092561e-05</v>
+        <v>9.025039035223551e-05</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.0001066752442285569</v>
+        <v>0.0001066752000234586</v>
       </c>
       <c r="AJ41" t="n">
-        <v>5.357409718873946e-05</v>
+        <v>5.357418173979181e-05</v>
       </c>
       <c r="AK41" t="n">
-        <v>9.571961965046186e-05</v>
+        <v>9.572012370080471e-05</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.000102695479435057</v>
+        <v>0.0001026951327778216</v>
       </c>
       <c r="AM41" t="n">
-        <v>7.956727111127478e-05</v>
+        <v>7.956762127789678e-05</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.0002551837774311135</v>
+        <v>0.0002551844690311919</v>
       </c>
       <c r="AO41" t="n">
-        <v>5.140311329217347e-05</v>
+        <v>5.140293805608637e-05</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.0001012542992716314</v>
+        <v>0.0001012543190694511</v>
       </c>
       <c r="AQ41" t="n">
-        <v>9.245259423949171e-05</v>
+        <v>9.245244916937639e-05</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.0001216074902142288</v>
+        <v>0.0001216073184303673</v>
       </c>
       <c r="AS41" t="n">
-        <v>7.659376664189252e-05</v>
+        <v>7.659370920725772e-05</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.0002730983339712127</v>
+        <v>0.0002730986181588565</v>
       </c>
       <c r="AU41" t="n">
-        <v>9.722490211781784e-05</v>
+        <v>9.722569914950612e-05</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0001079807789081032</v>
+        <v>0.0001079810821401154</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.0001170077325200348</v>
+        <v>0.000117007799682699</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.000121250612351688</v>
+        <v>0.0001212506833642961</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.796559145579641e-05</v>
+        <v>4.796646739199496e-05</v>
       </c>
       <c r="B42" t="n">
-        <v>5.01805901105844e-05</v>
+        <v>5.017983444100401e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>4.492003918890331e-05</v>
+        <v>4.491974421790468e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>6.29398358795614e-05</v>
+        <v>6.293972374187028e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>6.558149542604675e-05</v>
+        <v>6.558080935822571e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>6.824426995775764e-05</v>
+        <v>6.824361377700596e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>1.794277021815077e-05</v>
+        <v>1.794307439768594e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>5.983765947223822e-05</v>
+        <v>5.98374501699564e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>6.110277778786649e-05</v>
+        <v>6.110246145470565e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>4.707143314745032e-05</v>
+        <v>4.707158338513381e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>6.985737282839087e-05</v>
+        <v>6.985720069685438e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>5.091287465588306e-05</v>
+        <v>5.09123647491431e-05</v>
       </c>
       <c r="M42" t="n">
-        <v>4.481386194154046e-05</v>
+        <v>4.481319115248427e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>5.07239021621828e-05</v>
+        <v>5.072407075280866e-05</v>
       </c>
       <c r="O42" t="n">
-        <v>8.036118086777366e-05</v>
+        <v>8.036060429644671e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>4.430775983470085e-05</v>
+        <v>4.430812678189738e-05</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.146341755223783e-05</v>
+        <v>5.14633382296393e-05</v>
       </c>
       <c r="R42" t="n">
-        <v>7.71778055616872e-05</v>
+        <v>5.215435233935582e-05</v>
       </c>
       <c r="S42" t="n">
-        <v>5.21555938903728e-05</v>
+        <v>7.717755556500517e-05</v>
       </c>
       <c r="T42" t="n">
-        <v>7.447476583459044e-05</v>
+        <v>7.447453167659032e-05</v>
       </c>
       <c r="U42" t="n">
-        <v>6.302668293599197e-05</v>
+        <v>6.302662077108321e-05</v>
       </c>
       <c r="V42" t="n">
-        <v>9.480899722599093e-05</v>
+        <v>9.480849762990898e-05</v>
       </c>
       <c r="W42" t="n">
-        <v>4.211166299669595e-05</v>
+        <v>4.496789580482354e-05</v>
       </c>
       <c r="X42" t="n">
-        <v>4.092762345398997e-05</v>
+        <v>4.092731418731735e-05</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.571423802703486e-05</v>
+        <v>6.57137087136734e-05</v>
       </c>
       <c r="Z42" t="n">
-        <v>5.507662754971135e-05</v>
+        <v>5.50759019547847e-05</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.36082218467402e-05</v>
+        <v>2.360847720694257e-05</v>
       </c>
       <c r="AB42" t="n">
-        <v>5.397460077869931e-05</v>
+        <v>5.397419267452366e-05</v>
       </c>
       <c r="AC42" t="n">
-        <v>5.885620042310569e-05</v>
+        <v>5.885594529415669e-05</v>
       </c>
       <c r="AD42" t="n">
-        <v>4.184870354018286e-05</v>
+        <v>4.18481394657181e-05</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.050289086309951e-05</v>
+        <v>8.050254504032376e-05</v>
       </c>
       <c r="AF42" t="n">
-        <v>4.416569948195818e-05</v>
+        <v>4.416589797067465e-05</v>
       </c>
       <c r="AG42" t="n">
-        <v>4.349380029724125e-05</v>
+        <v>4.349326387211588e-05</v>
       </c>
       <c r="AH42" t="n">
-        <v>4.355971257389981e-05</v>
+        <v>4.355940657641675e-05</v>
       </c>
       <c r="AI42" t="n">
-        <v>3.030772446556274e-05</v>
+        <v>3.030706764711977e-05</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3.857781957269148e-05</v>
+        <v>3.857704497861735e-05</v>
       </c>
       <c r="AK42" t="n">
-        <v>4.985622687635485e-05</v>
+        <v>4.985557831318857e-05</v>
       </c>
       <c r="AL42" t="n">
-        <v>5.736642427958874e-05</v>
+        <v>5.736594411217052e-05</v>
       </c>
       <c r="AM42" t="n">
-        <v>7.716897184917675e-05</v>
+        <v>7.7168959832674e-05</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.140311329217347e-05</v>
+        <v>5.140293805608637e-05</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.0001998638279801626</v>
+        <v>0.000199863817483237</v>
       </c>
       <c r="AP42" t="n">
-        <v>5.179260260665134e-05</v>
+        <v>5.179242687333202e-05</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.837138191875373e-05</v>
+        <v>2.837052191827891e-05</v>
       </c>
       <c r="AR42" t="n">
-        <v>9.478390423316887e-05</v>
+        <v>9.478464154319211e-05</v>
       </c>
       <c r="AS42" t="n">
-        <v>4.868973542529058e-05</v>
+        <v>4.868936578716468e-05</v>
       </c>
       <c r="AT42" t="n">
-        <v>7.543040290143735e-05</v>
+        <v>7.542990012991773e-05</v>
       </c>
       <c r="AU42" t="n">
-        <v>5.872191707266455e-05</v>
+        <v>5.872181497353811e-05</v>
       </c>
       <c r="AV42" t="n">
-        <v>4.467706427283692e-05</v>
+        <v>4.467665823623136e-05</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.842406452085174e-05</v>
+        <v>4.842347213472499e-05</v>
       </c>
       <c r="AX42" t="n">
-        <v>7.883422341211121e-05</v>
+        <v>7.883397266925281e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0001040495496529295</v>
+        <v>0.0001040497643269943</v>
       </c>
       <c r="B43" t="n">
-        <v>9.305219237069956e-05</v>
+        <v>9.305179559569501e-05</v>
       </c>
       <c r="C43" t="n">
         <v>6.124018999417766e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>7.664540864765773e-05</v>
+        <v>7.664535592195834e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001307924050483339</v>
+        <v>0.0001307922269180051</v>
       </c>
       <c r="F43" t="n">
-        <v>9.813448189235526e-05</v>
+        <v>9.813424797634307e-05</v>
       </c>
       <c r="G43" t="n">
         <v>8.523212734404946e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001028317732608473</v>
+        <v>0.0001028317181925638</v>
       </c>
       <c r="I43" t="n">
         <v>0.0001084288111070338</v>
       </c>
       <c r="J43" t="n">
-        <v>5.869397220215586e-05</v>
+        <v>5.869403170166264e-05</v>
       </c>
       <c r="K43" t="n">
-        <v>8.371509378319628e-05</v>
+        <v>8.371482036925365e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>7.992367349183432e-05</v>
+        <v>7.992317984064162e-05</v>
       </c>
       <c r="M43" t="n">
-        <v>8.41950969881765e-05</v>
+        <v>8.419484806080417e-05</v>
       </c>
       <c r="N43" t="n">
         <v>8.893331110222379e-05</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0001294801471034127</v>
+        <v>0.0001294803495685551</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0001090200038318224</v>
+        <v>0.0001090199059649637</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.588351713987562e-05</v>
+        <v>9.588361540985103e-05</v>
       </c>
       <c r="R43" t="n">
-        <v>0.000128932693393476</v>
+        <v>8.050707559662426e-05</v>
       </c>
       <c r="S43" t="n">
-        <v>8.050753556400742e-05</v>
+        <v>0.0001289325276645848</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0001214068395044045</v>
+        <v>0.0001214067024141806</v>
       </c>
       <c r="U43" t="n">
-        <v>8.847361784336119e-05</v>
+        <v>8.847384312481754e-05</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0001035323408495406</v>
+        <v>0.0001035320472678826</v>
       </c>
       <c r="W43" t="n">
-        <v>7.478317378382421e-05</v>
+        <v>7.289446228852996e-05</v>
       </c>
       <c r="X43" t="n">
         <v>7.508897438134552e-05</v>
@@ -6994,28 +6994,28 @@
         <v>9.056036985846113e-05</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.480309425334223e-05</v>
+        <v>8.480222784437995e-05</v>
       </c>
       <c r="AA43" t="n">
         <v>4.745972567959988e-05</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.167283832826034e-05</v>
+        <v>6.167293083193847e-05</v>
       </c>
       <c r="AC43" t="n">
-        <v>6.897338978747547e-05</v>
+        <v>6.897325170679708e-05</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0001114206754572279</v>
+        <v>0.0001114211076262842</v>
       </c>
       <c r="AE43" t="n">
         <v>0.0001393009968425076</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.359258243178574e-05</v>
+        <v>7.359283898660855e-05</v>
       </c>
       <c r="AG43" t="n">
-        <v>7.318685230915602e-05</v>
+        <v>7.318642683457467e-05</v>
       </c>
       <c r="AH43" t="n">
         <v>5.632898115086384e-05</v>
@@ -7024,31 +7024,31 @@
         <v>9.830784052070385e-05</v>
       </c>
       <c r="AJ43" t="n">
-        <v>5.838239581814646e-05</v>
+        <v>5.838246340338221e-05</v>
       </c>
       <c r="AK43" t="n">
-        <v>6.058249349573613e-05</v>
+        <v>6.058302458267362e-05</v>
       </c>
       <c r="AL43" t="n">
-        <v>6.834792617391495e-05</v>
+        <v>6.834779405100114e-05</v>
       </c>
       <c r="AM43" t="n">
-        <v>7.434693840616106e-05</v>
+        <v>7.434686493763749e-05</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.0001012542992716314</v>
+        <v>0.0001012543190694511</v>
       </c>
       <c r="AO43" t="n">
-        <v>5.179260260665134e-05</v>
+        <v>5.179242687333202e-05</v>
       </c>
       <c r="AP43" t="n">
         <v>0.0002555424420359414</v>
       </c>
       <c r="AQ43" t="n">
-        <v>4.118866180415453e-05</v>
+        <v>4.118884733477906e-05</v>
       </c>
       <c r="AR43" t="n">
-        <v>7.80104465356754e-05</v>
+        <v>7.801072580810335e-05</v>
       </c>
       <c r="AS43" t="n">
         <v>5.28689628825975e-05</v>
@@ -7057,7 +7057,7 @@
         <v>0.0001408669310169404</v>
       </c>
       <c r="AU43" t="n">
-        <v>7.117899623339071e-05</v>
+        <v>7.117948872524214e-05</v>
       </c>
       <c r="AV43" t="n">
         <v>7.633644251907071e-05</v>
@@ -7071,377 +7071,377 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0001304141535957453</v>
+        <v>0.0001304142860344993</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0001035908126603699</v>
+        <v>0.0001035903958563536</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001680635914988274</v>
+        <v>0.0001680635478964973</v>
       </c>
       <c r="D44" t="n">
-        <v>7.558964664619759e-05</v>
+        <v>7.558948356251726e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0001173044266728624</v>
+        <v>0.0001173044434052195</v>
       </c>
       <c r="F44" t="n">
-        <v>7.999300851365088e-05</v>
+        <v>7.999286911858192e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0001589784678615858</v>
+        <v>0.0001589783377037601</v>
       </c>
       <c r="H44" t="n">
-        <v>8.488746034710625e-05</v>
+        <v>8.48871833852982e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001110793071249912</v>
+        <v>0.0001110792103822095</v>
       </c>
       <c r="J44" t="n">
-        <v>5.137240624878171e-05</v>
+        <v>5.137246056390372e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>9.085146044963074e-05</v>
+        <v>9.085092523829634e-05</v>
       </c>
       <c r="L44" t="n">
-        <v>8.3241793624546e-05</v>
+        <v>8.324137504001408e-05</v>
       </c>
       <c r="M44" t="n">
-        <v>7.184870548392029e-05</v>
+        <v>7.184826179878649e-05</v>
       </c>
       <c r="N44" t="n">
-        <v>7.349885966771326e-05</v>
+        <v>7.349888972146479e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0001074900497107359</v>
+        <v>0.0001074900281025741</v>
       </c>
       <c r="P44" t="n">
-        <v>0.000108822182787398</v>
+        <v>0.0001088218498058853</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.697459091588641e-05</v>
+        <v>9.697500462350552e-05</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0001065436449354667</v>
+        <v>6.307612938748012e-05</v>
       </c>
       <c r="S44" t="n">
-        <v>6.307611105095331e-05</v>
+        <v>0.0001065440897494877</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0001379301438313999</v>
+        <v>0.0001379299955547011</v>
       </c>
       <c r="U44" t="n">
-        <v>8.116669385846458e-05</v>
+        <v>8.116652927143789e-05</v>
       </c>
       <c r="V44" t="n">
-        <v>9.45109618365795e-05</v>
+        <v>9.451165278106646e-05</v>
       </c>
       <c r="W44" t="n">
-        <v>3.663333523203898e-05</v>
+        <v>3.416695770304211e-05</v>
       </c>
       <c r="X44" t="n">
-        <v>6.374073232842922e-05</v>
+        <v>6.374086329464075e-05</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.511622861596657e-05</v>
+        <v>8.511616532782977e-05</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.472125173873867e-05</v>
+        <v>6.472138611933097e-05</v>
       </c>
       <c r="AA44" t="n">
-        <v>3.677513143610038e-05</v>
+        <v>3.677488509219741e-05</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.458822628371789e-05</v>
+        <v>5.45877199857258e-05</v>
       </c>
       <c r="AC44" t="n">
-        <v>5.940944619650506e-05</v>
+        <v>5.940882459797418e-05</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0001055294082520636</v>
+        <v>0.0001055295998838499</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0001105972393628723</v>
+        <v>0.0001105971119679332</v>
       </c>
       <c r="AF44" t="n">
-        <v>4.867903412496275e-05</v>
+        <v>4.867832728174094e-05</v>
       </c>
       <c r="AG44" t="n">
-        <v>5.532070609312063e-05</v>
+        <v>5.53206517666239e-05</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.318106831092097e-05</v>
+        <v>7.318082239571934e-05</v>
       </c>
       <c r="AI44" t="n">
-        <v>6.470621259109662e-05</v>
+        <v>6.470606269137968e-05</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2.976195818927519e-05</v>
+        <v>2.976151581193319e-05</v>
       </c>
       <c r="AK44" t="n">
-        <v>3.182637307678302e-05</v>
+        <v>3.182657240539104e-05</v>
       </c>
       <c r="AL44" t="n">
-        <v>3.165899175799036e-05</v>
+        <v>3.165934726639313e-05</v>
       </c>
       <c r="AM44" t="n">
-        <v>7.263565460891758e-05</v>
+        <v>7.263547184526815e-05</v>
       </c>
       <c r="AN44" t="n">
-        <v>9.245259423949171e-05</v>
+        <v>9.245244916937639e-05</v>
       </c>
       <c r="AO44" t="n">
-        <v>2.837138191875373e-05</v>
+        <v>2.837052191827891e-05</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.118866180415453e-05</v>
+        <v>4.118884733477906e-05</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.0003388710927597833</v>
+        <v>0.0003388713295673696</v>
       </c>
       <c r="AR44" t="n">
-        <v>4.043319013805685e-05</v>
+        <v>4.043280554277941e-05</v>
       </c>
       <c r="AS44" t="n">
-        <v>9.318184956004666e-06</v>
+        <v>9.318080687135824e-06</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.0001241184381279771</v>
+        <v>0.0001241186576597578</v>
       </c>
       <c r="AU44" t="n">
-        <v>5.866515517087732e-05</v>
+        <v>5.866537566508301e-05</v>
       </c>
       <c r="AV44" t="n">
-        <v>7.39857088998285e-05</v>
+        <v>7.398579510850725e-05</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.0001830184057549189</v>
+        <v>0.0001830186014832248</v>
       </c>
       <c r="AX44" t="n">
-        <v>7.509132011857595e-05</v>
+        <v>7.509169115585019e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.611473167927917e-05</v>
+        <v>8.611479036557757e-05</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0001028277310815877</v>
+        <v>0.000102828171044764</v>
       </c>
       <c r="C45" t="n">
-        <v>7.985387515095975e-05</v>
+        <v>7.985385474979008e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.000125314382982817</v>
+        <v>0.0001253144691749635</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0001354345962721934</v>
+        <v>0.0001354343825491795</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0001424868541029765</v>
+        <v>0.0001424865589953257</v>
       </c>
       <c r="G45" t="n">
-        <v>7.934596805573373e-05</v>
+        <v>7.934634793222426e-05</v>
       </c>
       <c r="H45" t="n">
-        <v>4.888344689138015e-05</v>
+        <v>4.888300818232842e-05</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0001163997034602658</v>
+        <v>0.0001163996501166019</v>
       </c>
       <c r="J45" t="n">
-        <v>9.18314714565576e-05</v>
+        <v>9.183119668522317e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0001112270061384155</v>
+        <v>0.0001112264477867602</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0001083137345580218</v>
+        <v>0.000108313735341694</v>
       </c>
       <c r="M45" t="n">
-        <v>7.294104217238514e-05</v>
+        <v>7.294104106131772e-05</v>
       </c>
       <c r="N45" t="n">
-        <v>6.355750559276027e-05</v>
+        <v>6.355764911971503e-05</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0001483670179509797</v>
+        <v>0.0001483666284743243</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0001520974184177395</v>
+        <v>0.0001520970758558401</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0001239949498666608</v>
+        <v>0.0001239951396628793</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0001354206995466348</v>
+        <v>7.446781504298333e-05</v>
       </c>
       <c r="S45" t="n">
-        <v>7.446960245625583e-05</v>
+        <v>0.0001354214535150186</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0001292076643117088</v>
+        <v>0.0001292079163624134</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0001024669849433977</v>
+        <v>0.0001024679313023177</v>
       </c>
       <c r="V45" t="n">
-        <v>9.039281771584874e-05</v>
+        <v>9.039290234840494e-05</v>
       </c>
       <c r="W45" t="n">
-        <v>6.439581082326185e-05</v>
+        <v>6.713807863344362e-05</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0001218723294053922</v>
+        <v>0.000121872373100549</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.613487870535251e-05</v>
+        <v>8.613486266297174e-05</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0001486181102130885</v>
+        <v>0.0001486172812920691</v>
       </c>
       <c r="AA45" t="n">
-        <v>5.607129281234537e-05</v>
+        <v>5.607119735176168e-05</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0001786832581587985</v>
+        <v>0.0001786820420004375</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0001118316859353492</v>
+        <v>0.0001118299728505339</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.0001763940747629325</v>
+        <v>0.0001763940942689477</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.000210557942730855</v>
+        <v>0.000210558286065044</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.0002954080286623856</v>
+        <v>0.0002954081556170682</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0001777331515107008</v>
+        <v>0.0001777329721995021</v>
       </c>
       <c r="AH45" t="n">
-        <v>8.164243084876571e-05</v>
+        <v>8.164244427764901e-05</v>
       </c>
       <c r="AI45" t="n">
-        <v>6.326390620204454e-05</v>
+        <v>6.326367791337803e-05</v>
       </c>
       <c r="AJ45" t="n">
-        <v>4.755939520514903e-05</v>
+        <v>4.755975744532332e-05</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.0001324145565917921</v>
+        <v>0.0001324146545833418</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.000122570856788129</v>
+        <v>0.0001225706225537506</v>
       </c>
       <c r="AM45" t="n">
-        <v>4.208384602044801e-05</v>
+        <v>4.208357259118935e-05</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.0001216074902142288</v>
+        <v>0.0001216073184303673</v>
       </c>
       <c r="AO45" t="n">
-        <v>9.478390423316887e-05</v>
+        <v>9.478464154319211e-05</v>
       </c>
       <c r="AP45" t="n">
-        <v>7.80104465356754e-05</v>
+        <v>7.801072580810335e-05</v>
       </c>
       <c r="AQ45" t="n">
-        <v>4.043319013805685e-05</v>
+        <v>4.043280554277941e-05</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.0006054959614265106</v>
+        <v>0.0006054971581189803</v>
       </c>
       <c r="AS45" t="n">
-        <v>7.536813546111382e-05</v>
+        <v>7.536804373826033e-05</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.0002077000930653456</v>
+        <v>0.0002076999697257045</v>
       </c>
       <c r="AU45" t="n">
-        <v>8.184966454683483e-05</v>
+        <v>8.184991446038407e-05</v>
       </c>
       <c r="AV45" t="n">
-        <v>9.528585896109434e-05</v>
+        <v>9.528591947022735e-05</v>
       </c>
       <c r="AW45" t="n">
-        <v>4.009375553331e-05</v>
+        <v>4.009343832738787e-05</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.0001927324371511397</v>
+        <v>0.000192732332481933</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.877127685043595e-05</v>
+        <v>7.877173096551913e-05</v>
       </c>
       <c r="B46" t="n">
-        <v>6.466846474618565e-05</v>
+        <v>6.466860499986641e-05</v>
       </c>
       <c r="C46" t="n">
         <v>4.371156954308458e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>8.825990375253187e-05</v>
+        <v>8.825983674973398e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000116665947612608</v>
+        <v>0.0001166658956974503</v>
       </c>
       <c r="F46" t="n">
-        <v>8.192937167380409e-05</v>
+        <v>8.19290801378091e-05</v>
       </c>
       <c r="G46" t="n">
         <v>5.187385102085073e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>6.967387403743715e-05</v>
+        <v>6.967412681554457e-05</v>
       </c>
       <c r="I46" t="n">
         <v>9.77571516054535e-05</v>
       </c>
       <c r="J46" t="n">
-        <v>6.545974514215878e-05</v>
+        <v>6.546005333398539e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>5.082222025024778e-05</v>
+        <v>5.082243034137763e-05</v>
       </c>
       <c r="L46" t="n">
-        <v>6.346953920891174e-05</v>
+        <v>6.346936033190675e-05</v>
       </c>
       <c r="M46" t="n">
-        <v>7.71565662600895e-05</v>
+        <v>7.71568837583361e-05</v>
       </c>
       <c r="N46" t="n">
         <v>2.644953579280328e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0001223513493440063</v>
+        <v>0.0001223509512557141</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0001102622090884066</v>
+        <v>0.0001102620914406623</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.095634405071232e-05</v>
+        <v>8.095669638486416e-05</v>
       </c>
       <c r="R46" t="n">
-        <v>9.775042605024121e-05</v>
+        <v>5.096764285523169e-05</v>
       </c>
       <c r="S46" t="n">
-        <v>5.096774712799679e-05</v>
+        <v>9.775052996528043e-05</v>
       </c>
       <c r="T46" t="n">
-        <v>6.296115074905942e-05</v>
+        <v>6.296118303744379e-05</v>
       </c>
       <c r="U46" t="n">
-        <v>6.527484012825181e-05</v>
+        <v>6.527418884096427e-05</v>
       </c>
       <c r="V46" t="n">
-        <v>7.687457098588634e-05</v>
+        <v>7.687357788457641e-05</v>
       </c>
       <c r="W46" t="n">
-        <v>5.300918451604224e-05</v>
+        <v>5.285626363863438e-05</v>
       </c>
       <c r="X46" t="n">
         <v>7.070177553396803e-05</v>
@@ -7450,28 +7450,28 @@
         <v>6.63505026938242e-05</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.024049986396403e-05</v>
+        <v>8.024042075202146e-05</v>
       </c>
       <c r="AA46" t="n">
         <v>5.032874792134086e-05</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.303965486451093e-05</v>
+        <v>8.303924144839929e-05</v>
       </c>
       <c r="AC46" t="n">
-        <v>3.898306761385632e-05</v>
+        <v>3.898307837132308e-05</v>
       </c>
       <c r="AD46" t="n">
-        <v>5.46781933260623e-05</v>
+        <v>5.467788081865357e-05</v>
       </c>
       <c r="AE46" t="n">
         <v>0.0001115674343118107</v>
       </c>
       <c r="AF46" t="n">
-        <v>5.033314058870672e-05</v>
+        <v>5.033348740794484e-05</v>
       </c>
       <c r="AG46" t="n">
-        <v>9.042305271676024e-05</v>
+        <v>9.042356698639056e-05</v>
       </c>
       <c r="AH46" t="n">
         <v>4.887281202387002e-05</v>
@@ -7480,31 +7480,31 @@
         <v>6.464405867322361e-05</v>
       </c>
       <c r="AJ46" t="n">
-        <v>5.820476665562118e-05</v>
+        <v>5.820471992613517e-05</v>
       </c>
       <c r="AK46" t="n">
-        <v>5.367422397691322e-05</v>
+        <v>5.367426247623185e-05</v>
       </c>
       <c r="AL46" t="n">
-        <v>6.885091633996673e-05</v>
+        <v>6.885060000600683e-05</v>
       </c>
       <c r="AM46" t="n">
-        <v>5.607378784448598e-05</v>
+        <v>5.60740416099527e-05</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.659376664189252e-05</v>
+        <v>7.659370920725772e-05</v>
       </c>
       <c r="AO46" t="n">
-        <v>4.868973542529058e-05</v>
+        <v>4.868936578716468e-05</v>
       </c>
       <c r="AP46" t="n">
         <v>5.28689628825975e-05</v>
       </c>
       <c r="AQ46" t="n">
-        <v>9.318184956004666e-06</v>
+        <v>9.318080687135824e-06</v>
       </c>
       <c r="AR46" t="n">
-        <v>7.536813546111382e-05</v>
+        <v>7.536804373826033e-05</v>
       </c>
       <c r="AS46" t="n">
         <v>0.0004350436352421095</v>
@@ -7513,7 +7513,7 @@
         <v>0.0001052209706615641</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.75130559865147e-05</v>
+        <v>6.751264081405319e-05</v>
       </c>
       <c r="AV46" t="n">
         <v>9.86729553112514e-05</v>
@@ -7527,73 +7527,73 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0002691185044438815</v>
+        <v>0.00026911961358976</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0001592914627806029</v>
+        <v>0.0001592912407629018</v>
       </c>
       <c r="C47" t="n">
         <v>0.0001347751930245655</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001363367685308432</v>
+        <v>0.000136336813117006</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0002963833840839375</v>
+        <v>0.0002963838625029673</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0002126371663315181</v>
+        <v>0.0002126373063934014</v>
       </c>
       <c r="G47" t="n">
         <v>0.0001892320233268829</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001643645886060234</v>
+        <v>0.0001643643727981229</v>
       </c>
       <c r="I47" t="n">
         <v>0.0002049525071511149</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0001413531952110223</v>
+        <v>0.0001413530112308176</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0002387649619650569</v>
+        <v>0.0002387640887582363</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002088013579026691</v>
+        <v>0.0002088010589709833</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0001427879514081733</v>
+        <v>0.0001427875145100849</v>
       </c>
       <c r="N47" t="n">
         <v>0.0001348810180824377</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0002876932804199377</v>
+        <v>0.0002876933419072809</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0002110877892340212</v>
+        <v>0.0002110873741743954</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0002574957510844514</v>
+        <v>0.0002574960786163576</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0002658347473750437</v>
+        <v>0.0001512366984037211</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0001512376206420279</v>
+        <v>0.000265834659475129</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0002735120151153785</v>
+        <v>0.0002735121667750866</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0002003736860430745</v>
+        <v>0.0002003742514086933</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0001381525169585604</v>
+        <v>0.0001381522144138106</v>
       </c>
       <c r="W47" t="n">
-        <v>8.902978412288865e-05</v>
+        <v>9.206618865014887e-05</v>
       </c>
       <c r="X47" t="n">
         <v>0.0001786523978340813</v>
@@ -7602,28 +7602,28 @@
         <v>0.0001515880068343897</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0001688094934088367</v>
+        <v>0.0001688086563576149</v>
       </c>
       <c r="AA47" t="n">
         <v>8.482747430482364e-05</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0001737667933355443</v>
+        <v>0.0001737662605024429</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0002468850872036673</v>
+        <v>0.0002468846789961689</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.0003476597127041473</v>
+        <v>0.000347659702995452</v>
       </c>
       <c r="AE47" t="n">
         <v>0.0003233659246631083</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.0001589816731336449</v>
+        <v>0.0001589814681796163</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0002118766463066919</v>
+        <v>0.0002118761988246494</v>
       </c>
       <c r="AH47" t="n">
         <v>0.0001179434253146068</v>
@@ -7632,31 +7632,31 @@
         <v>0.0001402464160750962</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6.260006292889894e-05</v>
+        <v>6.260002132644322e-05</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.0001359349279105672</v>
+        <v>0.000135935871150074</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.0001625420918449125</v>
+        <v>0.0001625424636623354</v>
       </c>
       <c r="AM47" t="n">
-        <v>8.765066062428291e-05</v>
+        <v>8.765029354416267e-05</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.0002730983339712127</v>
+        <v>0.0002730986181588565</v>
       </c>
       <c r="AO47" t="n">
-        <v>7.543040290143735e-05</v>
+        <v>7.542990012991773e-05</v>
       </c>
       <c r="AP47" t="n">
         <v>0.0001408669310169404</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.0001241184381279771</v>
+        <v>0.0001241186576597578</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.0002077000930653456</v>
+        <v>0.0002076999697257045</v>
       </c>
       <c r="AS47" t="n">
         <v>0.0001052209706615641</v>
@@ -7665,7 +7665,7 @@
         <v>0.0005525617587666253</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.0001627089850421805</v>
+        <v>0.0001627097095119667</v>
       </c>
       <c r="AV47" t="n">
         <v>0.0001488230967187217</v>
@@ -7679,225 +7679,225 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0001632476034635777</v>
+        <v>0.000163248199810673</v>
       </c>
       <c r="B48" t="n">
-        <v>8.641183634832561e-05</v>
+        <v>8.641196085141907e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6.871207109368197e-05</v>
+        <v>6.871208388160144e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>5.97933604191297e-05</v>
+        <v>5.979359895232318e-05</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001076127431722084</v>
+        <v>0.0001076132541448226</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0001016573388197854</v>
+        <v>0.0001016580919792854</v>
       </c>
       <c r="G48" t="n">
-        <v>8.453412975828214e-05</v>
+        <v>8.45346490859531e-05</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001030748797138724</v>
+        <v>0.0001030751976340964</v>
       </c>
       <c r="I48" t="n">
-        <v>9.631077438583001e-05</v>
+        <v>9.631113213857967e-05</v>
       </c>
       <c r="J48" t="n">
-        <v>7.048603219777905e-05</v>
+        <v>7.048624664695192e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000107141690795133</v>
+        <v>0.000107141646691689</v>
       </c>
       <c r="L48" t="n">
-        <v>8.171079994523497e-05</v>
+        <v>8.171113779413101e-05</v>
       </c>
       <c r="M48" t="n">
-        <v>8.251353966005109e-05</v>
+        <v>8.251397145029778e-05</v>
       </c>
       <c r="N48" t="n">
-        <v>5.957456566893343e-05</v>
+        <v>5.957483315017904e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0001297099038164883</v>
+        <v>0.0001297108169044812</v>
       </c>
       <c r="P48" t="n">
-        <v>9.085326240141198e-05</v>
+        <v>9.085332386588755e-05</v>
       </c>
       <c r="Q48" t="n">
-        <v>9.529245596635621e-05</v>
+        <v>9.529275065813534e-05</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0001103405252627848</v>
+        <v>6.087503075554948e-05</v>
       </c>
       <c r="S48" t="n">
-        <v>6.087442407375449e-05</v>
+        <v>0.0001103413706448101</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0001075604316104401</v>
+        <v>0.0001075615664195151</v>
       </c>
       <c r="U48" t="n">
-        <v>8.738047179517448e-05</v>
+        <v>8.738056411214086e-05</v>
       </c>
       <c r="V48" t="n">
-        <v>9.625880279668666e-05</v>
+        <v>9.625882061157355e-05</v>
       </c>
       <c r="W48" t="n">
-        <v>5.810408266709945e-05</v>
+        <v>6.284260963276977e-05</v>
       </c>
       <c r="X48" t="n">
-        <v>8.045286309083816e-05</v>
+        <v>8.045298029334949e-05</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.33283983684731e-05</v>
+        <v>8.332921735825055e-05</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.813259866848935e-05</v>
+        <v>9.813281535107024e-05</v>
       </c>
       <c r="AA48" t="n">
-        <v>5.183124747487191e-05</v>
+        <v>5.183126521201117e-05</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.575023636183959e-05</v>
+        <v>9.575044376290568e-05</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.000103256924836133</v>
+        <v>0.0001032566771332749</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.0001329739699789876</v>
+        <v>0.0001329748796009301</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0001486355014996674</v>
+        <v>0.000148635593972585</v>
       </c>
       <c r="AF48" t="n">
-        <v>5.64571574399382e-05</v>
+        <v>5.64569802073639e-05</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.61374259631017e-05</v>
+        <v>9.613800220305541e-05</v>
       </c>
       <c r="AH48" t="n">
-        <v>8.248184036758029e-05</v>
+        <v>8.248209152198792e-05</v>
       </c>
       <c r="AI48" t="n">
-        <v>7.393124733469261e-05</v>
+        <v>7.393148769129923e-05</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.537532673312938e-05</v>
+        <v>6.53756201120966e-05</v>
       </c>
       <c r="AK48" t="n">
-        <v>7.067854175658186e-05</v>
+        <v>7.067928606678582e-05</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.0001128246756992381</v>
+        <v>0.0001128255995215808</v>
       </c>
       <c r="AM48" t="n">
-        <v>5.863095989981241e-05</v>
+        <v>5.863124724688686e-05</v>
       </c>
       <c r="AN48" t="n">
-        <v>9.722490211781784e-05</v>
+        <v>9.722569914950612e-05</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.872191707266455e-05</v>
+        <v>5.872181497353811e-05</v>
       </c>
       <c r="AP48" t="n">
-        <v>7.117899623339071e-05</v>
+        <v>7.117948872524214e-05</v>
       </c>
       <c r="AQ48" t="n">
-        <v>5.866515517087732e-05</v>
+        <v>5.866537566508301e-05</v>
       </c>
       <c r="AR48" t="n">
-        <v>8.184966454683483e-05</v>
+        <v>8.184991446038407e-05</v>
       </c>
       <c r="AS48" t="n">
-        <v>6.75130559865147e-05</v>
+        <v>6.751264081405319e-05</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.0001627089850421805</v>
+        <v>0.0001627097095119667</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.0002223234378862273</v>
+        <v>0.0002223248283463541</v>
       </c>
       <c r="AV48" t="n">
-        <v>8.72887514909429e-05</v>
+        <v>8.728914108874013e-05</v>
       </c>
       <c r="AW48" t="n">
-        <v>8.775366974565798e-05</v>
+        <v>8.775417414361115e-05</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.0001313538141496724</v>
+        <v>0.0001313546626770519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0001360834113575445</v>
+        <v>0.0001360838047795791</v>
       </c>
       <c r="B49" t="n">
-        <v>9.418561870796768e-05</v>
+        <v>9.418517980339939e-05</v>
       </c>
       <c r="C49" t="n">
         <v>8.871396549480696e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>9.938962271132729e-05</v>
+        <v>9.938954206858312e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0001212602083807195</v>
+        <v>0.000121260311130311</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0001117236025411349</v>
+        <v>0.000111723594451001</v>
       </c>
       <c r="G49" t="n">
         <v>0.0001037915645346688</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0001014447786166194</v>
+        <v>0.0001014447906545045</v>
       </c>
       <c r="I49" t="n">
         <v>0.0001111770713627965</v>
       </c>
       <c r="J49" t="n">
-        <v>8.600475904640407e-05</v>
+        <v>8.600453866812025e-05</v>
       </c>
       <c r="K49" t="n">
-        <v>8.872135572755862e-05</v>
+        <v>8.87208554055349e-05</v>
       </c>
       <c r="L49" t="n">
-        <v>9.028066459194198e-05</v>
+        <v>9.028062859990535e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>9.683587659156294e-05</v>
+        <v>9.683605011278944e-05</v>
       </c>
       <c r="N49" t="n">
         <v>5.885747356943535e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0001367397501111445</v>
+        <v>0.0001367397158280618</v>
       </c>
       <c r="P49" t="n">
-        <v>0.000137412662597402</v>
+        <v>0.0001374125462369641</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.000101605282067553</v>
+        <v>0.0001016055359929345</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0001247986332293161</v>
+        <v>6.396671969592229e-05</v>
       </c>
       <c r="S49" t="n">
-        <v>6.396694298355457e-05</v>
+        <v>0.0001247987132409048</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0001259396263063294</v>
+        <v>0.0001259396453973794</v>
       </c>
       <c r="U49" t="n">
-        <v>8.463046175370748e-05</v>
+        <v>8.463077898855791e-05</v>
       </c>
       <c r="V49" t="n">
-        <v>9.442918448218814e-05</v>
+        <v>9.442895689740876e-05</v>
       </c>
       <c r="W49" t="n">
-        <v>6.61855658876253e-05</v>
+        <v>6.697664203607046e-05</v>
       </c>
       <c r="X49" t="n">
         <v>8.873504260510838e-05</v>
@@ -7906,28 +7906,28 @@
         <v>0.0001034490228690144</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0001027705999118616</v>
+        <v>0.0001027703154688018</v>
       </c>
       <c r="AA49" t="n">
         <v>6.380914753501746e-05</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.216395548293254e-05</v>
+        <v>9.216358397871085e-05</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.642436289788314e-05</v>
+        <v>9.642434843334836e-05</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0001391532772381282</v>
+        <v>0.0001391532003835134</v>
       </c>
       <c r="AE49" t="n">
         <v>0.0001781838910644806</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.790710064375228e-05</v>
+        <v>8.790711247447237e-05</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0001087902557578303</v>
+        <v>0.0001087899519842105</v>
       </c>
       <c r="AH49" t="n">
         <v>8.266835075423557e-05</v>
@@ -7936,31 +7936,31 @@
         <v>8.056377664129454e-05</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7.43177837269801e-05</v>
+        <v>7.431783854489219e-05</v>
       </c>
       <c r="AK49" t="n">
-        <v>8.10771282373315e-05</v>
+        <v>8.1077741078545e-05</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.0001074123659548736</v>
+        <v>0.0001074123870010525</v>
       </c>
       <c r="AM49" t="n">
-        <v>6.053926550142135e-05</v>
+        <v>6.053939689303523e-05</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.0001079807789081032</v>
+        <v>0.0001079810821401154</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.467706427283692e-05</v>
+        <v>4.467665823623136e-05</v>
       </c>
       <c r="AP49" t="n">
         <v>7.633644251907071e-05</v>
       </c>
       <c r="AQ49" t="n">
-        <v>7.39857088998285e-05</v>
+        <v>7.398579510850725e-05</v>
       </c>
       <c r="AR49" t="n">
-        <v>9.528585896109434e-05</v>
+        <v>9.528591947022735e-05</v>
       </c>
       <c r="AS49" t="n">
         <v>9.86729553112514e-05</v>
@@ -7969,7 +7969,7 @@
         <v>0.0001488230967187217</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.72887514909429e-05</v>
+        <v>8.728914108874013e-05</v>
       </c>
       <c r="AV49" t="n">
         <v>0.0001856601647094318</v>
@@ -7983,73 +7983,73 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0001760572140591719</v>
+        <v>0.0001760573566101757</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0001270927376138467</v>
+        <v>0.0001270923089548484</v>
       </c>
       <c r="C50" t="n">
         <v>0.0001253490766946442</v>
       </c>
       <c r="D50" t="n">
-        <v>8.369743025364117e-05</v>
+        <v>8.369741166628799e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001450322359768302</v>
+        <v>0.0001450325105779337</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0001149587816621075</v>
+        <v>0.0001149587500850592</v>
       </c>
       <c r="G50" t="n">
         <v>0.0001063806103266966</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0001221649143856556</v>
+        <v>0.0001221650445209003</v>
       </c>
       <c r="I50" t="n">
         <v>0.0001322535140121634</v>
       </c>
       <c r="J50" t="n">
-        <v>9.796718769320563e-05</v>
+        <v>9.796722523820239e-05</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0001167810917949055</v>
+        <v>0.0001167804440569588</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0001015497391261585</v>
+        <v>0.0001015496033519742</v>
       </c>
       <c r="M50" t="n">
-        <v>9.671266953277612e-05</v>
+        <v>9.671214696897045e-05</v>
       </c>
       <c r="N50" t="n">
         <v>8.683265900645326e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0001301196139442416</v>
+        <v>0.0001301194515682451</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0001330000291560411</v>
+        <v>0.0001329998241062771</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0001232157993410042</v>
+        <v>0.0001232161361110771</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0001255337062800426</v>
+        <v>7.248827910199438e-05</v>
       </c>
       <c r="S50" t="n">
-        <v>7.248800371196766e-05</v>
+        <v>0.0001255337778567184</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0001595531017591858</v>
+        <v>0.00015955317478243</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0001102948040051858</v>
+        <v>0.0001102946743221016</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0001036202934843083</v>
+        <v>0.0001036201013784411</v>
       </c>
       <c r="W50" t="n">
-        <v>6.363545676209802e-05</v>
+        <v>6.076772956603577e-05</v>
       </c>
       <c r="X50" t="n">
         <v>9.460136216003224e-05</v>
@@ -8058,28 +8058,28 @@
         <v>0.0001223785366817489</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.222050613531866e-05</v>
+        <v>8.222000312026385e-05</v>
       </c>
       <c r="AA50" t="n">
         <v>6.452075355292752e-05</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.636108975303459e-05</v>
+        <v>7.636118106733881e-05</v>
       </c>
       <c r="AC50" t="n">
-        <v>6.654760925816742e-05</v>
+        <v>6.654776171501428e-05</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0001518877049240995</v>
+        <v>0.0001518879839109704</v>
       </c>
       <c r="AE50" t="n">
         <v>0.0001439401430644836</v>
       </c>
       <c r="AF50" t="n">
-        <v>4.522396436262099e-05</v>
+        <v>4.522395942767463e-05</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.341307683255025e-05</v>
+        <v>8.341297056565708e-05</v>
       </c>
       <c r="AH50" t="n">
         <v>9.909559403065257e-05</v>
@@ -8088,31 +8088,31 @@
         <v>6.415986814695484e-05</v>
       </c>
       <c r="AJ50" t="n">
-        <v>6.231682103010988e-05</v>
+        <v>6.231631838689377e-05</v>
       </c>
       <c r="AK50" t="n">
-        <v>9.044736222444691e-05</v>
+        <v>9.044729631797418e-05</v>
       </c>
       <c r="AL50" t="n">
-        <v>9.672570001468697e-05</v>
+        <v>9.672607078758411e-05</v>
       </c>
       <c r="AM50" t="n">
-        <v>8.374725164771627e-05</v>
+        <v>8.374726666091168e-05</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.0001170077325200348</v>
+        <v>0.000117007799682699</v>
       </c>
       <c r="AO50" t="n">
-        <v>4.842406452085174e-05</v>
+        <v>4.842347213472499e-05</v>
       </c>
       <c r="AP50" t="n">
         <v>8.464149705302056e-05</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.0001830184057549189</v>
+        <v>0.0001830186014832248</v>
       </c>
       <c r="AR50" t="n">
-        <v>4.009375553331e-05</v>
+        <v>4.009343832738787e-05</v>
       </c>
       <c r="AS50" t="n">
         <v>4.961025586121267e-05</v>
@@ -8121,7 +8121,7 @@
         <v>0.0001704585862218851</v>
       </c>
       <c r="AU50" t="n">
-        <v>8.775366974565798e-05</v>
+        <v>8.775417414361115e-05</v>
       </c>
       <c r="AV50" t="n">
         <v>8.377802545382944e-05</v>
@@ -8135,73 +8135,73 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0001169494550059388</v>
+        <v>0.000116950198419348</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0001065184169503978</v>
+        <v>0.0001065184964215496</v>
       </c>
       <c r="C51" t="n">
         <v>7.596207658534534e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>7.090771098057521e-05</v>
+        <v>7.090775939994502e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0001462778535578642</v>
+        <v>0.0001462779490057343</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0001290801582964719</v>
+        <v>0.000129080142847122</v>
       </c>
       <c r="G51" t="n">
         <v>0.0001163371798514748</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001284063819515709</v>
+        <v>0.0001284062233367183</v>
       </c>
       <c r="I51" t="n">
         <v>0.0001221964828637771</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0001018220782921881</v>
+        <v>0.0001018221156761368</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0001475122428298335</v>
+        <v>0.0001475117024962374</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0001105198664479607</v>
+        <v>0.0001105194886804665</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0001092690568676926</v>
+        <v>0.0001092692577786108</v>
       </c>
       <c r="N51" t="n">
         <v>6.615321432548249e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0001494590297586235</v>
+        <v>0.0001494588515913202</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0001476543219629451</v>
+        <v>0.0001476539158194621</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0001250638473613043</v>
+        <v>0.000125063574159317</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0001516798447982761</v>
+        <v>8.317306101748327e-05</v>
       </c>
       <c r="S51" t="n">
-        <v>8.317335932214825e-05</v>
+        <v>0.0001516799039419034</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0001605517405784293</v>
+        <v>0.0001605517420172161</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0001090576784410218</v>
+        <v>0.0001090580860966352</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0001074347757332875</v>
+        <v>0.0001074343236822968</v>
       </c>
       <c r="W51" t="n">
-        <v>7.992982058488868e-05</v>
+        <v>8.360950447722266e-05</v>
       </c>
       <c r="X51" t="n">
         <v>0.0001338082972354941</v>
@@ -8210,28 +8210,28 @@
         <v>0.000107073473470096</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0001565640017103873</v>
+        <v>0.0001565629601971441</v>
       </c>
       <c r="AA51" t="n">
         <v>3.080458820032072e-05</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0001432763294918779</v>
+        <v>0.0001432760783199254</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0001342878961213553</v>
+        <v>0.00013428742924563</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.000179500391820433</v>
+        <v>0.0001795004789171401</v>
       </c>
       <c r="AE51" t="n">
         <v>0.0002138732213044176</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.000125690872290777</v>
+        <v>0.0001256909564721628</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.0001761962530776051</v>
+        <v>0.0001761956869811627</v>
       </c>
       <c r="AH51" t="n">
         <v>9.842100191622098e-05</v>
@@ -8240,31 +8240,31 @@
         <v>7.996843654476197e-05</v>
       </c>
       <c r="AJ51" t="n">
-        <v>4.723633158388468e-05</v>
+        <v>4.723633227832361e-05</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.0001382723449833163</v>
+        <v>0.0001382723253792745</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.0001516639271984135</v>
+        <v>0.0001516639969661368</v>
       </c>
       <c r="AM51" t="n">
-        <v>6.761634364061013e-05</v>
+        <v>6.761593245344693e-05</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.000121250612351688</v>
+        <v>0.0001212506833642961</v>
       </c>
       <c r="AO51" t="n">
-        <v>7.883422341211121e-05</v>
+        <v>7.883397266925281e-05</v>
       </c>
       <c r="AP51" t="n">
         <v>0.0001198625240659108</v>
       </c>
       <c r="AQ51" t="n">
-        <v>7.509132011857595e-05</v>
+        <v>7.509169115585019e-05</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.0001927324371511397</v>
+        <v>0.000192732332481933</v>
       </c>
       <c r="AS51" t="n">
         <v>0.0001008141636815846</v>
@@ -8273,7 +8273,7 @@
         <v>0.0002357765016580564</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.0001313538141496724</v>
+        <v>0.0001313546626770519</v>
       </c>
       <c r="AV51" t="n">
         <v>0.0001031838553116129</v>

--- a/data2/cov_file.xlsx
+++ b/data2/cov_file.xlsx
@@ -687,377 +687,377 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0007844285690987771</v>
+        <v>0.000784428506033554</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001477278538773136</v>
+        <v>0.0001477276995894134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001356535504676549</v>
+        <v>0.0001356537981021789</v>
       </c>
       <c r="D2" t="n">
-        <v>9.68811796102571e-05</v>
+        <v>9.688116035111255e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001997188524105317</v>
+        <v>0.0001997188456449939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001701556926864743</v>
+        <v>0.000170155139836861</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001561339744809518</v>
+        <v>0.0001561338840755799</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001721448426012818</v>
+        <v>0.0001721446189420565</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001743574688678369</v>
+        <v>0.0001743573049093628</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000132017988386019</v>
+        <v>0.0001320180855303323</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001895383457586863</v>
+        <v>0.0001895386532987263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001662641676490648</v>
+        <v>0.0001662640556001329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001450144365330962</v>
+        <v>0.0001450141350664802</v>
       </c>
       <c r="N2" t="n">
-        <v>8.109706426412496e-05</v>
+        <v>8.109732576151462e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002574448737639254</v>
+        <v>0.0002574448413506031</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001800336439476682</v>
+        <v>0.0001800336364155429</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001920158576733106</v>
+        <v>0.0001920160376996799</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001340596350429148</v>
+        <v>0.0001340597481662159</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002033918702837595</v>
+        <v>0.000200179785380969</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001838595854233744</v>
+        <v>0.0001838596793422237</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001731863276954954</v>
+        <v>0.0001731852169452827</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001256912193874376</v>
+        <v>0.0001256917357708276</v>
       </c>
       <c r="W2" t="n">
-        <v>7.333339094473166e-05</v>
+        <v>7.191119838063971e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0001238574249769325</v>
+        <v>0.0001238570288227006</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001533575294467373</v>
+        <v>0.0001533576232541303</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.611502257471148e-05</v>
+        <v>9.61149259233445e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.342026875586314e-05</v>
+        <v>8.34203848693536e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.152471232016183e-05</v>
+        <v>9.152516553415638e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002246164545929796</v>
+        <v>0.0002246164959854046</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0002457459221339637</v>
+        <v>0.0002457460165199275</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002464723505817102</v>
+        <v>0.0002464718470813012</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.752204374593924e-05</v>
+        <v>3.752108817673797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.218707149587322e-05</v>
+        <v>7.218703803249304e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001144554218407058</v>
+        <v>0.0001144554716921754</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0001328224006963626</v>
+        <v>0.0001328217229364939</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.980412300973123e-05</v>
+        <v>9.980463114775947e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.959795701112049e-05</v>
+        <v>7.959840247596168e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001165896735555572</v>
+        <v>0.0001165887813600506</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.317270279390004e-05</v>
+        <v>9.317225789541723e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0001904786166218318</v>
+        <v>0.0001904781878356867</v>
       </c>
       <c r="AO2" t="n">
-        <v>4.796646739199496e-05</v>
+        <v>4.796664924764797e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001040497643269943</v>
+        <v>0.0001040497852246257</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001304142860344993</v>
+        <v>0.000130413773448269</v>
       </c>
       <c r="AR2" t="n">
-        <v>8.611479036557757e-05</v>
+        <v>8.611424295164934e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.877173096551913e-05</v>
+        <v>7.877121649064036e-05</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00026911961358976</v>
+        <v>0.0002691194375528825</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.000163248199810673</v>
+        <v>0.0001632482374421018</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001360838047795791</v>
+        <v>0.0001360833429917101</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001760573566101757</v>
+        <v>0.000176057399160854</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000116950198419348</v>
+        <v>0.0001169499577509378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0001477278538773136</v>
+        <v>0.0001477276995894134</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0002049000937212914</v>
+        <v>0.0002049001208750886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000131107472701149</v>
+        <v>0.0001311068017806644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001319753280501337</v>
+        <v>0.0001319748802183106</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001502927056686137</v>
+        <v>0.0001502923384299319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001222204018248705</v>
+        <v>0.0001222203658898661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001304564851611712</v>
+        <v>0.0001304565234091114</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001231528748191681</v>
+        <v>0.0001231529250966214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001440393187689663</v>
+        <v>0.0001440392486081459</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001000132879754544</v>
+        <v>0.0001000137672034009</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001102601455881925</v>
+        <v>0.000110260774611955</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001076148281230335</v>
+        <v>0.0001076146863578601</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001045770930989364</v>
+        <v>0.0001045775124269355</v>
       </c>
       <c r="N3" t="n">
-        <v>8.106332878726244e-05</v>
+        <v>8.106376530734985e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001352215013788276</v>
+        <v>0.0001352216136454929</v>
       </c>
       <c r="P3" t="n">
-        <v>0.000141734060438293</v>
+        <v>0.0001417344978761048</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001152661493098972</v>
+        <v>0.000115266331470528</v>
       </c>
       <c r="R3" t="n">
-        <v>8.772758768920785e-05</v>
+        <v>8.772777779521378e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001416883882361008</v>
+        <v>0.0001407594561423307</v>
       </c>
       <c r="T3" t="n">
-        <v>0.000161650353847118</v>
+        <v>0.0001616507998789547</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001238270015691667</v>
+        <v>0.0001238269016736402</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001223265952252895</v>
+        <v>0.0001223270034363733</v>
       </c>
       <c r="W3" t="n">
-        <v>8.355316911883048e-05</v>
+        <v>8.247644010870056e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001275306263463107</v>
+        <v>0.0001275307897214602</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0001006512528250342</v>
+        <v>0.0001006514750893026</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.403103074665102e-05</v>
+        <v>9.403152990379522e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.860018880811773e-05</v>
+        <v>7.859989725846903e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.884477834291528e-05</v>
+        <v>8.884487232169766e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.992556754884339e-05</v>
+        <v>9.992619742487715e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0001473458906915617</v>
+        <v>0.0001473465637232658</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001555265440993049</v>
+        <v>0.0001555265246376732</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.283658424538072e-05</v>
+        <v>9.283708529351751e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.555513673125439e-05</v>
+        <v>9.555531479357219e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.718527417631089e-05</v>
+        <v>7.718542588471192e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0001100605572128403</v>
+        <v>0.0001100605302054678</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.537333514072291e-05</v>
+        <v>6.537361712572872e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.410621889557846e-05</v>
+        <v>7.41064647388383e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.153616925514521e-05</v>
+        <v>7.153632827920832e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.425602431225856e-05</v>
+        <v>8.425645431776406e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0001100559236903677</v>
+        <v>0.0001100562197766577</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.017983444100401e-05</v>
+        <v>5.018030058485753e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>9.305179559569501e-05</v>
+        <v>9.305216652754833e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0001035903958563536</v>
+        <v>0.0001035899347802656</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.000102828171044764</v>
+        <v>0.0001028284454555273</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.466860499986641e-05</v>
+        <v>6.466869974670891e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0001592912407629018</v>
+        <v>0.0001592918061679657</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.641196085141907e-05</v>
+        <v>8.64119652063323e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>9.418517980339939e-05</v>
+        <v>9.418555299982701e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0001270923089548484</v>
+        <v>0.000127092280350926</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0001065184964215496</v>
+        <v>0.0001065190693543742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001356535504676549</v>
+        <v>0.0001356537981021789</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000131107472701149</v>
+        <v>0.0001311068017806644</v>
       </c>
       <c r="C4" t="n">
         <v>0.0003360987105198549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001874657584315771</v>
+        <v>0.0001874657487089957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001408509494569435</v>
+        <v>0.0001408505181592148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001038010814923125</v>
+        <v>0.0001038006974836572</v>
       </c>
       <c r="G4" t="n">
         <v>0.0001930939916860725</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001223304634808414</v>
+        <v>0.0001223305144797779</v>
       </c>
       <c r="I4" t="n">
         <v>0.000126256513934015</v>
       </c>
       <c r="J4" t="n">
-        <v>8.253053883579473e-05</v>
+        <v>8.253060337722751e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.968942116657154e-05</v>
+        <v>6.968929899193686e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>8.66495725443906e-05</v>
+        <v>8.664965532636963e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.04052507139829e-05</v>
+        <v>9.040540186709768e-05</v>
       </c>
       <c r="N4" t="n">
         <v>7.817817043262592e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>9.580240624013818e-05</v>
+        <v>9.580258580573442e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0.0001648063158350068</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.607568072192656e-05</v>
+        <v>8.607534335022773e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>6.654496243242628e-05</v>
+        <v>6.654479122317195e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001135568097601106</v>
+        <v>0.0001119780287314817</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0001766087918716948</v>
+        <v>0.0001766088608216074</v>
       </c>
       <c r="U4" t="n">
-        <v>9.389247530147694e-05</v>
+        <v>9.389183804263167e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001121569220270941</v>
+        <v>0.0001121565050057051</v>
       </c>
       <c r="W4" t="n">
-        <v>5.913616011353504e-05</v>
+        <v>5.49895743838046e-05</v>
       </c>
       <c r="X4" t="n">
         <v>0.000115322779231667</v>
@@ -1066,28 +1066,28 @@
         <v>9.177365911549823e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.832384912164175e-05</v>
+        <v>6.832449652061312e-05</v>
       </c>
       <c r="AA4" t="n">
         <v>9.127921995164405e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.427390112928846e-05</v>
+        <v>7.42736951211755e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.192576072987191e-05</v>
+        <v>4.192600156950766e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0001322979077260465</v>
+        <v>0.0001322982722276608</v>
       </c>
       <c r="AE4" t="n">
         <v>0.0001275050869628383</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.189860661065406e-05</v>
+        <v>9.18981875939562e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.018940551875016e-05</v>
+        <v>6.018909306302382e-05</v>
       </c>
       <c r="AH4" t="n">
         <v>7.838785940234994e-05</v>
@@ -1096,31 +1096,31 @@
         <v>8.655554673622299e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.602503886707356e-05</v>
+        <v>4.60253483232788e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.207392548818198e-05</v>
+        <v>5.207497588598836e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>4.176396785036809e-05</v>
+        <v>4.176431514737092e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>8.849352123595434e-05</v>
+        <v>8.849380848633967e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.841567885477681e-05</v>
+        <v>8.841558796802381e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.491974421790468e-05</v>
+        <v>4.492049582408287e-05</v>
       </c>
       <c r="AP4" t="n">
         <v>6.124018999417766e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0001680635478964973</v>
+        <v>0.0001680632353161949</v>
       </c>
       <c r="AR4" t="n">
-        <v>7.985385474979008e-05</v>
+        <v>7.985371155597325e-05</v>
       </c>
       <c r="AS4" t="n">
         <v>4.371156954308458e-05</v>
@@ -1129,7 +1129,7 @@
         <v>0.0001347751930245655</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.871208388160144e-05</v>
+        <v>6.871176099837254e-05</v>
       </c>
       <c r="AV4" t="n">
         <v>8.871396549480696e-05</v>
@@ -1143,529 +1143,529 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.68811796102571e-05</v>
+        <v>9.688116035111255e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0001319753280501337</v>
+        <v>0.0001319748802183106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001874657584315771</v>
+        <v>0.0001874657487089957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003061591882811822</v>
+        <v>0.0003061590590938579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000143464292572921</v>
+        <v>0.0001434637759801125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001047114526026918</v>
+        <v>0.0001047109971192356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001588030531864533</v>
+        <v>0.0001588028522848285</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001113905009375421</v>
+        <v>0.0001113906302762745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001260700749192928</v>
+        <v>0.0001260699882949315</v>
       </c>
       <c r="J5" t="n">
-        <v>6.025057899531465e-05</v>
+        <v>6.025072874471e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.64151998710571e-05</v>
+        <v>3.641533437331277e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>8.760477288218437e-05</v>
+        <v>8.760451124905674e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.578808994331022e-05</v>
+        <v>9.578832498720361e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.065126470248481e-05</v>
+        <v>7.065119459457151e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>9.729653189460776e-05</v>
+        <v>9.729645081542633e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.000144374554908153</v>
+        <v>0.0001443744648563347</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.151364011856174e-05</v>
+        <v>8.151371726108092e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>8.014656304160879e-05</v>
+        <v>8.014629220303002e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000127329545753289</v>
+        <v>0.0001261820142958194</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0001595987923766339</v>
+        <v>0.0001595988598252454</v>
       </c>
       <c r="U5" t="n">
-        <v>9.619210783891516e-05</v>
+        <v>9.619133175218952e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0001168865965852536</v>
+        <v>0.0001168858825932452</v>
       </c>
       <c r="W5" t="n">
-        <v>6.519623976520287e-05</v>
+        <v>6.225324432782702e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0001704125665023902</v>
+        <v>0.0001704124490544519</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.858029886979763e-05</v>
+        <v>8.858025215126247e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.956568218972502e-05</v>
+        <v>5.95659998144235e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.747272037395025e-05</v>
+        <v>9.747258545120157e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.376791623149714e-05</v>
+        <v>6.376802475953205e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.290764639956954e-05</v>
+        <v>8.290783140633536e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0001192188658963245</v>
+        <v>0.0001192191844161157</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001402161635430942</v>
+        <v>0.0001402160320432141</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0001069826004134975</v>
+        <v>0.0001069821831773945</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.591578644336458e-05</v>
+        <v>6.591498394535009e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.612591903411454e-05</v>
+        <v>7.612581453352928e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0001151456250319295</v>
+        <v>0.0001151454342997057</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.120544133571485e-05</v>
+        <v>6.12054632493915e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.157127351897908e-05</v>
+        <v>6.157177633219618e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.488378968562795e-05</v>
+        <v>1.488434458845694e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>8.216247709275555e-05</v>
+        <v>8.216280054892415e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.657770879827064e-05</v>
+        <v>8.657786134173408e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.293972374187028e-05</v>
+        <v>6.294015642283632e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.664535592195834e-05</v>
+        <v>7.664522018949329e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.558948356251726e-05</v>
+        <v>7.558894620536517e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0001253144691749635</v>
+        <v>0.0001253140298149742</v>
       </c>
       <c r="AS5" t="n">
-        <v>8.825983674973398e-05</v>
+        <v>8.825980988125732e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.000136336813117006</v>
+        <v>0.0001363367485484789</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.979359895232318e-05</v>
+        <v>5.979262219079165e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.938954206858312e-05</v>
+        <v>9.938945953027892e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.369741166628799e-05</v>
+        <v>8.369730894317369e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.090775939994502e-05</v>
+        <v>7.09076750952639e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0001997188524105317</v>
+        <v>0.0001997188456449939</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001502927056686137</v>
+        <v>0.0001502923384299319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001408509494569435</v>
+        <v>0.0001408505181592148</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000143464292572921</v>
+        <v>0.0001434637759801125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003507122798048235</v>
+        <v>0.0003507114195839491</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001887506728702398</v>
+        <v>0.0001887502390864488</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002205268798452513</v>
+        <v>0.0002205258492330676</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001396130910248394</v>
+        <v>0.0001396129503483519</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001686561055493136</v>
+        <v>0.0001686559536870741</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001136597121033195</v>
+        <v>0.0001136600820176867</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000176310271831486</v>
+        <v>0.0001763098677687097</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001700022824867695</v>
+        <v>0.0001700023783311867</v>
       </c>
       <c r="M6" t="n">
-        <v>0.000133804456755709</v>
+        <v>0.0001338040346271521</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0001029221100642188</v>
+        <v>0.0001029218989181261</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002328380682797607</v>
+        <v>0.000232837644644786</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0001899234304108661</v>
+        <v>0.0001899231314983887</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0001974176469591431</v>
+        <v>0.0001974177318571004</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000122316033600829</v>
+        <v>0.0001223158468603603</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002138931467999331</v>
+        <v>0.0002113652127255983</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0002204306820607607</v>
+        <v>0.0002204304760318711</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001631379878612086</v>
+        <v>0.00016313733302014</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001384870100896091</v>
+        <v>0.0001384866157368565</v>
       </c>
       <c r="W6" t="n">
-        <v>7.793924866796914e-05</v>
+        <v>8.127342586713627e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001732984390372024</v>
+        <v>0.0001732980177825545</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001278837277958272</v>
+        <v>0.0001278834505768574</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001282242882945518</v>
+        <v>0.0001282243756520197</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.792066207953161e-05</v>
+        <v>7.792053360538084e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0001434549413647669</v>
+        <v>0.0001434554206407131</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0001864067180954426</v>
+        <v>0.0001864060251383511</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0002875163082997466</v>
+        <v>0.0002875157335118992</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0002251245715644659</v>
+        <v>0.0002251246912283107</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0001164973846943226</v>
+        <v>0.0001164970674553278</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001366341113883825</v>
+        <v>0.0001366334058784133</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.840086781113123e-05</v>
+        <v>8.840081912399321e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0001255674069995015</v>
+        <v>0.0001255666388165231</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.173496424913979e-05</v>
+        <v>7.173534381530372e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0001094468411500656</v>
+        <v>0.0001094470949055775</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0001262245676211845</v>
+        <v>0.0001262245876636335</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0001036190340900818</v>
+        <v>0.0001036191705734503</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0002014123969748797</v>
+        <v>0.0002014117904457748</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.558080935822571e-05</v>
+        <v>6.558131259786793e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0001307922269180051</v>
+        <v>0.0001307924163222255</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0001173044434052195</v>
+        <v>0.0001173037570903214</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0001354343825491795</v>
+        <v>0.0001354345174149887</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0001166658956974503</v>
+        <v>0.0001166659512076297</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0002963838625029673</v>
+        <v>0.0002963837280717414</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0001076132541448226</v>
+        <v>0.0001076127082951061</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.000121260311130311</v>
+        <v>0.0001212602291524336</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0001450325105779337</v>
+        <v>0.0001450322500677213</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0001462779490057343</v>
+        <v>0.0001462778941016184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001701556926864743</v>
+        <v>0.000170155139836861</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001222204018248705</v>
+        <v>0.0001222203658898661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001038010814923125</v>
+        <v>0.0001038006974836572</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001047114526026918</v>
+        <v>0.0001047109971192356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001887506728702398</v>
+        <v>0.0001887502390864488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002804233798271736</v>
+        <v>0.000280422593442692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00010224721953277</v>
+        <v>0.0001022468640711323</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001073392527424445</v>
+        <v>0.0001073391184225207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001282466830756306</v>
+        <v>0.0001282466633574385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000108602705342935</v>
+        <v>0.0001086023294769052</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000144794679389028</v>
+        <v>0.0001447945322180515</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000140349720145023</v>
+        <v>0.000140349896480682</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001184834350015849</v>
+        <v>0.0001184832848524791</v>
       </c>
       <c r="N7" t="n">
-        <v>8.02227374029376e-05</v>
+        <v>8.022286737260999e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001950379545434821</v>
+        <v>0.0001950373271269239</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0001414906979668816</v>
+        <v>0.0001414906503675353</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001516987911297793</v>
+        <v>0.00015169829472517</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001083558904002907</v>
+        <v>0.0001083560068080017</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001914347326663595</v>
+        <v>0.0001887081426090884</v>
       </c>
       <c r="T7" t="n">
-        <v>0.000174170216072788</v>
+        <v>0.0001741698044910575</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0001412054532850732</v>
+        <v>0.0001412045275167067</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001221992847202461</v>
+        <v>0.0001221992517832199</v>
       </c>
       <c r="W7" t="n">
-        <v>6.844679816125438e-05</v>
+        <v>6.849421895017864e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.000115827316856035</v>
+        <v>0.0001158271164153929</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001118055800537367</v>
+        <v>0.0001118054354128906</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0001142392207273418</v>
+        <v>0.000114239343020007</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.297017433254219e-05</v>
+        <v>7.296960598315264e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.32453930803756e-05</v>
+        <v>9.324556634225518e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0001519668933228578</v>
+        <v>0.0001519669960765796</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0001894744523373215</v>
+        <v>0.0001894747949869069</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0002073737740958491</v>
+        <v>0.0002073734881446203</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0001089188661106874</v>
+        <v>0.0001089186065153538</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0001348666257223041</v>
+        <v>0.0001348664094276289</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.458809099028037e-05</v>
+        <v>9.458787866593036e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0001146541569706668</v>
+        <v>0.0001146540332685281</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.330731215011544e-05</v>
+        <v>7.33074572375815e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>9.89054164789055e-05</v>
+        <v>9.890557337662075e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.711842983163791e-05</v>
+        <v>9.711748203702043e-05</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.797156611262577e-05</v>
+        <v>8.797184609641137e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0001611526578847427</v>
+        <v>0.0001611527769075587</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.824361377700596e-05</v>
+        <v>6.824435922620556e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.813424797634307e-05</v>
+        <v>9.813428650861632e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.999286911858192e-05</v>
+        <v>7.99927416814887e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0001424865589953257</v>
+        <v>0.0001424864697793515</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.19290801378091e-05</v>
+        <v>8.192929406124967e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0002126373063934014</v>
+        <v>0.0002126372074914789</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0001016580919792854</v>
+        <v>0.000101657477950317</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.000111723594451001</v>
+        <v>0.0001117235928608964</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0001149587500850592</v>
+        <v>0.0001149587516043699</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.000129080142847122</v>
+        <v>0.0001290799601239788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0001561339744809518</v>
+        <v>0.0001561338840755799</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0001304564851611712</v>
+        <v>0.0001304565234091114</v>
       </c>
       <c r="C8" t="n">
         <v>0.0001930939916860725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001588030531864533</v>
+        <v>0.0001588028522848285</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002205268798452513</v>
+        <v>0.0002205258492330676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00010224721953277</v>
+        <v>0.0001022468640711323</v>
       </c>
       <c r="G8" t="n">
         <v>0.0007825659833719144</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001270239644135092</v>
+        <v>0.0001270238887896062</v>
       </c>
       <c r="I8" t="n">
         <v>0.0001409163183567931</v>
       </c>
       <c r="J8" t="n">
-        <v>8.582366252508302e-05</v>
+        <v>8.58242418200946e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001062580241675778</v>
+        <v>0.0001062582835999498</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000150424525330617</v>
+        <v>0.0001504252306143086</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0001158440321170641</v>
+        <v>0.0001158442438378541</v>
       </c>
       <c r="N8" t="n">
         <v>8.975150119732465e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001553732582095011</v>
+        <v>0.0001553735810231604</v>
       </c>
       <c r="P8" t="n">
         <v>0.0001999641148835919</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0001236422347791442</v>
+        <v>0.0001236428939059559</v>
       </c>
       <c r="R8" t="n">
-        <v>7.886264339173254e-05</v>
+        <v>7.886246838537091e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001267858745753729</v>
+        <v>0.0001251562546621286</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0001948298282809966</v>
+        <v>0.0001948300508801531</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0001228203132877489</v>
+        <v>0.0001228199229883194</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0001378372860018585</v>
+        <v>0.000137836705936203</v>
       </c>
       <c r="W8" t="n">
-        <v>8.913054257472863e-05</v>
+        <v>8.782049345329211e-05</v>
       </c>
       <c r="X8" t="n">
         <v>0.0001426235013874603</v>
@@ -1674,28 +1674,28 @@
         <v>9.35130748973038e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.532596427344747e-05</v>
+        <v>9.532604745231348e-05</v>
       </c>
       <c r="AA8" t="n">
         <v>7.533354028530406e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.717753483697199e-05</v>
+        <v>9.717759971743604e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.000103642032843223</v>
+        <v>0.0001036421334831566</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0001961901886433743</v>
+        <v>0.0001961899051786025</v>
       </c>
       <c r="AE8" t="n">
         <v>0.0001848840382963448</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.067122604344898e-05</v>
+        <v>3.067086795626166e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.790954804222494e-05</v>
+        <v>9.790825289330841e-05</v>
       </c>
       <c r="AH8" t="n">
         <v>0.0001068360661511422</v>
@@ -1704,31 +1704,31 @@
         <v>9.810240399006753e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.670559772188272e-05</v>
+        <v>5.670589897373166e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>6.589670967229617e-05</v>
+        <v>6.589821558348752e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.270128424262561e-05</v>
+        <v>7.270133856466467e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.991802036805653e-05</v>
+        <v>8.99183363232201e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0001357866514522798</v>
+        <v>0.0001357867547412187</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.794307439768594e-05</v>
+        <v>1.794308797362763e-05</v>
       </c>
       <c r="AP8" t="n">
         <v>8.523212734404946e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0001589783377037601</v>
+        <v>0.0001589777068575231</v>
       </c>
       <c r="AR8" t="n">
-        <v>7.934634793222426e-05</v>
+        <v>7.93461045979732e-05</v>
       </c>
       <c r="AS8" t="n">
         <v>5.187385102085073e-05</v>
@@ -1737,7 +1737,7 @@
         <v>0.0001892320233268829</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.45346490859531e-05</v>
+        <v>8.453358421039553e-05</v>
       </c>
       <c r="AV8" t="n">
         <v>0.0001037915645346688</v>
@@ -1751,225 +1751,225 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001721448426012818</v>
+        <v>0.0001721446189420565</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001231528748191681</v>
+        <v>0.0001231529250966214</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001223304634808414</v>
+        <v>0.0001223305144797779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001113905009375421</v>
+        <v>0.0001113906302762745</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001396130910248394</v>
+        <v>0.0001396129503483519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001073392527424445</v>
+        <v>0.0001073391184225207</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001270239644135092</v>
+        <v>0.0001270238887896062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003092845849270244</v>
+        <v>0.0003092845329296563</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001501122785123288</v>
+        <v>0.000150112315927696</v>
       </c>
       <c r="J9" t="n">
-        <v>9.202698550884399e-05</v>
+        <v>9.202727722824542e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001150657205677688</v>
+        <v>0.000115065340876085</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001032176914437799</v>
+        <v>0.0001032175891278307</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001148497147430873</v>
+        <v>0.0001148497279074977</v>
       </c>
       <c r="N9" t="n">
-        <v>6.551906343338437e-05</v>
+        <v>6.55190701521404e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001287013149476963</v>
+        <v>0.0001287013525750588</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001382881588270191</v>
+        <v>0.000138288178250495</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001185801994234945</v>
+        <v>0.0001185804305687389</v>
       </c>
       <c r="R9" t="n">
-        <v>9.32962027903416e-05</v>
+        <v>9.329613623926641e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0001488427805813311</v>
+        <v>0.0001436744720425332</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0001566640905351161</v>
+        <v>0.0001566641940043166</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0001115844039055519</v>
+        <v>0.0001115838238786565</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001187874642825082</v>
+        <v>0.0001187878551279378</v>
       </c>
       <c r="W9" t="n">
-        <v>8.007371103618054e-05</v>
+        <v>7.947536323114306e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0001081698553705165</v>
+        <v>0.0001081699702381543</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0001022709843667235</v>
+        <v>0.0001022708904008798</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.514043908294305e-05</v>
+        <v>9.514088846750557e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.312756892947359e-05</v>
+        <v>8.312766188147428e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.745239253184217e-05</v>
+        <v>9.745275880101546e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0001057699187717093</v>
+        <v>0.0001057699751509252</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0001590641271213838</v>
+        <v>0.0001590642913070403</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.000155117839111064</v>
+        <v>0.0001551179052960986</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.509304298826615e-05</v>
+        <v>6.509294069703813e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.664068592931802e-05</v>
+        <v>9.664062968939935e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.810263146394956e-05</v>
+        <v>9.810259798149692e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0001179449610609956</v>
+        <v>0.000117945013629892</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.926322242758613e-05</v>
+        <v>6.92636387638018e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0001007203822939941</v>
+        <v>0.0001007207482343491</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001052067967606971</v>
+        <v>0.0001052065313319291</v>
       </c>
       <c r="AM9" t="n">
-        <v>8.612425104778989e-05</v>
+        <v>8.612373444484487e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0001045529165209857</v>
+        <v>0.000104552651488483</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.98374501699564e-05</v>
+        <v>5.983834878248201e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0001028317181925638</v>
+        <v>0.0001028317253520842</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.48871833852982e-05</v>
+        <v>8.488742961495714e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.888300818232842e-05</v>
+        <v>4.888336546093141e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.967412681554457e-05</v>
+        <v>6.967400577452512e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0001643643727981229</v>
+        <v>0.0001643644997087165</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0001030751976340964</v>
+        <v>0.0001030753109048607</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0001014447906545045</v>
+        <v>0.0001014447777465255</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0001221650445209003</v>
+        <v>0.0001221649188704984</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0001284062233367183</v>
+        <v>0.000128406172329098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0001743574688678369</v>
+        <v>0.0001743573049093628</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0001440393187689663</v>
+        <v>0.0001440392486081459</v>
       </c>
       <c r="C10" t="n">
         <v>0.000126256513934015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001260700749192928</v>
+        <v>0.0001260699882949315</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001686561055493136</v>
+        <v>0.0001686559536870741</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001282466830756306</v>
+        <v>0.0001282466633574385</v>
       </c>
       <c r="G10" t="n">
         <v>0.0001409163183567931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001501122785123288</v>
+        <v>0.000150112315927696</v>
       </c>
       <c r="I10" t="n">
         <v>0.0002424174187070064</v>
       </c>
       <c r="J10" t="n">
-        <v>9.805753474345214e-05</v>
+        <v>9.805778962718165e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001238882237657239</v>
+        <v>0.0001238882865856918</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001077193016268301</v>
+        <v>0.0001077193020145688</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0001295527080977871</v>
+        <v>0.0001295527599201055</v>
       </c>
       <c r="N10" t="n">
         <v>0.0001060274791327795</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001598235341835421</v>
+        <v>0.0001598235929629148</v>
       </c>
       <c r="P10" t="n">
         <v>0.0001583751723091282</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001390915000332133</v>
+        <v>0.0001390916659977604</v>
       </c>
       <c r="R10" t="n">
-        <v>8.369828503192471e-05</v>
+        <v>8.369795620747181e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001512486411203973</v>
+        <v>0.0001506704919404315</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0001744788431456349</v>
+        <v>0.0001744791790590086</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0001183826282758931</v>
+        <v>0.0001183824598196688</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001262350376995916</v>
+        <v>0.0001262352589530372</v>
       </c>
       <c r="W10" t="n">
-        <v>7.589035283394566e-05</v>
+        <v>7.436355707871261e-05</v>
       </c>
       <c r="X10" t="n">
         <v>0.0001274931757213046</v>
@@ -1978,28 +1978,28 @@
         <v>0.0001165807502305587</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.000103045705830696</v>
+        <v>0.0001030461453713631</v>
       </c>
       <c r="AA10" t="n">
         <v>8.297225109195958e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.829871547439193e-05</v>
+        <v>8.829912599100424e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0001057819469391462</v>
+        <v>0.0001057820744894966</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0001786894032944933</v>
+        <v>0.0001786895340535088</v>
       </c>
       <c r="AE10" t="n">
         <v>0.0002006157963864076</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.879417855331551e-05</v>
+        <v>9.879408473956973e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.527382351217425e-05</v>
+        <v>9.527343467529169e-05</v>
       </c>
       <c r="AH10" t="n">
         <v>0.0001039916747313132</v>
@@ -2008,31 +2008,31 @@
         <v>0.0001199451810340809</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.478562234626684e-05</v>
+        <v>7.4785867894158e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.099998333505383e-05</v>
+        <v>7.100030819582099e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.184148448401471e-05</v>
+        <v>7.184154075958399e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.617351977922161e-05</v>
+        <v>9.617323698387934e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0001246116715328221</v>
+        <v>0.0001246119843712441</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.110246145470565e-05</v>
+        <v>6.110299820906673e-05</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0001084288111070338</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0001110792103822095</v>
+        <v>0.0001110792803627604</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0001163996501166019</v>
+        <v>0.0001163997747138827</v>
       </c>
       <c r="AS10" t="n">
         <v>9.77571516054535e-05</v>
@@ -2041,7 +2041,7 @@
         <v>0.0002049525071511149</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.631113213857967e-05</v>
+        <v>9.631103667280649e-05</v>
       </c>
       <c r="AV10" t="n">
         <v>0.0001111770713627965</v>
@@ -2055,681 +2055,681 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.000132017988386019</v>
+        <v>0.0001320180855303323</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001000132879754544</v>
+        <v>0.0001000137672034009</v>
       </c>
       <c r="C11" t="n">
-        <v>8.253053883579473e-05</v>
+        <v>8.253060337722751e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>6.025057899531465e-05</v>
+        <v>6.025072874471e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001136597121033195</v>
+        <v>0.0001136600820176867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000108602705342935</v>
+        <v>0.0001086023294769052</v>
       </c>
       <c r="G11" t="n">
-        <v>8.582366252508302e-05</v>
+        <v>8.58242418200946e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>9.202698550884399e-05</v>
+        <v>9.202727722824542e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>9.805753474345214e-05</v>
+        <v>9.805778962718165e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001818784657946369</v>
+        <v>0.0001818783588530874</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001210130482758268</v>
+        <v>0.0001210128221237807</v>
       </c>
       <c r="L11" t="n">
-        <v>9.610121271330775e-05</v>
+        <v>9.610132019885881e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>8.562809586648719e-05</v>
+        <v>8.562821084244741e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.316816102767285e-05</v>
+        <v>5.316845152356591e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001247568160593409</v>
+        <v>0.0001247572462677009</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000128694210253573</v>
+        <v>0.0001286943998906075</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0001059041097604463</v>
+        <v>0.0001059040962882454</v>
       </c>
       <c r="R11" t="n">
-        <v>6.18343736621897e-05</v>
+        <v>6.183446079232894e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0001086706108716431</v>
+        <v>0.0001062409347140762</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0001344885655036585</v>
+        <v>0.0001344889118170233</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001120997546069275</v>
+        <v>0.0001120993889177677</v>
       </c>
       <c r="V11" t="n">
-        <v>9.231331669912093e-05</v>
+        <v>9.231418163529418e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>6.666034526450675e-05</v>
+        <v>6.609197729163941e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>8.618201867743878e-05</v>
+        <v>8.618205420450129e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.443327730285215e-05</v>
+        <v>7.443330300605857e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.082311978027981e-05</v>
+        <v>9.082344684647826e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.261176601875547e-05</v>
+        <v>7.261231487114806e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.334365388308142e-05</v>
+        <v>9.334373711383909e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.787358585204896e-05</v>
+        <v>9.787354425854745e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0001344354428445939</v>
+        <v>0.0001344357277488822</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0001372942994654344</v>
+        <v>0.0001372948788524078</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.077681575452097e-05</v>
+        <v>8.077657936762698e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0001033173137656568</v>
+        <v>0.0001033176996961356</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.656523501264876e-05</v>
+        <v>7.65653146185712e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.590771357693259e-05</v>
+        <v>6.590775465319145e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.588241860407912e-05</v>
+        <v>4.588287442837519e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>8.791726748841975e-05</v>
+        <v>8.791689322887485e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.096456296791823e-05</v>
+        <v>9.096439628548662e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.113415778466207e-05</v>
+        <v>6.113429995755303e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.86340390278303e-05</v>
+        <v>9.863477206664295e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.707158338513381e-05</v>
+        <v>4.707167278200039e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.869403170166264e-05</v>
+        <v>5.869441629872649e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.137246056390372e-05</v>
+        <v>5.137251466007022e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.183119668522317e-05</v>
+        <v>9.183159965697297e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>6.546005333398539e-05</v>
+        <v>6.546017982912846e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0001413530112308176</v>
+        <v>0.0001413532482256613</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.048624664695192e-05</v>
+        <v>7.04861781304499e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.600453866812025e-05</v>
+        <v>8.60050154254831e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.796722523820239e-05</v>
+        <v>9.796763327374344e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0001018221156761368</v>
+        <v>0.000101822083627713</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0001895383457586863</v>
+        <v>0.0001895386532987263</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0001102601455881925</v>
+        <v>0.000110260774611955</v>
       </c>
       <c r="C12" t="n">
-        <v>6.968942116657154e-05</v>
+        <v>6.968929899193686e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>3.64151998710571e-05</v>
+        <v>3.641533437331277e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000176310271831486</v>
+        <v>0.0001763098677687097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000144794679389028</v>
+        <v>0.0001447945322180515</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001062580241675778</v>
+        <v>0.0001062582835999498</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001150657205677688</v>
+        <v>0.000115065340876085</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001238882237657239</v>
+        <v>0.0001238882865856918</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001210130482758268</v>
+        <v>0.0001210128221237807</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003144590321412431</v>
+        <v>0.0003144587906628219</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001373626779315525</v>
+        <v>0.0001373626479235314</v>
       </c>
       <c r="M12" t="n">
-        <v>9.979942260417195e-05</v>
+        <v>9.979958018498172e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>8.12693531797059e-05</v>
+        <v>8.126909133172229e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002103153230083195</v>
+        <v>0.0002103146317974015</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0001505583698141097</v>
+        <v>0.0001505580603620225</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.000158215548020674</v>
+        <v>0.0001582155187467876</v>
       </c>
       <c r="R12" t="n">
-        <v>9.434582386826584e-05</v>
+        <v>9.434614132687783e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001626205809693403</v>
+        <v>0.000159085243176761</v>
       </c>
       <c r="T12" t="n">
-        <v>0.000182983916809066</v>
+        <v>0.0001829834572559659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.000131844121110633</v>
+        <v>0.0001318435827371909</v>
       </c>
       <c r="V12" t="n">
-        <v>9.786556569306344e-05</v>
+        <v>9.786611288751963e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>5.83652758751577e-05</v>
+        <v>5.526072551311106e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>9.228558649726302e-05</v>
+        <v>9.228578595857339e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0001045989959759476</v>
+        <v>0.0001045988673487954</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0001170551695383531</v>
+        <v>0.0001170551665248044</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.250473921181505e-05</v>
+        <v>2.250529444671289e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.000117555336340444</v>
+        <v>0.0001175559337973553</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0001747370897006064</v>
+        <v>0.0001747371935644448</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0002453977304268835</v>
+        <v>0.0002453976965985909</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0002200104422963081</v>
+        <v>0.0002200107066918386</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0001199570400291008</v>
+        <v>0.0001199575274928391</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0001232770394341421</v>
+        <v>0.0001232773089051494</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.924949601557096e-05</v>
+        <v>7.924955745173443e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.083259709282305e-05</v>
+        <v>9.083298589020106e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.100289796991116e-05</v>
+        <v>5.10032780758105e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.392643377708925e-05</v>
+        <v>9.39270063748397e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0001270056157492276</v>
+        <v>0.0001270049289150268</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.720018821706495e-05</v>
+        <v>6.719988559324756e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0001666792436534331</v>
+        <v>0.0001666794137491928</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.985720069685438e-05</v>
+        <v>6.985727618502466e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>8.371482036925365e-05</v>
+        <v>8.371470723799177e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9.085092523829634e-05</v>
+        <v>9.085125044730222e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0001112264477867602</v>
+        <v>0.0001112265891330483</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.082243034137763e-05</v>
+        <v>5.082230375485892e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0002387640887582363</v>
+        <v>0.0002387642063879568</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.000107141646691689</v>
+        <v>0.0001071414880469364</v>
       </c>
       <c r="AV12" t="n">
-        <v>8.87208554055349e-05</v>
+        <v>8.872116692457675e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0001167804440569588</v>
+        <v>0.0001167806280841721</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0001475117024962374</v>
+        <v>0.0001475119339092686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001662641676490648</v>
+        <v>0.0001662640556001329</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0001076148281230335</v>
+        <v>0.0001076146863578601</v>
       </c>
       <c r="C13" t="n">
-        <v>8.66495725443906e-05</v>
+        <v>8.664965532636963e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>8.760477288218437e-05</v>
+        <v>8.760451124905674e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001700022824867695</v>
+        <v>0.0001700023783311867</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000140349720145023</v>
+        <v>0.000140349896480682</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000150424525330617</v>
+        <v>0.0001504252306143086</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001032176914437799</v>
+        <v>0.0001032175891278307</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001077193016268301</v>
+        <v>0.0001077193020145688</v>
       </c>
       <c r="J13" t="n">
-        <v>9.610121271330775e-05</v>
+        <v>9.610132019885881e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001373626779315525</v>
+        <v>0.0001373626479235314</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001760753190573588</v>
+        <v>0.0001760758939383588</v>
       </c>
       <c r="M13" t="n">
-        <v>9.415005162572796e-05</v>
+        <v>9.415030397430928e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.760364744465908e-05</v>
+        <v>5.760351479840409e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001645103355386883</v>
+        <v>0.000164510394483186</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001258482896734036</v>
+        <v>0.0001258483148658477</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0001567012716318008</v>
+        <v>0.0001567015063542596</v>
       </c>
       <c r="R13" t="n">
-        <v>9.79127366660338e-05</v>
+        <v>9.79127344333476e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000156749865100627</v>
+        <v>0.0001561129440028936</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001386823483635296</v>
+        <v>0.0001386826265212111</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001377734938490501</v>
+        <v>0.0001377728284717109</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001068608304326659</v>
+        <v>0.0001068609875149888</v>
       </c>
       <c r="W13" t="n">
-        <v>6.351599427657205e-05</v>
+        <v>6.194238392390428e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.000103358676327725</v>
+        <v>0.0001033586669901563</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.999913285487416e-05</v>
+        <v>7.999899012519952e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.618553918023907e-05</v>
+        <v>9.618578049247516e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.234004458404083e-05</v>
+        <v>6.23401620861907e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001061962630185452</v>
+        <v>0.0001061967846964089</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0001353360810454037</v>
+        <v>0.0001353354090733697</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.000181442793838587</v>
+        <v>0.0001814432125830942</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001633299372651492</v>
+        <v>0.0001633299100691797</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.202377567088077e-05</v>
+        <v>8.202394623072833e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001199878274211977</v>
+        <v>0.0001199880467820229</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.24050864334457e-05</v>
+        <v>8.240519049003581e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.23284754404165e-05</v>
+        <v>7.232828450026038e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.716915418710305e-05</v>
+        <v>6.716961962556873e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.761725542243801e-05</v>
+        <v>9.761706277823606e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0001010910481316684</v>
+        <v>0.0001010909864339149</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.365025733070105e-05</v>
+        <v>7.365011047576604e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0001629806133984476</v>
+        <v>0.0001629807046509343</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.09123647491431e-05</v>
+        <v>5.091255211373136e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.992317984064162e-05</v>
+        <v>7.992330529879009e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.324137504001408e-05</v>
+        <v>8.324156969618346e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.000108313735341694</v>
+        <v>0.00010831418704801</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.346936033190675e-05</v>
+        <v>6.346932164172756e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0002088010589709833</v>
+        <v>0.0002088014922696699</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.171113779413101e-05</v>
+        <v>8.171087142677289e-05</v>
       </c>
       <c r="AV13" t="n">
-        <v>9.028062859990535e-05</v>
+        <v>9.028046006938969e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0001015496033519742</v>
+        <v>0.0001015493583139901</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001105194886804665</v>
+        <v>0.0001105195285975326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001450144365330962</v>
+        <v>0.0001450141350664802</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0001045770930989364</v>
+        <v>0.0001045775124269355</v>
       </c>
       <c r="C14" t="n">
-        <v>9.04052507139829e-05</v>
+        <v>9.040540186709768e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>9.578808994331022e-05</v>
+        <v>9.578832498720361e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000133804456755709</v>
+        <v>0.0001338040346271521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001184834350015849</v>
+        <v>0.0001184832848524791</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001158440321170641</v>
+        <v>0.0001158442438378541</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001148497147430873</v>
+        <v>0.0001148497279074977</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001295527080977871</v>
+        <v>0.0001295527599201055</v>
       </c>
       <c r="J14" t="n">
-        <v>8.562809586648719e-05</v>
+        <v>8.562821084244741e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>9.979942260417195e-05</v>
+        <v>9.979958018498172e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>9.415005162572796e-05</v>
+        <v>9.415030397430928e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000154718432123622</v>
+        <v>0.0001547181953061486</v>
       </c>
       <c r="N14" t="n">
-        <v>5.750796096532408e-05</v>
+        <v>5.750797861348e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001304953034745182</v>
+        <v>0.0001304952306589708</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001275997982689133</v>
+        <v>0.0001275998605234275</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0001010615678330687</v>
+        <v>0.0001010617092258924</v>
       </c>
       <c r="R14" t="n">
-        <v>7.335456057004527e-05</v>
+        <v>7.335450889634474e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0001248875300773043</v>
+        <v>0.00012539449276259</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0001454342492728964</v>
+        <v>0.0001454349205165553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0001012179690662089</v>
+        <v>0.0001012178012271111</v>
       </c>
       <c r="V14" t="n">
-        <v>9.662539726729524e-05</v>
+        <v>9.662553221961532e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>6.88634847532056e-05</v>
+        <v>6.697351670864795e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0001011790319453411</v>
+        <v>0.0001011791686547422</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.888871668260307e-05</v>
+        <v>9.888858404678272e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.387828602120925e-05</v>
+        <v>9.387839458046339e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.381666640625532e-05</v>
+        <v>6.381661156207107e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.045187382308769e-05</v>
+        <v>8.045259102598734e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.000100556205652491</v>
+        <v>0.0001005563599078965</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0001392732611839631</v>
+        <v>0.000139273799681972</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0001636944756399387</v>
+        <v>0.0001636943008842065</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.499364589442997e-05</v>
+        <v>9.499326357066599e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.417571059203728e-05</v>
+        <v>9.417554281224464e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.483931457826362e-05</v>
+        <v>8.483911150723389e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.774743030719962e-05</v>
+        <v>9.774766395853669e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.469002285728116e-05</v>
+        <v>6.469020763257339e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>8.103814207795658e-05</v>
+        <v>8.103866343560808e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.627540217115334e-05</v>
+        <v>8.627550105085553e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.148117627628762e-05</v>
+        <v>6.148102015296846e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.37320549649918e-05</v>
+        <v>9.373225866178481e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.481319115248427e-05</v>
+        <v>4.481347412956294e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.419484806080417e-05</v>
+        <v>8.419445358585291e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7.184826179878649e-05</v>
+        <v>7.184829905550767e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>7.294104106131772e-05</v>
+        <v>7.294120054106664e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.71568837583361e-05</v>
+        <v>7.715673626322304e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0001427875145100849</v>
+        <v>0.0001427878534842883</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.251397145029778e-05</v>
+        <v>8.251373916353928e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>9.683605011278944e-05</v>
+        <v>9.683588484414859e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>9.671214696897045e-05</v>
+        <v>9.671251907432968e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0001092692577786108</v>
+        <v>0.0001092691067081923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.109706426412496e-05</v>
+        <v>8.109732576151462e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>8.106332878726244e-05</v>
+        <v>8.106376530734985e-05</v>
       </c>
       <c r="C15" t="n">
         <v>7.817817043262592e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>7.065126470248481e-05</v>
+        <v>7.065119459457151e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001029221100642188</v>
+        <v>0.0001029218989181261</v>
       </c>
       <c r="F15" t="n">
-        <v>8.02227374029376e-05</v>
+        <v>8.022286737260999e-05</v>
       </c>
       <c r="G15" t="n">
         <v>8.975150119732465e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>6.551906343338437e-05</v>
+        <v>6.55190701521404e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0.0001060274791327795</v>
       </c>
       <c r="J15" t="n">
-        <v>5.316816102767285e-05</v>
+        <v>5.316845152356591e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>8.12693531797059e-05</v>
+        <v>8.126909133172229e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>5.760364744465908e-05</v>
+        <v>5.760351479840409e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>5.750796096532408e-05</v>
+        <v>5.750797861348e-05</v>
       </c>
       <c r="N15" t="n">
         <v>0.0001764853385189926</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0001010922680857813</v>
+        <v>0.0001010922215060343</v>
       </c>
       <c r="P15" t="n">
         <v>9.157352389272003e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.36929070335884e-05</v>
+        <v>7.369283590673704e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>5.088302934348879e-05</v>
+        <v>5.088290529303399e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>9.720890736432767e-05</v>
+        <v>9.567494702701031e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0001015066367620443</v>
+        <v>0.0001015066208953556</v>
       </c>
       <c r="U15" t="n">
-        <v>8.334358480306355e-05</v>
+        <v>8.334352797711204e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>9.425457979213446e-05</v>
+        <v>9.425501982206852e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>5.07633223467587e-05</v>
+        <v>4.992574183771196e-05</v>
       </c>
       <c r="X15" t="n">
         <v>7.857589700838937e-05</v>
@@ -2738,28 +2738,28 @@
         <v>8.264295291913931e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.222433844337297e-05</v>
+        <v>6.222452104225103e-05</v>
       </c>
       <c r="AA15" t="n">
         <v>3.810233467604994e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.705218100011378e-05</v>
+        <v>3.705232519059425e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.166981630149704e-05</v>
+        <v>8.166975560130157e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0001351548655778651</v>
+        <v>0.000135154615133157</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0001202180909205606</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.561276894956968e-05</v>
+        <v>3.561269468917319e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.130870244872054e-05</v>
+        <v>5.130823731200925e-05</v>
       </c>
       <c r="AH15" t="n">
         <v>5.716310743965902e-05</v>
@@ -2768,31 +2768,31 @@
         <v>5.105573893620346e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.511360912503337e-05</v>
+        <v>3.511408223735782e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.370335706158631e-05</v>
+        <v>1.370345512661274e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.264178114911326e-05</v>
+        <v>3.264168119783187e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.727279912955368e-05</v>
+        <v>6.727291822558521e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.358233837352859e-05</v>
+        <v>7.358241084500181e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.072407075280866e-05</v>
+        <v>5.072434064868392e-05</v>
       </c>
       <c r="AP15" t="n">
         <v>8.893331110222379e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>7.349888972146479e-05</v>
+        <v>7.349884073448068e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.355764911971503e-05</v>
+        <v>6.355767379639508e-05</v>
       </c>
       <c r="AS15" t="n">
         <v>2.644953579280328e-05</v>
@@ -2801,7 +2801,7 @@
         <v>0.0001348810180824377</v>
       </c>
       <c r="AU15" t="n">
-        <v>5.957483315017904e-05</v>
+        <v>5.95747292101187e-05</v>
       </c>
       <c r="AV15" t="n">
         <v>5.885747356943535e-05</v>
@@ -2815,225 +2815,225 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0002574448737639254</v>
+        <v>0.0002574448413506031</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001352215013788276</v>
+        <v>0.0001352216136454929</v>
       </c>
       <c r="C16" t="n">
-        <v>9.580240624013818e-05</v>
+        <v>9.580258580573442e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>9.729653189460776e-05</v>
+        <v>9.729645081542633e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002328380682797607</v>
+        <v>0.000232837644644786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001950379545434821</v>
+        <v>0.0001950373271269239</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001553732582095011</v>
+        <v>0.0001553735810231604</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001287013149476963</v>
+        <v>0.0001287013525750588</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001598235341835421</v>
+        <v>0.0001598235929629148</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001247568160593409</v>
+        <v>0.0001247572462677009</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002103153230083195</v>
+        <v>0.0002103146317974015</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001645103355386883</v>
+        <v>0.000164510394483186</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001304953034745182</v>
+        <v>0.0001304952306589708</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001010922680857813</v>
+        <v>0.0001010922215060343</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0003773916862278357</v>
+        <v>0.0003773915897928752</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0001673558459937722</v>
+        <v>0.0001673560169270253</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0001923727591343017</v>
+        <v>0.000192372253402998</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0001507352060257438</v>
+        <v>0.0001507358219933823</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0002555857810999995</v>
+        <v>0.0002513426029570402</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0002233444492792212</v>
+        <v>0.0002233446276601044</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0001599065835047812</v>
+        <v>0.0001599062784395561</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001367035373869877</v>
+        <v>0.0001367040107726274</v>
       </c>
       <c r="W16" t="n">
-        <v>8.828532840196925e-05</v>
+        <v>8.621987485289097e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0001278064819211368</v>
+        <v>0.0001278066072429265</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0001533376245012184</v>
+        <v>0.0001533373652407598</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0001310618075835038</v>
+        <v>0.0001310620713805872</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.790160623816085e-05</v>
+        <v>6.790177442043645e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0001338794085313468</v>
+        <v>0.0001338802636144423</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001860887268021218</v>
+        <v>0.000186088427874784</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000235336254531724</v>
+        <v>0.0002353366341025677</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0002376688804838791</v>
+        <v>0.0002376682609470406</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0001134293348691288</v>
+        <v>0.0001134300629144927</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0001338707696141759</v>
+        <v>0.0001338709702982334</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0001071420815279144</v>
+        <v>0.0001071421403742884</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0001145068701268505</v>
+        <v>0.0001145072192342935</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.376985266117003e-05</v>
+        <v>6.377028490339468e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0001107963445593702</v>
+        <v>0.0001107962911486395</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0001386128361156579</v>
+        <v>0.0001386124544080467</v>
       </c>
       <c r="AM16" t="n">
-        <v>9.536563268012843e-05</v>
+        <v>9.536558417450322e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0002071936778161575</v>
+        <v>0.0002071931834440825</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.036060429644671e-05</v>
+        <v>8.036135794637522e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0001294803495685551</v>
+        <v>0.0001294802036509755</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0001074900281025741</v>
+        <v>0.0001074900655591028</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0001483666284743243</v>
+        <v>0.0001483666055982972</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0001223509512557141</v>
+        <v>0.0001223511721779307</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0002876933419072809</v>
+        <v>0.0002876925248156381</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0001297108169044812</v>
+        <v>0.0001297100280997088</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0001367397158280618</v>
+        <v>0.0001367397487088916</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0001301194515682451</v>
+        <v>0.000130119112320719</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0001494588515913202</v>
+        <v>0.0001494587452725214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0001800336439476682</v>
+        <v>0.0001800336364155429</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000141734060438293</v>
+        <v>0.0001417344978761048</v>
       </c>
       <c r="C17" t="n">
         <v>0.0001648063158350068</v>
       </c>
       <c r="D17" t="n">
-        <v>0.000144374554908153</v>
+        <v>0.0001443744648563347</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001899234304108661</v>
+        <v>0.0001899231314983887</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001414906979668816</v>
+        <v>0.0001414906503675353</v>
       </c>
       <c r="G17" t="n">
         <v>0.0001999641148835919</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001382881588270191</v>
+        <v>0.000138288178250495</v>
       </c>
       <c r="I17" t="n">
         <v>0.0001583751723091282</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000128694210253573</v>
+        <v>0.0001286943998906075</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001505583698141097</v>
+        <v>0.0001505580603620225</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001258482896734036</v>
+        <v>0.0001258483148658477</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001275997982689133</v>
+        <v>0.0001275998605234275</v>
       </c>
       <c r="N17" t="n">
         <v>9.157352389272003e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001673558459937722</v>
+        <v>0.0001673560169270253</v>
       </c>
       <c r="P17" t="n">
         <v>0.0003521300077624838</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0001287767870164713</v>
+        <v>0.0001287766684521132</v>
       </c>
       <c r="R17" t="n">
-        <v>8.831386669397479e-05</v>
+        <v>8.831372304756147e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001531629008741924</v>
+        <v>0.0001560080956149769</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0002323185170541634</v>
+        <v>0.0002323185443344709</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001303178016452113</v>
+        <v>0.0001303170069282104</v>
       </c>
       <c r="V17" t="n">
-        <v>0.000154159961298315</v>
+        <v>0.0001541602054814196</v>
       </c>
       <c r="W17" t="n">
-        <v>7.945989280336757e-05</v>
+        <v>7.700603867874865e-05</v>
       </c>
       <c r="X17" t="n">
         <v>0.0001500894890945998</v>
@@ -3042,28 +3042,28 @@
         <v>0.0001276347474484324</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0001441886017593481</v>
+        <v>0.0001441890377846038</v>
       </c>
       <c r="AA17" t="n">
         <v>7.152255753430218e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001332678726691404</v>
+        <v>0.000133268119788023</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0001226287191884719</v>
+        <v>0.0001226285681911895</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.000211368752914573</v>
+        <v>0.0002113684620541717</v>
       </c>
       <c r="AE17" t="n">
         <v>0.0002291846489398176</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0001151865874039215</v>
+        <v>0.000115186247790885</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0001465626406890161</v>
+        <v>0.0001465626623643117</v>
       </c>
       <c r="AH17" t="n">
         <v>0.0001051095264887105</v>
@@ -3072,31 +3072,31 @@
         <v>0.0001057333649268082</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5.781141545689703e-05</v>
+        <v>5.781153160913348e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.627092965610909e-05</v>
+        <v>9.627137867558979e-05</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0001176499412570155</v>
+        <v>0.0001176501074933374</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.637342197525591e-05</v>
+        <v>9.637359197142822e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0001427184442773758</v>
+        <v>0.0001427180889026412</v>
       </c>
       <c r="AO17" t="n">
-        <v>4.430812678189738e-05</v>
+        <v>4.430795769084508e-05</v>
       </c>
       <c r="AP17" t="n">
         <v>0.0001090199059649637</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0001088218498058853</v>
+        <v>0.0001088216659614924</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0001520970758558401</v>
+        <v>0.0001520969264497841</v>
       </c>
       <c r="AS17" t="n">
         <v>0.0001102620914406623</v>
@@ -3105,7 +3105,7 @@
         <v>0.0002110873741743954</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.085332386588755e-05</v>
+        <v>9.085261431096576e-05</v>
       </c>
       <c r="AV17" t="n">
         <v>0.0001374125462369641</v>
@@ -3119,1137 +3119,1137 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0001920158576733106</v>
+        <v>0.0001920160376996799</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001152661493098972</v>
+        <v>0.000115266331470528</v>
       </c>
       <c r="C18" t="n">
-        <v>8.607568072192656e-05</v>
+        <v>8.607534335022773e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>8.151364011856174e-05</v>
+        <v>8.151371726108092e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001974176469591431</v>
+        <v>0.0001974177318571004</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001516987911297793</v>
+        <v>0.00015169829472517</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001236422347791442</v>
+        <v>0.0001236428939059559</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001185801994234945</v>
+        <v>0.0001185804305687389</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001390915000332133</v>
+        <v>0.0001390916659977604</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001059041097604463</v>
+        <v>0.0001059040962882454</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000158215548020674</v>
+        <v>0.0001582155187467876</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001567012716318008</v>
+        <v>0.0001567015063542596</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001010615678330687</v>
+        <v>0.0001010617092258924</v>
       </c>
       <c r="N18" t="n">
-        <v>7.36929070335884e-05</v>
+        <v>7.369283590673704e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0001923727591343017</v>
+        <v>0.000192372253402998</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0001287767870164713</v>
+        <v>0.0001287766684521132</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0002213744931446387</v>
+        <v>0.0002213743123022301</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0001158625997830765</v>
+        <v>0.0001158627151743251</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0001884847192719574</v>
+        <v>0.0001841139952060308</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0001573906060117649</v>
+        <v>0.0001573906016297744</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0001420709614726512</v>
+        <v>0.0001420706275342703</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001070527759909857</v>
+        <v>0.0001070527134173735</v>
       </c>
       <c r="W18" t="n">
-        <v>7.124234219166992e-05</v>
+        <v>7.119231267918356e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0001072965992278132</v>
+        <v>0.0001072967322834115</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.944928185801604e-05</v>
+        <v>9.944916216515304e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0001192696703983023</v>
+        <v>0.0001192695817032709</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.166665834259425e-05</v>
+        <v>7.16664167194506e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0001224554072211038</v>
+        <v>0.0001224563139880414</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.00017298757211809</v>
+        <v>0.0001729877260975688</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0002115827457221444</v>
+        <v>0.0002115833888940348</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.000195365492060985</v>
+        <v>0.0001953653710843003</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.374452582151678e-05</v>
+        <v>9.374448394321799e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0001317598135316051</v>
+        <v>0.0001317595825980296</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.329278512172728e-05</v>
+        <v>8.32928959393824e-05</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.020305627344092e-05</v>
+        <v>9.020284956798667e-05</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.030013523062939e-05</v>
+        <v>7.030006487635964e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0001040899896173562</v>
+        <v>0.0001040901104122503</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0001138922865085899</v>
+        <v>0.0001138915279826999</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.276234387054168e-05</v>
+        <v>7.27618046692166e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0001813118381027168</v>
+        <v>0.0001813115397156182</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.14633382296393e-05</v>
+        <v>5.146367265104841e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>9.588361540985103e-05</v>
+        <v>9.588330384580998e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.697500462350552e-05</v>
+        <v>9.697539205756137e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0001239951396628793</v>
+        <v>0.0001239951661963669</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.095669638486416e-05</v>
+        <v>8.095642307063311e-05</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0002574960786163576</v>
+        <v>0.0002574956186181835</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.529275065813534e-05</v>
+        <v>9.529230701579375e-05</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0001016055359929345</v>
+        <v>0.0001016053742312295</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0001232161361110771</v>
+        <v>0.0001232157407998181</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.000125063574159317</v>
+        <v>0.0001250638851680913</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0001340596350429148</v>
+        <v>0.0001340597481662159</v>
       </c>
       <c r="B19" t="n">
-        <v>8.772758768920785e-05</v>
+        <v>8.772777779521378e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>6.654496243242628e-05</v>
+        <v>6.654479122317195e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>8.014656304160879e-05</v>
+        <v>8.014629220303002e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000122316033600829</v>
+        <v>0.0001223158468603603</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0001083558904002907</v>
+        <v>0.0001083560068080017</v>
       </c>
       <c r="G19" t="n">
-        <v>7.886264339173254e-05</v>
+        <v>7.886246838537091e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>9.32962027903416e-05</v>
+        <v>9.329613623926641e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>8.369828503192471e-05</v>
+        <v>8.369795620747181e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>6.18343736621897e-05</v>
+        <v>6.183446079232894e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>9.434582386826584e-05</v>
+        <v>9.434614132687783e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>9.79127366660338e-05</v>
+        <v>9.79127344333476e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>7.335456057004527e-05</v>
+        <v>7.335450889634474e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>5.088302934348879e-05</v>
+        <v>5.088290529303399e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0001507352060257438</v>
+        <v>0.0001507358219933823</v>
       </c>
       <c r="P19" t="n">
-        <v>8.831386669397479e-05</v>
+        <v>8.831372304756147e-05</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0001158625997830765</v>
+        <v>0.0001158627151743251</v>
       </c>
       <c r="R19" t="n">
-        <v>0.000177081592568109</v>
+        <v>0.0001770828611328754</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0001910344054216987</v>
+        <v>0.0001883219825136748</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0001205959890869998</v>
+        <v>0.0001205958010466631</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0001057855408823622</v>
+        <v>0.0001057854966100323</v>
       </c>
       <c r="V19" t="n">
-        <v>8.256948837248933e-05</v>
+        <v>8.256829560349956e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.353710981725106e-05</v>
+        <v>5.519699660828265e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>8.990018277267453e-05</v>
+        <v>8.989973702241341e-05</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.066256141982241e-05</v>
+        <v>8.066222010910985e-05</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.569936587585645e-05</v>
+        <v>6.56997582891687e-05</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.223713499694535e-05</v>
+        <v>5.223724564568564e-05</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.694391983583498e-05</v>
+        <v>7.694477180419286e-05</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0001218739125103723</v>
+        <v>0.0001218742361088486</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0001161803058163117</v>
+        <v>0.0001161804867529269</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0001352704606269679</v>
+        <v>0.000135270451843833</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.150059443650022e-05</v>
+        <v>6.150090538264299e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.357289082271302e-05</v>
+        <v>7.357304810742376e-05</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.449633145894088e-05</v>
+        <v>5.449595269151718e-05</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.433158698279295e-05</v>
+        <v>8.433180904418943e-05</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.223822490955441e-05</v>
+        <v>4.223836679049361e-05</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.84853632259482e-05</v>
+        <v>5.848532505435386e-05</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.660711161017333e-05</v>
+        <v>7.660707996972055e-05</v>
       </c>
       <c r="AM19" t="n">
-        <v>6.119627635555343e-05</v>
+        <v>6.119582860859665e-05</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.0001102336244868421</v>
+        <v>0.0001102338976416712</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.215435233935582e-05</v>
+        <v>5.215464252904822e-05</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.050707559662426e-05</v>
+        <v>8.050745057178261e-05</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6.307612938748012e-05</v>
+        <v>6.307564342985826e-05</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.446781504298333e-05</v>
+        <v>7.44695741875656e-05</v>
       </c>
       <c r="AS19" t="n">
-        <v>5.096764285523169e-05</v>
+        <v>5.096779706505012e-05</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.0001512366984037211</v>
+        <v>0.000151236848349131</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.087503075554948e-05</v>
+        <v>6.087430512421076e-05</v>
       </c>
       <c r="AV19" t="n">
-        <v>6.396671969592229e-05</v>
+        <v>6.396610928074301e-05</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.248827910199438e-05</v>
+        <v>7.24879783487887e-05</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.317306101748327e-05</v>
+        <v>8.31728285780924e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0002033918702837595</v>
+        <v>0.000200179785380969</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0001416883882361008</v>
+        <v>0.0001407594561423307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001135568097601106</v>
+        <v>0.0001119780287314817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000127329545753289</v>
+        <v>0.0001261820142958194</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0002138931467999331</v>
+        <v>0.0002113652127255983</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001914347326663595</v>
+        <v>0.0001887081426090884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001267858745753729</v>
+        <v>0.0001251562546621286</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001488427805813311</v>
+        <v>0.0001436744720425332</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001512486411203973</v>
+        <v>0.0001506704919404315</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001086706108716431</v>
+        <v>0.0001062409347140762</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001626205809693403</v>
+        <v>0.000159085243176761</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000156749865100627</v>
+        <v>0.0001561129440028936</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001248875300773043</v>
+        <v>0.00012539449276259</v>
       </c>
       <c r="N20" t="n">
-        <v>9.720890736432767e-05</v>
+        <v>9.567494702701031e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0002555857810999995</v>
+        <v>0.0002513426029570402</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0001531629008741924</v>
+        <v>0.0001560080956149769</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0001884847192719574</v>
+        <v>0.0001841139952060308</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0001910344054216987</v>
+        <v>0.0001883219825136748</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0003187893983632568</v>
+        <v>0.0003117043581336753</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0001961625769895023</v>
+        <v>0.0001983763151252559</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0001666965639956718</v>
+        <v>0.0001647835279387707</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0001319661194898648</v>
+        <v>0.0001274982467400628</v>
       </c>
       <c r="W20" t="n">
-        <v>8.905221457315247e-05</v>
+        <v>8.776986930346545e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0001438816464253745</v>
+        <v>0.0001406884745355457</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0001450491426304065</v>
+        <v>0.0001448034935166048</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.000127112754458898</v>
+        <v>0.0001238044513912987</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.631039769096327e-05</v>
+        <v>8.547404906908773e-05</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0001340084302983551</v>
+        <v>0.0001299650274865328</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0001899182735164727</v>
+        <v>0.0001855595838869353</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0002202970694207783</v>
+        <v>0.0002154396489094056</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0002347960118987193</v>
+        <v>0.0002347311109111862</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.0001174538947230826</v>
+        <v>0.0001190762399636119</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0001349268943667221</v>
+        <v>0.0001347144465219977</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0001096217754621853</v>
+        <v>0.0001091154450921391</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.0001347694806009651</v>
+        <v>0.000130457429894386</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.855410203216244e-05</v>
+        <v>6.482629801807917e-05</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.0001042657267465841</v>
+        <v>0.0001027751400634676</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0001324627470805455</v>
+        <v>0.0001308787378783951</v>
       </c>
       <c r="AM20" t="n">
-        <v>9.798577614145198e-05</v>
+        <v>9.391220975934038e-05</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0001919929900099543</v>
+        <v>0.0001891163940614228</v>
       </c>
       <c r="AO20" t="n">
-        <v>7.717755556500517e-05</v>
+        <v>7.656474517915472e-05</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.0001289325276645848</v>
+        <v>0.0001269999185956548</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.0001065440897494877</v>
+        <v>0.0001052893679556993</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0001354214535150186</v>
+        <v>0.0001431261106450199</v>
       </c>
       <c r="AS20" t="n">
-        <v>9.775052996528043e-05</v>
+        <v>9.847519528826711e-05</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.000265834659475129</v>
+        <v>0.0002650820418873019</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.0001103413706448101</v>
+        <v>0.0001079008989909443</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0001247987132409048</v>
+        <v>0.0001239655059053977</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.0001255337778567184</v>
+        <v>0.0001243003381211657</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.0001516799039419034</v>
+        <v>0.0001508909879446982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0001838595854233744</v>
+        <v>0.0001838596793422237</v>
       </c>
       <c r="B21" t="n">
-        <v>0.000161650353847118</v>
+        <v>0.0001616507998789547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001766087918716948</v>
+        <v>0.0001766088608216074</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001595987923766339</v>
+        <v>0.0001595988598252454</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0002204306820607607</v>
+        <v>0.0002204304760318711</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000174170216072788</v>
+        <v>0.0001741698044910575</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001948298282809966</v>
+        <v>0.0001948300508801531</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001566640905351161</v>
+        <v>0.0001566641940043166</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001744788431456349</v>
+        <v>0.0001744791790590086</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001344885655036585</v>
+        <v>0.0001344889118170233</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000182983916809066</v>
+        <v>0.0001829834572559659</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001386823483635296</v>
+        <v>0.0001386826265212111</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001454342492728964</v>
+        <v>0.0001454349205165553</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0001015066367620443</v>
+        <v>0.0001015066208953556</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0002233444492792212</v>
+        <v>0.0002233446276601044</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0002323185170541634</v>
+        <v>0.0002323185443344709</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0001573906060117649</v>
+        <v>0.0001573906016297744</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0001205959890869998</v>
+        <v>0.0001205958010466631</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0001961625769895023</v>
+        <v>0.0001983763151252559</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0005035736637321371</v>
+        <v>0.0005035737228196417</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0001599673424057223</v>
+        <v>0.00015996660002394</v>
       </c>
       <c r="V21" t="n">
-        <v>0.000175279473626847</v>
+        <v>0.0001752799972868931</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0001001756697326288</v>
+        <v>9.696534307554103e-05</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0001756615161039322</v>
+        <v>0.0001756613291890799</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0001341021005444642</v>
+        <v>0.0001341021693273656</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0001199660409974417</v>
+        <v>0.0001199669012940921</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.588950520175017e-05</v>
+        <v>9.588941049708128e-05</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0001119862880897423</v>
+        <v>0.0001119867582896137</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.000155518426708954</v>
+        <v>0.0001555184401881818</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0002266567142573777</v>
+        <v>0.000226656931947062</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0002448593449652806</v>
+        <v>0.000244859481391101</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.000133177765892285</v>
+        <v>0.0001331774538259509</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0001261698029214942</v>
+        <v>0.0001261694644002235</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0001097519474541994</v>
+        <v>0.000109752045370895</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.0001243071827925229</v>
+        <v>0.0001243074685974995</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.517140275527821e-05</v>
+        <v>7.51714984024269e-05</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.0001066011450233075</v>
+        <v>0.0001066010884676541</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.0001131766182310963</v>
+        <v>0.0001131763986781213</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.0001056168039486812</v>
+        <v>0.0001056164048219909</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0001723623761047827</v>
+        <v>0.000172362426342732</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.447453167659032e-05</v>
+        <v>7.447510827378655e-05</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.0001214067024141806</v>
+        <v>0.0001214068577009884</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.0001379299955547011</v>
+        <v>0.0001379301380388012</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.0001292079163624134</v>
+        <v>0.0001292074118894108</v>
       </c>
       <c r="AS21" t="n">
-        <v>6.296118303744379e-05</v>
+        <v>6.296117139665479e-05</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.0002735121667750866</v>
+        <v>0.0002735120750046791</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0001075615664195151</v>
+        <v>0.0001075606663253776</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0001259396453973794</v>
+        <v>0.0001259396211337855</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.00015955317478243</v>
+        <v>0.0001595532474971334</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.0001605517420172161</v>
+        <v>0.0001605517541498456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0001731863276954954</v>
+        <v>0.0001731852169452827</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001238270015691667</v>
+        <v>0.0001238269016736402</v>
       </c>
       <c r="C22" t="n">
-        <v>9.389247530147694e-05</v>
+        <v>9.389183804263167e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>9.619210783891516e-05</v>
+        <v>9.619133175218952e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001631379878612086</v>
+        <v>0.00016313733302014</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001412054532850732</v>
+        <v>0.0001412045275167067</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001228203132877489</v>
+        <v>0.0001228199229883194</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001115844039055519</v>
+        <v>0.0001115838238786565</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001183826282758931</v>
+        <v>0.0001183824598196688</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001120997546069275</v>
+        <v>0.0001120993889177677</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000131844121110633</v>
+        <v>0.0001318435827371909</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001377734938490501</v>
+        <v>0.0001377728284717109</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001012179690662089</v>
+        <v>0.0001012178012271111</v>
       </c>
       <c r="N22" t="n">
-        <v>8.334358480306355e-05</v>
+        <v>8.334352797711204e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0001599065835047812</v>
+        <v>0.0001599062784395561</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0001303178016452113</v>
+        <v>0.0001303170069282104</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0001420709614726512</v>
+        <v>0.0001420706275342703</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0001057855408823622</v>
+        <v>0.0001057854966100323</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0001666965639956718</v>
+        <v>0.0001647835279387707</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0001599673424057223</v>
+        <v>0.00015996660002394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002051173601633621</v>
+        <v>0.0002051168422190732</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0001177702683676428</v>
+        <v>0.0001177707080713104</v>
       </c>
       <c r="W22" t="n">
-        <v>7.866580844010089e-05</v>
+        <v>7.896937766564227e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0001033349788418627</v>
+        <v>0.0001033343399802786</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.796785995150504e-05</v>
+        <v>9.796725640515714e-05</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0001024695157735718</v>
+        <v>0.000102469829600215</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.132402559579925e-05</v>
+        <v>6.132374990340417e-05</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0001191781816843675</v>
+        <v>0.0001191780124011655</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0001372514014978719</v>
+        <v>0.0001372502782655317</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0001891157523102877</v>
+        <v>0.0001891159683467302</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0001752968033858226</v>
+        <v>0.0001752962033674194</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.96230970438955e-05</v>
+        <v>7.962202553377962e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0001141549317153492</v>
+        <v>0.0001141546287036479</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.758733795952441e-05</v>
+        <v>8.758659804145263e-05</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.534115628389019e-05</v>
+        <v>8.534074530867053e-05</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.495472669835709e-05</v>
+        <v>6.495488827727147e-05</v>
       </c>
       <c r="AK22" t="n">
-        <v>9.767521075345958e-05</v>
+        <v>9.76746346424672e-05</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0001034277241195522</v>
+        <v>0.0001034270738490472</v>
       </c>
       <c r="AM22" t="n">
-        <v>8.485669782094667e-05</v>
+        <v>8.485601402654876e-05</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.0001416101183320668</v>
+        <v>0.0001416096651284201</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.302662077108321e-05</v>
+        <v>6.302679698932184e-05</v>
       </c>
       <c r="AP22" t="n">
-        <v>8.847384312481754e-05</v>
+        <v>8.847397646787237e-05</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8.116652927143789e-05</v>
+        <v>8.11662405350771e-05</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.0001024679313023177</v>
+        <v>0.0001024667497201717</v>
       </c>
       <c r="AS22" t="n">
-        <v>6.527418884096427e-05</v>
+        <v>6.527441437688255e-05</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.0002003742514086933</v>
+        <v>0.0002003736943795298</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.738056411214086e-05</v>
+        <v>8.738008208874027e-05</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.463077898855791e-05</v>
+        <v>8.463031249774955e-05</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.0001102946743221016</v>
+        <v>0.0001102941709724454</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.0001090580860966352</v>
+        <v>0.0001090579561686117</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0001256912193874376</v>
+        <v>0.0001256917357708276</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0001223265952252895</v>
+        <v>0.0001223270034363733</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001121569220270941</v>
+        <v>0.0001121565050057051</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001168865965852536</v>
+        <v>0.0001168858825932452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001384870100896091</v>
+        <v>0.0001384866157368565</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0001221992847202461</v>
+        <v>0.0001221992517832199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001378372860018585</v>
+        <v>0.000137836705936203</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001187874642825082</v>
+        <v>0.0001187878551279378</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001262350376995916</v>
+        <v>0.0001262352589530372</v>
       </c>
       <c r="J23" t="n">
-        <v>9.231331669912093e-05</v>
+        <v>9.231418163529418e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>9.786556569306344e-05</v>
+        <v>9.786611288751963e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001068608304326659</v>
+        <v>0.0001068609875149888</v>
       </c>
       <c r="M23" t="n">
-        <v>9.662539726729524e-05</v>
+        <v>9.662553221961532e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>9.425457979213446e-05</v>
+        <v>9.425501982206852e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0001367035373869877</v>
+        <v>0.0001367040107726274</v>
       </c>
       <c r="P23" t="n">
-        <v>0.000154159961298315</v>
+        <v>0.0001541602054814196</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001070527759909857</v>
+        <v>0.0001070527134173735</v>
       </c>
       <c r="R23" t="n">
-        <v>8.256948837248933e-05</v>
+        <v>8.256829560349956e-05</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0001319661194898648</v>
+        <v>0.0001274982467400628</v>
       </c>
       <c r="T23" t="n">
-        <v>0.000175279473626847</v>
+        <v>0.0001752799972868931</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0001177702683676428</v>
+        <v>0.0001177707080713104</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0002857607557340078</v>
+        <v>0.0002857612933791057</v>
       </c>
       <c r="W23" t="n">
-        <v>7.763126408278953e-05</v>
+        <v>7.614728779627145e-05</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0001129834300366126</v>
+        <v>0.0001129831768184363</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0001036323266076945</v>
+        <v>0.0001036326694653531</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0001032310338961451</v>
+        <v>0.0001032307984258053</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.075486819782154e-05</v>
+        <v>8.075480714969563e-05</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.9442170079032e-05</v>
+        <v>7.944232775793923e-05</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.225474257361407e-05</v>
+        <v>6.225485194440996e-05</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0001440823276040962</v>
+        <v>0.0001440828057761814</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0001349774788138102</v>
+        <v>0.0001349780719907571</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.567843016351149e-05</v>
+        <v>4.567928213055866e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.728350144681738e-05</v>
+        <v>8.728439421964015e-05</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.353426101381072e-05</v>
+        <v>8.353472252523833e-05</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.177661450886511e-05</v>
+        <v>8.177542486483926e-05</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.818676124959172e-05</v>
+        <v>8.81874917585477e-05</v>
       </c>
       <c r="AK23" t="n">
-        <v>5.425408720267404e-05</v>
+        <v>5.42541993257562e-05</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.931723931006837e-05</v>
+        <v>7.9317495578235e-05</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.0001467692127716883</v>
+        <v>0.0001467687820940402</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.0001208685720035124</v>
+        <v>0.0001208689823741309</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.480849762990898e-05</v>
+        <v>9.480932496838073e-05</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.0001035320472678826</v>
+        <v>0.0001035321128714178</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9.451165278106646e-05</v>
+        <v>9.451084667219352e-05</v>
       </c>
       <c r="AR23" t="n">
-        <v>9.039290234840494e-05</v>
+        <v>9.039319057253972e-05</v>
       </c>
       <c r="AS23" t="n">
-        <v>7.687357788457641e-05</v>
+        <v>7.687376435377688e-05</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.0001381522144138106</v>
+        <v>0.0001381529517672048</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.625882061157355e-05</v>
+        <v>9.625850645972144e-05</v>
       </c>
       <c r="AV23" t="n">
-        <v>9.442895689740876e-05</v>
+        <v>9.442926326034457e-05</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.0001036201013784411</v>
+        <v>0.0001036203992526934</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.0001074343236822968</v>
+        <v>0.000107434412925864</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.333339094473166e-05</v>
+        <v>7.191119838063971e-05</v>
       </c>
       <c r="B24" t="n">
-        <v>8.355316911883048e-05</v>
+        <v>8.247644010870056e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>5.913616011353504e-05</v>
+        <v>5.49895743838046e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>6.519623976520287e-05</v>
+        <v>6.225324432782702e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>7.793924866796914e-05</v>
+        <v>8.127342586713627e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>6.844679816125438e-05</v>
+        <v>6.849421895017864e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>8.913054257472863e-05</v>
+        <v>8.782049345329211e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>8.007371103618054e-05</v>
+        <v>7.947536323114306e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>7.589035283394566e-05</v>
+        <v>7.436355707871261e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>6.666034526450675e-05</v>
+        <v>6.609197729163941e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.83652758751577e-05</v>
+        <v>5.526072551311106e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>6.351599427657205e-05</v>
+        <v>6.194238392390428e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>6.88634847532056e-05</v>
+        <v>6.697351670864795e-05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.07633223467587e-05</v>
+        <v>4.992574183771196e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>8.828532840196925e-05</v>
+        <v>8.621987485289097e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>7.945989280336757e-05</v>
+        <v>7.700603867874865e-05</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.124234219166992e-05</v>
+        <v>7.119231267918356e-05</v>
       </c>
       <c r="R24" t="n">
-        <v>5.353710981725106e-05</v>
+        <v>5.519699660828265e-05</v>
       </c>
       <c r="S24" t="n">
-        <v>8.905221457315247e-05</v>
+        <v>8.776986930346545e-05</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0001001756697326288</v>
+        <v>9.696534307554103e-05</v>
       </c>
       <c r="U24" t="n">
-        <v>7.866580844010089e-05</v>
+        <v>7.896937766564227e-05</v>
       </c>
       <c r="V24" t="n">
-        <v>7.763126408278953e-05</v>
+        <v>7.614728779627145e-05</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0001487971107995958</v>
+        <v>0.0001532428138765473</v>
       </c>
       <c r="X24" t="n">
-        <v>6.506392927047112e-05</v>
+        <v>6.425946385611408e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.495380872517569e-05</v>
+        <v>6.229221097875739e-05</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.108233647253691e-05</v>
+        <v>7.110889005609753e-05</v>
       </c>
       <c r="AA24" t="n">
-        <v>4.867682668384994e-05</v>
+        <v>4.76760280934346e-05</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.351955249647069e-05</v>
+        <v>8.499932190854217e-05</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0001121864542051658</v>
+        <v>0.0001117648050136795</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.410324800508251e-05</v>
+        <v>8.318128851433258e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.921797342812611e-05</v>
+        <v>9.585534454982931e-05</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.040270518162297e-05</v>
+        <v>4.922022317634587e-05</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.78963655289688e-05</v>
+        <v>8.748569184289381e-05</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.521934594281339e-05</v>
+        <v>6.461102530080856e-05</v>
       </c>
       <c r="AI24" t="n">
-        <v>6.821699744293768e-05</v>
+        <v>7.001303408146635e-05</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.401463914026189e-05</v>
+        <v>5.389058586928095e-05</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.831421604865627e-05</v>
+        <v>6.757931744334368e-05</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.527898536110947e-05</v>
+        <v>7.411481807594224e-05</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.639174651605056e-05</v>
+        <v>4.586438813407301e-05</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.433824700998113e-05</v>
+        <v>6.32690343570055e-05</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.496789580482354e-05</v>
+        <v>4.211195444416377e-05</v>
       </c>
       <c r="AP24" t="n">
-        <v>7.289446228852996e-05</v>
+        <v>7.478269638525579e-05</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.416695770304211e-05</v>
+        <v>3.663297608514186e-05</v>
       </c>
       <c r="AR24" t="n">
-        <v>6.713807863344362e-05</v>
+        <v>6.439548199388993e-05</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.285626363863438e-05</v>
+        <v>5.300915807401805e-05</v>
       </c>
       <c r="AT24" t="n">
-        <v>9.206618865014887e-05</v>
+        <v>8.902916368508986e-05</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.284260963276977e-05</v>
+        <v>5.810377169210491e-05</v>
       </c>
       <c r="AV24" t="n">
-        <v>6.697664203607046e-05</v>
+        <v>6.618537289240323e-05</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.076772956603577e-05</v>
+        <v>6.363516152567894e-05</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.360950447722266e-05</v>
+        <v>7.992943534899504e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0001238574249769325</v>
+        <v>0.0001238570288227006</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001275306263463107</v>
+        <v>0.0001275307897214602</v>
       </c>
       <c r="C25" t="n">
         <v>0.000115322779231667</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001704125665023902</v>
+        <v>0.0001704124490544519</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0001732984390372024</v>
+        <v>0.0001732980177825545</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000115827316856035</v>
+        <v>0.0001158271164153929</v>
       </c>
       <c r="G25" t="n">
         <v>0.0001426235013874603</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001081698553705165</v>
+        <v>0.0001081699702381543</v>
       </c>
       <c r="I25" t="n">
         <v>0.0001274931757213046</v>
       </c>
       <c r="J25" t="n">
-        <v>8.618201867743878e-05</v>
+        <v>8.618205420450129e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.228558649726302e-05</v>
+        <v>9.228578595857339e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000103358676327725</v>
+        <v>0.0001033586669901563</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001011790319453411</v>
+        <v>0.0001011791686547422</v>
       </c>
       <c r="N25" t="n">
         <v>7.857589700838937e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0001278064819211368</v>
+        <v>0.0001278066072429265</v>
       </c>
       <c r="P25" t="n">
         <v>0.0001500894890945998</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0001072965992278132</v>
+        <v>0.0001072967322834115</v>
       </c>
       <c r="R25" t="n">
-        <v>8.990018277267453e-05</v>
+        <v>8.989973702241341e-05</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0001438816464253745</v>
+        <v>0.0001406884745355457</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0001756615161039322</v>
+        <v>0.0001756613291890799</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0001033349788418627</v>
+        <v>0.0001033343399802786</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0001129834300366126</v>
+        <v>0.0001129831768184363</v>
       </c>
       <c r="W25" t="n">
-        <v>6.506392927047112e-05</v>
+        <v>6.425946385611408e-05</v>
       </c>
       <c r="X25" t="n">
         <v>0.0003097987825877816</v>
@@ -4258,28 +4258,28 @@
         <v>9.406001297801469e-05</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.863353589579698e-05</v>
+        <v>6.863382457328939e-05</v>
       </c>
       <c r="AA25" t="n">
         <v>7.877683380662759e-05</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.871232695586547e-05</v>
+        <v>9.871233152881659e-05</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0001112270866196124</v>
+        <v>0.0001112271993456514</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0001452440607678947</v>
+        <v>0.0001452442637255424</v>
       </c>
       <c r="AE25" t="n">
         <v>0.0001656429251838957</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0001053332363037292</v>
+        <v>0.0001053330107398491</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.663658702142851e-05</v>
+        <v>9.663620267675857e-05</v>
       </c>
       <c r="AH25" t="n">
         <v>6.018146240978815e-05</v>
@@ -4288,31 +4288,31 @@
         <v>8.627301937370877e-05</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.609273873270759e-05</v>
+        <v>5.609312441901361e-05</v>
       </c>
       <c r="AK25" t="n">
-        <v>7.889093618534127e-05</v>
+        <v>7.889094520291611e-05</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.368821398126439e-05</v>
+        <v>6.368839210075512e-05</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.055772320769786e-05</v>
+        <v>8.05575823705754e-05</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.0001028647136488038</v>
+        <v>0.0001028648023722452</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.092731418731735e-05</v>
+        <v>4.092753963866396e-05</v>
       </c>
       <c r="AP25" t="n">
         <v>7.508897438134552e-05</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.374086329464075e-05</v>
+        <v>6.374056194252643e-05</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.000121872373100549</v>
+        <v>0.000121872294820445</v>
       </c>
       <c r="AS25" t="n">
         <v>7.070177553396803e-05</v>
@@ -4321,7 +4321,7 @@
         <v>0.0001786523978340813</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.045298029334949e-05</v>
+        <v>8.045254936502234e-05</v>
       </c>
       <c r="AV25" t="n">
         <v>8.873504260510838e-05</v>
@@ -4335,73 +4335,73 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0001533575294467373</v>
+        <v>0.0001533576232541303</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001006512528250342</v>
+        <v>0.0001006514750893026</v>
       </c>
       <c r="C26" t="n">
         <v>9.177365911549823e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>8.858029886979763e-05</v>
+        <v>8.858025215126247e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0001278837277958272</v>
+        <v>0.0001278834505768574</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001118055800537367</v>
+        <v>0.0001118054354128906</v>
       </c>
       <c r="G26" t="n">
         <v>9.35130748973038e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001022709843667235</v>
+        <v>0.0001022708904008798</v>
       </c>
       <c r="I26" t="n">
         <v>0.0001165807502305587</v>
       </c>
       <c r="J26" t="n">
-        <v>7.443327730285215e-05</v>
+        <v>7.443330300605857e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001045989959759476</v>
+        <v>0.0001045988673487954</v>
       </c>
       <c r="L26" t="n">
-        <v>7.999913285487416e-05</v>
+        <v>7.999899012519952e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>9.888871668260307e-05</v>
+        <v>9.888858404678272e-05</v>
       </c>
       <c r="N26" t="n">
         <v>8.264295291913931e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0001533376245012184</v>
+        <v>0.0001533373652407598</v>
       </c>
       <c r="P26" t="n">
         <v>0.0001276347474484324</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.944928185801604e-05</v>
+        <v>9.944916216515304e-05</v>
       </c>
       <c r="R26" t="n">
-        <v>8.066256141982241e-05</v>
+        <v>8.066222010910985e-05</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0001450491426304065</v>
+        <v>0.0001448034935166048</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0001341021005444642</v>
+        <v>0.0001341021693273656</v>
       </c>
       <c r="U26" t="n">
-        <v>9.796785995150504e-05</v>
+        <v>9.796725640515714e-05</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0001036323266076945</v>
+        <v>0.0001036326694653531</v>
       </c>
       <c r="W26" t="n">
-        <v>6.495380872517569e-05</v>
+        <v>6.229221097875739e-05</v>
       </c>
       <c r="X26" t="n">
         <v>9.406001297801469e-05</v>
@@ -4410,28 +4410,28 @@
         <v>0.0001871342784572551</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.383526559530393e-05</v>
+        <v>9.383544837440358e-05</v>
       </c>
       <c r="AA26" t="n">
         <v>4.704666153313593e-05</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.972494030851514e-05</v>
+        <v>8.972539806965302e-05</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.553101418328189e-05</v>
+        <v>9.553101092207064e-05</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0001470328346989419</v>
+        <v>0.0001470331021583644</v>
       </c>
       <c r="AE26" t="n">
         <v>0.0001645991087696904</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.388091457642602e-05</v>
+        <v>8.388070689301617e-05</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.33892622363451e-05</v>
+        <v>8.338937216254012e-05</v>
       </c>
       <c r="AH26" t="n">
         <v>8.963156496439666e-05</v>
@@ -4440,31 +4440,31 @@
         <v>8.33043866530186e-05</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5.522427740789396e-05</v>
+        <v>5.522444109664486e-05</v>
       </c>
       <c r="AK26" t="n">
-        <v>9.398890900336001e-05</v>
+        <v>9.398909452056986e-05</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.0001019769006854178</v>
+        <v>0.0001019767548199357</v>
       </c>
       <c r="AM26" t="n">
-        <v>7.400243183762339e-05</v>
+        <v>7.400247984812922e-05</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.544794996200557e-05</v>
+        <v>9.544788976090301e-05</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.57137087136734e-05</v>
+        <v>6.571444531884984e-05</v>
       </c>
       <c r="AP26" t="n">
         <v>9.056036985846113e-05</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8.511616532782977e-05</v>
+        <v>8.511613706290482e-05</v>
       </c>
       <c r="AR26" t="n">
-        <v>8.613486266297174e-05</v>
+        <v>8.613484729406958e-05</v>
       </c>
       <c r="AS26" t="n">
         <v>6.63505026938242e-05</v>
@@ -4473,7 +4473,7 @@
         <v>0.0001515880068343897</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.332921735825055e-05</v>
+        <v>8.332831995537229e-05</v>
       </c>
       <c r="AV26" t="n">
         <v>0.0001034490228690144</v>
@@ -4487,225 +4487,225 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.611502257471148e-05</v>
+        <v>9.61149259233445e-05</v>
       </c>
       <c r="B27" t="n">
-        <v>9.403103074665102e-05</v>
+        <v>9.403152990379522e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>6.832384912164175e-05</v>
+        <v>6.832449652061312e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>5.956568218972502e-05</v>
+        <v>5.95659998144235e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001282242882945518</v>
+        <v>0.0001282243756520197</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0001142392207273418</v>
+        <v>0.000114239343020007</v>
       </c>
       <c r="G27" t="n">
-        <v>9.532596427344747e-05</v>
+        <v>9.532604745231348e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>9.514043908294305e-05</v>
+        <v>9.514088846750557e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000103045705830696</v>
+        <v>0.0001030461453713631</v>
       </c>
       <c r="J27" t="n">
-        <v>9.082311978027981e-05</v>
+        <v>9.082344684647826e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001170551695383531</v>
+        <v>0.0001170551665248044</v>
       </c>
       <c r="L27" t="n">
-        <v>9.618553918023907e-05</v>
+        <v>9.618578049247516e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>9.387828602120925e-05</v>
+        <v>9.387839458046339e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.222433844337297e-05</v>
+        <v>6.222452104225103e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0001310618075835038</v>
+        <v>0.0001310620713805872</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0001441886017593481</v>
+        <v>0.0001441890377846038</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0001192696703983023</v>
+        <v>0.0001192695817032709</v>
       </c>
       <c r="R27" t="n">
-        <v>6.569936587585645e-05</v>
+        <v>6.56997582891687e-05</v>
       </c>
       <c r="S27" t="n">
-        <v>0.000127112754458898</v>
+        <v>0.0001238044513912987</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0001199660409974417</v>
+        <v>0.0001199669012940921</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0001024695157735718</v>
+        <v>0.000102469829600215</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0001032310338961451</v>
+        <v>0.0001032307984258053</v>
       </c>
       <c r="W27" t="n">
-        <v>7.108233647253691e-05</v>
+        <v>7.110889005609753e-05</v>
       </c>
       <c r="X27" t="n">
-        <v>6.863353589579698e-05</v>
+        <v>6.863382457328939e-05</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.383526559530393e-05</v>
+        <v>9.383544837440358e-05</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0002475486246995191</v>
+        <v>0.0002475497410424859</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.735672328087521e-05</v>
+        <v>4.735705433548311e-05</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0001328194079224144</v>
+        <v>0.0001328204689589335</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0001190957878296895</v>
+        <v>0.000119095899428225</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0001691529072516135</v>
+        <v>0.0001691536871109302</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0001839331089025757</v>
+        <v>0.00018393322560898</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.819749280426066e-05</v>
+        <v>9.819792199476394e-05</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0001502663072230919</v>
+        <v>0.0001502668744464278</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.121629194166929e-05</v>
+        <v>9.121642613744059e-05</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.17906182639531e-05</v>
+        <v>8.179070002291809e-05</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.827631238185288e-05</v>
+        <v>6.827615216907797e-05</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.0001113295250364585</v>
+        <v>0.0001113300514674289</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.0001308456060383327</v>
+        <v>0.0001308459120643889</v>
       </c>
       <c r="AM27" t="n">
-        <v>7.729687642548569e-05</v>
+        <v>7.729742618236768e-05</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.0001033130990517681</v>
+        <v>0.0001033132932515068</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.50759019547847e-05</v>
+        <v>5.50760375808303e-05</v>
       </c>
       <c r="AP27" t="n">
-        <v>8.480222784437995e-05</v>
+        <v>8.480296327767082e-05</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6.472138611933097e-05</v>
+        <v>6.472080546820819e-05</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.0001486172812920691</v>
+        <v>0.0001486174196366374</v>
       </c>
       <c r="AS27" t="n">
-        <v>8.024042075202146e-05</v>
+        <v>8.024087709890881e-05</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.0001688086563576149</v>
+        <v>0.0001688091451239511</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.813281535107024e-05</v>
+        <v>9.813263102892455e-05</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0001027703154688018</v>
+        <v>0.0001027707073243878</v>
       </c>
       <c r="AW27" t="n">
-        <v>8.222000312026385e-05</v>
+        <v>8.222010870733744e-05</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.0001565629601971441</v>
+        <v>0.0001565639796032266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.342026875586314e-05</v>
+        <v>8.34203848693536e-05</v>
       </c>
       <c r="B28" t="n">
-        <v>7.860018880811773e-05</v>
+        <v>7.859989725846903e-05</v>
       </c>
       <c r="C28" t="n">
         <v>9.127921995164405e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>9.747272037395025e-05</v>
+        <v>9.747258545120157e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>7.792066207953161e-05</v>
+        <v>7.792053360538084e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>7.297017433254219e-05</v>
+        <v>7.296960598315264e-05</v>
       </c>
       <c r="G28" t="n">
         <v>7.533354028530406e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>8.312756892947359e-05</v>
+        <v>8.312766188147428e-05</v>
       </c>
       <c r="I28" t="n">
         <v>8.297225109195958e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>7.261176601875547e-05</v>
+        <v>7.261231487114806e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.250473921181505e-05</v>
+        <v>2.250529444671289e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>6.234004458404083e-05</v>
+        <v>6.23401620861907e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>6.381666640625532e-05</v>
+        <v>6.381661156207107e-05</v>
       </c>
       <c r="N28" t="n">
         <v>3.810233467604994e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>6.790160623816085e-05</v>
+        <v>6.790177442043645e-05</v>
       </c>
       <c r="P28" t="n">
         <v>7.152255753430218e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.166665834259425e-05</v>
+        <v>7.16664167194506e-05</v>
       </c>
       <c r="R28" t="n">
-        <v>5.223713499694535e-05</v>
+        <v>5.223724564568564e-05</v>
       </c>
       <c r="S28" t="n">
-        <v>8.631039769096327e-05</v>
+        <v>8.547404906908773e-05</v>
       </c>
       <c r="T28" t="n">
-        <v>9.588950520175017e-05</v>
+        <v>9.588941049708128e-05</v>
       </c>
       <c r="U28" t="n">
-        <v>6.132402559579925e-05</v>
+        <v>6.132374990340417e-05</v>
       </c>
       <c r="V28" t="n">
-        <v>8.075486819782154e-05</v>
+        <v>8.075480714969563e-05</v>
       </c>
       <c r="W28" t="n">
-        <v>4.867682668384994e-05</v>
+        <v>4.76760280934346e-05</v>
       </c>
       <c r="X28" t="n">
         <v>7.877683380662759e-05</v>
@@ -4714,28 +4714,28 @@
         <v>4.704666153313593e-05</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.735672328087521e-05</v>
+        <v>4.735705433548311e-05</v>
       </c>
       <c r="AA28" t="n">
         <v>0.0001948280664068532</v>
       </c>
       <c r="AB28" t="n">
-        <v>5.262137643338967e-05</v>
+        <v>5.262162442111143e-05</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.477340189672534e-05</v>
+        <v>4.477330595399793e-05</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.640921377090044e-05</v>
+        <v>6.640903409718771e-05</v>
       </c>
       <c r="AE28" t="n">
         <v>6.280063117064911e-05</v>
       </c>
       <c r="AF28" t="n">
-        <v>4.383114490473937e-05</v>
+        <v>4.383103007092345e-05</v>
       </c>
       <c r="AG28" t="n">
-        <v>4.550466792321437e-05</v>
+        <v>4.55048266442376e-05</v>
       </c>
       <c r="AH28" t="n">
         <v>5.855673980825642e-05</v>
@@ -4744,31 +4744,31 @@
         <v>6.821984797505743e-05</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7.716495179345366e-05</v>
+        <v>7.716524261976748e-05</v>
       </c>
       <c r="AK28" t="n">
-        <v>4.956670070449311e-05</v>
+        <v>4.956643457222682e-05</v>
       </c>
       <c r="AL28" t="n">
-        <v>4.343151211451355e-05</v>
+        <v>4.343197217508195e-05</v>
       </c>
       <c r="AM28" t="n">
-        <v>5.672316841886244e-05</v>
+        <v>5.672341616840776e-05</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.720953970315998e-05</v>
+        <v>5.72097469770176e-05</v>
       </c>
       <c r="AO28" t="n">
-        <v>2.360847720694257e-05</v>
+        <v>2.360876086643217e-05</v>
       </c>
       <c r="AP28" t="n">
         <v>4.745972567959988e-05</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3.677488509219741e-05</v>
+        <v>3.677469391615545e-05</v>
       </c>
       <c r="AR28" t="n">
-        <v>5.607119735176168e-05</v>
+        <v>5.607150914780084e-05</v>
       </c>
       <c r="AS28" t="n">
         <v>5.032874792134086e-05</v>
@@ -4777,7 +4777,7 @@
         <v>8.482747430482364e-05</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.183126521201117e-05</v>
+        <v>5.183100555942736e-05</v>
       </c>
       <c r="AV28" t="n">
         <v>6.380914753501746e-05</v>
@@ -4791,529 +4791,529 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.152471232016183e-05</v>
+        <v>9.152516553415638e-05</v>
       </c>
       <c r="B29" t="n">
-        <v>8.884477834291528e-05</v>
+        <v>8.884487232169766e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>7.427390112928846e-05</v>
+        <v>7.42736951211755e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>6.376791623149714e-05</v>
+        <v>6.376802475953205e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001434549413647669</v>
+        <v>0.0001434554206407131</v>
       </c>
       <c r="F29" t="n">
-        <v>9.32453930803756e-05</v>
+        <v>9.324556634225518e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>9.717753483697199e-05</v>
+        <v>9.717759971743604e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>9.745239253184217e-05</v>
+        <v>9.745275880101546e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>8.829871547439193e-05</v>
+        <v>8.829912599100424e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>9.334365388308142e-05</v>
+        <v>9.334373711383909e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>0.000117555336340444</v>
+        <v>0.0001175559337973553</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001061962630185452</v>
+        <v>0.0001061967846964089</v>
       </c>
       <c r="M29" t="n">
-        <v>8.045187382308769e-05</v>
+        <v>8.045259102598734e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.705218100011378e-05</v>
+        <v>3.705232519059425e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0001338794085313468</v>
+        <v>0.0001338802636144423</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0001332678726691404</v>
+        <v>0.000133268119788023</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0001224554072211038</v>
+        <v>0.0001224563139880414</v>
       </c>
       <c r="R29" t="n">
-        <v>7.694391983583498e-05</v>
+        <v>7.694477180419286e-05</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0001340084302983551</v>
+        <v>0.0001299650274865328</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0001119862880897423</v>
+        <v>0.0001119867582896137</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0001191781816843675</v>
+        <v>0.0001191780124011655</v>
       </c>
       <c r="V29" t="n">
-        <v>7.9442170079032e-05</v>
+        <v>7.944232775793923e-05</v>
       </c>
       <c r="W29" t="n">
-        <v>8.351955249647069e-05</v>
+        <v>8.499932190854217e-05</v>
       </c>
       <c r="X29" t="n">
-        <v>9.871232695586547e-05</v>
+        <v>9.871233152881659e-05</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.972494030851514e-05</v>
+        <v>8.972539806965302e-05</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0001328194079224144</v>
+        <v>0.0001328204689589335</v>
       </c>
       <c r="AA29" t="n">
-        <v>5.262137643338967e-05</v>
+        <v>5.262162442111143e-05</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0002649105763254626</v>
+        <v>0.0002649117019350353</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0001318309769039286</v>
+        <v>0.0001318309576733559</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0001675932636525469</v>
+        <v>0.000167593912636205</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0001491948266562838</v>
+        <v>0.0001491958718055476</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0001529560049898736</v>
+        <v>0.0001529560273930055</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0001643205733274436</v>
+        <v>0.0001643214371362483</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.718708741444435e-05</v>
+        <v>9.718750373200422e-05</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.159074865437524e-05</v>
+        <v>9.159120903867828e-05</v>
       </c>
       <c r="AJ29" t="n">
-        <v>6.215147784746695e-05</v>
+        <v>6.215192038986737e-05</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.0001294562356808698</v>
+        <v>0.0001294565888031363</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.0001609913559946209</v>
+        <v>0.0001609919881441146</v>
       </c>
       <c r="AM29" t="n">
-        <v>4.025525618247958e-05</v>
+        <v>4.025488381189496e-05</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.000116740170950835</v>
+        <v>0.0001167407204825277</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.397419267452366e-05</v>
+        <v>5.397518301796285e-05</v>
       </c>
       <c r="AP29" t="n">
-        <v>6.167293083193847e-05</v>
+        <v>6.167290774481923e-05</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.45877199857258e-05</v>
+        <v>5.458790659777776e-05</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.0001786820420004375</v>
+        <v>0.000178683121482293</v>
       </c>
       <c r="AS29" t="n">
-        <v>8.303924144839929e-05</v>
+        <v>8.30399709366861e-05</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.0001737662605024429</v>
+        <v>0.0001737670748715149</v>
       </c>
       <c r="AU29" t="n">
-        <v>9.575044376290568e-05</v>
+        <v>9.575021536651832e-05</v>
       </c>
       <c r="AV29" t="n">
-        <v>9.216358397871085e-05</v>
+        <v>9.216402168272607e-05</v>
       </c>
       <c r="AW29" t="n">
-        <v>7.636118106733881e-05</v>
+        <v>7.636156243633905e-05</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.0001432760783199254</v>
+        <v>0.0001432768679343288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0002246164545929796</v>
+        <v>0.0002246164959854046</v>
       </c>
       <c r="B30" t="n">
-        <v>9.992556754884339e-05</v>
+        <v>9.992619742487715e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>4.192576072987191e-05</v>
+        <v>4.192600156950766e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>8.290764639956954e-05</v>
+        <v>8.290783140633536e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001864067180954426</v>
+        <v>0.0001864060251383511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001519668933228578</v>
+        <v>0.0001519669960765796</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000103642032843223</v>
+        <v>0.0001036421334831566</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001057699187717093</v>
+        <v>0.0001057699751509252</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0001057819469391462</v>
+        <v>0.0001057820744894966</v>
       </c>
       <c r="J30" t="n">
-        <v>9.787358585204896e-05</v>
+        <v>9.787354425854745e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001747370897006064</v>
+        <v>0.0001747371935644448</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001353360810454037</v>
+        <v>0.0001353354090733697</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000100556205652491</v>
+        <v>0.0001005563599078965</v>
       </c>
       <c r="N30" t="n">
-        <v>8.166981630149704e-05</v>
+        <v>8.166975560130157e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0001860887268021218</v>
+        <v>0.000186088427874784</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0001226287191884719</v>
+        <v>0.0001226285681911895</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.00017298757211809</v>
+        <v>0.0001729877260975688</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0001218739125103723</v>
+        <v>0.0001218742361088486</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0001899182735164727</v>
+        <v>0.0001855595838869353</v>
       </c>
       <c r="T30" t="n">
-        <v>0.000155518426708954</v>
+        <v>0.0001555184401881818</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0001372514014978719</v>
+        <v>0.0001372502782655317</v>
       </c>
       <c r="V30" t="n">
-        <v>6.225474257361407e-05</v>
+        <v>6.225485194440996e-05</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0001121864542051658</v>
+        <v>0.0001117648050136795</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0001112270866196124</v>
+        <v>0.0001112271993456514</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.553101418328189e-05</v>
+        <v>9.553101092207064e-05</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0001190957878296895</v>
+        <v>0.000119095899428225</v>
       </c>
       <c r="AA30" t="n">
-        <v>4.477340189672534e-05</v>
+        <v>4.477330595399793e-05</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0001318309769039286</v>
+        <v>0.0001318309576733559</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0005166039039806944</v>
+        <v>0.0005166051245922454</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0002119535773033311</v>
+        <v>0.0002119531537935248</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0001964699324952615</v>
+        <v>0.000196470409802276</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0001178947861112994</v>
+        <v>0.0001178951418120495</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0001314017036490022</v>
+        <v>0.0001314015275933182</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.38395594059816e-05</v>
+        <v>9.383946252063866e-05</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.149053300562869e-05</v>
+        <v>9.149079095354809e-05</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6.794338607926374e-05</v>
+        <v>6.794305258481984e-05</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.0001164591058517843</v>
+        <v>0.0001164601406392381</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.0001105724273853949</v>
+        <v>0.0001105718322126503</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.112288564615466e-05</v>
+        <v>4.112269476046998e-05</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0001546286210306374</v>
+        <v>0.000154627829202302</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.885594529415669e-05</v>
+        <v>5.88562153864361e-05</v>
       </c>
       <c r="AP30" t="n">
-        <v>6.897325170679708e-05</v>
+        <v>6.897282735931797e-05</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.940882459797418e-05</v>
+        <v>5.94086454716425e-05</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.0001118299728505339</v>
+        <v>0.0001118310275924907</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.898307837132308e-05</v>
+        <v>3.898264041336999e-05</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.0002468846789961689</v>
+        <v>0.0002468844796014814</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.0001032566771332749</v>
+        <v>0.0001032556483210425</v>
       </c>
       <c r="AV30" t="n">
-        <v>9.642434843334836e-05</v>
+        <v>9.64243255371802e-05</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.654776171501428e-05</v>
+        <v>6.654761037497112e-05</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.00013428742924563</v>
+        <v>0.0001342872995807053</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0002457459221339637</v>
+        <v>0.0002457460165199275</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0001473458906915617</v>
+        <v>0.0001473465637232658</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001322979077260465</v>
+        <v>0.0001322982722276608</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001192188658963245</v>
+        <v>0.0001192191844161157</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002875163082997466</v>
+        <v>0.0002875157335118992</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001894744523373215</v>
+        <v>0.0001894747949869069</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001961901886433743</v>
+        <v>0.0001961899051786025</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001590641271213838</v>
+        <v>0.0001590642913070403</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0001786894032944933</v>
+        <v>0.0001786895340535088</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0001344354428445939</v>
+        <v>0.0001344357277488822</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0002453977304268835</v>
+        <v>0.0002453976965985909</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000181442793838587</v>
+        <v>0.0001814432125830942</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0001392732611839631</v>
+        <v>0.000139273799681972</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0001351548655778651</v>
+        <v>0.000135154615133157</v>
       </c>
       <c r="O31" t="n">
-        <v>0.000235336254531724</v>
+        <v>0.0002353366341025677</v>
       </c>
       <c r="P31" t="n">
-        <v>0.000211368752914573</v>
+        <v>0.0002113684620541717</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0002115827457221444</v>
+        <v>0.0002115833888940348</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0001161803058163117</v>
+        <v>0.0001161804867529269</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0002202970694207783</v>
+        <v>0.0002154396489094056</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0002266567142573777</v>
+        <v>0.000226656931947062</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0001891157523102877</v>
+        <v>0.0001891159683467302</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0001440823276040962</v>
+        <v>0.0001440828057761814</v>
       </c>
       <c r="W31" t="n">
-        <v>8.410324800508251e-05</v>
+        <v>8.318128851433258e-05</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0001452440607678947</v>
+        <v>0.0001452442637255424</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0001470328346989419</v>
+        <v>0.0001470331021583644</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0001691529072516135</v>
+        <v>0.0001691536871109302</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.640921377090044e-05</v>
+        <v>6.640903409718771e-05</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0001675932636525469</v>
+        <v>0.000167593912636205</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0002119535773033311</v>
+        <v>0.0002119531537935248</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0005516560390225792</v>
+        <v>0.0005516562489651899</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0002497679632048626</v>
+        <v>0.000249768190113001</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.000125707431802111</v>
+        <v>0.0001257075565542674</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0001792243557272732</v>
+        <v>0.0001792240808871865</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0001176500653452078</v>
+        <v>0.0001176501330838206</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.0001129957456777264</v>
+        <v>0.000112996269494067</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.623581276737435e-05</v>
+        <v>9.62362032374676e-05</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.0001477484743464269</v>
+        <v>0.0001477481968695755</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0001742328456801732</v>
+        <v>0.0001742328309190408</v>
       </c>
       <c r="AM31" t="n">
-        <v>9.489113028975098e-05</v>
+        <v>9.489155231909436e-05</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.0002112537974322966</v>
+        <v>0.0002112537656971596</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.18481394657181e-05</v>
+        <v>4.184899536322524e-05</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.0001114211076262842</v>
+        <v>0.0001114212071954928</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.0001055295998838499</v>
+        <v>0.0001055298195665946</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.0001763940942689477</v>
+        <v>0.000176394191306512</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.467788081865357e-05</v>
+        <v>5.467798253998e-05</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.000347659702995452</v>
+        <v>0.0003476599586903561</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.0001329748796009301</v>
+        <v>0.0001329740249628389</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.0001391532003835134</v>
+        <v>0.0001391532012331024</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.0001518879839109704</v>
+        <v>0.0001518880860039925</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.0001795004789171401</v>
+        <v>0.000179500442485428</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0002464723505817102</v>
+        <v>0.0002464718470813012</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0001555265440993049</v>
+        <v>0.0001555265246376732</v>
       </c>
       <c r="C32" t="n">
         <v>0.0001275050869628383</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001402161635430942</v>
+        <v>0.0001402160320432141</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002251245715644659</v>
+        <v>0.0002251246912283107</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0002073737740958491</v>
+        <v>0.0002073734881446203</v>
       </c>
       <c r="G32" t="n">
         <v>0.0001848840382963448</v>
       </c>
       <c r="H32" t="n">
-        <v>0.000155117839111064</v>
+        <v>0.0001551179052960986</v>
       </c>
       <c r="I32" t="n">
         <v>0.0002006157963864076</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0001372942994654344</v>
+        <v>0.0001372948788524078</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0002200104422963081</v>
+        <v>0.0002200107066918386</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0001633299372651492</v>
+        <v>0.0001633299100691797</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0001636944756399387</v>
+        <v>0.0001636943008842065</v>
       </c>
       <c r="N32" t="n">
         <v>0.0001202180909205606</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0002376688804838791</v>
+        <v>0.0002376682609470406</v>
       </c>
       <c r="P32" t="n">
         <v>0.0002291846489398176</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.000195365492060985</v>
+        <v>0.0001953653710843003</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0001352704606269679</v>
+        <v>0.000135270451843833</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0002347960118987193</v>
+        <v>0.0002347311109111862</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0002448593449652806</v>
+        <v>0.000244859481391101</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0001752968033858226</v>
+        <v>0.0001752962033674194</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0001349774788138102</v>
+        <v>0.0001349780719907571</v>
       </c>
       <c r="W32" t="n">
-        <v>9.921797342812611e-05</v>
+        <v>9.585534454982931e-05</v>
       </c>
       <c r="X32" t="n">
         <v>0.0001656429251838957</v>
@@ -5322,28 +5322,28 @@
         <v>0.0001645991087696904</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0001839331089025757</v>
+        <v>0.00018393322560898</v>
       </c>
       <c r="AA32" t="n">
         <v>6.280063117064911e-05</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0001491948266562838</v>
+        <v>0.0001491958718055476</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0001964699324952615</v>
+        <v>0.000196470409802276</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0002497679632048626</v>
+        <v>0.000249768190113001</v>
       </c>
       <c r="AE32" t="n">
         <v>0.0004971763306736365</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.0001459332625143949</v>
+        <v>0.0001459331321364615</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0001826638661900232</v>
+        <v>0.0001826630881531051</v>
       </c>
       <c r="AH32" t="n">
         <v>0.0001286287060442672</v>
@@ -5352,31 +5352,31 @@
         <v>0.0001622496051040522</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.268871363074965e-05</v>
+        <v>8.268876181112761e-05</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.0001355794561963189</v>
+        <v>0.0001355797516636631</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.0001575139917635216</v>
+        <v>0.0001575133125713684</v>
       </c>
       <c r="AM32" t="n">
-        <v>9.815138316997978e-05</v>
+        <v>9.815162217522213e-05</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.0001963769792811163</v>
+        <v>0.0001963770222291355</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.050254504032376e-05</v>
+        <v>8.050294418867571e-05</v>
       </c>
       <c r="AP32" t="n">
         <v>0.0001393009968425076</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.0001105971119679332</v>
+        <v>0.0001105970889486559</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.000210558286065044</v>
+        <v>0.0002105579461333717</v>
       </c>
       <c r="AS32" t="n">
         <v>0.0001115674343118107</v>
@@ -5385,7 +5385,7 @@
         <v>0.0003233659246631083</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.000148635593972585</v>
+        <v>0.0001486352816997188</v>
       </c>
       <c r="AV32" t="n">
         <v>0.0001781838910644806</v>
@@ -5399,377 +5399,377 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.752204374593924e-05</v>
+        <v>3.752108817673797e-05</v>
       </c>
       <c r="B33" t="n">
-        <v>9.283658424538072e-05</v>
+        <v>9.283708529351751e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>9.189860661065406e-05</v>
+        <v>9.18981875939562e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001069826004134975</v>
+        <v>0.0001069821831773945</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001164973846943226</v>
+        <v>0.0001164970674553278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0001089188661106874</v>
+        <v>0.0001089186065153538</v>
       </c>
       <c r="G33" t="n">
-        <v>3.067122604344898e-05</v>
+        <v>3.067086795626166e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>6.509304298826615e-05</v>
+        <v>6.509294069703813e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>9.879417855331551e-05</v>
+        <v>9.879408473956973e-05</v>
       </c>
       <c r="J33" t="n">
-        <v>8.077681575452097e-05</v>
+        <v>8.077657936762698e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001199570400291008</v>
+        <v>0.0001199575274928391</v>
       </c>
       <c r="L33" t="n">
-        <v>8.202377567088077e-05</v>
+        <v>8.202394623072833e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>9.499364589442997e-05</v>
+        <v>9.499326357066599e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.561276894956968e-05</v>
+        <v>3.561269468917319e-05</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0001134293348691288</v>
+        <v>0.0001134300629144927</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0001151865874039215</v>
+        <v>0.000115186247790885</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.374452582151678e-05</v>
+        <v>9.374448394321799e-05</v>
       </c>
       <c r="R33" t="n">
-        <v>6.150059443650022e-05</v>
+        <v>6.150090538264299e-05</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0001174538947230826</v>
+        <v>0.0001190762399636119</v>
       </c>
       <c r="T33" t="n">
-        <v>0.000133177765892285</v>
+        <v>0.0001331774538259509</v>
       </c>
       <c r="U33" t="n">
-        <v>7.96230970438955e-05</v>
+        <v>7.962202553377962e-05</v>
       </c>
       <c r="V33" t="n">
-        <v>4.567843016351149e-05</v>
+        <v>4.567928213055866e-05</v>
       </c>
       <c r="W33" t="n">
-        <v>5.040270518162297e-05</v>
+        <v>4.922022317634587e-05</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0001053332363037292</v>
+        <v>0.0001053330107398491</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.388091457642602e-05</v>
+        <v>8.388070689301617e-05</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.819749280426066e-05</v>
+        <v>9.819792199476394e-05</v>
       </c>
       <c r="AA33" t="n">
-        <v>4.383114490473937e-05</v>
+        <v>4.383103007092345e-05</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0001529560049898736</v>
+        <v>0.0001529560273930055</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0001178947861112994</v>
+        <v>0.0001178951418120495</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.000125707431802111</v>
+        <v>0.0001257075565542674</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0001459332625143949</v>
+        <v>0.0001459331321364615</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.0006066838882111046</v>
+        <v>0.0006066825288226584</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0001375346315393046</v>
+        <v>0.000137534649262134</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.549745544606466e-05</v>
+        <v>9.549714369075427e-05</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.496037366400845e-05</v>
+        <v>3.496082586396086e-05</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3.245665207271761e-05</v>
+        <v>3.245676626568486e-05</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.0001113383390757569</v>
+        <v>0.0001113383794329051</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.0001168329608606591</v>
+        <v>0.0001168326620452879</v>
       </c>
       <c r="AM33" t="n">
-        <v>5.023445727048173e-05</v>
+        <v>5.02344128016427e-05</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.689632579621077e-05</v>
+        <v>9.689659169406649e-05</v>
       </c>
       <c r="AO33" t="n">
-        <v>4.416589797067465e-05</v>
+        <v>4.416613809547203e-05</v>
       </c>
       <c r="AP33" t="n">
-        <v>7.359283898660855e-05</v>
+        <v>7.359251742508769e-05</v>
       </c>
       <c r="AQ33" t="n">
-        <v>4.867832728174094e-05</v>
+        <v>4.867840807572706e-05</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.0002954081556170682</v>
+        <v>0.0002954071850418362</v>
       </c>
       <c r="AS33" t="n">
-        <v>5.033348740794484e-05</v>
+        <v>5.033365471911693e-05</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.0001589814681796163</v>
+        <v>0.0001589813926778115</v>
       </c>
       <c r="AU33" t="n">
-        <v>5.64569802073639e-05</v>
+        <v>5.645665590013975e-05</v>
       </c>
       <c r="AV33" t="n">
-        <v>8.790711247447237e-05</v>
+        <v>8.790706905487102e-05</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.522395942767463e-05</v>
+        <v>4.522390007406323e-05</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.0001256909564721628</v>
+        <v>0.0001256903924617522</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.218707149587322e-05</v>
+        <v>7.218703803249304e-05</v>
       </c>
       <c r="B34" t="n">
-        <v>9.555513673125439e-05</v>
+        <v>9.555531479357219e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>6.018940551875016e-05</v>
+        <v>6.018909306302382e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>6.591578644336458e-05</v>
+        <v>6.591498394535009e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001366341113883825</v>
+        <v>0.0001366334058784133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0001348666257223041</v>
+        <v>0.0001348664094276289</v>
       </c>
       <c r="G34" t="n">
-        <v>9.790954804222494e-05</v>
+        <v>9.790825289330841e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>9.664068592931802e-05</v>
+        <v>9.664062968939935e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>9.527382351217425e-05</v>
+        <v>9.527343467529169e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0001033173137656568</v>
+        <v>0.0001033176996961356</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001232770394341421</v>
+        <v>0.0001232773089051494</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0001199878274211977</v>
+        <v>0.0001199880467820229</v>
       </c>
       <c r="M34" t="n">
-        <v>9.417571059203728e-05</v>
+        <v>9.417554281224464e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>5.130870244872054e-05</v>
+        <v>5.130823731200925e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0001338707696141759</v>
+        <v>0.0001338709702982334</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0001465626406890161</v>
+        <v>0.0001465626623643117</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0001317598135316051</v>
+        <v>0.0001317595825980296</v>
       </c>
       <c r="R34" t="n">
-        <v>7.357289082271302e-05</v>
+        <v>7.357304810742376e-05</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0001349268943667221</v>
+        <v>0.0001347144465219977</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0001261698029214942</v>
+        <v>0.0001261694644002235</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0001141549317153492</v>
+        <v>0.0001141546287036479</v>
       </c>
       <c r="V34" t="n">
-        <v>8.728350144681738e-05</v>
+        <v>8.728439421964015e-05</v>
       </c>
       <c r="W34" t="n">
-        <v>8.78963655289688e-05</v>
+        <v>8.748569184289381e-05</v>
       </c>
       <c r="X34" t="n">
-        <v>9.663658702142851e-05</v>
+        <v>9.663620267675857e-05</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.33892622363451e-05</v>
+        <v>8.338937216254012e-05</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0001502663072230919</v>
+        <v>0.0001502668744464278</v>
       </c>
       <c r="AA34" t="n">
-        <v>4.550466792321437e-05</v>
+        <v>4.55048266442376e-05</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0001643205733274436</v>
+        <v>0.0001643214371362483</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0001314017036490022</v>
+        <v>0.0001314015275933182</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0001792243557272732</v>
+        <v>0.0001792240808871865</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0001826638661900232</v>
+        <v>0.0001826630881531051</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.0001375346315393046</v>
+        <v>0.000137534649262134</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0002620481989856269</v>
+        <v>0.0002620484742229679</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.0001006790242352584</v>
+        <v>0.0001006788609105597</v>
       </c>
       <c r="AI34" t="n">
-        <v>6.562512207672409e-05</v>
+        <v>6.562447206022546e-05</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6.000152242611234e-05</v>
+        <v>6.000197298612725e-05</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.000156993172699429</v>
+        <v>0.0001569927864808281</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.0001651091159706469</v>
+        <v>0.0001651094605625029</v>
       </c>
       <c r="AM34" t="n">
-        <v>4.133331131123798e-05</v>
+        <v>4.133337510909332e-05</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.0001312020041528135</v>
+        <v>0.0001312018320050842</v>
       </c>
       <c r="AO34" t="n">
-        <v>4.349326387211588e-05</v>
+        <v>4.349369929743312e-05</v>
       </c>
       <c r="AP34" t="n">
-        <v>7.318642683457467e-05</v>
+        <v>7.31865721114296e-05</v>
       </c>
       <c r="AQ34" t="n">
-        <v>5.53206517666239e-05</v>
+        <v>5.532015310418135e-05</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.0001777329721995021</v>
+        <v>0.0001777337341203665</v>
       </c>
       <c r="AS34" t="n">
-        <v>9.042356698639056e-05</v>
+        <v>9.042382071060298e-05</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.0002118761988246494</v>
+        <v>0.0002118754998527255</v>
       </c>
       <c r="AU34" t="n">
-        <v>9.613800220305541e-05</v>
+        <v>9.613693673629113e-05</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.0001087899519842105</v>
+        <v>0.0001087898608683714</v>
       </c>
       <c r="AW34" t="n">
-        <v>8.341297056565708e-05</v>
+        <v>8.341250173985495e-05</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.0001761956869811627</v>
+        <v>0.0001761960484109418</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0001144554218407058</v>
+        <v>0.0001144554716921754</v>
       </c>
       <c r="B35" t="n">
-        <v>7.718527417631089e-05</v>
+        <v>7.718542588471192e-05</v>
       </c>
       <c r="C35" t="n">
         <v>7.838785940234994e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>7.612591903411454e-05</v>
+        <v>7.612581453352928e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>8.840086781113123e-05</v>
+        <v>8.840081912399321e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>9.458809099028037e-05</v>
+        <v>9.458787866593036e-05</v>
       </c>
       <c r="G35" t="n">
         <v>0.0001068360661511422</v>
       </c>
       <c r="H35" t="n">
-        <v>9.810263146394956e-05</v>
+        <v>9.810259798149692e-05</v>
       </c>
       <c r="I35" t="n">
         <v>0.0001039916747313132</v>
       </c>
       <c r="J35" t="n">
-        <v>7.656523501264876e-05</v>
+        <v>7.65653146185712e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.924949601557096e-05</v>
+        <v>7.924955745173443e-05</v>
       </c>
       <c r="L35" t="n">
-        <v>8.24050864334457e-05</v>
+        <v>8.240519049003581e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>8.483931457826362e-05</v>
+        <v>8.483911150723389e-05</v>
       </c>
       <c r="N35" t="n">
         <v>5.716310743965902e-05</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0001071420815279144</v>
+        <v>0.0001071421403742884</v>
       </c>
       <c r="P35" t="n">
         <v>0.0001051095264887105</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.329278512172728e-05</v>
+        <v>8.32928959393824e-05</v>
       </c>
       <c r="R35" t="n">
-        <v>5.449633145894088e-05</v>
+        <v>5.449595269151718e-05</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0001096217754621853</v>
+        <v>0.0001091154450921391</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0001097519474541994</v>
+        <v>0.000109752045370895</v>
       </c>
       <c r="U35" t="n">
-        <v>8.758733795952441e-05</v>
+        <v>8.758659804145263e-05</v>
       </c>
       <c r="V35" t="n">
-        <v>8.353426101381072e-05</v>
+        <v>8.353472252523833e-05</v>
       </c>
       <c r="W35" t="n">
-        <v>6.521934594281339e-05</v>
+        <v>6.461102530080856e-05</v>
       </c>
       <c r="X35" t="n">
         <v>6.018146240978815e-05</v>
@@ -5778,28 +5778,28 @@
         <v>8.963156496439666e-05</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.121629194166929e-05</v>
+        <v>9.121642613744059e-05</v>
       </c>
       <c r="AA35" t="n">
         <v>5.855673980825642e-05</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.718708741444435e-05</v>
+        <v>9.718750373200422e-05</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.38395594059816e-05</v>
+        <v>9.383946252063866e-05</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0001176500653452078</v>
+        <v>0.0001176501330838206</v>
       </c>
       <c r="AE35" t="n">
         <v>0.0001286287060442672</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.549745544606466e-05</v>
+        <v>9.549714369075427e-05</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0001006790242352584</v>
+        <v>0.0001006788609105597</v>
       </c>
       <c r="AH35" t="n">
         <v>0.0001853136855534976</v>
@@ -5808,31 +5808,31 @@
         <v>6.020909399907502e-05</v>
       </c>
       <c r="AJ35" t="n">
-        <v>5.675024768634193e-05</v>
+        <v>5.675024355906853e-05</v>
       </c>
       <c r="AK35" t="n">
-        <v>8.49841555790959e-05</v>
+        <v>8.49844120448478e-05</v>
       </c>
       <c r="AL35" t="n">
-        <v>9.713358005200403e-05</v>
+        <v>9.713377312792462e-05</v>
       </c>
       <c r="AM35" t="n">
-        <v>5.199553050319474e-05</v>
+        <v>5.199548246529802e-05</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.025039035223551e-05</v>
+        <v>9.02502578815609e-05</v>
       </c>
       <c r="AO35" t="n">
-        <v>4.355940657641675e-05</v>
+        <v>4.35602451746068e-05</v>
       </c>
       <c r="AP35" t="n">
         <v>5.632898115086384e-05</v>
       </c>
       <c r="AQ35" t="n">
-        <v>7.318082239571934e-05</v>
+        <v>7.318088252473047e-05</v>
       </c>
       <c r="AR35" t="n">
-        <v>8.164244427764901e-05</v>
+        <v>8.164248390790653e-05</v>
       </c>
       <c r="AS35" t="n">
         <v>4.887281202387002e-05</v>
@@ -5841,7 +5841,7 @@
         <v>0.0001179434253146068</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.248209152198792e-05</v>
+        <v>8.248155428626172e-05</v>
       </c>
       <c r="AV35" t="n">
         <v>8.266835075423557e-05</v>
@@ -5855,73 +5855,73 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0001328224006963626</v>
+        <v>0.0001328217229364939</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001100605572128403</v>
+        <v>0.0001100605302054678</v>
       </c>
       <c r="C36" t="n">
         <v>8.655554673622299e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001151456250319295</v>
+        <v>0.0001151454342997057</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001255674069995015</v>
+        <v>0.0001255666388165231</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001146541569706668</v>
+        <v>0.0001146540332685281</v>
       </c>
       <c r="G36" t="n">
         <v>9.810240399006753e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0001179449610609956</v>
+        <v>0.000117945013629892</v>
       </c>
       <c r="I36" t="n">
         <v>0.0001199451810340809</v>
       </c>
       <c r="J36" t="n">
-        <v>6.590771357693259e-05</v>
+        <v>6.590775465319145e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>9.083259709282305e-05</v>
+        <v>9.083298589020106e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>7.23284754404165e-05</v>
+        <v>7.232828450026038e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>9.774743030719962e-05</v>
+        <v>9.774766395853669e-05</v>
       </c>
       <c r="N36" t="n">
         <v>5.105573893620346e-05</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0001145068701268505</v>
+        <v>0.0001145072192342935</v>
       </c>
       <c r="P36" t="n">
         <v>0.0001057333649268082</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.020305627344092e-05</v>
+        <v>9.020284956798667e-05</v>
       </c>
       <c r="R36" t="n">
-        <v>8.433158698279295e-05</v>
+        <v>8.433180904418943e-05</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0001347694806009651</v>
+        <v>0.000130457429894386</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0001243071827925229</v>
+        <v>0.0001243074685974995</v>
       </c>
       <c r="U36" t="n">
-        <v>8.534115628389019e-05</v>
+        <v>8.534074530867053e-05</v>
       </c>
       <c r="V36" t="n">
-        <v>8.177661450886511e-05</v>
+        <v>8.177542486483926e-05</v>
       </c>
       <c r="W36" t="n">
-        <v>6.821699744293768e-05</v>
+        <v>7.001303408146635e-05</v>
       </c>
       <c r="X36" t="n">
         <v>8.627301937370877e-05</v>
@@ -5930,28 +5930,28 @@
         <v>8.33043866530186e-05</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.17906182639531e-05</v>
+        <v>8.179070002291809e-05</v>
       </c>
       <c r="AA36" t="n">
         <v>6.821984797505743e-05</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.159074865437524e-05</v>
+        <v>9.159120903867828e-05</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.149053300562869e-05</v>
+        <v>9.149079095354809e-05</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0001129957456777264</v>
+        <v>0.000112996269494067</v>
       </c>
       <c r="AE36" t="n">
         <v>0.0001622496051040522</v>
       </c>
       <c r="AF36" t="n">
-        <v>3.496037366400845e-05</v>
+        <v>3.496082586396086e-05</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.562512207672409e-05</v>
+        <v>6.562447206022546e-05</v>
       </c>
       <c r="AH36" t="n">
         <v>6.020909399907502e-05</v>
@@ -5960,31 +5960,31 @@
         <v>0.0003455978442222556</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3.736337824795965e-05</v>
+        <v>3.736342179533454e-05</v>
       </c>
       <c r="AK36" t="n">
-        <v>6.962548108696537e-05</v>
+        <v>6.962611429981648e-05</v>
       </c>
       <c r="AL36" t="n">
-        <v>4.256764269991937e-05</v>
+        <v>4.25676616899484e-05</v>
       </c>
       <c r="AM36" t="n">
-        <v>6.327302509678106e-05</v>
+        <v>6.327301085830224e-05</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.0001066752000234586</v>
+        <v>0.0001066755372250301</v>
       </c>
       <c r="AO36" t="n">
-        <v>3.030706764711977e-05</v>
+        <v>3.030769863990868e-05</v>
       </c>
       <c r="AP36" t="n">
         <v>9.830784052070385e-05</v>
       </c>
       <c r="AQ36" t="n">
-        <v>6.470606269137968e-05</v>
+        <v>6.470575444231011e-05</v>
       </c>
       <c r="AR36" t="n">
-        <v>6.326367791337803e-05</v>
+        <v>6.32637766095191e-05</v>
       </c>
       <c r="AS36" t="n">
         <v>6.464405867322361e-05</v>
@@ -5993,7 +5993,7 @@
         <v>0.0001402464160750962</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.393148769129923e-05</v>
+        <v>7.393109883394182e-05</v>
       </c>
       <c r="AV36" t="n">
         <v>8.056377664129454e-05</v>
@@ -6007,985 +6007,985 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.980412300973123e-05</v>
+        <v>9.980463114775947e-05</v>
       </c>
       <c r="B37" t="n">
-        <v>6.537333514072291e-05</v>
+        <v>6.537361712572872e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>4.602503886707356e-05</v>
+        <v>4.60253483232788e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>6.120544133571485e-05</v>
+        <v>6.12054632493915e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>7.173496424913979e-05</v>
+        <v>7.173534381530372e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>7.330731215011544e-05</v>
+        <v>7.33074572375815e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>5.670559772188272e-05</v>
+        <v>5.670589897373166e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>6.926322242758613e-05</v>
+        <v>6.92636387638018e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>7.478562234626684e-05</v>
+        <v>7.4785867894158e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>4.588241860407912e-05</v>
+        <v>4.588287442837519e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>5.100289796991116e-05</v>
+        <v>5.10032780758105e-05</v>
       </c>
       <c r="L37" t="n">
-        <v>6.716915418710305e-05</v>
+        <v>6.716961962556873e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>6.469002285728116e-05</v>
+        <v>6.469020763257339e-05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.511360912503337e-05</v>
+        <v>3.511408223735782e-05</v>
       </c>
       <c r="O37" t="n">
-        <v>6.376985266117003e-05</v>
+        <v>6.377028490339468e-05</v>
       </c>
       <c r="P37" t="n">
-        <v>5.781141545689703e-05</v>
+        <v>5.781153160913348e-05</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.030013523062939e-05</v>
+        <v>7.030006487635964e-05</v>
       </c>
       <c r="R37" t="n">
-        <v>4.223822490955441e-05</v>
+        <v>4.223836679049361e-05</v>
       </c>
       <c r="S37" t="n">
-        <v>6.855410203216244e-05</v>
+        <v>6.482629801807917e-05</v>
       </c>
       <c r="T37" t="n">
-        <v>7.517140275527821e-05</v>
+        <v>7.51714984024269e-05</v>
       </c>
       <c r="U37" t="n">
-        <v>6.495472669835709e-05</v>
+        <v>6.495488827727147e-05</v>
       </c>
       <c r="V37" t="n">
-        <v>8.818676124959172e-05</v>
+        <v>8.81874917585477e-05</v>
       </c>
       <c r="W37" t="n">
-        <v>5.401463914026189e-05</v>
+        <v>5.389058586928095e-05</v>
       </c>
       <c r="X37" t="n">
-        <v>5.609273873270759e-05</v>
+        <v>5.609312441901361e-05</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.522427740789396e-05</v>
+        <v>5.522444109664486e-05</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.827631238185288e-05</v>
+        <v>6.827615216907797e-05</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.716495179345366e-05</v>
+        <v>7.716524261976748e-05</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.215147784746695e-05</v>
+        <v>6.215192038986737e-05</v>
       </c>
       <c r="AC37" t="n">
-        <v>6.794338607926374e-05</v>
+        <v>6.794305258481984e-05</v>
       </c>
       <c r="AD37" t="n">
-        <v>9.623581276737435e-05</v>
+        <v>9.62362032374676e-05</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.268871363074965e-05</v>
+        <v>8.268876181112761e-05</v>
       </c>
       <c r="AF37" t="n">
-        <v>3.245665207271761e-05</v>
+        <v>3.245676626568486e-05</v>
       </c>
       <c r="AG37" t="n">
-        <v>6.000152242611234e-05</v>
+        <v>6.000197298612725e-05</v>
       </c>
       <c r="AH37" t="n">
-        <v>5.675024768634193e-05</v>
+        <v>5.675024355906853e-05</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.736337824795965e-05</v>
+        <v>3.736342179533454e-05</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.0001769951886770331</v>
+        <v>0.000176994745599015</v>
       </c>
       <c r="AK37" t="n">
-        <v>4.160201559847978e-05</v>
+        <v>4.160224783514387e-05</v>
       </c>
       <c r="AL37" t="n">
-        <v>6.911298059948128e-05</v>
+        <v>6.911354254592134e-05</v>
       </c>
       <c r="AM37" t="n">
-        <v>6.526635879876795e-05</v>
+        <v>6.526688932334476e-05</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.357418173979181e-05</v>
+        <v>5.357440520803135e-05</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.857704497861735e-05</v>
+        <v>3.857775137008723e-05</v>
       </c>
       <c r="AP37" t="n">
-        <v>5.838246340338221e-05</v>
+        <v>5.838255782673486e-05</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.976151581193319e-05</v>
+        <v>2.976200137188803e-05</v>
       </c>
       <c r="AR37" t="n">
-        <v>4.755975744532332e-05</v>
+        <v>4.755948649945292e-05</v>
       </c>
       <c r="AS37" t="n">
-        <v>5.820471992613517e-05</v>
+        <v>5.820485032578354e-05</v>
       </c>
       <c r="AT37" t="n">
-        <v>6.260002132644322e-05</v>
+        <v>6.260034289094845e-05</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.53756201120966e-05</v>
+        <v>6.537529007943803e-05</v>
       </c>
       <c r="AV37" t="n">
-        <v>7.431783854489219e-05</v>
+        <v>7.431773987225133e-05</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.231631838689377e-05</v>
+        <v>6.231699266097523e-05</v>
       </c>
       <c r="AX37" t="n">
-        <v>4.723633227832361e-05</v>
+        <v>4.723644834446377e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.959795701112049e-05</v>
+        <v>7.959840247596168e-05</v>
       </c>
       <c r="B38" t="n">
-        <v>7.410621889557846e-05</v>
+        <v>7.41064647388383e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>5.207392548818198e-05</v>
+        <v>5.207497588598836e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>6.157127351897908e-05</v>
+        <v>6.157177633219618e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001094468411500656</v>
+        <v>0.0001094470949055775</v>
       </c>
       <c r="F38" t="n">
-        <v>9.89054164789055e-05</v>
+        <v>9.890557337662075e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>6.589670967229617e-05</v>
+        <v>6.589821558348752e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001007203822939941</v>
+        <v>0.0001007207482343491</v>
       </c>
       <c r="I38" t="n">
-        <v>7.099998333505383e-05</v>
+        <v>7.100030819582099e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>8.791726748841975e-05</v>
+        <v>8.791689322887485e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>9.392643377708925e-05</v>
+        <v>9.39270063748397e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>9.761725542243801e-05</v>
+        <v>9.761706277823606e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>8.103814207795658e-05</v>
+        <v>8.103866343560808e-05</v>
       </c>
       <c r="N38" t="n">
-        <v>1.370335706158631e-05</v>
+        <v>1.370345512661274e-05</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0001107963445593702</v>
+        <v>0.0001107962911486395</v>
       </c>
       <c r="P38" t="n">
-        <v>9.627092965610909e-05</v>
+        <v>9.627137867558979e-05</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0001040899896173562</v>
+        <v>0.0001040901104122503</v>
       </c>
       <c r="R38" t="n">
-        <v>5.84853632259482e-05</v>
+        <v>5.848532505435386e-05</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0001042657267465841</v>
+        <v>0.0001027751400634676</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0001066011450233075</v>
+        <v>0.0001066010884676541</v>
       </c>
       <c r="U38" t="n">
-        <v>9.767521075345958e-05</v>
+        <v>9.76746346424672e-05</v>
       </c>
       <c r="V38" t="n">
-        <v>5.425408720267404e-05</v>
+        <v>5.42541993257562e-05</v>
       </c>
       <c r="W38" t="n">
-        <v>6.831421604865627e-05</v>
+        <v>6.757931744334368e-05</v>
       </c>
       <c r="X38" t="n">
-        <v>7.889093618534127e-05</v>
+        <v>7.889094520291611e-05</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.398890900336001e-05</v>
+        <v>9.398909452056986e-05</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0001113295250364585</v>
+        <v>0.0001113300514674289</v>
       </c>
       <c r="AA38" t="n">
-        <v>4.956670070449311e-05</v>
+        <v>4.956643457222682e-05</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0001294562356808698</v>
+        <v>0.0001294565888031363</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0001164591058517843</v>
+        <v>0.0001164601406392381</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0001477484743464269</v>
+        <v>0.0001477481968695755</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0001355794561963189</v>
+        <v>0.0001355797516636631</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0001113383390757569</v>
+        <v>0.0001113383794329051</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.000156993172699429</v>
+        <v>0.0001569927864808281</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.49841555790959e-05</v>
+        <v>8.49844120448478e-05</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.962548108696537e-05</v>
+        <v>6.962611429981648e-05</v>
       </c>
       <c r="AJ38" t="n">
-        <v>4.160201559847978e-05</v>
+        <v>4.160224783514387e-05</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.0002380500453859252</v>
+        <v>0.0002380499680464467</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.0001504507785569372</v>
+        <v>0.0001504507718913891</v>
       </c>
       <c r="AM38" t="n">
-        <v>3.692673255885837e-05</v>
+        <v>3.692727840408932e-05</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.572012370080471e-05</v>
+        <v>9.571996899692924e-05</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.985557831318857e-05</v>
+        <v>4.985655745556118e-05</v>
       </c>
       <c r="AP38" t="n">
-        <v>6.058302458267362e-05</v>
+        <v>6.058284343176191e-05</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3.182657240539104e-05</v>
+        <v>3.182675279977651e-05</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.0001324146545833418</v>
+        <v>0.0001324147879699155</v>
       </c>
       <c r="AS38" t="n">
-        <v>5.367426247623185e-05</v>
+        <v>5.36742722355014e-05</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.000135935871150074</v>
+        <v>0.0001359355948931465</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.067928606678582e-05</v>
+        <v>7.067844381695799e-05</v>
       </c>
       <c r="AV38" t="n">
-        <v>8.1077741078545e-05</v>
+        <v>8.107776311181687e-05</v>
       </c>
       <c r="AW38" t="n">
-        <v>9.044729631797418e-05</v>
+        <v>9.044779881264319e-05</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.0001382723253792745</v>
+        <v>0.0001382723530164609</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0001165896735555572</v>
+        <v>0.0001165887813600506</v>
       </c>
       <c r="B39" t="n">
-        <v>7.153616925514521e-05</v>
+        <v>7.153632827920832e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>4.176396785036809e-05</v>
+        <v>4.176431514737092e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>1.488378968562795e-05</v>
+        <v>1.488434458845694e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0001262245676211845</v>
+        <v>0.0001262245876636335</v>
       </c>
       <c r="F39" t="n">
-        <v>9.711842983163791e-05</v>
+        <v>9.711748203702043e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>7.270128424262561e-05</v>
+        <v>7.270133856466467e-05</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001052067967606971</v>
+        <v>0.0001052065313319291</v>
       </c>
       <c r="I39" t="n">
-        <v>7.184148448401471e-05</v>
+        <v>7.184154075958399e-05</v>
       </c>
       <c r="J39" t="n">
-        <v>9.096456296791823e-05</v>
+        <v>9.096439628548662e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0001270056157492276</v>
+        <v>0.0001270049289150268</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0001010910481316684</v>
+        <v>0.0001010909864339149</v>
       </c>
       <c r="M39" t="n">
-        <v>8.627540217115334e-05</v>
+        <v>8.627550105085553e-05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.264178114911326e-05</v>
+        <v>3.264168119783187e-05</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0001386128361156579</v>
+        <v>0.0001386124544080467</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0001176499412570155</v>
+        <v>0.0001176501074933374</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0001138922865085899</v>
+        <v>0.0001138915279826999</v>
       </c>
       <c r="R39" t="n">
-        <v>7.660711161017333e-05</v>
+        <v>7.660707996972055e-05</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0001324627470805455</v>
+        <v>0.0001308787378783951</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0001131766182310963</v>
+        <v>0.0001131763986781213</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0001034277241195522</v>
+        <v>0.0001034270738490472</v>
       </c>
       <c r="V39" t="n">
-        <v>7.931723931006837e-05</v>
+        <v>7.9317495578235e-05</v>
       </c>
       <c r="W39" t="n">
-        <v>7.527898536110947e-05</v>
+        <v>7.411481807594224e-05</v>
       </c>
       <c r="X39" t="n">
-        <v>6.368821398126439e-05</v>
+        <v>6.368839210075512e-05</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0001019769006854178</v>
+        <v>0.0001019767548199357</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0001308456060383327</v>
+        <v>0.0001308459120643889</v>
       </c>
       <c r="AA39" t="n">
-        <v>4.343151211451355e-05</v>
+        <v>4.343197217508195e-05</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0001609913559946209</v>
+        <v>0.0001609919881441146</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0001105724273853949</v>
+        <v>0.0001105718322126503</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.0001742328456801732</v>
+        <v>0.0001742328309190408</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0001575139917635216</v>
+        <v>0.0001575133125713684</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0001168329608606591</v>
+        <v>0.0001168326620452879</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0001651091159706469</v>
+        <v>0.0001651094605625029</v>
       </c>
       <c r="AH39" t="n">
-        <v>9.713358005200403e-05</v>
+        <v>9.713377312792462e-05</v>
       </c>
       <c r="AI39" t="n">
-        <v>4.256764269991937e-05</v>
+        <v>4.25676616899484e-05</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6.911298059948128e-05</v>
+        <v>6.911354254592134e-05</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.0001504507785569372</v>
+        <v>0.0001504507718913891</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.0002855029183714822</v>
+        <v>0.0002855030574175422</v>
       </c>
       <c r="AM39" t="n">
-        <v>4.077559823036687e-05</v>
+        <v>4.077579762577191e-05</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.0001026951327778216</v>
+        <v>0.0001026950226601061</v>
       </c>
       <c r="AO39" t="n">
-        <v>5.736594411217052e-05</v>
+        <v>5.736681747884329e-05</v>
       </c>
       <c r="AP39" t="n">
-        <v>6.834779405100114e-05</v>
+        <v>6.834761239443235e-05</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3.165934726639313e-05</v>
+        <v>3.165924765843268e-05</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.0001225706225537506</v>
+        <v>0.0001225706799221767</v>
       </c>
       <c r="AS39" t="n">
-        <v>6.885060000600683e-05</v>
+        <v>6.885137739771811e-05</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.0001625424636623354</v>
+        <v>0.0001625419811246428</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.0001128255995215808</v>
+        <v>0.0001128253090144329</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0001074123870010525</v>
+        <v>0.0001074125670552177</v>
       </c>
       <c r="AW39" t="n">
-        <v>9.672607078758411e-05</v>
+        <v>9.672607405638145e-05</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.0001516639969661368</v>
+        <v>0.0001516638577882145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.317270279390004e-05</v>
+        <v>9.317225789541723e-05</v>
       </c>
       <c r="B40" t="n">
-        <v>8.425602431225856e-05</v>
+        <v>8.425645431776406e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>8.849352123595434e-05</v>
+        <v>8.849380848633967e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>8.216247709275555e-05</v>
+        <v>8.216280054892415e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0001036190340900818</v>
+        <v>0.0001036191705734503</v>
       </c>
       <c r="F40" t="n">
-        <v>8.797156611262577e-05</v>
+        <v>8.797184609641137e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>8.991802036805653e-05</v>
+        <v>8.99183363232201e-05</v>
       </c>
       <c r="H40" t="n">
-        <v>8.612425104778989e-05</v>
+        <v>8.612373444484487e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>9.617351977922161e-05</v>
+        <v>9.617323698387934e-05</v>
       </c>
       <c r="J40" t="n">
-        <v>6.113415778466207e-05</v>
+        <v>6.113429995755303e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>6.720018821706495e-05</v>
+        <v>6.719988559324756e-05</v>
       </c>
       <c r="L40" t="n">
-        <v>7.365025733070105e-05</v>
+        <v>7.365011047576604e-05</v>
       </c>
       <c r="M40" t="n">
-        <v>6.148117627628762e-05</v>
+        <v>6.148102015296846e-05</v>
       </c>
       <c r="N40" t="n">
-        <v>6.727279912955368e-05</v>
+        <v>6.727291822558521e-05</v>
       </c>
       <c r="O40" t="n">
-        <v>9.536563268012843e-05</v>
+        <v>9.536558417450322e-05</v>
       </c>
       <c r="P40" t="n">
-        <v>9.637342197525591e-05</v>
+        <v>9.637359197142822e-05</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.276234387054168e-05</v>
+        <v>7.27618046692166e-05</v>
       </c>
       <c r="R40" t="n">
-        <v>6.119627635555343e-05</v>
+        <v>6.119582860859665e-05</v>
       </c>
       <c r="S40" t="n">
-        <v>9.798577614145198e-05</v>
+        <v>9.391220975934038e-05</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0001056168039486812</v>
+        <v>0.0001056164048219909</v>
       </c>
       <c r="U40" t="n">
-        <v>8.485669782094667e-05</v>
+        <v>8.485601402654876e-05</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0001467692127716883</v>
+        <v>0.0001467687820940402</v>
       </c>
       <c r="W40" t="n">
-        <v>4.639174651605056e-05</v>
+        <v>4.586438813407301e-05</v>
       </c>
       <c r="X40" t="n">
-        <v>8.055772320769786e-05</v>
+        <v>8.05575823705754e-05</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.400243183762339e-05</v>
+        <v>7.400247984812922e-05</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.729687642548569e-05</v>
+        <v>7.729742618236768e-05</v>
       </c>
       <c r="AA40" t="n">
-        <v>5.672316841886244e-05</v>
+        <v>5.672341616840776e-05</v>
       </c>
       <c r="AB40" t="n">
-        <v>4.025525618247958e-05</v>
+        <v>4.025488381189496e-05</v>
       </c>
       <c r="AC40" t="n">
-        <v>4.112288564615466e-05</v>
+        <v>4.112269476046998e-05</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.489113028975098e-05</v>
+        <v>9.489155231909436e-05</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.815138316997978e-05</v>
+        <v>9.815162217522213e-05</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.023445727048173e-05</v>
+        <v>5.02344128016427e-05</v>
       </c>
       <c r="AG40" t="n">
-        <v>4.133331131123798e-05</v>
+        <v>4.133337510909332e-05</v>
       </c>
       <c r="AH40" t="n">
-        <v>5.199553050319474e-05</v>
+        <v>5.199548246529802e-05</v>
       </c>
       <c r="AI40" t="n">
-        <v>6.327302509678106e-05</v>
+        <v>6.327301085830224e-05</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6.526635879876795e-05</v>
+        <v>6.526688932334476e-05</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.692673255885837e-05</v>
+        <v>3.692727840408932e-05</v>
       </c>
       <c r="AL40" t="n">
-        <v>4.077559823036687e-05</v>
+        <v>4.077579762577191e-05</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.0001661077340626783</v>
+        <v>0.0001661076766943103</v>
       </c>
       <c r="AN40" t="n">
-        <v>7.956762127789678e-05</v>
+        <v>7.956758560843416e-05</v>
       </c>
       <c r="AO40" t="n">
-        <v>7.7168959832674e-05</v>
+        <v>7.716952798856227e-05</v>
       </c>
       <c r="AP40" t="n">
-        <v>7.434686493763749e-05</v>
+        <v>7.434661424915697e-05</v>
       </c>
       <c r="AQ40" t="n">
-        <v>7.263547184526815e-05</v>
+        <v>7.263584851649764e-05</v>
       </c>
       <c r="AR40" t="n">
-        <v>4.208357259118935e-05</v>
+        <v>4.208379323855212e-05</v>
       </c>
       <c r="AS40" t="n">
-        <v>5.60740416099527e-05</v>
+        <v>5.607360079772548e-05</v>
       </c>
       <c r="AT40" t="n">
-        <v>8.765029354416267e-05</v>
+        <v>8.765045238589398e-05</v>
       </c>
       <c r="AU40" t="n">
-        <v>5.863124724688686e-05</v>
+        <v>5.863127622752524e-05</v>
       </c>
       <c r="AV40" t="n">
-        <v>6.053939689303523e-05</v>
+        <v>6.053932172279127e-05</v>
       </c>
       <c r="AW40" t="n">
-        <v>8.374726666091168e-05</v>
+        <v>8.374700274216076e-05</v>
       </c>
       <c r="AX40" t="n">
-        <v>6.761593245344693e-05</v>
+        <v>6.76161117235358e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0001904786166218318</v>
+        <v>0.0001904781878356867</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0001100559236903677</v>
+        <v>0.0001100562197766577</v>
       </c>
       <c r="C41" t="n">
-        <v>8.841567885477681e-05</v>
+        <v>8.841558796802381e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>8.657770879827064e-05</v>
+        <v>8.657786134173408e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002014123969748797</v>
+        <v>0.0002014117904457748</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0001611526578847427</v>
+        <v>0.0001611527769075587</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001357866514522798</v>
+        <v>0.0001357867547412187</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001045529165209857</v>
+        <v>0.000104552651488483</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0001246116715328221</v>
+        <v>0.0001246119843712441</v>
       </c>
       <c r="J41" t="n">
-        <v>9.86340390278303e-05</v>
+        <v>9.863477206664295e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001666792436534331</v>
+        <v>0.0001666794137491928</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0001629806133984476</v>
+        <v>0.0001629807046509343</v>
       </c>
       <c r="M41" t="n">
-        <v>9.37320549649918e-05</v>
+        <v>9.373225866178481e-05</v>
       </c>
       <c r="N41" t="n">
-        <v>7.358233837352859e-05</v>
+        <v>7.358241084500181e-05</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0002071936778161575</v>
+        <v>0.0002071931834440825</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0001427184442773758</v>
+        <v>0.0001427180889026412</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0001813118381027168</v>
+        <v>0.0001813115397156182</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0001102336244868421</v>
+        <v>0.0001102338976416712</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0001919929900099543</v>
+        <v>0.0001891163940614228</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0001723623761047827</v>
+        <v>0.000172362426342732</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0001416101183320668</v>
+        <v>0.0001416096651284201</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0001208685720035124</v>
+        <v>0.0001208689823741309</v>
       </c>
       <c r="W41" t="n">
-        <v>6.433824700998113e-05</v>
+        <v>6.32690343570055e-05</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0001028647136488038</v>
+        <v>0.0001028648023722452</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.544794996200557e-05</v>
+        <v>9.544788976090301e-05</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0001033130990517681</v>
+        <v>0.0001033132932515068</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.720953970315998e-05</v>
+        <v>5.72097469770176e-05</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.000116740170950835</v>
+        <v>0.0001167407204825277</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0001546286210306374</v>
+        <v>0.000154627829202302</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0002112537974322966</v>
+        <v>0.0002112537656971596</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0001963769792811163</v>
+        <v>0.0001963770222291355</v>
       </c>
       <c r="AF41" t="n">
-        <v>9.689632579621077e-05</v>
+        <v>9.689659169406649e-05</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0001312020041528135</v>
+        <v>0.0001312018320050842</v>
       </c>
       <c r="AH41" t="n">
-        <v>9.025039035223551e-05</v>
+        <v>9.02502578815609e-05</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.0001066752000234586</v>
+        <v>0.0001066755372250301</v>
       </c>
       <c r="AJ41" t="n">
-        <v>5.357418173979181e-05</v>
+        <v>5.357440520803135e-05</v>
       </c>
       <c r="AK41" t="n">
-        <v>9.572012370080471e-05</v>
+        <v>9.571996899692924e-05</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.0001026951327778216</v>
+        <v>0.0001026950226601061</v>
       </c>
       <c r="AM41" t="n">
-        <v>7.956762127789678e-05</v>
+        <v>7.956758560843416e-05</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.0002551844690311919</v>
+        <v>0.0002551843781756675</v>
       </c>
       <c r="AO41" t="n">
-        <v>5.140293805608637e-05</v>
+        <v>5.140385142547523e-05</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.0001012543190694511</v>
+        <v>0.0001012542063893359</v>
       </c>
       <c r="AQ41" t="n">
-        <v>9.245244916937639e-05</v>
+        <v>9.245280135571662e-05</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.0001216073184303673</v>
+        <v>0.0001216081859765331</v>
       </c>
       <c r="AS41" t="n">
-        <v>7.659370920725772e-05</v>
+        <v>7.659403272863048e-05</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.0002730986181588565</v>
+        <v>0.0002730983327120043</v>
       </c>
       <c r="AU41" t="n">
-        <v>9.722569914950612e-05</v>
+        <v>9.722560482105686e-05</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0001079810821401154</v>
+        <v>0.0001079810310599764</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.000117007799682699</v>
+        <v>0.0001170074671254119</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.0001212506833642961</v>
+        <v>0.0001212509257608918</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.796646739199496e-05</v>
+        <v>4.796664924764797e-05</v>
       </c>
       <c r="B42" t="n">
-        <v>5.017983444100401e-05</v>
+        <v>5.018030058485753e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>4.491974421790468e-05</v>
+        <v>4.492049582408287e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>6.293972374187028e-05</v>
+        <v>6.294015642283632e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>6.558080935822571e-05</v>
+        <v>6.558131259786793e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>6.824361377700596e-05</v>
+        <v>6.824435922620556e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>1.794307439768594e-05</v>
+        <v>1.794308797362763e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>5.98374501699564e-05</v>
+        <v>5.983834878248201e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>6.110246145470565e-05</v>
+        <v>6.110299820906673e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>4.707158338513381e-05</v>
+        <v>4.707167278200039e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>6.985720069685438e-05</v>
+        <v>6.985727618502466e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>5.09123647491431e-05</v>
+        <v>5.091255211373136e-05</v>
       </c>
       <c r="M42" t="n">
-        <v>4.481319115248427e-05</v>
+        <v>4.481347412956294e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>5.072407075280866e-05</v>
+        <v>5.072434064868392e-05</v>
       </c>
       <c r="O42" t="n">
-        <v>8.036060429644671e-05</v>
+        <v>8.036135794637522e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>4.430812678189738e-05</v>
+        <v>4.430795769084508e-05</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.14633382296393e-05</v>
+        <v>5.146367265104841e-05</v>
       </c>
       <c r="R42" t="n">
-        <v>5.215435233935582e-05</v>
+        <v>5.215464252904822e-05</v>
       </c>
       <c r="S42" t="n">
-        <v>7.717755556500517e-05</v>
+        <v>7.656474517915472e-05</v>
       </c>
       <c r="T42" t="n">
-        <v>7.447453167659032e-05</v>
+        <v>7.447510827378655e-05</v>
       </c>
       <c r="U42" t="n">
-        <v>6.302662077108321e-05</v>
+        <v>6.302679698932184e-05</v>
       </c>
       <c r="V42" t="n">
-        <v>9.480849762990898e-05</v>
+        <v>9.480932496838073e-05</v>
       </c>
       <c r="W42" t="n">
-        <v>4.496789580482354e-05</v>
+        <v>4.211195444416377e-05</v>
       </c>
       <c r="X42" t="n">
-        <v>4.092731418731735e-05</v>
+        <v>4.092753963866396e-05</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.57137087136734e-05</v>
+        <v>6.571444531884984e-05</v>
       </c>
       <c r="Z42" t="n">
-        <v>5.50759019547847e-05</v>
+        <v>5.50760375808303e-05</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.360847720694257e-05</v>
+        <v>2.360876086643217e-05</v>
       </c>
       <c r="AB42" t="n">
-        <v>5.397419267452366e-05</v>
+        <v>5.397518301796285e-05</v>
       </c>
       <c r="AC42" t="n">
-        <v>5.885594529415669e-05</v>
+        <v>5.88562153864361e-05</v>
       </c>
       <c r="AD42" t="n">
-        <v>4.18481394657181e-05</v>
+        <v>4.184899536322524e-05</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.050254504032376e-05</v>
+        <v>8.050294418867571e-05</v>
       </c>
       <c r="AF42" t="n">
-        <v>4.416589797067465e-05</v>
+        <v>4.416613809547203e-05</v>
       </c>
       <c r="AG42" t="n">
-        <v>4.349326387211588e-05</v>
+        <v>4.349369929743312e-05</v>
       </c>
       <c r="AH42" t="n">
-        <v>4.355940657641675e-05</v>
+        <v>4.35602451746068e-05</v>
       </c>
       <c r="AI42" t="n">
-        <v>3.030706764711977e-05</v>
+        <v>3.030769863990868e-05</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3.857704497861735e-05</v>
+        <v>3.857775137008723e-05</v>
       </c>
       <c r="AK42" t="n">
-        <v>4.985557831318857e-05</v>
+        <v>4.985655745556118e-05</v>
       </c>
       <c r="AL42" t="n">
-        <v>5.736594411217052e-05</v>
+        <v>5.736681747884329e-05</v>
       </c>
       <c r="AM42" t="n">
-        <v>7.7168959832674e-05</v>
+        <v>7.716952798856227e-05</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.140293805608637e-05</v>
+        <v>5.140385142547523e-05</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.000199863817483237</v>
+        <v>0.0001998651955803005</v>
       </c>
       <c r="AP42" t="n">
-        <v>5.179242687333202e-05</v>
+        <v>5.179259469070651e-05</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.837052191827891e-05</v>
+        <v>2.837098237423414e-05</v>
       </c>
       <c r="AR42" t="n">
-        <v>9.478464154319211e-05</v>
+        <v>9.478502957192234e-05</v>
       </c>
       <c r="AS42" t="n">
-        <v>4.868936578716468e-05</v>
+        <v>4.868983160593081e-05</v>
       </c>
       <c r="AT42" t="n">
-        <v>7.542990012991773e-05</v>
+        <v>7.543051778114537e-05</v>
       </c>
       <c r="AU42" t="n">
-        <v>5.872181497353811e-05</v>
+        <v>5.872202757121697e-05</v>
       </c>
       <c r="AV42" t="n">
-        <v>4.467665823623136e-05</v>
+        <v>4.467736976489159e-05</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.842347213472499e-05</v>
+        <v>4.842411796488216e-05</v>
       </c>
       <c r="AX42" t="n">
-        <v>7.883397266925281e-05</v>
+        <v>7.88344160884804e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0001040497643269943</v>
+        <v>0.0001040497852246257</v>
       </c>
       <c r="B43" t="n">
-        <v>9.305179559569501e-05</v>
+        <v>9.305216652754833e-05</v>
       </c>
       <c r="C43" t="n">
         <v>6.124018999417766e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>7.664535592195834e-05</v>
+        <v>7.664522018949329e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001307922269180051</v>
+        <v>0.0001307924163222255</v>
       </c>
       <c r="F43" t="n">
-        <v>9.813424797634307e-05</v>
+        <v>9.813428650861632e-05</v>
       </c>
       <c r="G43" t="n">
         <v>8.523212734404946e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001028317181925638</v>
+        <v>0.0001028317253520842</v>
       </c>
       <c r="I43" t="n">
         <v>0.0001084288111070338</v>
       </c>
       <c r="J43" t="n">
-        <v>5.869403170166264e-05</v>
+        <v>5.869441629872649e-05</v>
       </c>
       <c r="K43" t="n">
-        <v>8.371482036925365e-05</v>
+        <v>8.371470723799177e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>7.992317984064162e-05</v>
+        <v>7.992330529879009e-05</v>
       </c>
       <c r="M43" t="n">
-        <v>8.419484806080417e-05</v>
+        <v>8.419445358585291e-05</v>
       </c>
       <c r="N43" t="n">
         <v>8.893331110222379e-05</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0001294803495685551</v>
+        <v>0.0001294802036509755</v>
       </c>
       <c r="P43" t="n">
         <v>0.0001090199059649637</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.588361540985103e-05</v>
+        <v>9.588330384580998e-05</v>
       </c>
       <c r="R43" t="n">
-        <v>8.050707559662426e-05</v>
+        <v>8.050745057178261e-05</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0001289325276645848</v>
+        <v>0.0001269999185956548</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0001214067024141806</v>
+        <v>0.0001214068577009884</v>
       </c>
       <c r="U43" t="n">
-        <v>8.847384312481754e-05</v>
+        <v>8.847397646787237e-05</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0001035320472678826</v>
+        <v>0.0001035321128714178</v>
       </c>
       <c r="W43" t="n">
-        <v>7.289446228852996e-05</v>
+        <v>7.478269638525579e-05</v>
       </c>
       <c r="X43" t="n">
         <v>7.508897438134552e-05</v>
@@ -6994,28 +6994,28 @@
         <v>9.056036985846113e-05</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.480222784437995e-05</v>
+        <v>8.480296327767082e-05</v>
       </c>
       <c r="AA43" t="n">
         <v>4.745972567959988e-05</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.167293083193847e-05</v>
+        <v>6.167290774481923e-05</v>
       </c>
       <c r="AC43" t="n">
-        <v>6.897325170679708e-05</v>
+        <v>6.897282735931797e-05</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0001114211076262842</v>
+        <v>0.0001114212071954928</v>
       </c>
       <c r="AE43" t="n">
         <v>0.0001393009968425076</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.359283898660855e-05</v>
+        <v>7.359251742508769e-05</v>
       </c>
       <c r="AG43" t="n">
-        <v>7.318642683457467e-05</v>
+        <v>7.31865721114296e-05</v>
       </c>
       <c r="AH43" t="n">
         <v>5.632898115086384e-05</v>
@@ -7024,31 +7024,31 @@
         <v>9.830784052070385e-05</v>
       </c>
       <c r="AJ43" t="n">
-        <v>5.838246340338221e-05</v>
+        <v>5.838255782673486e-05</v>
       </c>
       <c r="AK43" t="n">
-        <v>6.058302458267362e-05</v>
+        <v>6.058284343176191e-05</v>
       </c>
       <c r="AL43" t="n">
-        <v>6.834779405100114e-05</v>
+        <v>6.834761239443235e-05</v>
       </c>
       <c r="AM43" t="n">
-        <v>7.434686493763749e-05</v>
+        <v>7.434661424915697e-05</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.0001012543190694511</v>
+        <v>0.0001012542063893359</v>
       </c>
       <c r="AO43" t="n">
-        <v>5.179242687333202e-05</v>
+        <v>5.179259469070651e-05</v>
       </c>
       <c r="AP43" t="n">
         <v>0.0002555424420359414</v>
       </c>
       <c r="AQ43" t="n">
-        <v>4.118884733477906e-05</v>
+        <v>4.11887702333932e-05</v>
       </c>
       <c r="AR43" t="n">
-        <v>7.801072580810335e-05</v>
+        <v>7.801071136357973e-05</v>
       </c>
       <c r="AS43" t="n">
         <v>5.28689628825975e-05</v>
@@ -7057,7 +7057,7 @@
         <v>0.0001408669310169404</v>
       </c>
       <c r="AU43" t="n">
-        <v>7.117948872524214e-05</v>
+        <v>7.117913292218113e-05</v>
       </c>
       <c r="AV43" t="n">
         <v>7.633644251907071e-05</v>
@@ -7071,377 +7071,377 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0001304142860344993</v>
+        <v>0.000130413773448269</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0001035903958563536</v>
+        <v>0.0001035899347802656</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001680635478964973</v>
+        <v>0.0001680632353161949</v>
       </c>
       <c r="D44" t="n">
-        <v>7.558948356251726e-05</v>
+        <v>7.558894620536517e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0001173044434052195</v>
+        <v>0.0001173037570903214</v>
       </c>
       <c r="F44" t="n">
-        <v>7.999286911858192e-05</v>
+        <v>7.99927416814887e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0001589783377037601</v>
+        <v>0.0001589777068575231</v>
       </c>
       <c r="H44" t="n">
-        <v>8.48871833852982e-05</v>
+        <v>8.488742961495714e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001110792103822095</v>
+        <v>0.0001110792803627604</v>
       </c>
       <c r="J44" t="n">
-        <v>5.137246056390372e-05</v>
+        <v>5.137251466007022e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>9.085092523829634e-05</v>
+        <v>9.085125044730222e-05</v>
       </c>
       <c r="L44" t="n">
-        <v>8.324137504001408e-05</v>
+        <v>8.324156969618346e-05</v>
       </c>
       <c r="M44" t="n">
-        <v>7.184826179878649e-05</v>
+        <v>7.184829905550767e-05</v>
       </c>
       <c r="N44" t="n">
-        <v>7.349888972146479e-05</v>
+        <v>7.349884073448068e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0001074900281025741</v>
+        <v>0.0001074900655591028</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0001088218498058853</v>
+        <v>0.0001088216659614924</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.697500462350552e-05</v>
+        <v>9.697539205756137e-05</v>
       </c>
       <c r="R44" t="n">
-        <v>6.307612938748012e-05</v>
+        <v>6.307564342985826e-05</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0001065440897494877</v>
+        <v>0.0001052893679556993</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0001379299955547011</v>
+        <v>0.0001379301380388012</v>
       </c>
       <c r="U44" t="n">
-        <v>8.116652927143789e-05</v>
+        <v>8.11662405350771e-05</v>
       </c>
       <c r="V44" t="n">
-        <v>9.451165278106646e-05</v>
+        <v>9.451084667219352e-05</v>
       </c>
       <c r="W44" t="n">
-        <v>3.416695770304211e-05</v>
+        <v>3.663297608514186e-05</v>
       </c>
       <c r="X44" t="n">
-        <v>6.374086329464075e-05</v>
+        <v>6.374056194252643e-05</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.511616532782977e-05</v>
+        <v>8.511613706290482e-05</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.472138611933097e-05</v>
+        <v>6.472080546820819e-05</v>
       </c>
       <c r="AA44" t="n">
-        <v>3.677488509219741e-05</v>
+        <v>3.677469391615545e-05</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.45877199857258e-05</v>
+        <v>5.458790659777776e-05</v>
       </c>
       <c r="AC44" t="n">
-        <v>5.940882459797418e-05</v>
+        <v>5.94086454716425e-05</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0001055295998838499</v>
+        <v>0.0001055298195665946</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0001105971119679332</v>
+        <v>0.0001105970889486559</v>
       </c>
       <c r="AF44" t="n">
-        <v>4.867832728174094e-05</v>
+        <v>4.867840807572706e-05</v>
       </c>
       <c r="AG44" t="n">
-        <v>5.53206517666239e-05</v>
+        <v>5.532015310418135e-05</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.318082239571934e-05</v>
+        <v>7.318088252473047e-05</v>
       </c>
       <c r="AI44" t="n">
-        <v>6.470606269137968e-05</v>
+        <v>6.470575444231011e-05</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2.976151581193319e-05</v>
+        <v>2.976200137188803e-05</v>
       </c>
       <c r="AK44" t="n">
-        <v>3.182657240539104e-05</v>
+        <v>3.182675279977651e-05</v>
       </c>
       <c r="AL44" t="n">
-        <v>3.165934726639313e-05</v>
+        <v>3.165924765843268e-05</v>
       </c>
       <c r="AM44" t="n">
-        <v>7.263547184526815e-05</v>
+        <v>7.263584851649764e-05</v>
       </c>
       <c r="AN44" t="n">
-        <v>9.245244916937639e-05</v>
+        <v>9.245280135571662e-05</v>
       </c>
       <c r="AO44" t="n">
-        <v>2.837052191827891e-05</v>
+        <v>2.837098237423414e-05</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.118884733477906e-05</v>
+        <v>4.11887702333932e-05</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.0003388713295673696</v>
+        <v>0.0003388709981466274</v>
       </c>
       <c r="AR44" t="n">
-        <v>4.043280554277941e-05</v>
+        <v>4.043248270091186e-05</v>
       </c>
       <c r="AS44" t="n">
-        <v>9.318080687135824e-06</v>
+        <v>9.318139046252026e-06</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.0001241186576597578</v>
+        <v>0.0001241186196136282</v>
       </c>
       <c r="AU44" t="n">
-        <v>5.866537566508301e-05</v>
+        <v>5.866507967195099e-05</v>
       </c>
       <c r="AV44" t="n">
-        <v>7.398579510850725e-05</v>
+        <v>7.398586700586926e-05</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.0001830186014832248</v>
+        <v>0.0001830185811400779</v>
       </c>
       <c r="AX44" t="n">
-        <v>7.509169115585019e-05</v>
+        <v>7.509107624328759e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.611479036557757e-05</v>
+        <v>8.611424295164934e-05</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000102828171044764</v>
+        <v>0.0001028284454555273</v>
       </c>
       <c r="C45" t="n">
-        <v>7.985385474979008e-05</v>
+        <v>7.985371155597325e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001253144691749635</v>
+        <v>0.0001253140298149742</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0001354343825491795</v>
+        <v>0.0001354345174149887</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0001424865589953257</v>
+        <v>0.0001424864697793515</v>
       </c>
       <c r="G45" t="n">
-        <v>7.934634793222426e-05</v>
+        <v>7.93461045979732e-05</v>
       </c>
       <c r="H45" t="n">
-        <v>4.888300818232842e-05</v>
+        <v>4.888336546093141e-05</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0001163996501166019</v>
+        <v>0.0001163997747138827</v>
       </c>
       <c r="J45" t="n">
-        <v>9.183119668522317e-05</v>
+        <v>9.183159965697297e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0001112264477867602</v>
+        <v>0.0001112265891330483</v>
       </c>
       <c r="L45" t="n">
-        <v>0.000108313735341694</v>
+        <v>0.00010831418704801</v>
       </c>
       <c r="M45" t="n">
-        <v>7.294104106131772e-05</v>
+        <v>7.294120054106664e-05</v>
       </c>
       <c r="N45" t="n">
-        <v>6.355764911971503e-05</v>
+        <v>6.355767379639508e-05</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0001483666284743243</v>
+        <v>0.0001483666055982972</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0001520970758558401</v>
+        <v>0.0001520969264497841</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0001239951396628793</v>
+        <v>0.0001239951661963669</v>
       </c>
       <c r="R45" t="n">
-        <v>7.446781504298333e-05</v>
+        <v>7.44695741875656e-05</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0001354214535150186</v>
+        <v>0.0001431261106450199</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0001292079163624134</v>
+        <v>0.0001292074118894108</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0001024679313023177</v>
+        <v>0.0001024667497201717</v>
       </c>
       <c r="V45" t="n">
-        <v>9.039290234840494e-05</v>
+        <v>9.039319057253972e-05</v>
       </c>
       <c r="W45" t="n">
-        <v>6.713807863344362e-05</v>
+        <v>6.439548199388993e-05</v>
       </c>
       <c r="X45" t="n">
-        <v>0.000121872373100549</v>
+        <v>0.000121872294820445</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.613486266297174e-05</v>
+        <v>8.613484729406958e-05</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0001486172812920691</v>
+        <v>0.0001486174196366374</v>
       </c>
       <c r="AA45" t="n">
-        <v>5.607119735176168e-05</v>
+        <v>5.607150914780084e-05</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0001786820420004375</v>
+        <v>0.000178683121482293</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0001118299728505339</v>
+        <v>0.0001118310275924907</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.0001763940942689477</v>
+        <v>0.000176394191306512</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.000210558286065044</v>
+        <v>0.0002105579461333717</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.0002954081556170682</v>
+        <v>0.0002954071850418362</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0001777329721995021</v>
+        <v>0.0001777337341203665</v>
       </c>
       <c r="AH45" t="n">
-        <v>8.164244427764901e-05</v>
+        <v>8.164248390790653e-05</v>
       </c>
       <c r="AI45" t="n">
-        <v>6.326367791337803e-05</v>
+        <v>6.32637766095191e-05</v>
       </c>
       <c r="AJ45" t="n">
-        <v>4.755975744532332e-05</v>
+        <v>4.755948649945292e-05</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.0001324146545833418</v>
+        <v>0.0001324147879699155</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.0001225706225537506</v>
+        <v>0.0001225706799221767</v>
       </c>
       <c r="AM45" t="n">
-        <v>4.208357259118935e-05</v>
+        <v>4.208379323855212e-05</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.0001216073184303673</v>
+        <v>0.0001216081859765331</v>
       </c>
       <c r="AO45" t="n">
-        <v>9.478464154319211e-05</v>
+        <v>9.478502957192234e-05</v>
       </c>
       <c r="AP45" t="n">
-        <v>7.801072580810335e-05</v>
+        <v>7.801071136357973e-05</v>
       </c>
       <c r="AQ45" t="n">
-        <v>4.043280554277941e-05</v>
+        <v>4.043248270091186e-05</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.0006054971581189803</v>
+        <v>0.0006054962497873464</v>
       </c>
       <c r="AS45" t="n">
-        <v>7.536804373826033e-05</v>
+        <v>7.536814766445807e-05</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.0002076999697257045</v>
+        <v>0.0002076997739808997</v>
       </c>
       <c r="AU45" t="n">
-        <v>8.184991446038407e-05</v>
+        <v>8.184908633964063e-05</v>
       </c>
       <c r="AV45" t="n">
-        <v>9.528591947022735e-05</v>
+        <v>9.528595367939665e-05</v>
       </c>
       <c r="AW45" t="n">
-        <v>4.009343832738787e-05</v>
+        <v>4.009390202114655e-05</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.000192732332481933</v>
+        <v>0.0001927318930112657</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.877173096551913e-05</v>
+        <v>7.877121649064036e-05</v>
       </c>
       <c r="B46" t="n">
-        <v>6.466860499986641e-05</v>
+        <v>6.466869974670891e-05</v>
       </c>
       <c r="C46" t="n">
         <v>4.371156954308458e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>8.825983674973398e-05</v>
+        <v>8.825980988125732e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0001166658956974503</v>
+        <v>0.0001166659512076297</v>
       </c>
       <c r="F46" t="n">
-        <v>8.19290801378091e-05</v>
+        <v>8.192929406124967e-05</v>
       </c>
       <c r="G46" t="n">
         <v>5.187385102085073e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>6.967412681554457e-05</v>
+        <v>6.967400577452512e-05</v>
       </c>
       <c r="I46" t="n">
         <v>9.77571516054535e-05</v>
       </c>
       <c r="J46" t="n">
-        <v>6.546005333398539e-05</v>
+        <v>6.546017982912846e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>5.082243034137763e-05</v>
+        <v>5.082230375485892e-05</v>
       </c>
       <c r="L46" t="n">
-        <v>6.346936033190675e-05</v>
+        <v>6.346932164172756e-05</v>
       </c>
       <c r="M46" t="n">
-        <v>7.71568837583361e-05</v>
+        <v>7.715673626322304e-05</v>
       </c>
       <c r="N46" t="n">
         <v>2.644953579280328e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0001223509512557141</v>
+        <v>0.0001223511721779307</v>
       </c>
       <c r="P46" t="n">
         <v>0.0001102620914406623</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.095669638486416e-05</v>
+        <v>8.095642307063311e-05</v>
       </c>
       <c r="R46" t="n">
-        <v>5.096764285523169e-05</v>
+        <v>5.096779706505012e-05</v>
       </c>
       <c r="S46" t="n">
-        <v>9.775052996528043e-05</v>
+        <v>9.847519528826711e-05</v>
       </c>
       <c r="T46" t="n">
-        <v>6.296118303744379e-05</v>
+        <v>6.296117139665479e-05</v>
       </c>
       <c r="U46" t="n">
-        <v>6.527418884096427e-05</v>
+        <v>6.527441437688255e-05</v>
       </c>
       <c r="V46" t="n">
-        <v>7.687357788457641e-05</v>
+        <v>7.687376435377688e-05</v>
       </c>
       <c r="W46" t="n">
-        <v>5.285626363863438e-05</v>
+        <v>5.300915807401805e-05</v>
       </c>
       <c r="X46" t="n">
         <v>7.070177553396803e-05</v>
@@ -7450,28 +7450,28 @@
         <v>6.63505026938242e-05</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.024042075202146e-05</v>
+        <v>8.024087709890881e-05</v>
       </c>
       <c r="AA46" t="n">
         <v>5.032874792134086e-05</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.303924144839929e-05</v>
+        <v>8.30399709366861e-05</v>
       </c>
       <c r="AC46" t="n">
-        <v>3.898307837132308e-05</v>
+        <v>3.898264041336999e-05</v>
       </c>
       <c r="AD46" t="n">
-        <v>5.467788081865357e-05</v>
+        <v>5.467798253998e-05</v>
       </c>
       <c r="AE46" t="n">
         <v>0.0001115674343118107</v>
       </c>
       <c r="AF46" t="n">
-        <v>5.033348740794484e-05</v>
+        <v>5.033365471911693e-05</v>
       </c>
       <c r="AG46" t="n">
-        <v>9.042356698639056e-05</v>
+        <v>9.042382071060298e-05</v>
       </c>
       <c r="AH46" t="n">
         <v>4.887281202387002e-05</v>
@@ -7480,31 +7480,31 @@
         <v>6.464405867322361e-05</v>
       </c>
       <c r="AJ46" t="n">
-        <v>5.820471992613517e-05</v>
+        <v>5.820485032578354e-05</v>
       </c>
       <c r="AK46" t="n">
-        <v>5.367426247623185e-05</v>
+        <v>5.36742722355014e-05</v>
       </c>
       <c r="AL46" t="n">
-        <v>6.885060000600683e-05</v>
+        <v>6.885137739771811e-05</v>
       </c>
       <c r="AM46" t="n">
-        <v>5.60740416099527e-05</v>
+        <v>5.607360079772548e-05</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.659370920725772e-05</v>
+        <v>7.659403272863048e-05</v>
       </c>
       <c r="AO46" t="n">
-        <v>4.868936578716468e-05</v>
+        <v>4.868983160593081e-05</v>
       </c>
       <c r="AP46" t="n">
         <v>5.28689628825975e-05</v>
       </c>
       <c r="AQ46" t="n">
-        <v>9.318080687135824e-06</v>
+        <v>9.318139046252026e-06</v>
       </c>
       <c r="AR46" t="n">
-        <v>7.536804373826033e-05</v>
+        <v>7.536814766445807e-05</v>
       </c>
       <c r="AS46" t="n">
         <v>0.0004350436352421095</v>
@@ -7513,7 +7513,7 @@
         <v>0.0001052209706615641</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.751264081405319e-05</v>
+        <v>6.751291875786081e-05</v>
       </c>
       <c r="AV46" t="n">
         <v>9.86729553112514e-05</v>
@@ -7527,73 +7527,73 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.00026911961358976</v>
+        <v>0.0002691194375528825</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0001592912407629018</v>
+        <v>0.0001592918061679657</v>
       </c>
       <c r="C47" t="n">
         <v>0.0001347751930245655</v>
       </c>
       <c r="D47" t="n">
-        <v>0.000136336813117006</v>
+        <v>0.0001363367485484789</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0002963838625029673</v>
+        <v>0.0002963837280717414</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0002126373063934014</v>
+        <v>0.0002126372074914789</v>
       </c>
       <c r="G47" t="n">
         <v>0.0001892320233268829</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001643643727981229</v>
+        <v>0.0001643644997087165</v>
       </c>
       <c r="I47" t="n">
         <v>0.0002049525071511149</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0001413530112308176</v>
+        <v>0.0001413532482256613</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0002387640887582363</v>
+        <v>0.0002387642063879568</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002088010589709833</v>
+        <v>0.0002088014922696699</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0001427875145100849</v>
+        <v>0.0001427878534842883</v>
       </c>
       <c r="N47" t="n">
         <v>0.0001348810180824377</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0002876933419072809</v>
+        <v>0.0002876925248156381</v>
       </c>
       <c r="P47" t="n">
         <v>0.0002110873741743954</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0002574960786163576</v>
+        <v>0.0002574956186181835</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0001512366984037211</v>
+        <v>0.000151236848349131</v>
       </c>
       <c r="S47" t="n">
-        <v>0.000265834659475129</v>
+        <v>0.0002650820418873019</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0002735121667750866</v>
+        <v>0.0002735120750046791</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0002003742514086933</v>
+        <v>0.0002003736943795298</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0001381522144138106</v>
+        <v>0.0001381529517672048</v>
       </c>
       <c r="W47" t="n">
-        <v>9.206618865014887e-05</v>
+        <v>8.902916368508986e-05</v>
       </c>
       <c r="X47" t="n">
         <v>0.0001786523978340813</v>
@@ -7602,28 +7602,28 @@
         <v>0.0001515880068343897</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0001688086563576149</v>
+        <v>0.0001688091451239511</v>
       </c>
       <c r="AA47" t="n">
         <v>8.482747430482364e-05</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0001737662605024429</v>
+        <v>0.0001737670748715149</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0002468846789961689</v>
+        <v>0.0002468844796014814</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.000347659702995452</v>
+        <v>0.0003476599586903561</v>
       </c>
       <c r="AE47" t="n">
         <v>0.0003233659246631083</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.0001589814681796163</v>
+        <v>0.0001589813926778115</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0002118761988246494</v>
+        <v>0.0002118754998527255</v>
       </c>
       <c r="AH47" t="n">
         <v>0.0001179434253146068</v>
@@ -7632,31 +7632,31 @@
         <v>0.0001402464160750962</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6.260002132644322e-05</v>
+        <v>6.260034289094845e-05</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.000135935871150074</v>
+        <v>0.0001359355948931465</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.0001625424636623354</v>
+        <v>0.0001625419811246428</v>
       </c>
       <c r="AM47" t="n">
-        <v>8.765029354416267e-05</v>
+        <v>8.765045238589398e-05</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.0002730986181588565</v>
+        <v>0.0002730983327120043</v>
       </c>
       <c r="AO47" t="n">
-        <v>7.542990012991773e-05</v>
+        <v>7.543051778114537e-05</v>
       </c>
       <c r="AP47" t="n">
         <v>0.0001408669310169404</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.0001241186576597578</v>
+        <v>0.0001241186196136282</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.0002076999697257045</v>
+        <v>0.0002076997739808997</v>
       </c>
       <c r="AS47" t="n">
         <v>0.0001052209706615641</v>
@@ -7665,7 +7665,7 @@
         <v>0.0005525617587666253</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.0001627097095119667</v>
+        <v>0.0001627089630553615</v>
       </c>
       <c r="AV47" t="n">
         <v>0.0001488230967187217</v>
@@ -7679,225 +7679,225 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.000163248199810673</v>
+        <v>0.0001632482374421018</v>
       </c>
       <c r="B48" t="n">
-        <v>8.641196085141907e-05</v>
+        <v>8.64119652063323e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6.871208388160144e-05</v>
+        <v>6.871176099837254e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>5.979359895232318e-05</v>
+        <v>5.979262219079165e-05</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001076132541448226</v>
+        <v>0.0001076127082951061</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0001016580919792854</v>
+        <v>0.000101657477950317</v>
       </c>
       <c r="G48" t="n">
-        <v>8.45346490859531e-05</v>
+        <v>8.453358421039553e-05</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001030751976340964</v>
+        <v>0.0001030753109048607</v>
       </c>
       <c r="I48" t="n">
-        <v>9.631113213857967e-05</v>
+        <v>9.631103667280649e-05</v>
       </c>
       <c r="J48" t="n">
-        <v>7.048624664695192e-05</v>
+        <v>7.04861781304499e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000107141646691689</v>
+        <v>0.0001071414880469364</v>
       </c>
       <c r="L48" t="n">
-        <v>8.171113779413101e-05</v>
+        <v>8.171087142677289e-05</v>
       </c>
       <c r="M48" t="n">
-        <v>8.251397145029778e-05</v>
+        <v>8.251373916353928e-05</v>
       </c>
       <c r="N48" t="n">
-        <v>5.957483315017904e-05</v>
+        <v>5.95747292101187e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0001297108169044812</v>
+        <v>0.0001297100280997088</v>
       </c>
       <c r="P48" t="n">
-        <v>9.085332386588755e-05</v>
+        <v>9.085261431096576e-05</v>
       </c>
       <c r="Q48" t="n">
-        <v>9.529275065813534e-05</v>
+        <v>9.529230701579375e-05</v>
       </c>
       <c r="R48" t="n">
-        <v>6.087503075554948e-05</v>
+        <v>6.087430512421076e-05</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0001103413706448101</v>
+        <v>0.0001079008989909443</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0001075615664195151</v>
+        <v>0.0001075606663253776</v>
       </c>
       <c r="U48" t="n">
-        <v>8.738056411214086e-05</v>
+        <v>8.738008208874027e-05</v>
       </c>
       <c r="V48" t="n">
-        <v>9.625882061157355e-05</v>
+        <v>9.625850645972144e-05</v>
       </c>
       <c r="W48" t="n">
-        <v>6.284260963276977e-05</v>
+        <v>5.810377169210491e-05</v>
       </c>
       <c r="X48" t="n">
-        <v>8.045298029334949e-05</v>
+        <v>8.045254936502234e-05</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.332921735825055e-05</v>
+        <v>8.332831995537229e-05</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.813281535107024e-05</v>
+        <v>9.813263102892455e-05</v>
       </c>
       <c r="AA48" t="n">
-        <v>5.183126521201117e-05</v>
+        <v>5.183100555942736e-05</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.575044376290568e-05</v>
+        <v>9.575021536651832e-05</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.0001032566771332749</v>
+        <v>0.0001032556483210425</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.0001329748796009301</v>
+        <v>0.0001329740249628389</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.000148635593972585</v>
+        <v>0.0001486352816997188</v>
       </c>
       <c r="AF48" t="n">
-        <v>5.64569802073639e-05</v>
+        <v>5.645665590013975e-05</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.613800220305541e-05</v>
+        <v>9.613693673629113e-05</v>
       </c>
       <c r="AH48" t="n">
-        <v>8.248209152198792e-05</v>
+        <v>8.248155428626172e-05</v>
       </c>
       <c r="AI48" t="n">
-        <v>7.393148769129923e-05</v>
+        <v>7.393109883394182e-05</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.53756201120966e-05</v>
+        <v>6.537529007943803e-05</v>
       </c>
       <c r="AK48" t="n">
-        <v>7.067928606678582e-05</v>
+        <v>7.067844381695799e-05</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.0001128255995215808</v>
+        <v>0.0001128253090144329</v>
       </c>
       <c r="AM48" t="n">
-        <v>5.863124724688686e-05</v>
+        <v>5.863127622752524e-05</v>
       </c>
       <c r="AN48" t="n">
-        <v>9.722569914950612e-05</v>
+        <v>9.722560482105686e-05</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.872181497353811e-05</v>
+        <v>5.872202757121697e-05</v>
       </c>
       <c r="AP48" t="n">
-        <v>7.117948872524214e-05</v>
+        <v>7.117913292218113e-05</v>
       </c>
       <c r="AQ48" t="n">
-        <v>5.866537566508301e-05</v>
+        <v>5.866507967195099e-05</v>
       </c>
       <c r="AR48" t="n">
-        <v>8.184991446038407e-05</v>
+        <v>8.184908633964063e-05</v>
       </c>
       <c r="AS48" t="n">
-        <v>6.751264081405319e-05</v>
+        <v>6.751291875786081e-05</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.0001627097095119667</v>
+        <v>0.0001627089630553615</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.0002223248283463541</v>
+        <v>0.000222323904631222</v>
       </c>
       <c r="AV48" t="n">
-        <v>8.728914108874013e-05</v>
+        <v>8.728880285840576e-05</v>
       </c>
       <c r="AW48" t="n">
-        <v>8.775417414361115e-05</v>
+        <v>8.775408271102314e-05</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.0001313546626770519</v>
+        <v>0.0001313536433199608</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0001360838047795791</v>
+        <v>0.0001360833429917101</v>
       </c>
       <c r="B49" t="n">
-        <v>9.418517980339939e-05</v>
+        <v>9.418555299982701e-05</v>
       </c>
       <c r="C49" t="n">
         <v>8.871396549480696e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>9.938954206858312e-05</v>
+        <v>9.938945953027892e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000121260311130311</v>
+        <v>0.0001212602291524336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.000111723594451001</v>
+        <v>0.0001117235928608964</v>
       </c>
       <c r="G49" t="n">
         <v>0.0001037915645346688</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0001014447906545045</v>
+        <v>0.0001014447777465255</v>
       </c>
       <c r="I49" t="n">
         <v>0.0001111770713627965</v>
       </c>
       <c r="J49" t="n">
-        <v>8.600453866812025e-05</v>
+        <v>8.60050154254831e-05</v>
       </c>
       <c r="K49" t="n">
-        <v>8.87208554055349e-05</v>
+        <v>8.872116692457675e-05</v>
       </c>
       <c r="L49" t="n">
-        <v>9.028062859990535e-05</v>
+        <v>9.028046006938969e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>9.683605011278944e-05</v>
+        <v>9.683588484414859e-05</v>
       </c>
       <c r="N49" t="n">
         <v>5.885747356943535e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0001367397158280618</v>
+        <v>0.0001367397487088916</v>
       </c>
       <c r="P49" t="n">
         <v>0.0001374125462369641</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0001016055359929345</v>
+        <v>0.0001016053742312295</v>
       </c>
       <c r="R49" t="n">
-        <v>6.396671969592229e-05</v>
+        <v>6.396610928074301e-05</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0001247987132409048</v>
+        <v>0.0001239655059053977</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0001259396453973794</v>
+        <v>0.0001259396211337855</v>
       </c>
       <c r="U49" t="n">
-        <v>8.463077898855791e-05</v>
+        <v>8.463031249774955e-05</v>
       </c>
       <c r="V49" t="n">
-        <v>9.442895689740876e-05</v>
+        <v>9.442926326034457e-05</v>
       </c>
       <c r="W49" t="n">
-        <v>6.697664203607046e-05</v>
+        <v>6.618537289240323e-05</v>
       </c>
       <c r="X49" t="n">
         <v>8.873504260510838e-05</v>
@@ -7906,28 +7906,28 @@
         <v>0.0001034490228690144</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0001027703154688018</v>
+        <v>0.0001027707073243878</v>
       </c>
       <c r="AA49" t="n">
         <v>6.380914753501746e-05</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.216358397871085e-05</v>
+        <v>9.216402168272607e-05</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.642434843334836e-05</v>
+        <v>9.64243255371802e-05</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0001391532003835134</v>
+        <v>0.0001391532012331024</v>
       </c>
       <c r="AE49" t="n">
         <v>0.0001781838910644806</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.790711247447237e-05</v>
+        <v>8.790706905487102e-05</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0001087899519842105</v>
+        <v>0.0001087898608683714</v>
       </c>
       <c r="AH49" t="n">
         <v>8.266835075423557e-05</v>
@@ -7936,31 +7936,31 @@
         <v>8.056377664129454e-05</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7.431783854489219e-05</v>
+        <v>7.431773987225133e-05</v>
       </c>
       <c r="AK49" t="n">
-        <v>8.1077741078545e-05</v>
+        <v>8.107776311181687e-05</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.0001074123870010525</v>
+        <v>0.0001074125670552177</v>
       </c>
       <c r="AM49" t="n">
-        <v>6.053939689303523e-05</v>
+        <v>6.053932172279127e-05</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.0001079810821401154</v>
+        <v>0.0001079810310599764</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.467665823623136e-05</v>
+        <v>4.467736976489159e-05</v>
       </c>
       <c r="AP49" t="n">
         <v>7.633644251907071e-05</v>
       </c>
       <c r="AQ49" t="n">
-        <v>7.398579510850725e-05</v>
+        <v>7.398586700586926e-05</v>
       </c>
       <c r="AR49" t="n">
-        <v>9.528591947022735e-05</v>
+        <v>9.528595367939665e-05</v>
       </c>
       <c r="AS49" t="n">
         <v>9.86729553112514e-05</v>
@@ -7969,7 +7969,7 @@
         <v>0.0001488230967187217</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.728914108874013e-05</v>
+        <v>8.728880285840576e-05</v>
       </c>
       <c r="AV49" t="n">
         <v>0.0001856601647094318</v>
@@ -7983,73 +7983,73 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0001760573566101757</v>
+        <v>0.000176057399160854</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0001270923089548484</v>
+        <v>0.000127092280350926</v>
       </c>
       <c r="C50" t="n">
         <v>0.0001253490766946442</v>
       </c>
       <c r="D50" t="n">
-        <v>8.369741166628799e-05</v>
+        <v>8.369730894317369e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001450325105779337</v>
+        <v>0.0001450322500677213</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0001149587500850592</v>
+        <v>0.0001149587516043699</v>
       </c>
       <c r="G50" t="n">
         <v>0.0001063806103266966</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0001221650445209003</v>
+        <v>0.0001221649188704984</v>
       </c>
       <c r="I50" t="n">
         <v>0.0001322535140121634</v>
       </c>
       <c r="J50" t="n">
-        <v>9.796722523820239e-05</v>
+        <v>9.796763327374344e-05</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0001167804440569588</v>
+        <v>0.0001167806280841721</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0001015496033519742</v>
+        <v>0.0001015493583139901</v>
       </c>
       <c r="M50" t="n">
-        <v>9.671214696897045e-05</v>
+        <v>9.671251907432968e-05</v>
       </c>
       <c r="N50" t="n">
         <v>8.683265900645326e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0001301194515682451</v>
+        <v>0.000130119112320719</v>
       </c>
       <c r="P50" t="n">
         <v>0.0001329998241062771</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0001232161361110771</v>
+        <v>0.0001232157407998181</v>
       </c>
       <c r="R50" t="n">
-        <v>7.248827910199438e-05</v>
+        <v>7.24879783487887e-05</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0001255337778567184</v>
+        <v>0.0001243003381211657</v>
       </c>
       <c r="T50" t="n">
-        <v>0.00015955317478243</v>
+        <v>0.0001595532474971334</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0001102946743221016</v>
+        <v>0.0001102941709724454</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0001036201013784411</v>
+        <v>0.0001036203992526934</v>
       </c>
       <c r="W50" t="n">
-        <v>6.076772956603577e-05</v>
+        <v>6.363516152567894e-05</v>
       </c>
       <c r="X50" t="n">
         <v>9.460136216003224e-05</v>
@@ -8058,28 +8058,28 @@
         <v>0.0001223785366817489</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.222000312026385e-05</v>
+        <v>8.222010870733744e-05</v>
       </c>
       <c r="AA50" t="n">
         <v>6.452075355292752e-05</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.636118106733881e-05</v>
+        <v>7.636156243633905e-05</v>
       </c>
       <c r="AC50" t="n">
-        <v>6.654776171501428e-05</v>
+        <v>6.654761037497112e-05</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0001518879839109704</v>
+        <v>0.0001518880860039925</v>
       </c>
       <c r="AE50" t="n">
         <v>0.0001439401430644836</v>
       </c>
       <c r="AF50" t="n">
-        <v>4.522395942767463e-05</v>
+        <v>4.522390007406323e-05</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.341297056565708e-05</v>
+        <v>8.341250173985495e-05</v>
       </c>
       <c r="AH50" t="n">
         <v>9.909559403065257e-05</v>
@@ -8088,31 +8088,31 @@
         <v>6.415986814695484e-05</v>
       </c>
       <c r="AJ50" t="n">
-        <v>6.231631838689377e-05</v>
+        <v>6.231699266097523e-05</v>
       </c>
       <c r="AK50" t="n">
-        <v>9.044729631797418e-05</v>
+        <v>9.044779881264319e-05</v>
       </c>
       <c r="AL50" t="n">
-        <v>9.672607078758411e-05</v>
+        <v>9.672607405638145e-05</v>
       </c>
       <c r="AM50" t="n">
-        <v>8.374726666091168e-05</v>
+        <v>8.374700274216076e-05</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.000117007799682699</v>
+        <v>0.0001170074671254119</v>
       </c>
       <c r="AO50" t="n">
-        <v>4.842347213472499e-05</v>
+        <v>4.842411796488216e-05</v>
       </c>
       <c r="AP50" t="n">
         <v>8.464149705302056e-05</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.0001830186014832248</v>
+        <v>0.0001830185811400779</v>
       </c>
       <c r="AR50" t="n">
-        <v>4.009343832738787e-05</v>
+        <v>4.009390202114655e-05</v>
       </c>
       <c r="AS50" t="n">
         <v>4.961025586121267e-05</v>
@@ -8121,7 +8121,7 @@
         <v>0.0001704585862218851</v>
       </c>
       <c r="AU50" t="n">
-        <v>8.775417414361115e-05</v>
+        <v>8.775408271102314e-05</v>
       </c>
       <c r="AV50" t="n">
         <v>8.377802545382944e-05</v>
@@ -8135,73 +8135,73 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.000116950198419348</v>
+        <v>0.0001169499577509378</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0001065184964215496</v>
+        <v>0.0001065190693543742</v>
       </c>
       <c r="C51" t="n">
         <v>7.596207658534534e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>7.090775939994502e-05</v>
+        <v>7.09076750952639e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0001462779490057343</v>
+        <v>0.0001462778941016184</v>
       </c>
       <c r="F51" t="n">
-        <v>0.000129080142847122</v>
+        <v>0.0001290799601239788</v>
       </c>
       <c r="G51" t="n">
         <v>0.0001163371798514748</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001284062233367183</v>
+        <v>0.000128406172329098</v>
       </c>
       <c r="I51" t="n">
         <v>0.0001221964828637771</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0001018221156761368</v>
+        <v>0.000101822083627713</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0001475117024962374</v>
+        <v>0.0001475119339092686</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0001105194886804665</v>
+        <v>0.0001105195285975326</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0001092692577786108</v>
+        <v>0.0001092691067081923</v>
       </c>
       <c r="N51" t="n">
         <v>6.615321432548249e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0001494588515913202</v>
+        <v>0.0001494587452725214</v>
       </c>
       <c r="P51" t="n">
         <v>0.0001476539158194621</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.000125063574159317</v>
+        <v>0.0001250638851680913</v>
       </c>
       <c r="R51" t="n">
-        <v>8.317306101748327e-05</v>
+        <v>8.31728285780924e-05</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0001516799039419034</v>
+        <v>0.0001508909879446982</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0001605517420172161</v>
+        <v>0.0001605517541498456</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0001090580860966352</v>
+        <v>0.0001090579561686117</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0001074343236822968</v>
+        <v>0.000107434412925864</v>
       </c>
       <c r="W51" t="n">
-        <v>8.360950447722266e-05</v>
+        <v>7.992943534899504e-05</v>
       </c>
       <c r="X51" t="n">
         <v>0.0001338082972354941</v>
@@ -8210,28 +8210,28 @@
         <v>0.000107073473470096</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0001565629601971441</v>
+        <v>0.0001565639796032266</v>
       </c>
       <c r="AA51" t="n">
         <v>3.080458820032072e-05</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0001432760783199254</v>
+        <v>0.0001432768679343288</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.00013428742924563</v>
+        <v>0.0001342872995807053</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.0001795004789171401</v>
+        <v>0.000179500442485428</v>
       </c>
       <c r="AE51" t="n">
         <v>0.0002138732213044176</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0001256909564721628</v>
+        <v>0.0001256903924617522</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.0001761956869811627</v>
+        <v>0.0001761960484109418</v>
       </c>
       <c r="AH51" t="n">
         <v>9.842100191622098e-05</v>
@@ -8240,31 +8240,31 @@
         <v>7.996843654476197e-05</v>
       </c>
       <c r="AJ51" t="n">
-        <v>4.723633227832361e-05</v>
+        <v>4.723644834446377e-05</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.0001382723253792745</v>
+        <v>0.0001382723530164609</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.0001516639969661368</v>
+        <v>0.0001516638577882145</v>
       </c>
       <c r="AM51" t="n">
-        <v>6.761593245344693e-05</v>
+        <v>6.76161117235358e-05</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.0001212506833642961</v>
+        <v>0.0001212509257608918</v>
       </c>
       <c r="AO51" t="n">
-        <v>7.883397266925281e-05</v>
+        <v>7.88344160884804e-05</v>
       </c>
       <c r="AP51" t="n">
         <v>0.0001198625240659108</v>
       </c>
       <c r="AQ51" t="n">
-        <v>7.509169115585019e-05</v>
+        <v>7.509107624328759e-05</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.000192732332481933</v>
+        <v>0.0001927318930112657</v>
       </c>
       <c r="AS51" t="n">
         <v>0.0001008141636815846</v>
@@ -8273,7 +8273,7 @@
         <v>0.0002357765016580564</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.0001313546626770519</v>
+        <v>0.0001313536433199608</v>
       </c>
       <c r="AV51" t="n">
         <v>0.0001031838553116129</v>
